--- a/Process Results/Unified_IBNP_Split_USH.xlsx
+++ b/Process Results/Unified_IBNP_Split_USH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD38E5F6-0EC5-4D3A-8FDB-0BAB6CABAC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B2D9149-236F-4899-B870-BE422989DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion Factors" sheetId="1" r:id="rId1"/>
@@ -959,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -14006,7 +14006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:IZ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V86" sqref="V86:V88"/>
       <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>

--- a/Process Results/Unified_IBNP_Split_USH.xlsx
+++ b/Process Results/Unified_IBNP_Split_USH.xlsx
@@ -7067,20 +7067,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02537870013238603</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01513050801924537</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.01080604923989017</v>
+        <v>0.00122766166367628</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.06251086818023831</v>
+        <v>0.0500841663091221</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -7103,20 +7103,20 @@
         <v/>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.1637947848764083</v>
+        <v>0.05874490084912979</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.06134977795414882</v>
+        <v>0.04855630953183081</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.03908314581105127</v>
+        <v>0.04487973758724159</v>
       </c>
       <c r="S7" s="4">
         <f>+T7/T8</f>
         <v/>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.03908314581105127</v>
+        <v>0.04487973758724159</v>
       </c>
       <c r="U7" s="5">
         <f>T7</f>
@@ -7145,20 +7145,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02537870013238603</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01513050801924537</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01080604923989017</v>
+        <v>0.00122766166367628</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.423407460888813</v>
+        <v>0.4111813958013659</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -7182,20 +7182,20 @@
         <v/>
       </c>
       <c r="P8" s="5" t="n">
-        <v>0.636180538161628</v>
+        <v>0.5481851068118151</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>0.3629190538573253</v>
+        <v>0.4142326491145238</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0.3625740515071355</v>
+        <v>0.3270382509659588</v>
       </c>
       <c r="S8" s="4">
         <f>+T8/T9</f>
         <v/>
       </c>
       <c r="T8" s="5" t="n">
-        <v>0.3625740515071355</v>
+        <v>0.3270382509659588</v>
       </c>
       <c r="U8" s="5">
         <f>T8</f>
@@ -7224,20 +7224,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02537870013238603</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01616802856913649</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01744435781866961</v>
+        <v>0.5152987067114817</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5222368924671179</v>
+        <v>0.4693649930812432</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -7261,20 +7261,20 @@
         <v/>
       </c>
       <c r="P9" s="5" t="n">
-        <v>0.7674789973810909</v>
+        <v>0.5767902137613018</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>0.4270933248370357</v>
+        <v>0.486791083472226</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>0.4761579191157001</v>
+        <v>0.3840817552347064</v>
       </c>
       <c r="S9" s="4">
         <f>+T9/T10</f>
         <v/>
       </c>
       <c r="T9" s="5" t="n">
-        <v>0.4761579191157001</v>
+        <v>0.3840817552347064</v>
       </c>
       <c r="U9" s="5">
         <f>T9</f>
@@ -7303,20 +7303,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1268935006619302</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01853024053540642</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.05045126246008279</v>
+        <v>0.5154064973966691</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7070749120593184</v>
+        <v>0.5384844538589735</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -7340,20 +7340,20 @@
         <v/>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.7875748598421074</v>
+        <v>0.6718189256175415</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.6122596976575135</v>
+        <v>0.5635994248823745</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.7463703143225929</v>
+        <v>0.4332032392243514</v>
       </c>
       <c r="S10" s="4">
         <f>+T10/T11</f>
         <v/>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.7463703143225929</v>
+        <v>0.4332032392243514</v>
       </c>
       <c r="U10" s="5">
         <f>T10</f>
@@ -7382,20 +7382,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5605801484938434</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09712662033687247</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0867679403009551</v>
+        <v>0.5665647743441664</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7613543523896437</v>
+        <v>0.7175747476432084</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -7419,20 +7419,20 @@
         <v/>
       </c>
       <c r="P11" s="5" t="n">
-        <v>0.793033988558377</v>
+        <v>0.8466194640502636</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>0.6709800212172469</v>
+        <v>0.7080040161346411</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>0.8410363759762871</v>
+        <v>0.6300563807988548</v>
       </c>
       <c r="S11" s="4">
         <f>+T11/T12</f>
         <v/>
       </c>
       <c r="T11" s="5" t="n">
-        <v>0.8410363759762871</v>
+        <v>0.6300563807988548</v>
       </c>
       <c r="U11" s="5">
         <f>T11</f>
@@ -7461,20 +7461,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.001657804954917273</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1593632472858514</v>
+        <v>0.08326592925138984</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2289752679389855</v>
+        <v>0.5781850482238807</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.801802800124275</v>
+        <v>0.7859610120274475</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -7498,20 +7498,20 @@
         <v/>
       </c>
       <c r="P12" s="5" t="n">
-        <v>0.8830692380554561</v>
+        <v>0.8758067967621894</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>0.6966519777599519</v>
+        <v>0.7434059319012032</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>0.8519938627375352</v>
+        <v>0.7518690794168382</v>
       </c>
       <c r="S12" s="4">
         <f>+T12/T13</f>
         <v/>
       </c>
       <c r="T12" s="5" t="n">
-        <v>0.8519938627375352</v>
+        <v>0.7518690794168382</v>
       </c>
       <c r="U12" s="5">
         <f>T12</f>
@@ -7540,20 +7540,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.1749209798556289</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9388341962287637</v>
+        <v>0.9539972218003563</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6922325623718361</v>
+        <v>0.6293925196593533</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.923435727757307</v>
+        <v>0.7912121877281318</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -7577,20 +7577,20 @@
         <v/>
       </c>
       <c r="P13" s="5" t="n">
-        <v>0.8830692380554561</v>
+        <v>0.8758067967621894</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>0.9333617909766714</v>
+        <v>0.7455170270799746</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>0.9570044147085602</v>
+        <v>0.7642367380616842</v>
       </c>
       <c r="S13" s="4">
         <f>+T13/T14</f>
         <v/>
       </c>
       <c r="T13" s="5" t="n">
-        <v>0.9570044147085602</v>
+        <v>0.7642367380616842</v>
       </c>
       <c r="U13" s="5">
         <f>T13</f>
@@ -7619,20 +7619,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.1749209798556289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9469576020531129</v>
+        <v>0.9539972218003563</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7028254790854404</v>
+        <v>0.6294896297016846</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9983640722695176</v>
+        <v>0.8383211117276036</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -7656,20 +7656,20 @@
         <v/>
       </c>
       <c r="P14" s="5" t="n">
-        <v>0.9983611456154396</v>
+        <v>0.9039713403861767</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>0.9991272880503888</v>
+        <v>0.7552886358049344</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>0.9976049438179628</v>
+        <v>0.8708115473633534</v>
       </c>
       <c r="S14" s="4">
         <f>+T14/T15</f>
         <v/>
       </c>
       <c r="T14" s="5" t="n">
-        <v>0.9976049438179628</v>
+        <v>0.8708115473633534</v>
       </c>
       <c r="U14" s="5">
         <f>T14</f>
@@ -7698,20 +7698,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.1749209798556289</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9586999860171583</v>
+        <v>0.9539972218003563</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7081799372876301</v>
+        <v>0.6327609545624012</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9996177738705662</v>
+        <v>0.9256099961245983</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -7735,20 +7735,20 @@
         <v/>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1</v>
+        <v>0.9039713403861767</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>1</v>
+        <v>0.9371467260811638</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>0.9988541975229904</v>
+        <v>0.9364985152507255</v>
       </c>
       <c r="S15" s="4">
         <f>+T15/T16</f>
         <v/>
       </c>
       <c r="T15" s="5" t="n">
-        <v>0.9988541975229904</v>
+        <v>0.9364985152507255</v>
       </c>
       <c r="U15" s="5">
         <f>T15</f>
@@ -7777,20 +7777,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.998194245537697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9587617507282035</v>
+        <v>0.9983384585716595</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9347331559056047</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.999959942106935</v>
+        <v>0.9259278248941101</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -7814,20 +7814,20 @@
         <v/>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>0.9039713403861767</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>1</v>
+        <v>0.9371467260811638</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>0.9998798359478422</v>
+        <v>0.9374752489982839</v>
       </c>
       <c r="S16" s="4">
         <f>+T16/T17</f>
         <v/>
       </c>
       <c r="T16" s="5" t="n">
-        <v>0.9998798359478422</v>
+        <v>0.9374752489982839</v>
       </c>
       <c r="U16" s="5">
         <f>T16</f>
@@ -7856,20 +7856,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.998194245537697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9607670306253729</v>
+        <v>0.9983384585716595</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9361099595326268</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -7893,20 +7893,20 @@
         <v/>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S17" s="4">
         <f>+T17/T18</f>
         <v/>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U17" s="5">
         <f>T17</f>
@@ -7935,20 +7935,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.998194245537697</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9639125039751787</v>
+        <v>0.9983384585716595</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9385720086607962</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -7972,20 +7972,20 @@
         <v/>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S18" s="4">
         <f>+T18/T19</f>
         <v/>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U18" s="5">
         <f>T18</f>
@@ -8014,20 +8014,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9611785542419717</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9639125039751787</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9395700877292513</v>
+        <v>1.030510105514296</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -8051,20 +8051,20 @@
         <v/>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S19" s="4">
         <f>+T19/T20</f>
         <v/>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U19" s="5">
         <f>T19</f>
@@ -8096,17 +8096,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9999313964728184</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9566760379285109</v>
+        <v>0.997086821464323</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -8130,20 +8130,20 @@
         <v/>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S20" s="4">
         <f>+T20/T21</f>
         <v/>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U20" s="5">
         <f>T20</f>
@@ -8178,14 +8178,14 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9567338143471895</v>
+        <v>0.9998494441749185</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -8209,20 +8209,20 @@
         <v/>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S21" s="4">
         <f>+T21/T22</f>
         <v/>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U21" s="5">
         <f>T21</f>
@@ -8257,14 +8257,14 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9633348698969803</v>
+        <v>0.9999734276427628</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -8288,20 +8288,20 @@
         <v/>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S22" s="4">
         <f>+T22/T23</f>
         <v/>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U22" s="5">
         <f>T22</f>
@@ -8343,7 +8343,7 @@
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -8367,20 +8367,20 @@
         <v/>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S23" s="4">
         <f>+T23/T24</f>
         <v/>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U23" s="5">
         <f>T23</f>
@@ -8422,7 +8422,7 @@
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -8446,20 +8446,20 @@
         <v/>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S24" s="4">
         <f>+T24/T25</f>
         <v/>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U24" s="5">
         <f>T24</f>
@@ -8501,7 +8501,7 @@
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -8525,20 +8525,20 @@
         <v/>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R25" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S25" s="4">
         <f>+T25/T26</f>
         <v/>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U25" s="5">
         <f>T25</f>
@@ -8580,7 +8580,7 @@
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -8604,20 +8604,20 @@
         <v/>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="R26" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="S26" s="4">
         <f>+T26/T27</f>
         <v/>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="U26" s="5">
         <f>T26</f>
@@ -9235,46 +9235,46 @@
         <v/>
       </c>
       <c r="D38" s="4" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.178943695366253</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>2.748540985223919</v>
+        <v>37.44175853018373</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.006902892864342</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.010146243010746</v>
+        <v>1.03505006200356</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.020903066778512</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.006772631255287</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1.096868377177471</v>
+        <v>1.000201812138462</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>1</v>
@@ -9307,19 +9307,19 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1</v>
+        <v>1.017743055555554</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>78.60000000000001</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.7029262086514</v>
+        <v>1.034116884446112</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.005976839745984</v>
+        <v>4.007818943617831</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
@@ -9331,13 +9331,13 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.015595989602674</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.028153564899452</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.010668563300142</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>1</v>
@@ -9346,10 +9346,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>1.01152443592002</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1.510204081632653</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>1</v>
@@ -9385,16 +9385,16 @@
         <v/>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1</v>
+        <v>10.26191666666667</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>12.61739130434783</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.348035837353549</v>
+        <v>2.388142241134291</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>1.001700200283593</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
@@ -9412,16 +9412,16 @@
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>19.81798678131461</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.9303180758206262</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>1.005910256891801</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.230061349693252</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>1</v>
@@ -9460,16 +9460,16 @@
         <v/>
       </c>
       <c r="D41" s="4" t="n">
-        <v>2.999999999999997</v>
+        <v>2.818181818181818</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>4.516666666666665</v>
+        <v>47.87096774193551</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>25.73436657681939</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>1</v>
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>1.000759365066065</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>1</v>
@@ -9532,28 +9532,28 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>14.91818181818182</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1</v>
+        <v>1.353333333333333</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.015234613040829</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>20.5078031212485</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>1</v>
@@ -9562,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.078817733990148</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -9607,22 +9607,22 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>1.138888888888889</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>11.79268292682927</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>2.280675783955564</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
@@ -9643,19 +9643,19 @@
         <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.002977377882846</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -9682,19 +9682,19 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.266666666666667</v>
+        <v>1.068571428571429</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>4.796791443850268</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>2.578947368421053</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>3.489795918367347</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>1</v>
@@ -9706,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.028409356725146</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>1</v>
@@ -9757,19 +9757,19 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>21</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>4.552380952380953</v>
+        <v>3.233333333333334</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.161359832635983</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
@@ -9778,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.036027597139409</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>1</v>
@@ -9835,22 +9835,22 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="n">
-        <v>6.600000000000001</v>
+        <v/>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G46" s="4" t="n">
-        <v>10.84848484848485</v>
+        <v/>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.002793296089385</v>
+        <v/>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J46" s="4" t="n">
         <v>1</v>
@@ -9859,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.002952646239554</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>1</v>
@@ -9910,40 +9910,40 @@
         <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.081914893617021</v>
+        <v/>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.123028515240905</v>
+        <v>46.45454545454545</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>3.783420306097434</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>3.647732532306439</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001956947162427</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.0661328125</v>
       </c>
       <c r="J47" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.007613106978745</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.008025920695315</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.097755369224773</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -9985,25 +9985,25 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>43.85714285714286</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.175895765472313</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.191387559808612</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.001056859015008</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
@@ -10057,7 +10057,7 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v/>
+        <v>492.2381818181818</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>1</v>
@@ -10066,28 +10066,28 @@
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>37.44175853018373</v>
+        <v>1.000110811100317</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.03505006200356</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.002138417275753</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -10132,19 +10132,19 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>95.99999999999984</v>
+        <v>21</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.017743055555554</v>
+        <v>1.028857142857143</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.117698787373879</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.034116884446112</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>4.007818943617837</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>7.221665493395167</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
@@ -10210,16 +10210,16 @@
         <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>10.26191666666667</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>2.388142241134291</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.001700200283593</v>
+        <v>9.492512479201338</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>1</v>
@@ -10285,16 +10285,16 @@
         <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>2.818181818181818</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v>47.87096774193545</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>25.73436657681942</v>
+        <v>1.107601713062098</v>
       </c>
       <c r="H52" s="4" t="n">
         <v>1</v>
@@ -10357,19 +10357,19 @@
         <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.353333333333333</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>1008.983388704322</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>1</v>
@@ -10435,13 +10435,13 @@
         <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.138888888888889</v>
+        <v>1</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>11.79268292682927</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
@@ -10507,13 +10507,13 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.068571428571429</v>
+        <v/>
       </c>
       <c r="D55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>4.796791443850268</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>1</v>
@@ -10585,13 +10585,13 @@
         <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E56" s="4" t="n">
-        <v>2.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>3.233333333333334</v>
+        <v>1.014372948360453</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -11543,70 +11543,70 @@
         <v/>
       </c>
       <c r="D68" s="47" t="n">
-        <v>1117.67</v>
+        <v>381</v>
       </c>
       <c r="E68" s="47" t="n">
-        <v>1117.669999999999</v>
+        <v>381</v>
       </c>
       <c r="F68" s="47" t="n">
-        <v>1317.669999999999</v>
+        <v>381</v>
       </c>
       <c r="G68" s="47" t="n">
-        <v>3621.669999999999</v>
+        <v>14265.31</v>
       </c>
       <c r="H68" s="47" t="n">
-        <v>3646.67</v>
+        <v>14265.31</v>
       </c>
       <c r="I68" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="J68" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="K68" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="L68" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="M68" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="N68" s="47" t="n">
-        <v>3760.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="O68" s="47" t="n">
-        <v>3760.669999999999</v>
+        <v>14865.31</v>
       </c>
       <c r="P68" s="47" t="n">
-        <v>3760.669999999999</v>
+        <v>14865.31</v>
       </c>
       <c r="Q68" s="47" t="n">
-        <v>3760.669999999999</v>
+        <v>14865.31</v>
       </c>
       <c r="R68" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="S68" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="T68" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="U68" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="V68" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="W68" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="X68" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="Y68" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="Z68" s="12" t="n"/>
       <c r="AA68" s="12" t="n"/>
@@ -11725,70 +11725,70 @@
         <v/>
       </c>
       <c r="C69" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="D69" s="47" t="n">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="E69" s="47" t="n">
-        <v>20</v>
+        <v>293.1099999999997</v>
       </c>
       <c r="F69" s="47" t="n">
-        <v>1572</v>
+        <v>293.1099999999997</v>
       </c>
       <c r="G69" s="47" t="n">
-        <v>2677</v>
+        <v>303.1099999999997</v>
       </c>
       <c r="H69" s="47" t="n">
-        <v>2693</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="I69" s="47" t="n">
-        <v>2693</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="J69" s="47" t="n">
-        <v>2693</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="K69" s="47" t="n">
-        <v>2693</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="L69" s="47" t="n">
-        <v>2735</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="M69" s="47" t="n">
-        <v>2812</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="N69" s="47" t="n">
-        <v>2842</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="O69" s="47" t="n">
-        <v>2842</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="P69" s="47" t="n">
-        <v>2842</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="Q69" s="47" t="n">
-        <v>2842</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="R69" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="S69" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="T69" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="U69" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="V69" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="W69" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="X69" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="Y69" s="47" t="n">
         <v/>
@@ -11913,64 +11913,64 @@
         <v/>
       </c>
       <c r="D70" s="47" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E70" s="47" t="n">
-        <v>115</v>
+        <v>1231.43</v>
       </c>
       <c r="F70" s="47" t="n">
-        <v>1451</v>
+        <v>1231.429999999999</v>
       </c>
       <c r="G70" s="47" t="n">
-        <v>1956</v>
+        <v>2940.829999999999</v>
       </c>
       <c r="H70" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="I70" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="J70" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="K70" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="L70" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="M70" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="N70" s="47" t="n">
-        <v>1956</v>
+        <v>58380.41999999999</v>
       </c>
       <c r="O70" s="47" t="n">
-        <v>1956</v>
+        <v>54312.35999999999</v>
       </c>
       <c r="P70" s="47" t="n">
-        <v>1956</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="Q70" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="R70" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="S70" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="T70" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="U70" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="V70" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="W70" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="X70" s="47" t="n">
         <v/>
@@ -12098,61 +12098,61 @@
         <v/>
       </c>
       <c r="D71" s="47" t="n">
-        <v>100.0000000000001</v>
+        <v>11</v>
       </c>
       <c r="E71" s="47" t="n">
-        <v>300.0000000000001</v>
+        <v>31</v>
       </c>
       <c r="F71" s="47" t="n">
-        <v>1355</v>
+        <v>1484.000000000001</v>
       </c>
       <c r="G71" s="47" t="n">
-        <v>1355</v>
+        <v>1484.000000000001</v>
       </c>
       <c r="H71" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="I71" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="J71" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="K71" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="L71" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="M71" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="N71" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="O71" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="P71" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="Q71" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="R71" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="S71" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="T71" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="U71" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="V71" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="W71" s="47" t="n">
         <v/>
@@ -12280,61 +12280,61 @@
         <v/>
       </c>
       <c r="C72" s="47" t="n">
-        <v/>
+        <v>150</v>
       </c>
       <c r="D72" s="47" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E72" s="47" t="n">
-        <v>1641</v>
+        <v>150</v>
       </c>
       <c r="F72" s="47" t="n">
-        <v>1641</v>
+        <v>203</v>
       </c>
       <c r="G72" s="47" t="n">
-        <v>1666</v>
+        <v>203</v>
       </c>
       <c r="H72" s="47" t="n">
-        <v>1666</v>
+        <v>203</v>
       </c>
       <c r="I72" s="47" t="n">
-        <v>1666</v>
+        <v>203</v>
       </c>
       <c r="J72" s="47" t="n">
-        <v>1666</v>
+        <v>203</v>
       </c>
       <c r="K72" s="47" t="n">
-        <v>34166</v>
+        <v>203</v>
       </c>
       <c r="L72" s="47" t="n">
-        <v>34166</v>
+        <v>203</v>
       </c>
       <c r="M72" s="47" t="n">
-        <v>34166</v>
+        <v>203</v>
       </c>
       <c r="N72" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="O72" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="P72" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="Q72" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="R72" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="S72" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="T72" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="U72" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="V72" s="47" t="n">
         <v/>
@@ -12465,58 +12465,58 @@
         <v/>
       </c>
       <c r="C73" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v/>
       </c>
       <c r="D73" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>72</v>
       </c>
       <c r="E73" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>82</v>
       </c>
       <c r="F73" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>82</v>
       </c>
       <c r="G73" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>967</v>
       </c>
       <c r="H73" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>967</v>
       </c>
       <c r="I73" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="J73" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="K73" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="L73" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="M73" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="N73" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="O73" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="P73" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="Q73" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="R73" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="S73" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="T73" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="U73" s="47" t="n">
         <v/>
@@ -12650,55 +12650,55 @@
         <v/>
       </c>
       <c r="C74" s="47" t="n">
-        <v>75</v>
+        <v>349.9999999999999</v>
       </c>
       <c r="D74" s="47" t="n">
-        <v>95</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="E74" s="47" t="n">
-        <v>95</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="F74" s="47" t="n">
-        <v>95</v>
+        <v>1794</v>
       </c>
       <c r="G74" s="47" t="n">
-        <v>245</v>
+        <v>1794</v>
       </c>
       <c r="H74" s="47" t="n">
-        <v>855</v>
+        <v>1794</v>
       </c>
       <c r="I74" s="47" t="n">
-        <v>855</v>
+        <v>1794</v>
       </c>
       <c r="J74" s="47" t="n">
-        <v>855</v>
+        <v>1794</v>
       </c>
       <c r="K74" s="47" t="n">
-        <v>855</v>
+        <v>1794</v>
       </c>
       <c r="L74" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="M74" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="N74" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="O74" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="P74" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="Q74" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="R74" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="S74" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="T74" s="47" t="n">
         <v/>
@@ -12835,52 +12835,52 @@
         <v/>
       </c>
       <c r="C75" s="47" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="D75" s="47" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E75" s="47" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F75" s="47" t="n">
-        <v>105</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="G75" s="47" t="n">
-        <v>478</v>
+        <v>970</v>
       </c>
       <c r="H75" s="47" t="n">
-        <v>555.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="I75" s="47" t="n">
-        <v>555.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="J75" s="47" t="n">
-        <v>555.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="K75" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="L75" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="M75" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="N75" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="O75" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="P75" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="Q75" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="R75" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="S75" s="47" t="n">
         <v/>
@@ -13023,46 +13023,46 @@
         <v/>
       </c>
       <c r="D76" s="47" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="E76" s="47" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="F76" s="47" t="n">
-        <v>1650</v>
+        <v/>
       </c>
       <c r="G76" s="47" t="n">
-        <v>1650</v>
+        <v/>
       </c>
       <c r="H76" s="47" t="n">
-        <v>17900</v>
+        <v/>
       </c>
       <c r="I76" s="47" t="n">
-        <v>17950</v>
+        <v/>
       </c>
       <c r="J76" s="47" t="n">
-        <v>17950</v>
+        <v>19</v>
       </c>
       <c r="K76" s="47" t="n">
-        <v>17950</v>
+        <v>19</v>
       </c>
       <c r="L76" s="47" t="n">
-        <v>17950</v>
+        <v>19</v>
       </c>
       <c r="M76" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="N76" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="O76" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="P76" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="Q76" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="R76" s="47" t="n">
         <v/>
@@ -13208,43 +13208,43 @@
         <v/>
       </c>
       <c r="D77" s="47" t="n">
-        <v>940</v>
+        <v/>
       </c>
       <c r="E77" s="47" t="n">
-        <v>1017</v>
+        <v>66</v>
       </c>
       <c r="F77" s="47" t="n">
-        <v>1142.12</v>
+        <v>3066</v>
       </c>
       <c r="G77" s="47" t="n">
-        <v>4321.120000000001</v>
+        <v>3066</v>
       </c>
       <c r="H77" s="47" t="n">
-        <v>15762.29</v>
+        <v>3066</v>
       </c>
       <c r="I77" s="47" t="n">
-        <v>15762.29</v>
+        <v>3072</v>
       </c>
       <c r="J77" s="47" t="n">
-        <v>15762.29</v>
+        <v>3275.16</v>
       </c>
       <c r="K77" s="47" t="n">
-        <v>15762.29</v>
+        <v>3275.16</v>
       </c>
       <c r="L77" s="47" t="n">
-        <v>15882.29</v>
+        <v>3275.16</v>
       </c>
       <c r="M77" s="47" t="n">
-        <v>16009.76</v>
+        <v>3275.16</v>
       </c>
       <c r="N77" s="47" t="n">
-        <v>16009.76</v>
+        <v>3275.16</v>
       </c>
       <c r="O77" s="47" t="n">
-        <v>17574.8</v>
+        <v>3275.16</v>
       </c>
       <c r="P77" s="47" t="n">
-        <v>17574.8</v>
+        <v>3275.16</v>
       </c>
       <c r="Q77" s="47" t="n">
         <v/>
@@ -13393,40 +13393,40 @@
         <v/>
       </c>
       <c r="D78" s="47" t="n">
-        <v>77</v>
+        <v>1655</v>
       </c>
       <c r="E78" s="47" t="n">
-        <v>3377</v>
+        <v>1655</v>
       </c>
       <c r="F78" s="47" t="n">
-        <v>3971.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="G78" s="47" t="n">
-        <v>3971.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="H78" s="47" t="n">
-        <v>3971.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="I78" s="47" t="n">
-        <v>3971.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="J78" s="47" t="n">
-        <v>4731.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="K78" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="L78" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="M78" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="N78" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="O78" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="P78" s="47" t="n">
         <v/>
@@ -13575,40 +13575,40 @@
         <v/>
       </c>
       <c r="C79" s="47" t="n">
-        <v/>
+        <v>55</v>
       </c>
       <c r="D79" s="47" t="n">
-        <v>381</v>
+        <v>27073.1</v>
       </c>
       <c r="E79" s="47" t="n">
-        <v>381</v>
+        <v>27073.1</v>
       </c>
       <c r="F79" s="47" t="n">
-        <v>381</v>
+        <v>27073.1</v>
       </c>
       <c r="G79" s="47" t="n">
-        <v>14265.31</v>
+        <v>27076.1</v>
       </c>
       <c r="H79" s="47" t="n">
-        <v>14265.31</v>
+        <v>27076.1</v>
       </c>
       <c r="I79" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="J79" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="K79" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="L79" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="M79" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="N79" s="47" t="n">
-        <v>14765.31</v>
+        <v>27134</v>
       </c>
       <c r="O79" s="47" t="n">
         <v/>
@@ -13760,37 +13760,37 @@
         <v/>
       </c>
       <c r="C80" s="47" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D80" s="47" t="n">
-        <v>287.9999999999995</v>
+        <v>210</v>
       </c>
       <c r="E80" s="47" t="n">
-        <v>293.1099999999992</v>
+        <v>216.0599999999999</v>
       </c>
       <c r="F80" s="47" t="n">
-        <v>293.1099999999992</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="G80" s="47" t="n">
-        <v>303.1099999999992</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="H80" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="I80" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="J80" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="K80" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1743.96</v>
       </c>
       <c r="L80" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="M80" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="N80" s="47" t="n">
         <v/>
@@ -13948,31 +13948,31 @@
         <v/>
       </c>
       <c r="D81" s="47" t="n">
-        <v>120</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="E81" s="47" t="n">
-        <v>1231.43</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="F81" s="47" t="n">
-        <v>1231.429999999999</v>
+        <v>6.009999999999991</v>
       </c>
       <c r="G81" s="47" t="n">
-        <v>2940.829999999999</v>
+        <v>6.009999999999991</v>
       </c>
       <c r="H81" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="I81" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="J81" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="K81" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="L81" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="M81" s="47" t="n">
         <v/>
@@ -14133,28 +14133,28 @@
         <v/>
       </c>
       <c r="D82" s="47" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="E82" s="47" t="n">
-        <v>31</v>
+        <v>18.67999999999995</v>
       </c>
       <c r="F82" s="47" t="n">
-        <v>1483.999999999999</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="G82" s="47" t="n">
-        <v>1483.999999999999</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="H82" s="47" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="I82" s="47" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="J82" s="47" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="K82" s="47" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="L82" s="47" t="n">
         <v/>
@@ -14315,28 +14315,28 @@
         <v/>
       </c>
       <c r="C83" s="47" t="n">
-        <v>150</v>
+        <v/>
       </c>
       <c r="D83" s="47" t="n">
-        <v>150</v>
+        <v/>
       </c>
       <c r="E83" s="47" t="n">
-        <v>150</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F83" s="47" t="n">
-        <v>203</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G83" s="47" t="n">
-        <v>203</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H83" s="47" t="n">
-        <v>203</v>
+        <v>3037.04</v>
       </c>
       <c r="I83" s="47" t="n">
-        <v>203</v>
+        <v>3037.04</v>
       </c>
       <c r="J83" s="47" t="n">
-        <v>203</v>
+        <v>3037.04</v>
       </c>
       <c r="K83" s="47" t="n">
         <v/>
@@ -14503,22 +14503,22 @@
         <v/>
       </c>
       <c r="D84" s="47" t="n">
-        <v>72</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="E84" s="47" t="n">
-        <v>82</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F84" s="47" t="n">
-        <v>82</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G84" s="47" t="n">
-        <v>967</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H84" s="47" t="n">
-        <v>967</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="I84" s="47" t="n">
-        <v>967</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="J84" s="47" t="n">
         <v/>
@@ -14685,22 +14685,22 @@
         <v/>
       </c>
       <c r="C85" s="47" t="n">
-        <v>349.9999999999999</v>
+        <v/>
       </c>
       <c r="D85" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="E85" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="F85" s="47" t="n">
-        <v>1794</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="G85" s="47" t="n">
-        <v>1794</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="H85" s="47" t="n">
-        <v>1794</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="I85" s="47" t="n">
         <v/>
@@ -14873,16 +14873,16 @@
         <v/>
       </c>
       <c r="D86" s="47" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E86" s="47" t="n">
-        <v>100</v>
+        <v>1416.55</v>
       </c>
       <c r="F86" s="47" t="n">
-        <v>299.9999999999999</v>
+        <v>1416.55</v>
       </c>
       <c r="G86" s="47" t="n">
-        <v>970</v>
+        <v>1436.91</v>
       </c>
       <c r="H86" s="47" t="n">
         <v/>
@@ -15246,7 +15246,7 @@
         <v/>
       </c>
       <c r="E88" s="47" t="n">
-        <v>66</v>
+        <v>3.049999999999955</v>
       </c>
       <c r="F88" s="47" t="n">
         <v/>
@@ -15428,7 +15428,7 @@
         <v/>
       </c>
       <c r="D89" s="47" t="n">
-        <v>1655</v>
+        <v/>
       </c>
       <c r="E89" s="47" t="n">
         <v/>
@@ -15611,7 +15611,7 @@
         <v/>
       </c>
       <c r="C90" s="12" t="n">
-        <v>55</v>
+        <v/>
       </c>
       <c r="D90" s="12" t="n">
         <v/>
@@ -16114,25 +16114,25 @@
         <v>0</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>43.85851804939835</v>
+        <v>15.61185517462352</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>1.107839994455082</v>
+        <v>1.443418724833041</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>1.425436126839136</v>
+        <v>3.159715626333002</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>1</v>
+        <v>1.308829697042788</v>
       </c>
       <c r="F99" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>1.000281637079533</v>
+        <v>1.001885496324932</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>0.9997184422175784</v>
+        <v>1</v>
       </c>
       <c r="I99" s="4" t="n">
         <v>1</v>
@@ -16189,70 +16189,70 @@
         <v/>
       </c>
       <c r="B100" s="4" t="n">
-        <v>5.926870440706578</v>
+        <v>16.84202171566449</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1.066606312748578</v>
+        <v>1.062029444475862</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>1.033683969596689</v>
+        <v>1.136149351433095</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>1</v>
+        <v>1.005355396483685</v>
       </c>
       <c r="F100" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>1</v>
+        <v>1.005003651733408</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X100" s="4" t="n">
         <v/>
@@ -16264,25 +16264,25 @@
         <v/>
       </c>
       <c r="B101" s="4" t="n">
-        <v>29.81329884357882</v>
+        <v>13.60757394624195</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>1.108154318057703</v>
+        <v>1.526103985172505</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>1.011569425765922</v>
+        <v>1.415041467192079</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>1</v>
+        <v>1.009204760648664</v>
       </c>
       <c r="F101" s="4" t="n">
-        <v>1.098458358374766</v>
+        <v>1</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>1.034158028027738</v>
+        <v>2.04029721291373</v>
       </c>
       <c r="H101" s="4" t="n">
-        <v>1.623642295452542</v>
+        <v>1.103001189921549</v>
       </c>
       <c r="I101" s="4" t="n">
         <v>1</v>
@@ -16339,34 +16339,34 @@
         <v/>
       </c>
       <c r="B102" s="4" t="n">
-        <v>9.524584447285831</v>
+        <v>23.26964019586971</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>1.134610690749329</v>
+        <v>1.445348704224708</v>
       </c>
       <c r="D102" s="4" t="n">
-        <v>1.017521781219748</v>
+        <v>1</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.391763149398948</v>
       </c>
       <c r="F102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.010825021263435</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>1.017970591655303</v>
+        <v>1</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>1.026573484667546</v>
+        <v>1.004454623584307</v>
       </c>
       <c r="J102" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>1.009043274191264</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -16396,7 +16396,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="U102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.58235639315328</v>
       </c>
       <c r="V102" s="4" t="n">
         <v/>
@@ -16414,61 +16414,61 @@
         <v/>
       </c>
       <c r="B103" s="4" t="n">
-        <v>10.85538650129795</v>
+        <v>4.09401786792225</v>
       </c>
       <c r="C103" s="4" t="n">
-        <v>1.246432070677716</v>
+        <v>1.26100130489594</v>
       </c>
       <c r="D103" s="4" t="n">
-        <v>1.01112496735788</v>
+        <v>1.892973235270044</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.083210952930258</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00390901211195</v>
       </c>
       <c r="J103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U103" s="4" t="n">
         <v/>
@@ -16489,25 +16489,25 @@
         <v/>
       </c>
       <c r="B104" s="4" t="n">
-        <v>11.3572134599682</v>
+        <v>12.55037573058725</v>
       </c>
       <c r="C104" s="4" t="n">
-        <v>1.048442697079891</v>
+        <v>1.019004956368434</v>
       </c>
       <c r="D104" s="4" t="n">
-        <v>1.038769566143219</v>
+        <v>1</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>1.003109636398381</v>
+        <v>1</v>
       </c>
       <c r="F104" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>1.009203006477088</v>
+        <v>1</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>1</v>
+        <v>2.758522758185439</v>
       </c>
       <c r="I104" s="4" t="n">
         <v>1</v>
@@ -16564,31 +16564,31 @@
         <v/>
       </c>
       <c r="B105" s="4" t="n">
-        <v>3.383671113676219</v>
+        <v>5.243295953193564</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>1.552141624735126</v>
+        <v>2.201831876511066</v>
       </c>
       <c r="D105" s="4" t="n">
-        <v>1.000469157144397</v>
+        <v>1.041936778089829</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>1.013592840048077</v>
+        <v>1</v>
       </c>
       <c r="F105" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>1.000662712620299</v>
+        <v>1</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>1</v>
+        <v>1.055570192327179</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>1.011206587749186</v>
+        <v>1</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>1.015802860702921</v>
+        <v>1</v>
       </c>
       <c r="K105" s="4" t="n">
         <v>1</v>
@@ -16639,19 +16639,19 @@
         <v/>
       </c>
       <c r="B106" s="4" t="n">
-        <v>39.43034323622729</v>
+        <v>3.732769744160178</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>1.019893200687612</v>
+        <v>1.03028822085012</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>1.637183565298782</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>1.003568244594515</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F106" s="4" t="n">
-        <v>1</v>
+        <v>1.299057094926824</v>
       </c>
       <c r="G106" s="4" t="n">
         <v>1</v>
@@ -16666,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>1</v>
+        <v>1.024420220156033</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>1</v>
@@ -16714,19 +16714,19 @@
         <v/>
       </c>
       <c r="B107" s="4" t="n">
-        <v>6.644216892309807</v>
+        <v>14.59087413483722</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>1.056942490690939</v>
+        <v>1</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>1.013469660968516</v>
+        <v>1.033925402765333</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>1.005368785341285</v>
+        <v>1.014927782497876</v>
       </c>
       <c r="F107" s="4" t="n">
-        <v>1</v>
+        <v>2.339394091597814</v>
       </c>
       <c r="G107" s="4" t="n">
         <v>1</v>
@@ -16738,7 +16738,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>1</v>
+        <v>1.00981188519164</v>
       </c>
       <c r="K107" s="4" t="n">
         <v>1</v>
@@ -16789,28 +16789,28 @@
         <v/>
       </c>
       <c r="B108" s="4" t="n">
-        <v>17.45291953828591</v>
+        <v>3.884009729868135</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>1.261626681589906</v>
+        <v>1.391027753971916</v>
       </c>
       <c r="D108" s="4" t="n">
-        <v>1.002557736288171</v>
+        <v>1.058932252790218</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>1.019199203225405</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>1</v>
+        <v>1.061358754027927</v>
       </c>
       <c r="J108" s="4" t="n">
         <v>1</v>
@@ -16864,16 +16864,16 @@
         <v/>
       </c>
       <c r="B109" s="4" t="n">
-        <v>80.92450388265748</v>
+        <v/>
       </c>
       <c r="C109" s="4" t="n">
-        <v>1.273377651492939</v>
+        <v>3.608754027926961</v>
       </c>
       <c r="D109" s="4" t="n">
-        <v>2.463925078705874</v>
+        <v>1</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>1.272741329010795</v>
+        <v>1</v>
       </c>
       <c r="F109" s="4" t="n">
         <v>1</v>
@@ -16885,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>1</v>
+        <v>1.102016519086242</v>
       </c>
       <c r="J109" s="4" t="n">
         <v>1</v>
@@ -16939,28 +16939,28 @@
         <v/>
       </c>
       <c r="B110" s="4" t="n">
-        <v>15.61185517462352</v>
+        <v/>
       </c>
       <c r="C110" s="4" t="n">
-        <v>1.443418724833041</v>
+        <v>1</v>
       </c>
       <c r="D110" s="4" t="n">
-        <v>3.159715626333002</v>
+        <v>1</v>
       </c>
       <c r="E110" s="4" t="n">
-        <v>1.308829697042788</v>
+        <v>1</v>
       </c>
       <c r="F110" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>1.001885496324932</v>
+        <v>1.550846474953618</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>1</v>
+        <v>1.003140304310441</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>1</v>
+        <v>3.754630492304253</v>
       </c>
       <c r="J110" s="4" t="n">
         <v>1</v>
@@ -17014,37 +17014,37 @@
         <v/>
       </c>
       <c r="B111" s="4" t="n">
-        <v>16.84202171566449</v>
+        <v>6.108641483105751</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>1.062029444475862</v>
+        <v>1</v>
       </c>
       <c r="D111" s="4" t="n">
-        <v>1.136149351433095</v>
+        <v>1</v>
       </c>
       <c r="E111" s="4" t="n">
-        <v>1.005355396483685</v>
+        <v>3.694361049471348</v>
       </c>
       <c r="F111" s="4" t="n">
-        <v>1</v>
+        <v>1.161584665665577</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>1.005003651733408</v>
+        <v>1</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.004760347672677</v>
       </c>
       <c r="L111" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M111" t="n">
         <v/>
@@ -17089,25 +17089,25 @@
         <v/>
       </c>
       <c r="B112" s="4" t="n">
-        <v>13.60757394624195</v>
+        <v>1</v>
       </c>
       <c r="C112" s="4" t="n">
-        <v>1.526103985172505</v>
+        <v>1</v>
       </c>
       <c r="D112" s="4" t="n">
-        <v>1.415041467192079</v>
+        <v>1</v>
       </c>
       <c r="E112" s="4" t="n">
-        <v>1.009204760648664</v>
+        <v>11.95341997912912</v>
       </c>
       <c r="F112" s="4" t="n">
-        <v>1</v>
+        <v>1.170189125483131</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>2.04029721291373</v>
+        <v>1</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>1.103001189921549</v>
+        <v>1.018189833497236</v>
       </c>
       <c r="I112" s="4" t="n">
         <v>1</v>
@@ -17164,31 +17164,31 @@
         <v/>
       </c>
       <c r="B113" s="4" t="n">
-        <v>23.2696401958697</v>
+        <v/>
       </c>
       <c r="C113" s="4" t="n">
-        <v>1.445348704224708</v>
+        <v/>
       </c>
       <c r="D113" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E113" s="4" t="n">
-        <v>1.391763149398948</v>
+        <v>1.615996177735308</v>
       </c>
       <c r="F113" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>1.010825021263435</v>
+        <v>1.024681575741807</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>1</v>
+        <v>1.031473616176539</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>1.004454623584307</v>
+        <v>1</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v/>
@@ -17239,28 +17239,28 @@
         <v/>
       </c>
       <c r="B114" s="4" t="n">
-        <v>4.09401786792225</v>
+        <v/>
       </c>
       <c r="C114" s="4" t="n">
-        <v>1.26100130489594</v>
+        <v/>
       </c>
       <c r="D114" s="4" t="n">
-        <v>1.892973235270044</v>
+        <v>1.095617750463693</v>
       </c>
       <c r="E114" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F114" s="4" t="n">
-        <v>1.083210952930258</v>
+        <v>1</v>
       </c>
       <c r="G114" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>1</v>
+        <v>1.068903656163934</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>1.00390901211195</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J114" t="n">
         <v/>
@@ -17314,25 +17314,25 @@
         <v/>
       </c>
       <c r="B115" s="4" t="n">
-        <v>12.55037573058725</v>
+        <v/>
       </c>
       <c r="C115" s="4" t="n">
-        <v>1.019004956368434</v>
+        <v>1</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>1</v>
+        <v>1.680106902161283</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F115" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>2.758522758185439</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I115" t="n">
         <v/>
@@ -17389,22 +17389,22 @@
         <v/>
       </c>
       <c r="B116" s="4" t="n">
-        <v>5.243295953193564</v>
+        <v>2.540958812563751</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>2.201831876511066</v>
+        <v>2.049071177431411</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>1.041936778089829</v>
+        <v>1.060326017199333</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F116" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H116" t="n">
         <v/>
@@ -17464,19 +17464,19 @@
         <v/>
       </c>
       <c r="B117" s="4" t="n">
-        <v>3.732769744160178</v>
+        <v>13.01059126463587</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>1.03028822085012</v>
+        <v>1.046087148100987</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.253606245470998</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.068411431044695</v>
       </c>
       <c r="F117" s="4" t="n">
-        <v>1.299057094926824</v>
+        <v>1.052882526805061</v>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -17539,16 +17539,16 @@
         <v/>
       </c>
       <c r="B118" s="4" t="n">
-        <v>14.59087413483722</v>
+        <v>31.24567134923228</v>
       </c>
       <c r="C118" s="4" t="n">
-        <v>1</v>
+        <v>1.08177284275901</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>1.033925402765333</v>
+        <v>1</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>1.014927782497876</v>
+        <v>2.305855176679811</v>
       </c>
       <c r="F118" t="n">
         <v/>
@@ -17614,13 +17614,13 @@
         <v/>
       </c>
       <c r="B119" s="4" t="n">
-        <v>3.884009729868135</v>
+        <v>26.84954462659381</v>
       </c>
       <c r="C119" s="4" t="n">
-        <v>1.391027753971916</v>
+        <v>1</v>
       </c>
       <c r="D119" s="4" t="n">
-        <v>1.058932252790218</v>
+        <v>1.058315920870533</v>
       </c>
       <c r="E119" t="n">
         <v/>
@@ -17689,10 +17689,10 @@
         <v/>
       </c>
       <c r="B120" s="4" t="n">
-        <v/>
+        <v>3.288299610405932</v>
       </c>
       <c r="C120" s="4" t="n">
-        <v>3.608754027926961</v>
+        <v>1.090999426715078</v>
       </c>
       <c r="D120" t="n">
         <v/>
@@ -18158,70 +18158,70 @@
         <v/>
       </c>
       <c r="D127" s="47" t="n">
-        <v>1117.67</v>
+        <v>381</v>
       </c>
       <c r="E127" s="47" t="n">
-        <v>1117.669999999999</v>
+        <v>381</v>
       </c>
       <c r="F127" s="47" t="n">
-        <v>1317.669999999999</v>
+        <v>381</v>
       </c>
       <c r="G127" s="47" t="n">
-        <v>3621.669999999999</v>
+        <v>14265.31</v>
       </c>
       <c r="H127" s="47" t="n">
-        <v>3646.67</v>
+        <v>14265.31</v>
       </c>
       <c r="I127" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="J127" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="K127" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="L127" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="M127" s="47" t="n">
-        <v>3683.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="N127" s="47" t="n">
-        <v>3760.669999999999</v>
+        <v>14765.31</v>
       </c>
       <c r="O127" s="47" t="n">
-        <v>3760.669999999999</v>
+        <v>14865.31</v>
       </c>
       <c r="P127" s="47" t="n">
-        <v>3760.669999999999</v>
+        <v>14865.31</v>
       </c>
       <c r="Q127" s="47" t="n">
-        <v>3760.669999999999</v>
+        <v>14865.31</v>
       </c>
       <c r="R127" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="S127" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="T127" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="U127" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="V127" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="W127" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="X127" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="Y127" s="47" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="Z127" s="12" t="n"/>
       <c r="AA127" s="12" t="n"/>
@@ -18340,70 +18340,70 @@
         <v/>
       </c>
       <c r="C128" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="D128" s="47" t="n">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="E128" s="47" t="n">
-        <v>20</v>
+        <v>293.1099999999997</v>
       </c>
       <c r="F128" s="47" t="n">
-        <v>1572</v>
+        <v>293.1099999999997</v>
       </c>
       <c r="G128" s="47" t="n">
-        <v>2677</v>
+        <v>303.1099999999997</v>
       </c>
       <c r="H128" s="47" t="n">
-        <v>2693</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="I128" s="47" t="n">
-        <v>2693</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="J128" s="47" t="n">
-        <v>2693</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="K128" s="47" t="n">
-        <v>2693</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="L128" s="47" t="n">
-        <v>2735</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="M128" s="47" t="n">
-        <v>2812</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="N128" s="47" t="n">
-        <v>2842</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="O128" s="47" t="n">
-        <v>2842</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="P128" s="47" t="n">
-        <v>2842</v>
+        <v>1214.809999999999</v>
       </c>
       <c r="Q128" s="47" t="n">
-        <v>2842</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="R128" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="S128" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="T128" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="U128" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="V128" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="W128" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="X128" s="47" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="Y128" s="47" t="n">
         <v/>
@@ -18528,64 +18528,64 @@
         <v/>
       </c>
       <c r="D129" s="47" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E129" s="47" t="n">
-        <v>115</v>
+        <v>1231.43</v>
       </c>
       <c r="F129" s="47" t="n">
-        <v>1451</v>
+        <v>1231.429999999999</v>
       </c>
       <c r="G129" s="47" t="n">
-        <v>1956</v>
+        <v>2940.829999999999</v>
       </c>
       <c r="H129" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="I129" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="J129" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="K129" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="L129" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="M129" s="47" t="n">
-        <v>1956</v>
+        <v>2945.829999999998</v>
       </c>
       <c r="N129" s="47" t="n">
-        <v>1956</v>
+        <v>58380.41999999999</v>
       </c>
       <c r="O129" s="47" t="n">
-        <v>1956</v>
+        <v>54312.35999999999</v>
       </c>
       <c r="P129" s="47" t="n">
-        <v>1956</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="Q129" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="R129" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="S129" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="T129" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="U129" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="V129" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="W129" s="47" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="X129" s="47" t="n">
         <v/>
@@ -18713,61 +18713,61 @@
         <v/>
       </c>
       <c r="D130" s="47" t="n">
-        <v>100.0000000000001</v>
+        <v>11</v>
       </c>
       <c r="E130" s="47" t="n">
-        <v>300.0000000000001</v>
+        <v>31</v>
       </c>
       <c r="F130" s="47" t="n">
-        <v>1355</v>
+        <v>1484.000000000001</v>
       </c>
       <c r="G130" s="47" t="n">
-        <v>1355</v>
+        <v>1484.000000000001</v>
       </c>
       <c r="H130" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="I130" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="J130" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="K130" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="L130" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="M130" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="N130" s="47" t="n">
-        <v>1355</v>
+        <v>38189.8</v>
       </c>
       <c r="O130" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="P130" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="Q130" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="R130" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="S130" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="T130" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="U130" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="V130" s="47" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="W130" s="47" t="n">
         <v/>
@@ -18895,61 +18895,61 @@
         <v/>
       </c>
       <c r="C131" s="47" t="n">
-        <v/>
+        <v>150</v>
       </c>
       <c r="D131" s="47" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E131" s="47" t="n">
-        <v>1641</v>
+        <v>150</v>
       </c>
       <c r="F131" s="47" t="n">
-        <v>1641</v>
+        <v>203</v>
       </c>
       <c r="G131" s="47" t="n">
-        <v>1666</v>
+        <v>203</v>
       </c>
       <c r="H131" s="47" t="n">
-        <v>1666</v>
+        <v>203</v>
       </c>
       <c r="I131" s="47" t="n">
-        <v>1666</v>
+        <v>203</v>
       </c>
       <c r="J131" s="47" t="n">
-        <v>1666</v>
+        <v>203</v>
       </c>
       <c r="K131" s="47" t="n">
-        <v>34166</v>
+        <v>203</v>
       </c>
       <c r="L131" s="47" t="n">
-        <v>34166</v>
+        <v>203</v>
       </c>
       <c r="M131" s="47" t="n">
-        <v>34166</v>
+        <v>203</v>
       </c>
       <c r="N131" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="O131" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="P131" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="Q131" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="R131" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="S131" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="T131" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="U131" s="47" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="V131" s="47" t="n">
         <v/>
@@ -19080,58 +19080,58 @@
         <v/>
       </c>
       <c r="C132" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v/>
       </c>
       <c r="D132" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>72</v>
       </c>
       <c r="E132" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>82</v>
       </c>
       <c r="F132" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>82</v>
       </c>
       <c r="G132" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>967</v>
       </c>
       <c r="H132" s="47" t="n">
-        <v>736.3299999999999</v>
+        <v>967</v>
       </c>
       <c r="I132" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="J132" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="K132" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="L132" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="M132" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="N132" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="O132" s="47" t="n">
-        <v>1679.33</v>
+        <v>967</v>
       </c>
       <c r="P132" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="Q132" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="R132" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="S132" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="T132" s="47" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="U132" s="47" t="n">
         <v/>
@@ -19265,55 +19265,55 @@
         <v/>
       </c>
       <c r="C133" s="47" t="n">
-        <v>75</v>
+        <v>349.9999999999999</v>
       </c>
       <c r="D133" s="47" t="n">
-        <v>95</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="E133" s="47" t="n">
-        <v>95</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="F133" s="47" t="n">
-        <v>95</v>
+        <v>1794</v>
       </c>
       <c r="G133" s="47" t="n">
-        <v>245</v>
+        <v>1794</v>
       </c>
       <c r="H133" s="47" t="n">
-        <v>855</v>
+        <v>1794</v>
       </c>
       <c r="I133" s="47" t="n">
-        <v>855</v>
+        <v>1794</v>
       </c>
       <c r="J133" s="47" t="n">
-        <v>855</v>
+        <v>1794</v>
       </c>
       <c r="K133" s="47" t="n">
-        <v>855</v>
+        <v>1794</v>
       </c>
       <c r="L133" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="M133" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="N133" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="O133" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="P133" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="Q133" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="R133" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="S133" s="47" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="T133" s="47" t="n">
         <v/>
@@ -19450,52 +19450,52 @@
         <v/>
       </c>
       <c r="C134" s="47" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="D134" s="47" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E134" s="47" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F134" s="47" t="n">
-        <v>105</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="G134" s="47" t="n">
-        <v>478</v>
+        <v>970</v>
       </c>
       <c r="H134" s="47" t="n">
-        <v>555.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="I134" s="47" t="n">
-        <v>555.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="J134" s="47" t="n">
-        <v>555.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="K134" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="L134" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="M134" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="N134" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="O134" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="P134" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="Q134" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="R134" s="47" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="S134" s="47" t="n">
         <v/>
@@ -19638,46 +19638,46 @@
         <v/>
       </c>
       <c r="D135" s="47" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="E135" s="47" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="F135" s="47" t="n">
-        <v>1650</v>
+        <v/>
       </c>
       <c r="G135" s="47" t="n">
-        <v>1650</v>
+        <v/>
       </c>
       <c r="H135" s="47" t="n">
-        <v>17900</v>
+        <v/>
       </c>
       <c r="I135" s="47" t="n">
-        <v>17950</v>
+        <v/>
       </c>
       <c r="J135" s="47" t="n">
-        <v>17950</v>
+        <v>19</v>
       </c>
       <c r="K135" s="47" t="n">
-        <v>17950</v>
+        <v>19</v>
       </c>
       <c r="L135" s="47" t="n">
-        <v>17950</v>
+        <v>19</v>
       </c>
       <c r="M135" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="N135" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="O135" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="P135" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="Q135" s="47" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="R135" s="47" t="n">
         <v/>
@@ -19823,43 +19823,43 @@
         <v/>
       </c>
       <c r="D136" s="47" t="n">
-        <v>940</v>
+        <v/>
       </c>
       <c r="E136" s="47" t="n">
-        <v>1017</v>
+        <v>66</v>
       </c>
       <c r="F136" s="47" t="n">
-        <v>1142.12</v>
+        <v>3066</v>
       </c>
       <c r="G136" s="47" t="n">
-        <v>4321.120000000001</v>
+        <v>3066</v>
       </c>
       <c r="H136" s="47" t="n">
-        <v>15762.29</v>
+        <v>3066</v>
       </c>
       <c r="I136" s="47" t="n">
-        <v>15762.29</v>
+        <v>3072</v>
       </c>
       <c r="J136" s="47" t="n">
-        <v>15762.29</v>
+        <v>3275.16</v>
       </c>
       <c r="K136" s="47" t="n">
-        <v>15762.29</v>
+        <v>3275.16</v>
       </c>
       <c r="L136" s="47" t="n">
-        <v>15882.29</v>
+        <v>3275.16</v>
       </c>
       <c r="M136" s="47" t="n">
-        <v>16009.76</v>
+        <v>3275.16</v>
       </c>
       <c r="N136" s="47" t="n">
-        <v>16009.76</v>
+        <v>3275.16</v>
       </c>
       <c r="O136" s="47" t="n">
-        <v>17574.8</v>
+        <v>3275.16</v>
       </c>
       <c r="P136" s="47" t="n">
-        <v>17574.8</v>
+        <v>3275.16</v>
       </c>
       <c r="Q136" s="47" t="n">
         <v/>
@@ -20008,40 +20008,40 @@
         <v/>
       </c>
       <c r="D137" s="47" t="n">
-        <v>77</v>
+        <v>1655</v>
       </c>
       <c r="E137" s="47" t="n">
-        <v>3377</v>
+        <v>1655</v>
       </c>
       <c r="F137" s="47" t="n">
-        <v>3971.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="G137" s="47" t="n">
-        <v>3971.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="H137" s="47" t="n">
-        <v>3971.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="I137" s="47" t="n">
-        <v>3971.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="J137" s="47" t="n">
-        <v>4731.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="K137" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="L137" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="M137" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="N137" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="O137" s="47" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="P137" s="47" t="n">
         <v/>
@@ -20190,40 +20190,40 @@
         <v/>
       </c>
       <c r="C138" s="47" t="n">
-        <v/>
+        <v>55</v>
       </c>
       <c r="D138" s="47" t="n">
-        <v>381</v>
+        <v>27073.1</v>
       </c>
       <c r="E138" s="47" t="n">
-        <v>381</v>
+        <v>27073.1</v>
       </c>
       <c r="F138" s="47" t="n">
-        <v>381</v>
+        <v>27073.1</v>
       </c>
       <c r="G138" s="47" t="n">
-        <v>14265.31</v>
+        <v>27076.1</v>
       </c>
       <c r="H138" s="47" t="n">
-        <v>14265.31</v>
+        <v>27076.1</v>
       </c>
       <c r="I138" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="J138" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="K138" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="L138" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="M138" s="47" t="n">
-        <v>14765.31</v>
+        <v>27076.1</v>
       </c>
       <c r="N138" s="47" t="n">
-        <v>14765.31</v>
+        <v>27134</v>
       </c>
       <c r="O138" s="47" t="n">
         <v/>
@@ -20375,37 +20375,37 @@
         <v/>
       </c>
       <c r="C139" s="47" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D139" s="47" t="n">
-        <v>287.9999999999995</v>
+        <v>210</v>
       </c>
       <c r="E139" s="47" t="n">
-        <v>293.1099999999992</v>
+        <v>216.0599999999999</v>
       </c>
       <c r="F139" s="47" t="n">
-        <v>293.1099999999992</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="G139" s="47" t="n">
-        <v>303.1099999999992</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="H139" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="I139" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="J139" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="K139" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1743.96</v>
       </c>
       <c r="L139" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="M139" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="N139" s="47" t="n">
         <v/>
@@ -20563,31 +20563,31 @@
         <v/>
       </c>
       <c r="D140" s="47" t="n">
-        <v>120</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="E140" s="47" t="n">
-        <v>1231.43</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="F140" s="47" t="n">
-        <v>1231.429999999999</v>
+        <v>6.009999999999991</v>
       </c>
       <c r="G140" s="47" t="n">
-        <v>2940.829999999999</v>
+        <v>6.009999999999991</v>
       </c>
       <c r="H140" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="I140" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="J140" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="K140" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="L140" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="M140" s="47" t="n">
         <v/>
@@ -20748,28 +20748,28 @@
         <v/>
       </c>
       <c r="D141" s="47" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="E141" s="47" t="n">
-        <v>31</v>
+        <v>18.67999999999995</v>
       </c>
       <c r="F141" s="47" t="n">
-        <v>1483.999999999999</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="G141" s="47" t="n">
-        <v>1483.999999999999</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="H141" s="47" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="I141" s="47" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="J141" s="47" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="K141" s="47" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="L141" s="47" t="n">
         <v/>
@@ -20930,28 +20930,28 @@
         <v/>
       </c>
       <c r="C142" s="47" t="n">
-        <v>150</v>
+        <v/>
       </c>
       <c r="D142" s="47" t="n">
-        <v>150</v>
+        <v/>
       </c>
       <c r="E142" s="47" t="n">
-        <v>150</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F142" s="47" t="n">
-        <v>203</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G142" s="47" t="n">
-        <v>203</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H142" s="47" t="n">
-        <v>203</v>
+        <v>3037.04</v>
       </c>
       <c r="I142" s="47" t="n">
-        <v>203</v>
+        <v>3037.04</v>
       </c>
       <c r="J142" s="47" t="n">
-        <v>203</v>
+        <v>3037.04</v>
       </c>
       <c r="K142" s="47" t="n">
         <v/>
@@ -21118,22 +21118,22 @@
         <v/>
       </c>
       <c r="D143" s="47" t="n">
-        <v>72</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="E143" s="47" t="n">
-        <v>82</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F143" s="47" t="n">
-        <v>82</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G143" s="47" t="n">
-        <v>967</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H143" s="47" t="n">
-        <v>967</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="I143" s="47" t="n">
-        <v>967</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="J143" s="47" t="n">
         <v/>
@@ -21300,22 +21300,22 @@
         <v/>
       </c>
       <c r="C144" s="47" t="n">
-        <v>349.9999999999999</v>
+        <v/>
       </c>
       <c r="D144" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="E144" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="F144" s="47" t="n">
-        <v>1794</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="G144" s="47" t="n">
-        <v>1794</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="H144" s="47" t="n">
-        <v>1794</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="I144" s="47" t="n">
         <v/>
@@ -21488,16 +21488,16 @@
         <v/>
       </c>
       <c r="D145" s="47" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E145" s="47" t="n">
-        <v>100</v>
+        <v>1416.55</v>
       </c>
       <c r="F145" s="47" t="n">
-        <v>299.9999999999999</v>
+        <v>1416.55</v>
       </c>
       <c r="G145" s="47" t="n">
-        <v>970</v>
+        <v>1436.91</v>
       </c>
       <c r="H145" s="47" t="n">
         <v/>
@@ -21861,7 +21861,7 @@
         <v/>
       </c>
       <c r="E147" s="47" t="n">
-        <v>66</v>
+        <v>3.049999999999955</v>
       </c>
       <c r="F147" s="47" t="n">
         <v/>
@@ -22043,7 +22043,7 @@
         <v/>
       </c>
       <c r="D148" s="47" t="n">
-        <v>1655</v>
+        <v/>
       </c>
       <c r="E148" s="47" t="n">
         <v/>
@@ -22225,7 +22225,7 @@
         <v/>
       </c>
       <c r="C149" s="47" t="n">
-        <v>55</v>
+        <v/>
       </c>
       <c r="D149" s="47" t="n">
         <v/>
@@ -22874,61 +22874,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="n">
-        <v>0.04729316384662751</v>
+        <v>0.03540529116112115</v>
       </c>
       <c r="C2" s="60" t="n">
-        <v>0.03908314581105127</v>
+        <v>0.04487973758724159</v>
       </c>
       <c r="D2" s="60" t="n">
-        <v>0.06134977795414882</v>
+        <v>0.04855630953183081</v>
       </c>
       <c r="E2" s="60" t="n">
-        <v>0.1637947848764083</v>
+        <v>0.05874490084912979</v>
       </c>
       <c r="F2" s="60" t="n">
-        <v>0.02411692190330771</v>
+        <v>0.01514035807708188</v>
       </c>
       <c r="G2" s="60" t="n">
-        <v>0.02858825807386681</v>
+        <v>0.01154763549757551</v>
       </c>
       <c r="H2" s="60" t="n">
-        <v>0.04154737648305399</v>
+        <v>0.01880596380908949</v>
       </c>
       <c r="I2" s="60" t="n">
-        <v>0.07103667165976585</v>
+        <v>0.03099124728993994</v>
       </c>
       <c r="J2" s="60" t="n">
-        <v>0.03908314581105127</v>
+        <v>0.04487973758724159</v>
       </c>
       <c r="M2" s="35" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="47" t="n">
-        <v>9.901516202049336</v>
+        <v>8.652651786050365</v>
       </c>
       <c r="O2" s="47" t="n">
-        <v>9.276992524092391</v>
+        <v>7.286991157874532</v>
       </c>
       <c r="P2" s="47" t="n">
-        <v>5.91557241052382</v>
+        <v>8.53097472004078</v>
       </c>
       <c r="Q2" s="47" t="n">
-        <v>3.884009729868135</v>
+        <v>9.331620257895722</v>
       </c>
       <c r="R2" s="47" t="n">
-        <v>17.74276002849337</v>
+        <v>11.61589066702975</v>
       </c>
       <c r="S2" s="47" t="n">
-        <v>11.34264341929683</v>
+        <v>12.00624387807677</v>
       </c>
       <c r="T2" s="47" t="n">
-        <v>6.862737390514773</v>
+        <v>15.38701313268633</v>
       </c>
       <c r="U2" s="47" t="n">
-        <v>3.884009729868135</v>
+        <v>15.06892211849987</v>
       </c>
       <c r="V2" s="47" t="n">
-        <v>9.276992524092391</v>
+        <v>7.286991157874532</v>
       </c>
     </row>
     <row r="3">
@@ -22937,62 +22937,62 @@
         <v/>
       </c>
       <c r="B3" s="60" t="n">
-        <v>0.4682740280735562</v>
+        <v>0.3063496558009081</v>
       </c>
       <c r="C3" s="60" t="n">
-        <v>0.3625740515071355</v>
+        <v>0.3270382509659588</v>
       </c>
       <c r="D3" s="60" t="n">
-        <v>0.3629190538573253</v>
+        <v>0.4142326491145238</v>
       </c>
       <c r="E3" s="60" t="n">
-        <v>0.636180538161628</v>
+        <v>0.5481851068118151</v>
       </c>
       <c r="F3" s="60" t="n">
-        <v>0.4279007579563042</v>
+        <v>0.1758687440830638</v>
       </c>
       <c r="G3" s="60" t="n">
-        <v>0.3242664173107048</v>
+        <v>0.1386437279990279</v>
       </c>
       <c r="H3" s="60" t="n">
-        <v>0.2851287340680488</v>
+        <v>0.2893676121032837</v>
       </c>
       <c r="I3" s="60" t="n">
-        <v>0.2759071239039785</v>
+        <v>0.4670046917672751</v>
       </c>
       <c r="J3" s="60" t="n">
-        <v>0.3625740515071355</v>
+        <v>0.3270382509659588</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="47" t="n">
-        <v>1.228743582821267</v>
+        <v>1.269597196211132</v>
       </c>
       <c r="O3" s="47" t="n">
-        <v>1.313270812228352</v>
+        <v>1.174424563794176</v>
       </c>
       <c r="P3" s="47" t="n">
-        <v>1.176828056553182</v>
+        <v>1.175163484850374</v>
       </c>
       <c r="Q3" s="47" t="n">
-        <v>1.206385532633356</v>
+        <v>1.052181474093397</v>
       </c>
       <c r="R3" s="47" t="n">
-        <v>1.357494396917972</v>
+        <v>1.362836979711852</v>
       </c>
       <c r="S3" s="47" t="n">
-        <v>1.521848887560291</v>
+        <v>1.387668462293345</v>
       </c>
       <c r="T3" s="47" t="n">
-        <v>1.708484472604749</v>
+        <v>1.211321765834414</v>
       </c>
       <c r="U3" s="47" t="n">
-        <v>1.999927260632959</v>
+        <v>1.057590756491362</v>
       </c>
       <c r="V3" s="47" t="n">
-        <v>1.313270812228352</v>
+        <v>1.174424563794176</v>
       </c>
     </row>
     <row r="4">
@@ -23001,62 +23001,62 @@
         <v/>
       </c>
       <c r="B4" s="60" t="n">
-        <v>0.5753887069972482</v>
+        <v>0.3889406640650783</v>
       </c>
       <c r="C4" s="60" t="n">
-        <v>0.4761579191157001</v>
+        <v>0.3840817552347064</v>
       </c>
       <c r="D4" s="60" t="n">
-        <v>0.4270933248370357</v>
+        <v>0.486791083472226</v>
       </c>
       <c r="E4" s="60" t="n">
-        <v>0.7674789973810909</v>
+        <v>0.5767902137613018</v>
       </c>
       <c r="F4" s="60" t="n">
-        <v>0.5808728813626362</v>
+        <v>0.2396804280118793</v>
       </c>
       <c r="G4" s="60" t="n">
-        <v>0.4934844864574572</v>
+        <v>0.1923915288390278</v>
       </c>
       <c r="H4" s="60" t="n">
-        <v>0.4871380148487102</v>
+        <v>0.3505172868682375</v>
       </c>
       <c r="I4" s="60" t="n">
-        <v>0.5517941784984022</v>
+        <v>0.493899845251168</v>
       </c>
       <c r="J4" s="60" t="n">
-        <v>0.4761579191157001</v>
+        <v>0.3840817552347064</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="47" t="n">
-        <v>1.361770634147663</v>
+        <v>1.478210839369554</v>
       </c>
       <c r="O4" s="47" t="n">
-        <v>1.567484828791086</v>
+        <v>1.127893302194549</v>
       </c>
       <c r="P4" s="47" t="n">
-        <v>1.433550144786578</v>
+        <v>1.157785021168184</v>
       </c>
       <c r="Q4" s="47" t="n">
-        <v>1.026184250682547</v>
+        <v>1.164754376182198</v>
       </c>
       <c r="R4" s="47" t="n">
-        <v>1.304494530914378</v>
+        <v>1.244332347501972</v>
       </c>
       <c r="S4" s="47" t="n">
-        <v>1.433763077405637</v>
+        <v>1.109718644450551</v>
       </c>
       <c r="T4" s="47" t="n">
-        <v>1.171294611485904</v>
+        <v>1.19132880602764</v>
       </c>
       <c r="U4" s="47" t="n">
-        <v>1.030952551851851</v>
+        <v>1.103974055447177</v>
       </c>
       <c r="V4" s="47" t="n">
-        <v>1.567484828791086</v>
+        <v>1.127893302194549</v>
       </c>
     </row>
     <row r="5">
@@ -23065,62 +23065,62 @@
         <v/>
       </c>
       <c r="B5" s="60" t="n">
-        <v>0.7835474444090466</v>
+        <v>0.5749363054925912</v>
       </c>
       <c r="C5" s="60" t="n">
-        <v>0.7463703143225929</v>
+        <v>0.4332032392243514</v>
       </c>
       <c r="D5" s="60" t="n">
-        <v>0.6122596976575135</v>
+        <v>0.5635994248823745</v>
       </c>
       <c r="E5" s="60" t="n">
-        <v>0.7875748598421074</v>
+        <v>0.6718189256175415</v>
       </c>
       <c r="F5" s="60" t="n">
-        <v>0.757745496894035</v>
+        <v>0.2982421096382992</v>
       </c>
       <c r="G5" s="60" t="n">
-        <v>0.7075398359551842</v>
+        <v>0.2135004665870149</v>
       </c>
       <c r="H5" s="60" t="n">
-        <v>0.5705821318422345</v>
+        <v>0.4175813408567852</v>
       </c>
       <c r="I5" s="60" t="n">
-        <v>0.5688736164199233</v>
+        <v>0.545252615146665</v>
       </c>
       <c r="J5" s="60" t="n">
-        <v>0.7463703143225929</v>
+        <v>0.4332032392243514</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="47" t="n">
-        <v>1.085705607178552</v>
+        <v>1.214456603871615</v>
       </c>
       <c r="O5" s="47" t="n">
-        <v>1.126835244967658</v>
+        <v>1.454412903114409</v>
       </c>
       <c r="P5" s="47" t="n">
-        <v>1.09590754345647</v>
+        <v>1.25621848581979</v>
       </c>
       <c r="Q5" s="47" t="n">
-        <v>1.006931568025627</v>
+        <v>1.260189958584516</v>
       </c>
       <c r="R5" s="47" t="n">
-        <v>1.052383041234521</v>
+        <v>1.818406230006612</v>
       </c>
       <c r="S5" s="47" t="n">
-        <v>1.085615841970787</v>
+        <v>2.30441429971318</v>
       </c>
       <c r="T5" s="47" t="n">
-        <v>1.067781821982804</v>
+        <v>1.331710464243302</v>
       </c>
       <c r="U5" s="47" t="n">
-        <v>1.004975927499292</v>
+        <v>1.458088869241502</v>
       </c>
       <c r="V5" s="47" t="n">
-        <v>1.126835244967658</v>
+        <v>1.454412903114409</v>
       </c>
     </row>
     <row r="6">
@@ -23129,62 +23129,62 @@
         <v/>
       </c>
       <c r="B6" s="60" t="n">
-        <v>0.8507018538853265</v>
+        <v>0.6982351930110258</v>
       </c>
       <c r="C6" s="60" t="n">
-        <v>0.8410363759762871</v>
+        <v>0.6300563807988548</v>
       </c>
       <c r="D6" s="60" t="n">
-        <v>0.6709800212172469</v>
+        <v>0.7080040161346411</v>
       </c>
       <c r="E6" s="60" t="n">
-        <v>0.793033988558377</v>
+        <v>0.8466194640502636</v>
       </c>
       <c r="F6" s="60" t="n">
-        <v>0.7974385105031077</v>
+        <v>0.5423253102165984</v>
       </c>
       <c r="G6" s="60" t="n">
-        <v>0.7681164547383599</v>
+        <v>0.4919935281985531</v>
       </c>
       <c r="H6" s="60" t="n">
-        <v>0.6092572283293336</v>
+        <v>0.5560974412917301</v>
       </c>
       <c r="I6" s="60" t="n">
-        <v>0.5717042902914888</v>
+        <v>0.7950267690701727</v>
       </c>
       <c r="J6" s="60" t="n">
-        <v>0.8410363759762871</v>
+        <v>0.6300563807988548</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="47" t="n">
-        <v>1.012304757469696</v>
+        <v>1.061819603061803</v>
       </c>
       <c r="O6" s="47" t="n">
-        <v>1.013028552716913</v>
+        <v>1.193336187570287</v>
       </c>
       <c r="P6" s="47" t="n">
-        <v>1.038260388880332</v>
+        <v>1.050002422245907</v>
       </c>
       <c r="Q6" s="47" t="n">
-        <v>1.113532649036582</v>
+        <v>1.034475149640775</v>
       </c>
       <c r="R6" s="47" t="n">
-        <v>1.025301389801676</v>
+        <v>1.110858866179403</v>
       </c>
       <c r="S6" s="47" t="n">
-        <v>1.031855670654757</v>
+        <v>1.168592292039867</v>
       </c>
       <c r="T6" s="47" t="n">
-        <v>1.063711341309514</v>
+        <v>1.037178608714699</v>
       </c>
       <c r="U6" s="47" t="n">
-        <v>1.099685698308941</v>
+        <v>1.01762750893502</v>
       </c>
       <c r="V6" s="47" t="n">
-        <v>1.013028552716913</v>
+        <v>1.193336187570287</v>
       </c>
     </row>
     <row r="7">
@@ -23193,62 +23193,62 @@
         <v/>
       </c>
       <c r="B7" s="60" t="n">
-        <v>0.8611695338764066</v>
+        <v>0.741399815486749</v>
       </c>
       <c r="C7" s="60" t="n">
-        <v>0.8519938627375352</v>
+        <v>0.7518690794168382</v>
       </c>
       <c r="D7" s="60" t="n">
-        <v>0.6966519777599519</v>
+        <v>0.7434059319012032</v>
       </c>
       <c r="E7" s="60" t="n">
-        <v>0.8830692380554561</v>
+        <v>0.8758067967621894</v>
       </c>
       <c r="F7" s="60" t="n">
-        <v>0.8176148131002148</v>
+        <v>0.6024468792076036</v>
       </c>
       <c r="G7" s="60" t="n">
-        <v>0.7925853195450046</v>
+        <v>0.5749398447863282</v>
       </c>
       <c r="H7" s="60" t="n">
-        <v>0.6480738235487122</v>
+        <v>0.5767723704687604</v>
       </c>
       <c r="I7" s="60" t="n">
-        <v>0.6286950316954136</v>
+        <v>0.8090411105455373</v>
       </c>
       <c r="J7" s="60" t="n">
-        <v>0.8519938627375352</v>
+        <v>0.7518690794168382</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="47" t="n">
-        <v>1.09973697063791</v>
+        <v>1.164065475128261</v>
       </c>
       <c r="O7" s="47" t="n">
-        <v>1.123252709395836</v>
+        <v>1.016449218332583</v>
       </c>
       <c r="P7" s="47" t="n">
-        <v>1.339782015659882</v>
+        <v>1.002839761008326</v>
       </c>
       <c r="Q7" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="47" t="n">
-        <v>1.061239820357787</v>
+        <v>1.090752190718385</v>
       </c>
       <c r="S7" s="47" t="n">
-        <v>1.088222841237984</v>
+        <v>1.047960670891285</v>
       </c>
       <c r="T7" s="47" t="n">
-        <v>1.176020980985095</v>
+        <v>1.004113595956968</v>
       </c>
       <c r="U7" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V7" s="47" t="n">
-        <v>1.123252709395836</v>
+        <v>1.016449218332583</v>
       </c>
     </row>
     <row r="8">
@@ -23257,62 +23257,62 @@
         <v/>
       </c>
       <c r="B8" s="60" t="n">
-        <v>0.9470599743909006</v>
+        <v>0.8630379284745878</v>
       </c>
       <c r="C8" s="60" t="n">
-        <v>0.9570044147085602</v>
+        <v>0.7642367380616842</v>
       </c>
       <c r="D8" s="60" t="n">
-        <v>0.9333617909766714</v>
+        <v>0.7455170270799746</v>
       </c>
       <c r="E8" s="60" t="n">
-        <v>0.8830692380554561</v>
+        <v>0.8758067967621894</v>
       </c>
       <c r="F8" s="60" t="n">
-        <v>0.8676853973763374</v>
+        <v>0.657120253287148</v>
       </c>
       <c r="G8" s="60" t="n">
-        <v>0.8625094483587799</v>
+        <v>0.6025143454644121</v>
       </c>
       <c r="H8" s="60" t="n">
-        <v>0.7621484137205181</v>
+        <v>0.5791449789600114</v>
       </c>
       <c r="I8" s="60" t="n">
-        <v>0.6286950316954136</v>
+        <v>0.8090411105455373</v>
       </c>
       <c r="J8" s="60" t="n">
-        <v>0.9570044147085602</v>
+        <v>0.7642367380616842</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="47" t="n">
-        <v>1.053388254663995</v>
+        <v>1.05830129749715</v>
       </c>
       <c r="O8" s="47" t="n">
-        <v>1.042424599599958</v>
+        <v>1.139452611990327</v>
       </c>
       <c r="P8" s="47" t="n">
-        <v>1.07046088420322</v>
+        <v>1.013107157006505</v>
       </c>
       <c r="Q8" s="47" t="n">
-        <v>1.13055817436678</v>
+        <v>1.032158398094317</v>
       </c>
       <c r="R8" s="47" t="n">
-        <v>1.147226781025436</v>
+        <v>1.11992950297543</v>
       </c>
       <c r="S8" s="47" t="n">
-        <v>1.155126995675582</v>
+        <v>1.161316696721731</v>
       </c>
       <c r="T8" s="47" t="n">
-        <v>1.310253991351165</v>
+        <v>1.020284568358025</v>
       </c>
       <c r="U8" s="47" t="n">
-        <v>1.58617425272848</v>
+        <v>1.033459090780157</v>
       </c>
       <c r="V8" s="47" t="n">
-        <v>1.042424599599958</v>
+        <v>1.139452611990327</v>
       </c>
     </row>
     <row r="9">
@@ -23321,62 +23321,62 @@
         <v/>
       </c>
       <c r="B9" s="60" t="n">
-        <v>0.9976218534857587</v>
+        <v>0.9133541594939085</v>
       </c>
       <c r="C9" s="60" t="n">
-        <v>0.9976049438179628</v>
+        <v>0.8708115473633534</v>
       </c>
       <c r="D9" s="60" t="n">
-        <v>0.9991272880503888</v>
+        <v>0.7552886358049344</v>
       </c>
       <c r="E9" s="60" t="n">
-        <v>0.9983611456154396</v>
+        <v>0.9039713403861767</v>
       </c>
       <c r="F9" s="60" t="n">
-        <v>0.9954319253748318</v>
+        <v>0.7359283586589646</v>
       </c>
       <c r="G9" s="60" t="n">
-        <v>0.9963079478244812</v>
+        <v>0.6997099694021865</v>
       </c>
       <c r="H9" s="60" t="n">
-        <v>0.9986080010792677</v>
+        <v>0.5908926848749327</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>0.9972198720935804</v>
+        <v>0.8361108905081597</v>
       </c>
       <c r="J9" s="60" t="n">
-        <v>0.9976049438179628</v>
+        <v>0.8708115473633534</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="47" t="n">
-        <v>1.001372656066724</v>
+        <v>1.026233037067138</v>
       </c>
       <c r="O9" s="47" t="n">
-        <v>1.001252252921128</v>
+        <v>1.075431898079739</v>
       </c>
       <c r="P9" s="47" t="n">
-        <v>1.000873474241019</v>
+        <v>1.24077959293326</v>
       </c>
       <c r="Q9" s="47" t="n">
-        <v>1.001641544637186</v>
+        <v>1</v>
       </c>
       <c r="R9" s="47" t="n">
-        <v>1.002883981757062</v>
+        <v>1.182898087569667</v>
       </c>
       <c r="S9" s="47" t="n">
-        <v>1.001630851953787</v>
+        <v>1.243492898127531</v>
       </c>
       <c r="T9" s="47" t="n">
-        <v>1.001393939282709</v>
+        <v>1.476107835231749</v>
       </c>
       <c r="U9" s="47" t="n">
-        <v>1.002787878565419</v>
+        <v>1</v>
       </c>
       <c r="V9" s="47" t="n">
-        <v>1.001252252921128</v>
+        <v>1.075431898079739</v>
       </c>
     </row>
     <row r="10">
@@ -23385,41 +23385,41 @@
         <v/>
       </c>
       <c r="B10" s="60" t="n">
-        <v>0.998991245175242</v>
+        <v>0.9373142130153365</v>
       </c>
       <c r="C10" s="60" t="n">
-        <v>0.9988541975229904</v>
+        <v>0.9364985152507255</v>
       </c>
       <c r="D10" s="60" t="n">
-        <v>1</v>
+        <v>0.9371467260811638</v>
       </c>
       <c r="E10" s="60" t="n">
-        <v>1</v>
+        <v>0.9039713403861767</v>
       </c>
       <c r="F10" s="60" t="n">
-        <v>0.9983027328880097</v>
+        <v>0.8705282480459734</v>
       </c>
       <c r="G10" s="60" t="n">
-        <v>0.997932778587764</v>
+        <v>0.8700843777006511</v>
       </c>
       <c r="H10" s="60" t="n">
-        <v>1</v>
+        <v>0.8722213219250128</v>
       </c>
       <c r="I10" s="60" t="n">
-        <v>1</v>
+        <v>0.8361108905081597</v>
       </c>
       <c r="J10" s="60" t="n">
-        <v>0.9988541975229904</v>
+        <v>0.9364985152507255</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="47" t="n">
-        <v>1.000899223665157</v>
+        <v>1.000446576604337</v>
       </c>
       <c r="O10" s="47" t="n">
-        <v>1.001026814951967</v>
+        <v>1.00104296347688</v>
       </c>
       <c r="P10" s="47" t="n">
         <v>1</v>
@@ -23428,10 +23428,10 @@
         <v>1</v>
       </c>
       <c r="R10" s="47" t="n">
-        <v>1.001053524046861</v>
+        <v>1.000654125679443</v>
       </c>
       <c r="S10" s="47" t="n">
-        <v>1.001316905058577</v>
+        <v>1.000817657099303</v>
       </c>
       <c r="T10" s="47" t="n">
         <v>1</v>
@@ -23440,7 +23440,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="47" t="n">
-        <v>1.001026814951967</v>
+        <v>1.00104296347688</v>
       </c>
     </row>
     <row r="11">
@@ -23449,62 +23449,62 @@
         <v/>
       </c>
       <c r="B11" s="60" t="n">
-        <v>0.9998895617441882</v>
+        <v>0.9377327956137819</v>
       </c>
       <c r="C11" s="60" t="n">
-        <v>0.9998798359478422</v>
+        <v>0.9374752489982839</v>
       </c>
       <c r="D11" s="60" t="n">
-        <v>1</v>
+        <v>0.9371467260811638</v>
       </c>
       <c r="E11" s="60" t="n">
-        <v>1</v>
+        <v>0.9039713403861767</v>
       </c>
       <c r="F11" s="60" t="n">
-        <v>0.9993544688231548</v>
+        <v>0.8710976829277003</v>
       </c>
       <c r="G11" s="60" t="n">
-        <v>0.9992469613120057</v>
+        <v>0.870795808369071</v>
       </c>
       <c r="H11" s="60" t="n">
-        <v>1</v>
+        <v>0.8722213219250128</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>1</v>
+        <v>0.8361108905081597</v>
       </c>
       <c r="J11" s="60" t="n">
-        <v>0.9998798359478422</v>
+        <v>0.9374752489982839</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="47" t="n">
-        <v>1.000110450453767</v>
+        <v>1.000659792860724</v>
       </c>
       <c r="O11" s="47" t="n">
-        <v>1.000120178493292</v>
+        <v>1.000934697764284</v>
       </c>
       <c r="P11" s="47" t="n">
-        <v>1</v>
+        <v>1.00128558197228</v>
       </c>
       <c r="Q11" s="47" t="n">
-        <v>1</v>
+        <v>1.002037001182827</v>
       </c>
       <c r="R11" s="47" t="n">
-        <v>1.000645948156519</v>
+        <v>1.002084326273479</v>
       </c>
       <c r="S11" s="47" t="n">
-        <v>1.000753606182605</v>
+        <v>1.002431713985726</v>
       </c>
       <c r="T11" s="47" t="n">
-        <v>1</v>
+        <v>1.000793391278779</v>
       </c>
       <c r="U11" s="47" t="n">
-        <v>1</v>
+        <v>1.001586782557559</v>
       </c>
       <c r="V11" s="47" t="n">
-        <v>1.000120178493292</v>
+        <v>1.000934697764284</v>
       </c>
     </row>
     <row r="12">
@@ -23513,31 +23513,31 @@
         <v/>
       </c>
       <c r="B12" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C12" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D12" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E12" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F12" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G12" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H12" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I12" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J12" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
@@ -23577,31 +23577,31 @@
         <v/>
       </c>
       <c r="B13" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C13" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D13" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E13" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F13" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G13" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H13" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I13" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J13" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -23641,31 +23641,31 @@
         <v/>
       </c>
       <c r="B14" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C14" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D14" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E14" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F14" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G14" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H14" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I14" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J14" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -23705,31 +23705,31 @@
         <v/>
       </c>
       <c r="B15" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C15" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D15" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E15" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F15" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G15" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H15" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I15" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J15" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -23769,31 +23769,31 @@
         <v/>
       </c>
       <c r="B16" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C16" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D16" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E16" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F16" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G16" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H16" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I16" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J16" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -23833,31 +23833,31 @@
         <v/>
       </c>
       <c r="B17" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C17" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D17" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E17" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F17" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G17" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H17" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I17" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J17" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
@@ -23897,31 +23897,31 @@
         <v/>
       </c>
       <c r="B18" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C18" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D18" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E18" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F18" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G18" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H18" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I18" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J18" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -23961,31 +23961,31 @@
         <v/>
       </c>
       <c r="B19" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C19" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D19" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E19" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F19" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G19" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H19" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J19" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -24025,31 +24025,31 @@
         <v/>
       </c>
       <c r="B20" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C20" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D20" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E20" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F20" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G20" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H20" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I20" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J20" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -24089,62 +24089,62 @@
         <v/>
       </c>
       <c r="B21" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="C21" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="D21" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="E21" s="60" t="n">
-        <v>1</v>
+        <v>0.9058127310757852</v>
       </c>
       <c r="F21" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="G21" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="H21" s="60" t="n">
-        <v>1</v>
+        <v>0.8729133347149935</v>
       </c>
       <c r="I21" s="60" t="n">
-        <v>1</v>
+        <v>0.8374376166854032</v>
       </c>
       <c r="J21" s="60" t="n">
-        <v>1</v>
+        <v>0.9383515050175947</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="47" t="n">
-        <v>1</v>
+        <v>1.065698722336732</v>
       </c>
       <c r="O21" s="47" t="n">
-        <v>1</v>
+        <v>1.065698722336732</v>
       </c>
       <c r="P21" s="47" t="n">
-        <v>1</v>
+        <v>1.065698722336732</v>
       </c>
       <c r="Q21" s="47" t="n">
-        <v>1</v>
+        <v>1.103980950689834</v>
       </c>
       <c r="R21" s="47" t="n">
-        <v>1</v>
+        <v>1.14558909828832</v>
       </c>
       <c r="S21" s="47" t="n">
-        <v>1</v>
+        <v>1.14558909828832</v>
       </c>
       <c r="T21" s="47" t="n">
-        <v>1</v>
+        <v>1.14558909828832</v>
       </c>
       <c r="U21" s="47" t="n">
-        <v>1</v>
+        <v>1.19411879771776</v>
       </c>
       <c r="V21" s="47" t="n">
-        <v>1</v>
+        <v>1.065698722336732</v>
       </c>
     </row>
     <row r="22">
@@ -24446,31 +24446,31 @@
         <v>1</v>
       </c>
       <c r="B56" s="60" t="n">
-        <v>0.02490882994353609</v>
+        <v>0.004131566460985436</v>
       </c>
       <c r="C56" s="60" t="n">
-        <v>0.01080604923989017</v>
+        <v>0.00122766166367628</v>
       </c>
       <c r="D56" s="60" t="n">
-        <v>0.01513050801924537</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="E56" s="60" t="n">
-        <v>0.02537870013238603</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F56" s="60" t="n">
-        <v>2.967422521433602e-05</v>
+        <v>6.917954223176163e-07</v>
       </c>
       <c r="G56" s="60" t="n">
-        <v>8.033283274233303e-06</v>
+        <v>1.582635994549832e-06</v>
       </c>
       <c r="H56" s="60" t="n">
-        <v>0.001956273838223617</v>
+        <v>0.002872628500287887</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>0.009300662516771739</v>
+        <v>0.000960072298088482</v>
       </c>
       <c r="J56" s="60" t="n">
-        <v>0.06251086818023831</v>
+        <v>0.0500841663091221</v>
       </c>
       <c r="M56" s="35" t="n">
         <v>1</v>
@@ -24509,62 +24509,62 @@
         <v/>
       </c>
       <c r="B57" s="60" t="n">
-        <v>0.02490882994353609</v>
+        <v>0.004131566460985436</v>
       </c>
       <c r="C57" s="60" t="n">
-        <v>0.01080604923989017</v>
+        <v>0.00122766166367628</v>
       </c>
       <c r="D57" s="60" t="n">
-        <v>0.01513050801924537</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="E57" s="60" t="n">
-        <v>0.02537870013238603</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F57" s="60" t="n">
-        <v>2.967422521433602e-05</v>
+        <v>6.917954223176163e-07</v>
       </c>
       <c r="G57" s="60" t="n">
-        <v>8.033283274233303e-06</v>
+        <v>1.582635994549832e-06</v>
       </c>
       <c r="H57" s="60" t="n">
-        <v>0.001956273838223617</v>
+        <v>0.002872628500287887</v>
       </c>
       <c r="I57" s="60" t="n">
-        <v>0.009300662516771739</v>
+        <v>0.000960072298088482</v>
       </c>
       <c r="J57" s="60" t="n">
-        <v>0.423407460888813</v>
+        <v>0.4111813958013659</v>
       </c>
       <c r="M57">
         <f>+M56+1</f>
         <v/>
       </c>
       <c r="N57" s="47" t="n">
-        <v>1.249368997900449</v>
+        <v>49.46320422535212</v>
       </c>
       <c r="O57" s="47" t="n">
-        <v>1.61431411530815</v>
+        <v>419.74</v>
       </c>
       <c r="P57" s="47" t="n">
-        <v>1.068571428571429</v>
+        <v/>
       </c>
       <c r="Q57" s="47" t="n">
         <v/>
       </c>
       <c r="R57" s="47" t="n">
-        <v>16.88920634920632</v>
+        <v>122.2613506493506</v>
       </c>
       <c r="S57" s="47" t="n">
-        <v>32.68952380952376</v>
+        <v>256.6190909090909</v>
       </c>
       <c r="T57" s="47" t="n">
-        <v>1.068571428571429</v>
+        <v/>
       </c>
       <c r="U57" s="47" t="n">
         <v/>
       </c>
       <c r="V57" s="47" t="n">
-        <v>0.894295181293193</v>
+        <v>139.9133333333333</v>
       </c>
     </row>
     <row r="58">
@@ -24573,62 +24573,62 @@
         <v/>
       </c>
       <c r="B58" s="60" t="n">
-        <v>0.03112031990542839</v>
+        <v>0.2043605156303379</v>
       </c>
       <c r="C58" s="60" t="n">
-        <v>0.01744435781866961</v>
+        <v>0.5152987067114817</v>
       </c>
       <c r="D58" s="60" t="n">
-        <v>0.01616802856913649</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="E58" s="60" t="n">
-        <v>0.02537870013238603</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F58" s="60" t="n">
-        <v>0.0005011741128977421</v>
+        <v>8.457984270558969e-05</v>
       </c>
       <c r="G58" s="60" t="n">
-        <v>0.0002626042048616985</v>
+        <v>0.0004061346101613829</v>
       </c>
       <c r="H58" s="60" t="n">
-        <v>0.002090418329987523</v>
+        <v>0.002872628500287887</v>
       </c>
       <c r="I58" s="60" t="n">
-        <v>0.009300662516771739</v>
+        <v>0.000960072298088482</v>
       </c>
       <c r="J58" s="60" t="n">
-        <v>0.5222368924671179</v>
+        <v>0.4693649930812432</v>
       </c>
       <c r="M58">
         <f>+M57+1</f>
         <v/>
       </c>
       <c r="N58" s="47" t="n">
-        <v>2.2714853472501</v>
+        <v>1.040564560212176</v>
       </c>
       <c r="O58" s="47" t="n">
-        <v>2.892124948623099</v>
+        <v>1.000209180973644</v>
       </c>
       <c r="P58" s="47" t="n">
-        <v>1.146103896103896</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="47" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="R58" s="47" t="n">
-        <v>4.899682631486033</v>
+        <v>2.090399112296434</v>
       </c>
       <c r="S58" s="47" t="n">
-        <v>6.817578818005281</v>
+        <v>1.004809523809524</v>
       </c>
       <c r="T58" s="47" t="n">
-        <v>2.034722222222222</v>
+        <v>1</v>
       </c>
       <c r="U58" s="47" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="V58" s="47" t="n">
-        <v>3.012742948242332</v>
+        <v>0.6667363936578813</v>
       </c>
     </row>
     <row r="59">
@@ -24637,62 +24637,62 @@
         <v/>
       </c>
       <c r="B59" s="60" t="n">
-        <v>0.07068935066691621</v>
+        <v>0.2126503100716161</v>
       </c>
       <c r="C59" s="60" t="n">
-        <v>0.05045126246008279</v>
+        <v>0.5154064973966691</v>
       </c>
       <c r="D59" s="60" t="n">
-        <v>0.01853024053540642</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="E59" s="60" t="n">
-        <v>0.1268935006619302</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F59" s="60" t="n">
-        <v>0.002455594096315487</v>
+        <v>0.0001768056281099367</v>
       </c>
       <c r="G59" s="60" t="n">
-        <v>0.001790324864584235</v>
+        <v>0.0004080879242388258</v>
       </c>
       <c r="H59" s="60" t="n">
-        <v>0.004253420629766279</v>
+        <v>0.002872628500287887</v>
       </c>
       <c r="I59" s="60" t="n">
-        <v>0.0465033125838587</v>
+        <v>0.000960072298088482</v>
       </c>
       <c r="J59" s="60" t="n">
-        <v>0.7070749120593184</v>
+        <v>0.5384844538589735</v>
       </c>
       <c r="M59">
         <f>+M58+1</f>
         <v/>
       </c>
       <c r="N59" s="47" t="n">
-        <v>1.838429413937476</v>
+        <v>1.185714928341269</v>
       </c>
       <c r="O59" s="47" t="n">
-        <v>1.719836849862898</v>
+        <v>1.099258114140778</v>
       </c>
       <c r="P59" s="47" t="n">
-        <v>5.241519674355495</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="47" t="n">
-        <v>4.417721518987342</v>
+        <v>1</v>
       </c>
       <c r="R59" s="47" t="n">
-        <v>10.04384307716911</v>
+        <v>6.477407597835469</v>
       </c>
       <c r="S59" s="47" t="n">
-        <v>6.356365163621117</v>
+        <v>5.557224424191935</v>
       </c>
       <c r="T59" s="47" t="n">
-        <v>11.60421850382381</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="U59" s="47" t="n">
-        <v>3.898395721925134</v>
+        <v>1</v>
       </c>
       <c r="V59" s="47" t="n">
-        <v>3.793026014401912</v>
+        <v>1.033086038046926</v>
       </c>
     </row>
     <row r="60">
@@ -24701,62 +24701,62 @@
         <v/>
       </c>
       <c r="B60" s="60" t="n">
-        <v>0.1299573815181995</v>
+        <v>0.252142647168315</v>
       </c>
       <c r="C60" s="60" t="n">
-        <v>0.0867679403009551</v>
+        <v>0.5665647743441664</v>
       </c>
       <c r="D60" s="60" t="n">
-        <v>0.09712662033687247</v>
+        <v>0.08212862870091234</v>
       </c>
       <c r="E60" s="60" t="n">
-        <v>0.5605801484938434</v>
+        <v>0.001634732826461287</v>
       </c>
       <c r="F60" s="60" t="n">
-        <v>0.02466360176461563</v>
+        <v>0.001145242118859376</v>
       </c>
       <c r="G60" s="60" t="n">
-        <v>0.01137995860080793</v>
+        <v>0.00226783617979779</v>
       </c>
       <c r="H60" s="60" t="n">
-        <v>0.04935762237647978</v>
+        <v>0.00287262850028789</v>
       </c>
       <c r="I60" s="60" t="n">
-        <v>0.181288314832262</v>
+        <v>0.000960072298088482</v>
       </c>
       <c r="J60" s="60" t="n">
-        <v>0.7613543523896437</v>
+        <v>0.7175747476432084</v>
       </c>
       <c r="M60">
         <f>+M59+1</f>
         <v/>
       </c>
       <c r="N60" s="47" t="n">
-        <v>2.192026690174221</v>
+        <v>1.437487778298332</v>
       </c>
       <c r="O60" s="47" t="n">
-        <v>2.638938611943346</v>
+        <v>1.020510053582427</v>
       </c>
       <c r="P60" s="47" t="n">
-        <v>1.640778261748616</v>
+        <v>1.013847796663198</v>
       </c>
       <c r="Q60" s="47" t="n">
-        <v>1.714613970588236</v>
+        <v>1.014113699855119</v>
       </c>
       <c r="R60" s="47" t="n">
-        <v>4.243132641426098</v>
+        <v>3.828028759743751</v>
       </c>
       <c r="S60" s="47" t="n">
-        <v>5.768819597867093</v>
+        <v>1.204347008435828</v>
       </c>
       <c r="T60" s="47" t="n">
-        <v>3.402359750216149</v>
+        <v>1.002395491393409</v>
       </c>
       <c r="U60" s="47" t="n">
-        <v>5.342005420054201</v>
+        <v>1.004790982786818</v>
       </c>
       <c r="V60" s="47" t="n">
-        <v>1.998110281426732</v>
+        <v>1.016157183366915</v>
       </c>
     </row>
     <row r="61">
@@ -24765,62 +24765,62 @@
         <v/>
       </c>
       <c r="B61" s="60" t="n">
-        <v>0.2848700488730473</v>
+        <v>0.3624519736922412</v>
       </c>
       <c r="C61" s="60" t="n">
-        <v>0.2289752679389855</v>
+        <v>0.5781850482238807</v>
       </c>
       <c r="D61" s="60" t="n">
-        <v>0.1593632472858514</v>
+        <v>0.08326592925138984</v>
       </c>
       <c r="E61" s="60" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.001657804954917273</v>
       </c>
       <c r="F61" s="60" t="n">
-        <v>0.1046509337025749</v>
+        <v>0.004384019767863565</v>
       </c>
       <c r="G61" s="60" t="n">
-        <v>0.06564892819925694</v>
+        <v>0.002731261718762004</v>
       </c>
       <c r="H61" s="60" t="n">
-        <v>0.1679323877401028</v>
+        <v>0.002879509857136791</v>
       </c>
       <c r="I61" s="60" t="n">
-        <v>0.9684431604264359</v>
+        <v>0.0009646719879427245</v>
       </c>
       <c r="J61" s="60" t="n">
-        <v>0.801802800124275</v>
+        <v>0.7859610120274475</v>
       </c>
       <c r="M61">
         <f>+M60+1</f>
         <v/>
       </c>
       <c r="N61" s="47" t="n">
-        <v>2.479617613063654</v>
+        <v>1.739911042545596</v>
       </c>
       <c r="O61" s="47" t="n">
-        <v>3.02317612117084</v>
+        <v>1.088565886635734</v>
       </c>
       <c r="P61" s="47" t="n">
-        <v>5.891158797390517</v>
+        <v>11.45723383354222</v>
       </c>
       <c r="Q61" s="47" t="n">
-        <v>1</v>
+        <v>105.5136066138479</v>
       </c>
       <c r="R61" s="47" t="n">
-        <v>3.383563254729211</v>
+        <v>62.43102285984155</v>
       </c>
       <c r="S61" s="47" t="n">
-        <v>4.574271571042956</v>
+        <v>93.41668208150777</v>
       </c>
       <c r="T61" s="47" t="n">
-        <v>5.623980953453476</v>
+        <v>170.4305838160976</v>
       </c>
       <c r="U61" s="47" t="n">
-        <v>1</v>
+        <v>336.9944629014407</v>
       </c>
       <c r="V61" s="47" t="n">
-        <v>3.304778306187119</v>
+        <v>39.35313544467527</v>
       </c>
     </row>
     <row r="62">
@@ -24829,62 +24829,62 @@
         <v/>
       </c>
       <c r="B62" s="60" t="n">
-        <v>0.7063687906199121</v>
+        <v>0.6306341914195764</v>
       </c>
       <c r="C62" s="60" t="n">
-        <v>0.6922325623718361</v>
+        <v>0.6293925196593533</v>
       </c>
       <c r="D62" s="60" t="n">
-        <v>0.9388341962287637</v>
+        <v>0.9539972218003563</v>
       </c>
       <c r="E62" s="60" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.1749209798556289</v>
       </c>
       <c r="F62" s="60" t="n">
-        <v>0.3540930538491353</v>
+        <v>0.2736988383454874</v>
       </c>
       <c r="G62" s="60" t="n">
-        <v>0.3002960259313013</v>
+        <v>0.2551454076629827</v>
       </c>
       <c r="H62" s="60" t="n">
-        <v>0.9444485501183021</v>
+        <v>0.490756546056031</v>
       </c>
       <c r="I62" s="60" t="n">
-        <v>0.9684431604264359</v>
+        <v>0.3250891184528236</v>
       </c>
       <c r="J62" s="60" t="n">
-        <v>0.923435727757307</v>
+        <v>0.7912121877281318</v>
       </c>
       <c r="M62">
         <f>+M61+1</f>
         <v/>
       </c>
       <c r="N62" s="47" t="n">
-        <v>1.014051887466975</v>
+        <v>1.005287017665431</v>
       </c>
       <c r="O62" s="47" t="n">
-        <v>1.015302540344692</v>
+        <v>1.000154291700804</v>
       </c>
       <c r="P62" s="47" t="n">
-        <v>1.008652652254232</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R62" s="47" t="n">
-        <v>1.078156787356427</v>
+        <v>1.002312938072874</v>
       </c>
       <c r="S62" s="47" t="n">
-        <v>1.109876595170709</v>
+        <v>1.000177904287493</v>
       </c>
       <c r="T62" s="47" t="n">
-        <v>1.005841677000593</v>
+        <v>1</v>
       </c>
       <c r="U62" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V62" s="47" t="n">
-        <v>1.007985064199641</v>
+        <v>1.000051430566935</v>
       </c>
     </row>
     <row r="63">
@@ -24893,62 +24893,62 @@
         <v/>
       </c>
       <c r="B63" s="60" t="n">
-        <v>0.7162946053758861</v>
+        <v>0.6339683655300363</v>
       </c>
       <c r="C63" s="60" t="n">
-        <v>0.7028254790854404</v>
+        <v>0.6294896297016846</v>
       </c>
       <c r="D63" s="60" t="n">
-        <v>0.9469576020531129</v>
+        <v>0.9539972218003563</v>
       </c>
       <c r="E63" s="60" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.1749209798556289</v>
       </c>
       <c r="F63" s="60" t="n">
-        <v>0.38176782936321</v>
+        <v>0.2743318868091981</v>
       </c>
       <c r="G63" s="60" t="n">
-        <v>0.3332915308039276</v>
+        <v>0.2551907991249402</v>
       </c>
       <c r="H63" s="60" t="n">
-        <v>0.9499657134917718</v>
+        <v>0.490756546056031</v>
       </c>
       <c r="I63" s="60" t="n">
-        <v>0.9684431604264359</v>
+        <v>0.3250891184528236</v>
       </c>
       <c r="J63" s="60" t="n">
-        <v>0.9983640722695176</v>
+        <v>0.8383211117276036</v>
       </c>
       <c r="M63">
         <f>+M62+1</f>
         <v/>
       </c>
       <c r="N63" s="47" t="n">
-        <v>1.006944116400934</v>
+        <v>1.002111650122151</v>
       </c>
       <c r="O63" s="47" t="n">
-        <v>1.007618474801393</v>
+        <v>1.005196789123066</v>
       </c>
       <c r="P63" s="47" t="n">
-        <v>1.012400115843187</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R63" s="47" t="n">
-        <v>1.011961722488038</v>
+        <v>1.004408854166667</v>
       </c>
       <c r="S63" s="47" t="n">
-        <v>1.015948963317384</v>
+        <v>1.006012073863636</v>
       </c>
       <c r="T63" s="47" t="n">
-        <v>1.031897926634769</v>
+        <v>1</v>
       </c>
       <c r="U63" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V63" s="47" t="n">
-        <v>1.006672863548194</v>
+        <v>1.001732263041022</v>
       </c>
     </row>
     <row r="64">
@@ -24957,62 +24957,62 @@
         <v/>
       </c>
       <c r="B64" s="60" t="n">
-        <v>0.7212686384929771</v>
+        <v>0.6353070849065474</v>
       </c>
       <c r="C64" s="60" t="n">
-        <v>0.7081799372876301</v>
+        <v>0.6327609545624012</v>
       </c>
       <c r="D64" s="60" t="n">
-        <v>0.9586999860171583</v>
+        <v>0.9539972218003563</v>
       </c>
       <c r="E64" s="60" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.1749209798556289</v>
       </c>
       <c r="F64" s="60" t="n">
-        <v>0.3863344301929134</v>
+        <v>0.2755413760914064</v>
       </c>
       <c r="G64" s="60" t="n">
-        <v>0.3386071852027143</v>
+        <v>0.2567250250585997</v>
       </c>
       <c r="H64" s="60" t="n">
-        <v>0.980267650126278</v>
+        <v>0.490756546056031</v>
       </c>
       <c r="I64" s="60" t="n">
-        <v>0.9684431604264359</v>
+        <v>0.3250891184528236</v>
       </c>
       <c r="J64" s="60" t="n">
-        <v>0.9996177738705662</v>
+        <v>0.9256099961245983</v>
       </c>
       <c r="M64">
         <f>+M63+1</f>
         <v/>
       </c>
       <c r="N64" s="47" t="n">
-        <v>1.295675985301017</v>
+        <v>1.016087394683013</v>
       </c>
       <c r="O64" s="47" t="n">
-        <v>1.319909117286895</v>
+        <v>1.020175970201545</v>
       </c>
       <c r="P64" s="47" t="n">
-        <v>1.000064425484454</v>
+        <v>1.046479419182819</v>
       </c>
       <c r="Q64" s="47" t="n">
-        <v>1</v>
+        <v>5.706543871190048</v>
       </c>
       <c r="R64" s="47" t="n">
-        <v>2.302992505160195</v>
+        <v>1.414777699559678</v>
       </c>
       <c r="S64" s="47" t="n">
-        <v>2.628740631450243</v>
+        <v>1.518472124449597</v>
       </c>
       <c r="T64" s="47" t="n">
-        <v>1.000176143169168</v>
+        <v>2.036944248899195</v>
       </c>
       <c r="U64" s="47" t="n">
-        <v>1</v>
+        <v>3.073888497798389</v>
       </c>
       <c r="V64" s="47" t="n">
-        <v>1.10665784759045</v>
+        <v>2.591066420191471</v>
       </c>
     </row>
     <row r="65">
@@ -25021,62 +25021,62 @@
         <v/>
       </c>
       <c r="B65" s="60" t="n">
-        <v>0.9345304538461112</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="C65" s="60" t="n">
-        <v>0.9347331559056047</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="D65" s="60" t="n">
-        <v>0.9587617507282035</v>
+        <v>0.9983384585716595</v>
       </c>
       <c r="E65" s="60" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.998194245537697</v>
       </c>
       <c r="F65" s="60" t="n">
-        <v>0.8897252972196139</v>
+        <v>0.3898297942001079</v>
       </c>
       <c r="G65" s="60" t="n">
-        <v>0.8901104658433726</v>
+        <v>0.3898297942001079</v>
       </c>
       <c r="H65" s="60" t="n">
-        <v>0.9804403175768042</v>
+        <v>0.9996437240984651</v>
       </c>
       <c r="I65" s="60" t="n">
-        <v>0.9684431604264359</v>
+        <v>0.9992877019715524</v>
       </c>
       <c r="J65" s="60" t="n">
-        <v>0.999959942106935</v>
+        <v>0.9259278248941101</v>
       </c>
       <c r="M65">
         <f>+M64+1</f>
         <v/>
       </c>
       <c r="N65" s="47" t="n">
-        <v>1.001785458077005</v>
+        <v>1</v>
       </c>
       <c r="O65" s="47" t="n">
-        <v>1.00147293761682</v>
+        <v>1</v>
       </c>
       <c r="P65" s="47" t="n">
-        <v>1.002091530972785</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R65" s="47" t="n">
-        <v>1.00368703237904</v>
+        <v>1</v>
       </c>
       <c r="S65" s="47" t="n">
-        <v>1.003001871975324</v>
+        <v>1</v>
       </c>
       <c r="T65" s="47" t="n">
-        <v>1.001268851163124</v>
+        <v>1</v>
       </c>
       <c r="U65" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V65" s="47" t="n">
-        <v>1.001188156196535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -25085,62 +25085,62 @@
         <v/>
       </c>
       <c r="B66" s="60" t="n">
-        <v>0.9361990187931383</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="C66" s="60" t="n">
-        <v>0.9361099595326268</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="D66" s="60" t="n">
-        <v>0.9607670306253729</v>
+        <v>0.9983384585716595</v>
       </c>
       <c r="E66" s="60" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.998194245537697</v>
       </c>
       <c r="F66" s="60" t="n">
-        <v>0.893005743198914</v>
+        <v>0.3898297942001079</v>
       </c>
       <c r="G66" s="60" t="n">
-        <v>0.8927824635057305</v>
+        <v>0.3898297942001079</v>
       </c>
       <c r="H66" s="60" t="n">
-        <v>0.9816843504141355</v>
+        <v>0.9996437240984651</v>
       </c>
       <c r="I66" s="60" t="n">
-        <v>0.9684431604264359</v>
+        <v>0.9992877019715524</v>
       </c>
       <c r="J66" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M66">
         <f>+M65+1</f>
         <v/>
       </c>
       <c r="N66" s="47" t="n">
-        <v>1.00253470663825</v>
+        <v>1</v>
       </c>
       <c r="O66" s="47" t="n">
-        <v>1.002630085390181</v>
+        <v>1</v>
       </c>
       <c r="P66" s="47" t="n">
-        <v>1.003273918910143</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R66" s="47" t="n">
-        <v>1.003010163987256</v>
+        <v>1</v>
       </c>
       <c r="S66" s="47" t="n">
-        <v>1.003261010986193</v>
+        <v>1</v>
       </c>
       <c r="T66" s="47" t="n">
-        <v>1.001829761155812</v>
+        <v>1</v>
       </c>
       <c r="U66" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V66" s="47" t="n">
-        <v>1.001968001433441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -25149,62 +25149,62 @@
         <v/>
       </c>
       <c r="B67" s="60" t="n">
-        <v>0.9385720086607962</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="C67" s="60" t="n">
-        <v>0.9385720086607962</v>
+        <v>0.6455275207263533</v>
       </c>
       <c r="D67" s="60" t="n">
-        <v>0.9639125039751787</v>
+        <v>0.9983384585716595</v>
       </c>
       <c r="E67" s="60" t="n">
-        <v>0.9611785542419717</v>
+        <v>0.998194245537697</v>
       </c>
       <c r="F67" s="60" t="n">
-        <v>0.8956938369275036</v>
+        <v>0.3898297942001079</v>
       </c>
       <c r="G67" s="60" t="n">
-        <v>0.8956938369275036</v>
+        <v>0.3898297942001079</v>
       </c>
       <c r="H67" s="60" t="n">
-        <v>0.9834805983057916</v>
+        <v>0.9996437240984651</v>
       </c>
       <c r="I67" s="60" t="n">
-        <v>0.9684431604264359</v>
+        <v>0.9992877019715524</v>
       </c>
       <c r="J67" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M67">
         <f>+M66+1</f>
         <v/>
       </c>
       <c r="N67" s="47" t="n">
-        <v>1.001063401698799</v>
+        <v>1.596384464530275</v>
       </c>
       <c r="O67" s="47" t="n">
-        <v>1.001063401698799</v>
+        <v>1.596384464530275</v>
       </c>
       <c r="P67" s="47" t="n">
-        <v>1</v>
+        <v>1.001664306742943</v>
       </c>
       <c r="Q67" s="47" t="n">
-        <v>1</v>
+        <v>1.001809021110245</v>
       </c>
       <c r="R67" s="47" t="n">
-        <v>1.002630969173221</v>
+        <v>2.574911911048376</v>
       </c>
       <c r="S67" s="47" t="n">
-        <v>1.002630969173221</v>
+        <v>2.574911911048376</v>
       </c>
       <c r="T67" s="47" t="n">
-        <v>1</v>
+        <v>1.000356402879292</v>
       </c>
       <c r="U67" s="47" t="n">
-        <v>1</v>
+        <v>1.000712805758584</v>
       </c>
       <c r="V67" s="47" t="n">
-        <v>1.000354467232933</v>
+        <v>1.199952597461154</v>
       </c>
     </row>
     <row r="68">
@@ -25213,62 +25213,62 @@
         <v/>
       </c>
       <c r="B68" s="60" t="n">
-        <v>0.9395700877292513</v>
+        <v>1.030510105514296</v>
       </c>
       <c r="C68" s="60" t="n">
-        <v>0.9395700877292513</v>
+        <v>1.030510105514296</v>
       </c>
       <c r="D68" s="60" t="n">
-        <v>0.9639125039751787</v>
+        <v>1</v>
       </c>
       <c r="E68" s="60" t="n">
-        <v>0.9611785542419717</v>
+        <v>1</v>
       </c>
       <c r="F68" s="60" t="n">
-        <v>0.898050379801104</v>
+        <v>1.003777380367395</v>
       </c>
       <c r="G68" s="60" t="n">
-        <v>0.898050379801104</v>
+        <v>1.003777380367395</v>
       </c>
       <c r="H68" s="60" t="n">
-        <v>0.9834805983057916</v>
+        <v>1</v>
       </c>
       <c r="I68" s="60" t="n">
-        <v>0.9684431604264359</v>
+        <v>1</v>
       </c>
       <c r="J68" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M68">
         <f>+M67+1</f>
         <v/>
       </c>
       <c r="N68" s="47" t="n">
-        <v>1.018206146005138</v>
+        <v>0.9675662724012861</v>
       </c>
       <c r="O68" s="47" t="n">
-        <v>1.018206146005138</v>
+        <v>0.9675662724012861</v>
       </c>
       <c r="P68" s="47" t="n">
-        <v>1.037367387962183</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="47" t="n">
-        <v>1.040389421493746</v>
+        <v>1</v>
       </c>
       <c r="R68" s="47" t="n">
-        <v>1.008886851747707</v>
+        <v>0.9943500065583616</v>
       </c>
       <c r="S68" s="47" t="n">
-        <v>1.008886851747707</v>
+        <v>0.9943500065583616</v>
       </c>
       <c r="T68" s="47" t="n">
-        <v>1.016292561537462</v>
+        <v>1</v>
       </c>
       <c r="U68" s="47" t="n">
-        <v>1.032585123074924</v>
+        <v>1</v>
       </c>
       <c r="V68" s="47" t="n">
-        <v>1.031987651820356</v>
+        <v>0.9891887574670953</v>
       </c>
     </row>
     <row r="69">
@@ -25277,62 +25277,62 @@
         <v/>
       </c>
       <c r="B69" s="60" t="n">
-        <v>0.9566760379285109</v>
+        <v>0.997086821464323</v>
       </c>
       <c r="C69" s="60" t="n">
-        <v>0.9566760379285109</v>
+        <v>0.997086821464323</v>
       </c>
       <c r="D69" s="60" t="n">
-        <v>0.9999313964728184</v>
+        <v>1</v>
       </c>
       <c r="E69" s="60" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="60" t="n">
-        <v>0.9060312203883679</v>
+        <v>0.9981060447514544</v>
       </c>
       <c r="G69" s="60" t="n">
-        <v>0.9060312203883679</v>
+        <v>0.9981060447514544</v>
       </c>
       <c r="H69" s="60" t="n">
-        <v>0.9995040164745886</v>
+        <v>1</v>
       </c>
       <c r="I69" s="60" t="n">
         <v>1</v>
       </c>
       <c r="J69" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M69">
         <f>+M68+1</f>
         <v/>
       </c>
       <c r="N69" s="47" t="n">
-        <v>1.000060392877409</v>
+        <v>1.002770694237577</v>
       </c>
       <c r="O69" s="47" t="n">
-        <v>1.000060392877409</v>
+        <v>1.002770694237577</v>
       </c>
       <c r="P69" s="47" t="n">
-        <v>1.000068608233948</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R69" s="47" t="n">
-        <v>1.000297737788285</v>
+        <v>1.00059102568918</v>
       </c>
       <c r="S69" s="47" t="n">
-        <v>1.000297737788285</v>
+        <v>1.00059102568918</v>
       </c>
       <c r="T69" s="47" t="n">
-        <v>1.000496229647141</v>
+        <v>1</v>
       </c>
       <c r="U69" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V69" s="47" t="n">
-        <v>1.000043000370453</v>
+        <v>1.000923564745859</v>
       </c>
     </row>
     <row r="70">
@@ -25341,10 +25341,10 @@
         <v/>
       </c>
       <c r="B70" s="60" t="n">
-        <v>0.9567338143471895</v>
+        <v>0.9998494441749185</v>
       </c>
       <c r="C70" s="60" t="n">
-        <v>0.9567338143471895</v>
+        <v>0.9998494441749185</v>
       </c>
       <c r="D70" s="60" t="n">
         <v>1</v>
@@ -25353,10 +25353,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="60" t="n">
-        <v>0.9063009801200432</v>
+        <v>0.9986959510644283</v>
       </c>
       <c r="G70" s="60" t="n">
-        <v>0.9063009801200432</v>
+        <v>0.9986959510644283</v>
       </c>
       <c r="H70" s="60" t="n">
         <v>1</v>
@@ -25365,17 +25365,17 @@
         <v>1</v>
       </c>
       <c r="J70" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M70">
         <f>+M69+1</f>
         <v/>
       </c>
       <c r="N70" s="47" t="n">
-        <v>1.006899573790328</v>
+        <v>1.000124002137088</v>
       </c>
       <c r="O70" s="47" t="n">
-        <v>1.006899573790328</v>
+        <v>1.000124002137088</v>
       </c>
       <c r="P70" s="47" t="n">
         <v>1</v>
@@ -25384,10 +25384,10 @@
         <v>1</v>
       </c>
       <c r="R70" s="47" t="n">
-        <v>1.025562372188139</v>
+        <v>1.001280492880002</v>
       </c>
       <c r="S70" s="47" t="n">
-        <v>1.025562372188139</v>
+        <v>1.001280492880002</v>
       </c>
       <c r="T70" s="47" t="n">
         <v>1</v>
@@ -25396,7 +25396,7 @@
         <v>1</v>
       </c>
       <c r="V70" s="47" t="n">
-        <v>1.002299857930109</v>
+        <v>1.000041334045696</v>
       </c>
     </row>
     <row r="71">
@@ -25405,10 +25405,10 @@
         <v/>
       </c>
       <c r="B71" s="60" t="n">
-        <v>0.9633348698969803</v>
+        <v>0.9999734276427628</v>
       </c>
       <c r="C71" s="60" t="n">
-        <v>0.9633348698969803</v>
+        <v>0.9999734276427628</v>
       </c>
       <c r="D71" s="60" t="n">
         <v>1</v>
@@ -25417,10 +25417,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="60" t="n">
-        <v>0.9294681830883472</v>
+        <v>0.9999747741190533</v>
       </c>
       <c r="G71" s="60" t="n">
-        <v>0.9294681830883472</v>
+        <v>0.9999747741190533</v>
       </c>
       <c r="H71" s="60" t="n">
         <v>1</v>
@@ -25429,17 +25429,17 @@
         <v>1</v>
       </c>
       <c r="J71" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M71">
         <f>+M70+1</f>
         <v/>
       </c>
       <c r="N71" s="47" t="n">
-        <v>1.038060627979698</v>
+        <v>1.000026573063346</v>
       </c>
       <c r="O71" s="47" t="n">
-        <v>1.038060627979698</v>
+        <v>1.000026573063346</v>
       </c>
       <c r="P71" s="47" t="n">
         <v>1</v>
@@ -25448,10 +25448,10 @@
         <v>1</v>
       </c>
       <c r="R71" s="47" t="n">
-        <v>1.075884057351266</v>
+        <v>1.000025226517308</v>
       </c>
       <c r="S71" s="47" t="n">
-        <v>1.075884057351266</v>
+        <v>1.000025226517308</v>
       </c>
       <c r="T71" s="47" t="n">
         <v>1</v>
@@ -25460,7 +25460,7 @@
         <v>1</v>
       </c>
       <c r="V71" s="47" t="n">
-        <v>1.012686875993233</v>
+        <v>1.000008857687782</v>
       </c>
     </row>
     <row r="72">
@@ -25493,7 +25493,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M72">
         <f>+M71+1</f>
@@ -25557,7 +25557,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M73">
         <f>+M72+1</f>
@@ -25621,7 +25621,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M74">
         <f>+M73+1</f>
@@ -25685,7 +25685,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="60" t="n">
-        <v>1</v>
+        <v>0.9272485729333471</v>
       </c>
       <c r="M75">
         <f>+M74+1</f>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="L4" s="14" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="N4" s="61" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v/>
       </c>
       <c r="B8" s="12" t="n">
-        <v>4124.96</v>
+        <v>14868.31</v>
       </c>
       <c r="C8" s="12">
         <f>'Completion Factors'!J30</f>
@@ -26267,7 +26267,7 @@
         <v/>
       </c>
       <c r="E8" s="12" t="n">
-        <v>5468.03</v>
+        <v>14570.01</v>
       </c>
       <c r="F8" s="12">
         <f>'Completion Factors'!U30</f>
@@ -26295,7 +26295,7 @@
         <v/>
       </c>
       <c r="M8" s="12" t="n">
-        <v>32329.92083333333</v>
+        <v>27160.43333333333</v>
       </c>
       <c r="N8" s="12">
         <f>100*$K8/$M8</f>
@@ -26320,7 +26320,7 @@
         <v/>
       </c>
       <c r="B9" s="12" t="n">
-        <v>4292</v>
+        <v>1228.809999999999</v>
       </c>
       <c r="C9" s="12">
         <f>'Completion Factors'!J29</f>
@@ -26331,7 +26331,7 @@
         <v/>
       </c>
       <c r="E9" s="12" t="n">
-        <v>1083.89</v>
+        <v>3233.75</v>
       </c>
       <c r="F9" s="12">
         <f>'Completion Factors'!U29</f>
@@ -26359,7 +26359,7 @@
         <v/>
       </c>
       <c r="M9" s="12" t="n">
-        <v>31034.5525</v>
+        <v>26614.09</v>
       </c>
       <c r="N9" s="12">
         <f>100*$K9/$M9</f>
@@ -26384,7 +26384,7 @@
         <v/>
       </c>
       <c r="B10" s="12" t="n">
-        <v>2406</v>
+        <v>54633.35999999999</v>
       </c>
       <c r="C10" s="12">
         <f>'Completion Factors'!J28</f>
@@ -26395,7 +26395,7 @@
         <v/>
       </c>
       <c r="E10" s="12" t="n">
-        <v>4051.02</v>
+        <v>17306.21</v>
       </c>
       <c r="F10" s="12">
         <f>'Completion Factors'!U28</f>
@@ -26423,7 +26423,7 @@
         <v/>
       </c>
       <c r="M10" s="12" t="n">
-        <v>30824.57333333333</v>
+        <v>25974.00583333333</v>
       </c>
       <c r="N10" s="12">
         <f>100*$K10/$M10</f>
@@ -26448,7 +26448,7 @@
         <v/>
       </c>
       <c r="B11" s="12" t="n">
-        <v>1355</v>
+        <v>38218.8</v>
       </c>
       <c r="C11" s="12">
         <f>'Completion Factors'!J27</f>
@@ -26459,7 +26459,7 @@
         <v/>
       </c>
       <c r="E11" s="12" t="n">
-        <v>997.52</v>
+        <v>7064.620000000001</v>
       </c>
       <c r="F11" s="12">
         <f>'Completion Factors'!U27</f>
@@ -26487,7 +26487,7 @@
         <v/>
       </c>
       <c r="M11" s="12" t="n">
-        <v>29878.27166666667</v>
+        <v>25374.62833333333</v>
       </c>
       <c r="N11" s="12">
         <f>100*$K11/$M11</f>
@@ -26512,7 +26512,7 @@
         <v/>
       </c>
       <c r="B12" s="12" t="n">
-        <v>34166</v>
+        <v>219</v>
       </c>
       <c r="C12" s="12">
         <f>'Completion Factors'!J26</f>
@@ -26523,7 +26523,7 @@
         <v/>
       </c>
       <c r="E12" s="12" t="n">
-        <v>3794.570000000001</v>
+        <v>7041.98</v>
       </c>
       <c r="F12" s="12">
         <f>'Completion Factors'!U26</f>
@@ -26551,7 +26551,7 @@
         <v/>
       </c>
       <c r="M12" s="12" t="n">
-        <v>29592.0675</v>
+        <v>24674.52916666666</v>
       </c>
       <c r="N12" s="12">
         <f>100*$K12/$M12</f>
@@ -26576,7 +26576,7 @@
         <v/>
       </c>
       <c r="B13" s="12" t="n">
-        <v>1684.33</v>
+        <v>967</v>
       </c>
       <c r="C13" s="12">
         <f>'Completion Factors'!J25</f>
@@ -26587,7 +26587,7 @@
         <v/>
       </c>
       <c r="E13" s="12" t="n">
-        <v>2913.67</v>
+        <v>2535.11</v>
       </c>
       <c r="F13" s="12">
         <f>'Completion Factors'!U25</f>
@@ -26615,7 +26615,7 @@
         <v/>
       </c>
       <c r="M13" s="12" t="n">
-        <v>29363.4575</v>
+        <v>24313.24166666667</v>
       </c>
       <c r="N13" s="12">
         <f>100*$K13/$M13</f>
@@ -26640,7 +26640,7 @@
         <v/>
       </c>
       <c r="B14" s="12" t="n">
-        <v>879.29</v>
+        <v>1794</v>
       </c>
       <c r="C14" s="12">
         <f>'Completion Factors'!J24</f>
@@ -26651,7 +26651,7 @@
         <v/>
       </c>
       <c r="E14" s="12" t="n">
-        <v>4932.18</v>
+        <v>520.85</v>
       </c>
       <c r="F14" s="12">
         <f>'Completion Factors'!U24</f>
@@ -26679,7 +26679,7 @@
         <v/>
       </c>
       <c r="M14" s="12" t="n">
-        <v>29103.355</v>
+        <v>24142.31666666667</v>
       </c>
       <c r="N14" s="12">
         <f>100*$K14/$M14</f>
@@ -26704,7 +26704,7 @@
         <v/>
       </c>
       <c r="B15" s="12" t="n">
-        <v>575.1300000000001</v>
+        <v>970</v>
       </c>
       <c r="C15" s="12">
         <f>'Completion Factors'!J23</f>
@@ -26715,7 +26715,7 @@
         <v/>
       </c>
       <c r="E15" s="12" t="n">
-        <v>4581.56</v>
+        <v>1150.26</v>
       </c>
       <c r="F15" s="12">
         <f>'Completion Factors'!U23</f>
@@ -26743,7 +26743,7 @@
         <v/>
       </c>
       <c r="M15" s="12" t="n">
-        <v>28675.235</v>
+        <v>23964.32166666667</v>
       </c>
       <c r="N15" s="12">
         <f>100*$K15/$M15</f>
@@ -26768,7 +26768,7 @@
         <v/>
       </c>
       <c r="B16" s="12" t="n">
-        <v>18003</v>
+        <v>19</v>
       </c>
       <c r="C16" s="12">
         <f>'Completion Factors'!J22</f>
@@ -26779,7 +26779,7 @@
         <v/>
       </c>
       <c r="E16" s="12" t="n">
-        <v>5205.88</v>
+        <v>2821.99</v>
       </c>
       <c r="F16" s="12">
         <f>'Completion Factors'!U22</f>
@@ -26807,7 +26807,7 @@
         <v/>
       </c>
       <c r="M16" s="12" t="n">
-        <v>28527.5225</v>
+        <v>23798.84</v>
       </c>
       <c r="N16" s="12">
         <f>100*$K16/$M16</f>
@@ -26832,7 +26832,7 @@
         <v/>
       </c>
       <c r="B17" s="12" t="n">
-        <v>17574.8</v>
+        <v>3275.16</v>
       </c>
       <c r="C17" s="12">
         <f>'Completion Factors'!J21</f>
@@ -26843,7 +26843,7 @@
         <v/>
       </c>
       <c r="E17" s="12" t="n">
-        <v>5321.289999999999</v>
+        <v>474.3</v>
       </c>
       <c r="F17" s="12">
         <f>'Completion Factors'!U21</f>
@@ -26871,7 +26871,7 @@
         <v/>
       </c>
       <c r="M17" s="12" t="n">
-        <v>27969.94583333333</v>
+        <v>23172.67083333333</v>
       </c>
       <c r="N17" s="12">
         <f>100*$K17/$M17</f>
@@ -26896,7 +26896,7 @@
         <v/>
       </c>
       <c r="B18" s="12" t="n">
-        <v>4736.000000000001</v>
+        <v>1655</v>
       </c>
       <c r="C18" s="12">
         <f>'Completion Factors'!J20</f>
@@ -26907,7 +26907,7 @@
         <v/>
       </c>
       <c r="E18" s="12" t="n">
-        <v>7490.63</v>
+        <v>296.2</v>
       </c>
       <c r="F18" s="12">
         <f>'Completion Factors'!U20</f>
@@ -26935,7 +26935,7 @@
         <v/>
       </c>
       <c r="M18" s="12" t="n">
-        <v>27441.04</v>
+        <v>22582.26416666666</v>
       </c>
       <c r="N18" s="12">
         <f>100*$K18/$M18</f>
@@ -26960,7 +26960,7 @@
         <v/>
       </c>
       <c r="B19" s="12" t="n">
-        <v>14765.31</v>
+        <v>27134</v>
       </c>
       <c r="C19" s="12">
         <f>'Completion Factors'!J19</f>
@@ -26971,7 +26971,7 @@
         <v/>
       </c>
       <c r="E19" s="12" t="n">
-        <v>14570.01</v>
+        <v>2014.96</v>
       </c>
       <c r="F19" s="12">
         <f>'Completion Factors'!U19</f>
@@ -26999,7 +26999,7 @@
         <v/>
       </c>
       <c r="M19" s="12" t="n">
-        <v>27160.43333333333</v>
+        <v>22313.55583333333</v>
       </c>
       <c r="N19" s="12">
         <f>100*$K19/$M19</f>
@@ -27027,7 +27027,7 @@
         <v/>
       </c>
       <c r="B20" s="12" t="n">
-        <v>1214.809999999999</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="C20" s="12">
         <f>'Completion Factors'!J18</f>
@@ -27038,7 +27038,7 @@
         <v/>
       </c>
       <c r="E20" s="12" t="n">
-        <v>3233.75</v>
+        <v>2642.58</v>
       </c>
       <c r="F20" s="12">
         <f>'Completion Factors'!U18</f>
@@ -27066,7 +27066,7 @@
         <v/>
       </c>
       <c r="M20" s="12" t="n">
-        <v>26614.09</v>
+        <v>21819.67916666666</v>
       </c>
       <c r="N20" s="12">
         <f>100*$K20/$M20</f>
@@ -27094,7 +27094,7 @@
         <v/>
       </c>
       <c r="B21" s="12" t="n">
-        <v>2945.829999999998</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="C21" s="12">
         <f>'Completion Factors'!J17</f>
@@ -27105,7 +27105,7 @@
         <v/>
       </c>
       <c r="E21" s="12" t="n">
-        <v>17306.21</v>
+        <v>1501.27</v>
       </c>
       <c r="F21" s="12">
         <f>'Completion Factors'!U17</f>
@@ -27133,7 +27133,7 @@
         <v/>
       </c>
       <c r="M21" s="12" t="n">
-        <v>25974.00583333333</v>
+        <v>21537.36666666666</v>
       </c>
       <c r="N21" s="12">
         <f>100*$K21/$M21</f>
@@ -27161,7 +27161,7 @@
         <v/>
       </c>
       <c r="B22" s="12" t="n">
-        <v>38189.8</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="C22" s="12">
         <f>'Completion Factors'!J16</f>
@@ -27172,7 +27172,7 @@
         <v/>
       </c>
       <c r="E22" s="12" t="n">
-        <v>4464.620000000001</v>
+        <v>893.7099999999999</v>
       </c>
       <c r="F22" s="12">
         <f>'Completion Factors'!U16</f>
@@ -27200,7 +27200,7 @@
         <v/>
       </c>
       <c r="M22" s="12" t="n">
-        <v>25374.62833333334</v>
+        <v>21386.11833333334</v>
       </c>
       <c r="N22" s="12">
         <f>100*$K22/$M22</f>
@@ -27228,7 +27228,7 @@
         <v/>
       </c>
       <c r="B23" s="12" t="n">
-        <v>203</v>
+        <v>3037.04</v>
       </c>
       <c r="C23" s="12">
         <f>'Completion Factors'!J15</f>
@@ -27239,7 +27239,7 @@
         <v/>
       </c>
       <c r="E23" s="12" t="n">
-        <v>7041.98</v>
+        <v>423.04</v>
       </c>
       <c r="F23" s="12">
         <f>'Completion Factors'!U15</f>
@@ -27267,7 +27267,7 @@
         <v/>
       </c>
       <c r="M23" s="12" t="n">
-        <v>24674.52916666666</v>
+        <v>21237.95833333333</v>
       </c>
       <c r="N23" s="12">
         <f>100*$K23/$M23</f>
@@ -27295,7 +27295,7 @@
         <v/>
       </c>
       <c r="B24" s="12" t="n">
-        <v>967</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="C24" s="12">
         <f>'Completion Factors'!J14</f>
@@ -27306,7 +27306,7 @@
         <v/>
       </c>
       <c r="E24" s="12" t="n">
-        <v>2535.11</v>
+        <v>433.77</v>
       </c>
       <c r="F24" s="12">
         <f>'Completion Factors'!U14</f>
@@ -27334,7 +27334,7 @@
         <v/>
       </c>
       <c r="M24" s="12" t="n">
-        <v>24313.24166666667</v>
+        <v>21061.72166666667</v>
       </c>
       <c r="N24" s="12">
         <f>100*$K24/$M24</f>
@@ -27362,7 +27362,7 @@
         <v/>
       </c>
       <c r="B25" s="12" t="n">
-        <v>1794</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="C25" s="12">
         <f>'Completion Factors'!J13</f>
@@ -27373,7 +27373,7 @@
         <v/>
       </c>
       <c r="E25" s="12" t="n">
-        <v>493.4300000000001</v>
+        <v>1569.59</v>
       </c>
       <c r="F25" s="12">
         <f>'Completion Factors'!U13</f>
@@ -27401,7 +27401,7 @@
         <v/>
       </c>
       <c r="M25" s="12" t="n">
-        <v>24142.31666666667</v>
+        <v>20916.385</v>
       </c>
       <c r="N25" s="12">
         <f>100*$K25/$M25</f>
@@ -27429,7 +27429,7 @@
         <v/>
       </c>
       <c r="B26" s="12" t="n">
-        <v>970</v>
+        <v>1436.91</v>
       </c>
       <c r="C26" s="12">
         <f>'Completion Factors'!J12</f>
@@ -27440,7 +27440,7 @@
         <v/>
       </c>
       <c r="E26" s="12" t="n">
-        <v>1122.84</v>
+        <v>3950.51</v>
       </c>
       <c r="F26" s="12">
         <f>'Completion Factors'!U12</f>
@@ -27468,7 +27468,7 @@
         <v/>
       </c>
       <c r="M26" s="12" t="n">
-        <v>23964.32166666667</v>
+        <v>20785.00416666667</v>
       </c>
       <c r="N26" s="12">
         <f>100*$K26/$M26</f>
@@ -27507,7 +27507,7 @@
         <v/>
       </c>
       <c r="E27" s="12" t="n">
-        <v>1194.57</v>
+        <v>2385.73</v>
       </c>
       <c r="F27" s="12">
         <f>'Completion Factors'!U11</f>
@@ -27535,7 +27535,7 @@
         <v/>
       </c>
       <c r="M27" s="12" t="n">
-        <v>23798.84</v>
+        <v>20653.01</v>
       </c>
       <c r="N27" s="12">
         <f>100*$K27/$M27</f>
@@ -27563,7 +27563,7 @@
         <v/>
       </c>
       <c r="B28" s="12" t="n">
-        <v>66</v>
+        <v>3.049999999999955</v>
       </c>
       <c r="C28" s="12">
         <f>'Completion Factors'!J10</f>
@@ -27574,7 +27574,7 @@
         <v/>
       </c>
       <c r="E28" s="12" t="n">
-        <v>446.88</v>
+        <v>780.0000000000001</v>
       </c>
       <c r="F28" s="12">
         <f>'Completion Factors'!U10</f>
@@ -27602,7 +27602,7 @@
         <v/>
       </c>
       <c r="M28" s="12" t="n">
-        <v>23172.67083333333</v>
+        <v>20523.28416666667</v>
       </c>
       <c r="N28" s="12">
         <f>100*$K28/$M28</f>
@@ -27630,7 +27630,7 @@
         <v/>
       </c>
       <c r="B29" s="12" t="n">
-        <v>1655</v>
+        <v/>
       </c>
       <c r="C29" s="12">
         <f>'Completion Factors'!J9</f>
@@ -27641,7 +27641,7 @@
         <v/>
       </c>
       <c r="E29" s="12" t="n">
-        <v>268.78</v>
+        <v>285.46</v>
       </c>
       <c r="F29" s="12">
         <f>'Completion Factors'!U9</f>
@@ -27672,7 +27672,7 @@
         <v/>
       </c>
       <c r="M29" s="12" t="n">
-        <v>22582.26416666666</v>
+        <v>20272.995</v>
       </c>
       <c r="N29" s="18" t="n">
         <v>80</v>
@@ -27699,7 +27699,7 @@
         <v/>
       </c>
       <c r="B30" s="12" t="n">
-        <v>55</v>
+        <v/>
       </c>
       <c r="C30" s="12">
         <f>'Completion Factors'!J8</f>
@@ -27710,7 +27710,7 @@
         <v/>
       </c>
       <c r="E30" s="12" t="n">
-        <v>344.96</v>
+        <v>75.84</v>
       </c>
       <c r="F30" s="12">
         <f>'Completion Factors'!U8</f>
@@ -27741,7 +27741,7 @@
         <v/>
       </c>
       <c r="M30" s="12" t="n">
-        <v>22313.55583333333</v>
+        <v>20221.4275</v>
       </c>
       <c r="N30" s="18" t="n">
         <v>60</v>
@@ -27779,7 +27779,7 @@
         <v/>
       </c>
       <c r="E31" s="12" t="n">
-        <v>100.33</v>
+        <v/>
       </c>
       <c r="F31" s="12">
         <f>'Completion Factors'!U7</f>
@@ -27810,7 +27810,7 @@
         <v/>
       </c>
       <c r="M31" s="12" t="n">
-        <v>21819.67916666666</v>
+        <v>20164</v>
       </c>
       <c r="N31" s="18" t="n">
         <v>60</v>

--- a/Process Results/Unified_IBNP_Split_USH.xlsx
+++ b/Process Results/Unified_IBNP_Split_USH.xlsx
@@ -7067,20 +7067,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.504722660010146</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.003918878779868573</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.00122766166367628</v>
+        <v>0.04740046599618341</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.0500841663091221</v>
+        <v>0.0182987193490968</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -7103,20 +7103,20 @@
         <v/>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.05874490084912979</v>
+        <v>0.01393157279530048</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.04855630953183081</v>
+        <v>0.01689765150399821</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.04487973758724159</v>
+        <v>0.03031527286914906</v>
       </c>
       <c r="S7" s="4">
         <f>+T7/T8</f>
         <v/>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.04487973758724159</v>
+        <v>0.03031527286914906</v>
       </c>
       <c r="U7" s="5">
         <f>T7</f>
@@ -7145,20 +7145,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.504722660010146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.003918878779868573</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00122766166367628</v>
+        <v>0.04740046599618341</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4111813958013659</v>
+        <v>0.3512741245233649</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -7182,20 +7182,20 @@
         <v/>
       </c>
       <c r="P8" s="5" t="n">
-        <v>0.5481851068118151</v>
+        <v>0.4378184373695417</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>0.4142326491145238</v>
+        <v>0.2954259732899748</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0.3270382509659588</v>
+        <v>0.348268945876522</v>
       </c>
       <c r="S8" s="4">
         <f>+T8/T9</f>
         <v/>
       </c>
       <c r="T8" s="5" t="n">
-        <v>0.3270382509659588</v>
+        <v>0.348268945876522</v>
       </c>
       <c r="U8" s="5">
         <f>T8</f>
@@ -7224,20 +7224,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.504722660010146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.003918878779868573</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5152987067114817</v>
+        <v>0.04740046599618341</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4693649930812432</v>
+        <v>0.6399234619279708</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -7261,20 +7261,20 @@
         <v/>
       </c>
       <c r="P9" s="5" t="n">
-        <v>0.5767902137613018</v>
+        <v>0.9075449006607044</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>0.486791083472226</v>
+        <v>0.5781438751462961</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>0.3840817552347064</v>
+        <v>0.5386440668067308</v>
       </c>
       <c r="S9" s="4">
         <f>+T9/T10</f>
         <v/>
       </c>
       <c r="T9" s="5" t="n">
-        <v>0.3840817552347064</v>
+        <v>0.5386440668067308</v>
       </c>
       <c r="U9" s="5">
         <f>T9</f>
@@ -7303,20 +7303,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.5482332341489518</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.00425671315744345</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.5154064973966691</v>
+        <v>0.05022125069007673</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.5384844538589735</v>
+        <v>0.7942997991319294</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -7340,20 +7340,20 @@
         <v/>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.6718189256175415</v>
+        <v>0.9608669350095046</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.5635994248823745</v>
+        <v>0.7896021171862068</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.4332032392243514</v>
+        <v>0.6803998689432913</v>
       </c>
       <c r="S10" s="4">
         <f>+T10/T11</f>
         <v/>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.4332032392243514</v>
+        <v>0.6803998689432913</v>
       </c>
       <c r="U10" s="5">
         <f>T10</f>
@@ -7382,20 +7382,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.8127557696258209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.155521193767382</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5665647743441664</v>
+        <v>0.2925863403650709</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7175747476432084</v>
+        <v>0.9034292936277302</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -7419,20 +7419,20 @@
         <v/>
       </c>
       <c r="P11" s="5" t="n">
-        <v>0.8466194640502636</v>
+        <v>0.9608669350095046</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>0.7080040161346411</v>
+        <v>0.9316905890933338</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>0.6300563807988548</v>
+        <v>0.8287503941267559</v>
       </c>
       <c r="S11" s="4">
         <f>+T11/T12</f>
         <v/>
       </c>
       <c r="T11" s="5" t="n">
-        <v>0.6300563807988548</v>
+        <v>0.8287503941267559</v>
       </c>
       <c r="U11" s="5">
         <f>T11</f>
@@ -7461,20 +7461,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.001657804954917273</v>
+        <v>0.8516806308953987</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08326592925138984</v>
+        <v>0.1597029195101601</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5781850482238807</v>
+        <v>0.3002218523703604</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7859610120274475</v>
+        <v>0.9335050210180217</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -7498,20 +7498,20 @@
         <v/>
       </c>
       <c r="P12" s="5" t="n">
-        <v>0.8758067967621894</v>
+        <v>0.9714415423762889</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>0.7434059319012032</v>
+        <v>0.9618386912188441</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>0.7518690794168382</v>
+        <v>0.8736515065558426</v>
       </c>
       <c r="S12" s="4">
         <f>+T12/T13</f>
         <v/>
       </c>
       <c r="T12" s="5" t="n">
-        <v>0.7518690794168382</v>
+        <v>0.8736515065558426</v>
       </c>
       <c r="U12" s="5">
         <f>T12</f>
@@ -7540,20 +7540,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1749209798556289</v>
+        <v>0.9022476367924374</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9539972218003563</v>
+        <v>0.1657147311917243</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6293925196593533</v>
+        <v>0.3250416796148942</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.7912121877281318</v>
+        <v>0.9481886621503157</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -7577,20 +7577,20 @@
         <v/>
       </c>
       <c r="P13" s="5" t="n">
-        <v>0.8758067967621894</v>
+        <v>0.9736963846427231</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>0.7455170270799746</v>
+        <v>0.9804625017136213</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>0.7642367380616842</v>
+        <v>0.8952661265261516</v>
       </c>
       <c r="S13" s="4">
         <f>+T13/T14</f>
         <v/>
       </c>
       <c r="T13" s="5" t="n">
-        <v>0.7642367380616842</v>
+        <v>0.8952661265261516</v>
       </c>
       <c r="U13" s="5">
         <f>T13</f>
@@ -7619,20 +7619,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1749209798556289</v>
+        <v>0.9058006862355865</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9539972218003563</v>
+        <v>0.200295559048049</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6294896297016846</v>
+        <v>0.3502656508685292</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8383211117276036</v>
+        <v>0.9670226279771106</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -7656,20 +7656,20 @@
         <v/>
       </c>
       <c r="P14" s="5" t="n">
-        <v>0.9039713403861767</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>0.7552886358049344</v>
+        <v>0.9972892320783152</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>0.8708115473633534</v>
+        <v>0.909431731453893</v>
       </c>
       <c r="S14" s="4">
         <f>+T14/T15</f>
         <v/>
       </c>
       <c r="T14" s="5" t="n">
-        <v>0.8708115473633534</v>
+        <v>0.909431731453893</v>
       </c>
       <c r="U14" s="5">
         <f>T14</f>
@@ -7698,20 +7698,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1749209798556289</v>
+        <v>0.9058006862355865</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9539972218003563</v>
+        <v>0.2793272138989007</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6327609545624012</v>
+        <v>0.412451986085733</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9256099961245983</v>
+        <v>0.9988101841515274</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -7735,20 +7735,20 @@
         <v/>
       </c>
       <c r="P15" s="5" t="n">
-        <v>0.9039713403861767</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>0.9371467260811638</v>
+        <v>1</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>0.9364985152507255</v>
+        <v>0.9964390262605646</v>
       </c>
       <c r="S15" s="4">
         <f>+T15/T16</f>
         <v/>
       </c>
       <c r="T15" s="5" t="n">
-        <v>0.9364985152507255</v>
+        <v>0.9964390262605646</v>
       </c>
       <c r="U15" s="5">
         <f>T15</f>
@@ -7777,20 +7777,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.998194245537697</v>
+        <v>0.9078241315396889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9983384585716595</v>
+        <v>0.336559892919388</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.4610514352554753</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9259278248941101</v>
+        <v>0.9992711697451866</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -7814,20 +7814,20 @@
         <v/>
       </c>
       <c r="P16" s="5" t="n">
-        <v>0.9039713403861767</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>0.9371467260811638</v>
+        <v>1</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>0.9374752489982839</v>
+        <v>0.9978166917577652</v>
       </c>
       <c r="S16" s="4">
         <f>+T16/T17</f>
         <v/>
       </c>
       <c r="T16" s="5" t="n">
-        <v>0.9374752489982839</v>
+        <v>0.9978166917577652</v>
       </c>
       <c r="U16" s="5">
         <f>T16</f>
@@ -7856,20 +7856,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.998194245537697</v>
+        <v>0.9318002394079999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9983384585716595</v>
+        <v>0.4519910616039225</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.5254999055290324</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -7893,20 +7893,20 @@
         <v/>
       </c>
       <c r="P17" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S17" s="4">
         <f>+T17/T18</f>
         <v/>
       </c>
       <c r="T17" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U17" s="5">
         <f>T17</f>
@@ -7935,20 +7935,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.998194245537697</v>
+        <v>0.9346220850143007</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9983384585716595</v>
+        <v>0.5622034299012701</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.5872930974691652</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -7972,20 +7972,20 @@
         <v/>
       </c>
       <c r="P18" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S18" s="4">
         <f>+T18/T19</f>
         <v/>
       </c>
       <c r="T18" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U18" s="5">
         <f>T18</f>
@@ -8014,20 +8014,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1</v>
+        <v>0.9372530062405577</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1</v>
+        <v>0.6703726703050298</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.030510105514296</v>
+        <v>0.686687317513955</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -8051,20 +8051,20 @@
         <v/>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S19" s="4">
         <f>+T19/T20</f>
         <v/>
       </c>
       <c r="T19" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U19" s="5">
         <f>T19</f>
@@ -8093,20 +8093,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1</v>
+        <v>0.9956131379220601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1</v>
+        <v>0.763610481419408</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.997086821464323</v>
+        <v>0.7731159848062338</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -8130,20 +8130,20 @@
         <v/>
       </c>
       <c r="P20" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S20" s="4">
         <f>+T20/T21</f>
         <v/>
       </c>
       <c r="T20" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U20" s="5">
         <f>T20</f>
@@ -8175,17 +8175,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1</v>
+        <v>0.8084991440284495</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9998494441749185</v>
+        <v>0.8162821208397832</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -8209,20 +8209,20 @@
         <v/>
       </c>
       <c r="P21" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S21" s="4">
         <f>+T21/T22</f>
         <v/>
       </c>
       <c r="T21" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U21" s="5">
         <f>T21</f>
@@ -8254,17 +8254,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>0.9288678512355102</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9999734276427628</v>
+        <v>0.9314225699060028</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -8288,20 +8288,20 @@
         <v/>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S22" s="4">
         <f>+T22/T23</f>
         <v/>
       </c>
       <c r="T22" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U22" s="5">
         <f>T22</f>
@@ -8343,7 +8343,7 @@
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -8367,20 +8367,20 @@
         <v/>
       </c>
       <c r="P23" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S23" s="4">
         <f>+T23/T24</f>
         <v/>
       </c>
       <c r="T23" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U23" s="5">
         <f>T23</f>
@@ -8422,7 +8422,7 @@
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -8446,20 +8446,20 @@
         <v/>
       </c>
       <c r="P24" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S24" s="4">
         <f>+T24/T25</f>
         <v/>
       </c>
       <c r="T24" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U24" s="5">
         <f>T24</f>
@@ -8501,7 +8501,7 @@
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -8525,20 +8525,20 @@
         <v/>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R25" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S25" s="4">
         <f>+T25/T26</f>
         <v/>
       </c>
       <c r="T25" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U25" s="5">
         <f>T25</f>
@@ -8580,7 +8580,7 @@
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -8604,20 +8604,20 @@
         <v/>
       </c>
       <c r="P26" s="5" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="R26" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="S26" s="4">
         <f>+T26/T27</f>
         <v/>
       </c>
       <c r="T26" s="5" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="U26" s="5">
         <f>T26</f>
@@ -9235,37 +9235,37 @@
         <v/>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1</v>
+        <v>1.138888888888889</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>37.44175853018373</v>
+        <v>11.79268292682927</v>
       </c>
       <c r="G38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>1.03505006200356</v>
-      </c>
       <c r="I38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.006772631255287</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
         <v>1</v>
@@ -9274,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1.000201812138462</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>1</v>
@@ -9307,19 +9307,19 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>96</v>
+        <v>1.068571428571429</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.017743055555554</v>
+        <v>1</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1</v>
+        <v>4.796791443850268</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.034116884446112</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>4.007818943617831</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1.01152443592002</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>1</v>
@@ -9385,16 +9385,16 @@
         <v/>
       </c>
       <c r="D40" s="4" t="n">
-        <v>10.26191666666667</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>0.9999999999999993</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>2.388142241134291</v>
+        <v>3.233333333333334</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.001700200283593</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
@@ -9412,13 +9412,13 @@
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>19.81798678131461</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0.9303180758206262</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.005910256891801</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>1</v>
@@ -9460,22 +9460,22 @@
         <v/>
       </c>
       <c r="D41" s="4" t="n">
-        <v>2.818181818181818</v>
+        <v/>
       </c>
       <c r="E41" s="4" t="n">
-        <v>47.87096774193551</v>
+        <v/>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G41" s="4" t="n">
-        <v>25.73436657681939</v>
+        <v/>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J41" s="4" t="n">
         <v>1</v>
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.000759365066065</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>1</v>
@@ -9499,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>278.4705263157894</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>1</v>
@@ -9532,13 +9532,13 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.353333333333333</v>
+        <v>46.45454545454545</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>1</v>
@@ -9547,31 +9547,31 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1</v>
+        <v>1.001956947162427</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1</v>
+        <v>1.0661328125</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.078817733990148</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v>4.057447575080301</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -9610,13 +9610,13 @@
         <v/>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.138888888888889</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>11.79268292682927</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1</v>
@@ -9643,19 +9643,19 @@
         <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>3.427861027190333</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -9682,16 +9682,16 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.068571428571429</v>
+        <v>492.2381818181818</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>4.796791443850268</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>1.000110811100317</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -9712,13 +9712,13 @@
         <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>1.002138417275753</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>1.287110636102307</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>1.000458131636108</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>1</v>
@@ -9757,16 +9757,16 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v/>
+        <v>21</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>5</v>
+        <v>1.028857142857143</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>2.999999999999999</v>
+        <v>1.117698787373879</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>3.233333333333334</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>1</v>
@@ -9778,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>7.221665493395167</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>1</v>
@@ -9787,13 +9787,13 @@
         <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>7.921276864148257</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>1.009920090572222</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1</v>
@@ -9835,22 +9835,22 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v/>
+        <v>0.9999999999999976</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v/>
+        <v>9.492512479201338</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
         <v>1</v>
@@ -9859,13 +9859,13 @@
         <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>138.2848378615251</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v>1.191629009462363</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
@@ -9913,37 +9913,37 @@
         <v/>
       </c>
       <c r="E47" s="4" t="n">
-        <v>46.45454545454545</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>1.107601713062098</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.001956947162427</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.0661328125</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>377.5326244562581</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.009628543812371</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -9985,7 +9985,7 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -9994,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>1008.983388704322</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
@@ -10003,13 +10003,13 @@
         <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>2.777223875879145</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>1.008183018872399</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
@@ -10057,7 +10057,7 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>492.2381818181818</v>
+        <v/>
       </c>
       <c r="D49" s="4" t="n">
         <v>1</v>
@@ -10066,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.000110811100317</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
@@ -10075,19 +10075,19 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>3322.890365448516</v>
       </c>
       <c r="J49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1</v>
+        <v>1.040130375228706</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.002138417275753</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -10132,13 +10132,13 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.028857142857143</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.117698787373879</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>1</v>
@@ -10147,16 +10147,16 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>170.284224250326</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>7.221665493395167</v>
+        <v>1.007656498836212</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1</v>
+        <v>1.001266387048406</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>1</v>
@@ -10210,16 +10210,16 @@
         <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E51" s="4" t="n">
-        <v>0.9999999999999976</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.014372948360453</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>9.492512479201338</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>1</v>
@@ -10288,16 +10288,16 @@
         <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.000000000000006</v>
+        <v/>
       </c>
       <c r="F52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.107601713062098</v>
+        <v>1.019633866285919</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>1.008625449385288</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -10363,13 +10363,13 @@
         <v/>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>2656.891803278729</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1</v>
+        <v>1.028534513396647</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1008.983388704322</v>
+        <v>1.064371456852335</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>1</v>
@@ -10435,19 +10435,19 @@
         <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -10510,16 +10510,16 @@
         <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.294411764705882</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -10588,10 +10588,10 @@
         <v/>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1</v>
+        <v>1.060666666666667</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.014372948360453</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -10660,10 +10660,10 @@
         <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v/>
+        <v>1.086206896551724</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v/>
+        <v>2.587301587301587</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -10804,10 +10804,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -11543,70 +11543,70 @@
         <v/>
       </c>
       <c r="D68" s="47" t="n">
-        <v>381</v>
+        <v>72</v>
       </c>
       <c r="E68" s="47" t="n">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="F68" s="47" t="n">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="G68" s="47" t="n">
-        <v>14265.31</v>
+        <v>967.0000000000001</v>
       </c>
       <c r="H68" s="47" t="n">
-        <v>14265.31</v>
+        <v>967.0000000000001</v>
       </c>
       <c r="I68" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="J68" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="K68" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="L68" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="M68" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="N68" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="O68" s="47" t="n">
-        <v>14865.31</v>
+        <v>967</v>
       </c>
       <c r="P68" s="47" t="n">
-        <v>14865.31</v>
+        <v>967</v>
       </c>
       <c r="Q68" s="47" t="n">
-        <v>14865.31</v>
+        <v>967</v>
       </c>
       <c r="R68" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="S68" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="T68" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="U68" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="V68" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="W68" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="X68" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="Y68" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="Z68" s="12" t="n"/>
       <c r="AA68" s="12" t="n"/>
@@ -11725,70 +11725,70 @@
         <v/>
       </c>
       <c r="C69" s="47" t="n">
-        <v>3</v>
+        <v>349.9999999999999</v>
       </c>
       <c r="D69" s="47" t="n">
-        <v>288</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="E69" s="47" t="n">
-        <v>293.1099999999997</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="F69" s="47" t="n">
-        <v>293.1099999999997</v>
+        <v>1794</v>
       </c>
       <c r="G69" s="47" t="n">
-        <v>303.1099999999997</v>
+        <v>1794</v>
       </c>
       <c r="H69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="I69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="J69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="K69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="L69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="M69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="N69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="O69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="P69" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="Q69" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="R69" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="S69" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="T69" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="U69" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="V69" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="W69" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="X69" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="Y69" s="47" t="n">
         <v/>
@@ -11913,64 +11913,64 @@
         <v/>
       </c>
       <c r="D70" s="47" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E70" s="47" t="n">
-        <v>1231.43</v>
+        <v>100</v>
       </c>
       <c r="F70" s="47" t="n">
-        <v>1231.429999999999</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="G70" s="47" t="n">
-        <v>2940.829999999999</v>
+        <v>970</v>
       </c>
       <c r="H70" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="I70" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="J70" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="K70" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="L70" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="M70" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="N70" s="47" t="n">
-        <v>58380.41999999999</v>
+        <v>970</v>
       </c>
       <c r="O70" s="47" t="n">
-        <v>54312.35999999999</v>
+        <v>970</v>
       </c>
       <c r="P70" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="Q70" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="R70" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="S70" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="T70" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="U70" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="V70" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="W70" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="X70" s="47" t="n">
         <v/>
@@ -12098,61 +12098,61 @@
         <v/>
       </c>
       <c r="D71" s="47" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="E71" s="47" t="n">
-        <v>31</v>
+        <v/>
       </c>
       <c r="F71" s="47" t="n">
-        <v>1484.000000000001</v>
+        <v/>
       </c>
       <c r="G71" s="47" t="n">
-        <v>1484.000000000001</v>
+        <v/>
       </c>
       <c r="H71" s="47" t="n">
-        <v>38189.8</v>
+        <v/>
       </c>
       <c r="I71" s="47" t="n">
-        <v>38189.8</v>
+        <v/>
       </c>
       <c r="J71" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="K71" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="L71" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="M71" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="N71" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="O71" s="47" t="n">
-        <v>38218.8</v>
+        <v>19</v>
       </c>
       <c r="P71" s="47" t="n">
-        <v>38218.8</v>
+        <v>19</v>
       </c>
       <c r="Q71" s="47" t="n">
-        <v>38218.8</v>
+        <v>19</v>
       </c>
       <c r="R71" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="S71" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="T71" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="U71" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="V71" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="W71" s="47" t="n">
         <v/>
@@ -12280,61 +12280,61 @@
         <v/>
       </c>
       <c r="C72" s="47" t="n">
-        <v>150</v>
+        <v/>
       </c>
       <c r="D72" s="47" t="n">
-        <v>150</v>
+        <v/>
       </c>
       <c r="E72" s="47" t="n">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="F72" s="47" t="n">
-        <v>203</v>
+        <v>3066</v>
       </c>
       <c r="G72" s="47" t="n">
-        <v>203</v>
+        <v>3066</v>
       </c>
       <c r="H72" s="47" t="n">
-        <v>203</v>
+        <v>3066</v>
       </c>
       <c r="I72" s="47" t="n">
-        <v>203</v>
+        <v>3072</v>
       </c>
       <c r="J72" s="47" t="n">
-        <v>203</v>
+        <v>3275.16</v>
       </c>
       <c r="K72" s="47" t="n">
-        <v>203</v>
+        <v>3275.16</v>
       </c>
       <c r="L72" s="47" t="n">
-        <v>203</v>
+        <v>3275.16</v>
       </c>
       <c r="M72" s="47" t="n">
-        <v>203</v>
+        <v>3275.16</v>
       </c>
       <c r="N72" s="47" t="n">
-        <v>219</v>
+        <v>3275.16</v>
       </c>
       <c r="O72" s="47" t="n">
-        <v>219</v>
+        <v>3275.16</v>
       </c>
       <c r="P72" s="47" t="n">
-        <v>219</v>
+        <v>3275.16</v>
       </c>
       <c r="Q72" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="R72" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="S72" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="T72" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="U72" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="V72" s="47" t="n">
         <v/>
@@ -12468,55 +12468,55 @@
         <v/>
       </c>
       <c r="D73" s="47" t="n">
-        <v>72</v>
+        <v>1655</v>
       </c>
       <c r="E73" s="47" t="n">
-        <v>82</v>
+        <v>1655</v>
       </c>
       <c r="F73" s="47" t="n">
-        <v>82</v>
+        <v>1655</v>
       </c>
       <c r="G73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="H73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="I73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="J73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="K73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="L73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="M73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="N73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="O73" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="P73" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="Q73" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="R73" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="S73" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="T73" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="U73" s="47" t="n">
         <v/>
@@ -12650,55 +12650,55 @@
         <v/>
       </c>
       <c r="C74" s="47" t="n">
-        <v>349.9999999999999</v>
+        <v>55</v>
       </c>
       <c r="D74" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>27073.1</v>
       </c>
       <c r="E74" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>27073.1</v>
       </c>
       <c r="F74" s="47" t="n">
-        <v>1794</v>
+        <v>27073.1</v>
       </c>
       <c r="G74" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="H74" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="I74" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="J74" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="K74" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="L74" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="M74" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="N74" s="47" t="n">
-        <v>1794</v>
+        <v>27134</v>
       </c>
       <c r="O74" s="47" t="n">
-        <v>1794</v>
+        <v>34924.46</v>
       </c>
       <c r="P74" s="47" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="Q74" s="47" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="R74" s="47" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="S74" s="47" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="T74" s="47" t="n">
         <v/>
@@ -12835,52 +12835,52 @@
         <v/>
       </c>
       <c r="C75" s="47" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="D75" s="47" t="n">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E75" s="47" t="n">
-        <v>100</v>
+        <v>216.0599999999999</v>
       </c>
       <c r="F75" s="47" t="n">
-        <v>299.9999999999999</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="G75" s="47" t="n">
-        <v>970</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="H75" s="47" t="n">
-        <v>970</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="I75" s="47" t="n">
-        <v>970</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="J75" s="47" t="n">
-        <v>970</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="K75" s="47" t="n">
-        <v>970</v>
+        <v>1743.96</v>
       </c>
       <c r="L75" s="47" t="n">
-        <v>970</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="M75" s="47" t="n">
-        <v>970</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="N75" s="47" t="n">
-        <v>970</v>
+        <v>13814.39</v>
       </c>
       <c r="O75" s="47" t="n">
-        <v>970</v>
+        <v>13814.39</v>
       </c>
       <c r="P75" s="47" t="n">
-        <v>970</v>
+        <v>13951.43</v>
       </c>
       <c r="Q75" s="47" t="n">
-        <v>970</v>
+        <v>13951.43</v>
       </c>
       <c r="R75" s="47" t="n">
-        <v>970</v>
+        <v>13951.43</v>
       </c>
       <c r="S75" s="47" t="n">
         <v/>
@@ -13023,46 +13023,46 @@
         <v/>
       </c>
       <c r="D76" s="47" t="n">
-        <v/>
+        <v>6.010000000000005</v>
       </c>
       <c r="E76" s="47" t="n">
-        <v/>
+        <v>6.010000000000005</v>
       </c>
       <c r="F76" s="47" t="n">
-        <v/>
+        <v>6.009999999999991</v>
       </c>
       <c r="G76" s="47" t="n">
-        <v/>
+        <v>6.009999999999991</v>
       </c>
       <c r="H76" s="47" t="n">
-        <v/>
+        <v>57.04999999999995</v>
       </c>
       <c r="I76" s="47" t="n">
-        <v/>
+        <v>57.04999999999995</v>
       </c>
       <c r="J76" s="47" t="n">
-        <v>19</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="K76" s="47" t="n">
-        <v>19</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="L76" s="47" t="n">
-        <v>19</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="M76" s="47" t="n">
-        <v>19</v>
+        <v>7889.15</v>
       </c>
       <c r="N76" s="47" t="n">
-        <v>19</v>
+        <v>7889.15</v>
       </c>
       <c r="O76" s="47" t="n">
-        <v>19</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="P76" s="47" t="n">
-        <v>19</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="Q76" s="47" t="n">
-        <v>19</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="R76" s="47" t="n">
         <v/>
@@ -13211,40 +13211,40 @@
         <v/>
       </c>
       <c r="E77" s="47" t="n">
-        <v>66</v>
+        <v>18.67999999999995</v>
       </c>
       <c r="F77" s="47" t="n">
-        <v>3066</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="G77" s="47" t="n">
-        <v>3066</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="H77" s="47" t="n">
-        <v>3066</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="I77" s="47" t="n">
-        <v>3072</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="J77" s="47" t="n">
-        <v>3275.16</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="K77" s="47" t="n">
-        <v>3275.16</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="L77" s="47" t="n">
-        <v>3275.16</v>
+        <v>7811.150000000001</v>
       </c>
       <c r="M77" s="47" t="n">
-        <v>3275.16</v>
+        <v>7811.150000000001</v>
       </c>
       <c r="N77" s="47" t="n">
-        <v>3275.16</v>
+        <v>7886.36</v>
       </c>
       <c r="O77" s="47" t="n">
-        <v>3275.16</v>
+        <v>7886.36</v>
       </c>
       <c r="P77" s="47" t="n">
-        <v>3275.16</v>
+        <v>7886.36</v>
       </c>
       <c r="Q77" s="47" t="n">
         <v/>
@@ -13393,40 +13393,40 @@
         <v/>
       </c>
       <c r="D78" s="47" t="n">
-        <v>1655</v>
+        <v/>
       </c>
       <c r="E78" s="47" t="n">
-        <v>1655</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F78" s="47" t="n">
-        <v>1655</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G78" s="47" t="n">
-        <v>1655</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H78" s="47" t="n">
-        <v>1655</v>
+        <v>3037.04</v>
       </c>
       <c r="I78" s="47" t="n">
-        <v>1655</v>
+        <v>3037.04</v>
       </c>
       <c r="J78" s="47" t="n">
-        <v>1655</v>
+        <v>3037.04</v>
       </c>
       <c r="K78" s="47" t="n">
-        <v>1655</v>
+        <v>8434.539999999999</v>
       </c>
       <c r="L78" s="47" t="n">
-        <v>1655</v>
+        <v>8434.539999999999</v>
       </c>
       <c r="M78" s="47" t="n">
-        <v>1655</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="N78" s="47" t="n">
-        <v>1655</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="O78" s="47" t="n">
-        <v>1655</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="P78" s="47" t="n">
         <v/>
@@ -13575,40 +13575,40 @@
         <v/>
       </c>
       <c r="C79" s="47" t="n">
-        <v>55</v>
+        <v/>
       </c>
       <c r="D79" s="47" t="n">
-        <v>27073.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="E79" s="47" t="n">
-        <v>27073.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F79" s="47" t="n">
-        <v>27073.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G79" s="47" t="n">
-        <v>27076.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H79" s="47" t="n">
-        <v>27076.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="I79" s="47" t="n">
-        <v>27076.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="J79" s="47" t="n">
-        <v>27076.1</v>
+        <v>10001.9</v>
       </c>
       <c r="K79" s="47" t="n">
-        <v>27076.1</v>
+        <v>10001.9</v>
       </c>
       <c r="L79" s="47" t="n">
-        <v>27076.1</v>
+        <v>10403.28</v>
       </c>
       <c r="M79" s="47" t="n">
-        <v>27076.1</v>
+        <v>10403.28</v>
       </c>
       <c r="N79" s="47" t="n">
-        <v>27134</v>
+        <v>10403.28</v>
       </c>
       <c r="O79" s="47" t="n">
         <v/>
@@ -13760,37 +13760,37 @@
         <v/>
       </c>
       <c r="C80" s="47" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="D80" s="47" t="n">
-        <v>210</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="E80" s="47" t="n">
-        <v>216.0599999999999</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="F80" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="G80" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="H80" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="I80" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>3918.240000000001</v>
       </c>
       <c r="J80" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>3918.240000000001</v>
       </c>
       <c r="K80" s="47" t="n">
-        <v>1743.96</v>
+        <v>3948.240000000001</v>
       </c>
       <c r="L80" s="47" t="n">
-        <v>1743.960000000001</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="M80" s="47" t="n">
-        <v>1743.960000000001</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="N80" s="47" t="n">
         <v/>
@@ -13948,31 +13948,31 @@
         <v/>
       </c>
       <c r="D81" s="47" t="n">
-        <v>6.010000000000005</v>
+        <v/>
       </c>
       <c r="E81" s="47" t="n">
-        <v>6.010000000000005</v>
+        <v>1416.55</v>
       </c>
       <c r="F81" s="47" t="n">
-        <v>6.009999999999991</v>
+        <v>1416.55</v>
       </c>
       <c r="G81" s="47" t="n">
-        <v>6.009999999999991</v>
+        <v>1436.91</v>
       </c>
       <c r="H81" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.91</v>
       </c>
       <c r="I81" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="J81" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="K81" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="L81" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="M81" s="47" t="n">
         <v/>
@@ -14136,25 +14136,25 @@
         <v/>
       </c>
       <c r="E82" s="47" t="n">
-        <v>18.67999999999995</v>
+        <v/>
       </c>
       <c r="F82" s="47" t="n">
-        <v>18.68000000000006</v>
+        <v/>
       </c>
       <c r="G82" s="47" t="n">
-        <v>18.68000000000006</v>
+        <v>7851.23</v>
       </c>
       <c r="H82" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8005.379999999998</v>
       </c>
       <c r="I82" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8074.429999999998</v>
       </c>
       <c r="J82" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8074.429999999998</v>
       </c>
       <c r="K82" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8074.429999999998</v>
       </c>
       <c r="L82" s="47" t="n">
         <v/>
@@ -14321,22 +14321,22 @@
         <v/>
       </c>
       <c r="E83" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>3.049999999999955</v>
       </c>
       <c r="F83" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>8103.52</v>
       </c>
       <c r="G83" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>8334.75</v>
       </c>
       <c r="H83" s="47" t="n">
-        <v>3037.04</v>
+        <v>8871.27</v>
       </c>
       <c r="I83" s="47" t="n">
-        <v>3037.04</v>
+        <v>8871.27</v>
       </c>
       <c r="J83" s="47" t="n">
-        <v>3037.04</v>
+        <v>8871.27</v>
       </c>
       <c r="K83" s="47" t="n">
         <v/>
@@ -14503,22 +14503,22 @@
         <v/>
       </c>
       <c r="D84" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v/>
       </c>
       <c r="E84" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v/>
       </c>
       <c r="F84" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v/>
       </c>
       <c r="G84" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>657.6399999999999</v>
       </c>
       <c r="H84" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="I84" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="J84" s="47" t="n">
         <v/>
@@ -14688,19 +14688,19 @@
         <v/>
       </c>
       <c r="D85" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v/>
       </c>
       <c r="E85" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v/>
       </c>
       <c r="F85" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>34</v>
       </c>
       <c r="G85" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="H85" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="I85" s="47" t="n">
         <v/>
@@ -14876,13 +14876,13 @@
         <v/>
       </c>
       <c r="E86" s="47" t="n">
-        <v>1416.55</v>
+        <v>165</v>
       </c>
       <c r="F86" s="47" t="n">
-        <v>1416.55</v>
+        <v>175.01</v>
       </c>
       <c r="G86" s="47" t="n">
-        <v>1436.91</v>
+        <v>175.01</v>
       </c>
       <c r="H86" s="47" t="n">
         <v/>
@@ -15058,13 +15058,13 @@
         <v/>
       </c>
       <c r="D87" s="47" t="n">
-        <v/>
+        <v>58</v>
       </c>
       <c r="E87" s="47" t="n">
-        <v/>
+        <v>63</v>
       </c>
       <c r="F87" s="47" t="n">
-        <v/>
+        <v>163</v>
       </c>
       <c r="G87" s="47" t="n">
         <v/>
@@ -15246,7 +15246,7 @@
         <v/>
       </c>
       <c r="E88" s="47" t="n">
-        <v>3.049999999999955</v>
+        <v/>
       </c>
       <c r="F88" s="47" t="n">
         <v/>
@@ -15422,13 +15422,13 @@
         <v/>
       </c>
       <c r="B89" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="C89" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="D89" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="E89" s="47" t="n">
         <v/>
@@ -15611,7 +15611,7 @@
         <v/>
       </c>
       <c r="C90" s="12" t="n">
-        <v/>
+        <v>5</v>
       </c>
       <c r="D90" s="12" t="n">
         <v/>
@@ -16114,25 +16114,25 @@
         <v>0</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>15.61185517462352</v>
+        <v>12.55037573058726</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>1.443418724833041</v>
+        <v>1.019004956368434</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>3.159715626333002</v>
+        <v>1</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>1.308829697042788</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>1.001885496324932</v>
+        <v>1</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>1</v>
+        <v>2.758522758185439</v>
       </c>
       <c r="I99" s="4" t="n">
         <v>1</v>
@@ -16189,70 +16189,70 @@
         <v/>
       </c>
       <c r="B100" s="4" t="n">
-        <v>16.84202171566449</v>
+        <v>5.243295953193564</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>1.062029444475862</v>
+        <v>2.201831876511066</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>1.136149351433095</v>
+        <v>1.041936778089829</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>1.005355396483685</v>
+        <v>1</v>
       </c>
       <c r="F100" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>1.005003651733408</v>
+        <v>1</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.055570192327179</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W100" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X100" s="4" t="n">
         <v/>
@@ -16264,25 +16264,25 @@
         <v/>
       </c>
       <c r="B101" s="4" t="n">
-        <v>13.60757394624195</v>
+        <v>3.732769744160178</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>1.526103985172505</v>
+        <v>1.03028822085012</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>1.415041467192079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>1.009204760648664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F101" s="4" t="n">
-        <v>1</v>
+        <v>1.299057094926824</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>2.04029721291373</v>
+        <v>1</v>
       </c>
       <c r="H101" s="4" t="n">
-        <v>1.103001189921549</v>
+        <v>1</v>
       </c>
       <c r="I101" s="4" t="n">
         <v>1</v>
@@ -16291,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="4" t="n">
-        <v>1</v>
+        <v>1.024420220156033</v>
       </c>
       <c r="L101" s="4" t="n">
         <v>1</v>
@@ -16339,64 +16339,64 @@
         <v/>
       </c>
       <c r="B102" s="4" t="n">
-        <v>23.26964019586971</v>
+        <v>14.59087413483722</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>1.445348704224708</v>
+        <v>1</v>
       </c>
       <c r="D102" s="4" t="n">
-        <v>1</v>
+        <v>1.033925402765333</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>1.391763149398948</v>
+        <v>1.014927782497876</v>
       </c>
       <c r="F102" s="4" t="n">
-        <v>1</v>
+        <v>2.339394091597814</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>1.010825021263435</v>
+        <v>1</v>
       </c>
       <c r="H102" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>1.004454623584307</v>
+        <v>1</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00981188519164</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T102" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U102" s="4" t="n">
-        <v>1.58235639315328</v>
+        <v>1</v>
       </c>
       <c r="V102" s="4" t="n">
         <v/>
@@ -16414,28 +16414,28 @@
         <v/>
       </c>
       <c r="B103" s="4" t="n">
-        <v>4.09401786792225</v>
+        <v>3.884009729868135</v>
       </c>
       <c r="C103" s="4" t="n">
-        <v>1.26100130489594</v>
+        <v>1.391027753971916</v>
       </c>
       <c r="D103" s="4" t="n">
-        <v>1.892973235270044</v>
+        <v>1.058932252790218</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F103" s="4" t="n">
-        <v>1.083210952930258</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>1.00390901211195</v>
+        <v>1.061358754027927</v>
       </c>
       <c r="J103" s="4" t="n">
         <v>1</v>
@@ -16489,10 +16489,10 @@
         <v/>
       </c>
       <c r="B104" s="4" t="n">
-        <v>12.55037573058725</v>
+        <v/>
       </c>
       <c r="C104" s="4" t="n">
-        <v>1.019004956368434</v>
+        <v>3.608754027926961</v>
       </c>
       <c r="D104" s="4" t="n">
         <v>1</v>
@@ -16507,10 +16507,10 @@
         <v>1</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>2.758522758185439</v>
+        <v>1</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>1</v>
+        <v>1.102016519086242</v>
       </c>
       <c r="J104" s="4" t="n">
         <v>1</v>
@@ -16564,13 +16564,13 @@
         <v/>
       </c>
       <c r="B105" s="4" t="n">
-        <v>5.243295953193564</v>
+        <v/>
       </c>
       <c r="C105" s="4" t="n">
-        <v>2.201831876511066</v>
+        <v>1</v>
       </c>
       <c r="D105" s="4" t="n">
-        <v>1.041936778089829</v>
+        <v>1</v>
       </c>
       <c r="E105" s="4" t="n">
         <v>1</v>
@@ -16579,13 +16579,13 @@
         <v>1</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>1</v>
+        <v>1.550846474953618</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>1.055570192327179</v>
+        <v>1.003140304310441</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>1</v>
+        <v>3.754630492304253</v>
       </c>
       <c r="J105" s="4" t="n">
         <v>1</v>
@@ -16639,19 +16639,19 @@
         <v/>
       </c>
       <c r="B106" s="4" t="n">
-        <v>3.732769744160178</v>
+        <v>6.108641483105751</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>1.03028822085012</v>
+        <v>1</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>3.694361049471348</v>
       </c>
       <c r="F106" s="4" t="n">
-        <v>1.299057094926824</v>
+        <v>1.161584665665577</v>
       </c>
       <c r="G106" s="4" t="n">
         <v>1</v>
@@ -16666,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>1.024420220156033</v>
+        <v>1.004760347672677</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>1</v>
@@ -16714,31 +16714,31 @@
         <v/>
       </c>
       <c r="B107" s="4" t="n">
-        <v>14.59087413483722</v>
+        <v>1</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>1.033925402765333</v>
+        <v>1</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>1.014927782497876</v>
+        <v>11.95341997912912</v>
       </c>
       <c r="F107" s="4" t="n">
-        <v>2.339394091597814</v>
+        <v>1.170189125483131</v>
       </c>
       <c r="G107" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>1</v>
+        <v>1.018189833497236</v>
       </c>
       <c r="I107" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>1.00981188519164</v>
+        <v>1</v>
       </c>
       <c r="K107" s="4" t="n">
         <v>1</v>
@@ -16789,28 +16789,28 @@
         <v/>
       </c>
       <c r="B108" s="4" t="n">
-        <v>3.884009729868135</v>
+        <v/>
       </c>
       <c r="C108" s="4" t="n">
-        <v>1.391027753971916</v>
+        <v/>
       </c>
       <c r="D108" s="4" t="n">
-        <v>1.058932252790218</v>
+        <v/>
       </c>
       <c r="E108" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.615996177735308</v>
       </c>
       <c r="F108" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.024681575741807</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.031473616176539</v>
       </c>
       <c r="I108" s="4" t="n">
-        <v>1.061358754027927</v>
+        <v>1</v>
       </c>
       <c r="J108" s="4" t="n">
         <v>1</v>
@@ -16867,10 +16867,10 @@
         <v/>
       </c>
       <c r="C109" s="4" t="n">
-        <v>3.608754027926961</v>
+        <v/>
       </c>
       <c r="D109" s="4" t="n">
-        <v>1</v>
+        <v>1.095617750463693</v>
       </c>
       <c r="E109" s="4" t="n">
         <v>1</v>
@@ -16882,25 +16882,25 @@
         <v>1</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>1</v>
+        <v>1.068903656163934</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>1.102016519086242</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O109" t="n">
         <v/>
@@ -16945,34 +16945,34 @@
         <v>1</v>
       </c>
       <c r="D110" s="4" t="n">
-        <v>1</v>
+        <v>1.680106902161283</v>
       </c>
       <c r="E110" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F110" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>1.550846474953618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>1.003140304310441</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>3.754630492304253</v>
+        <v>1.062867418217027</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L110" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M110" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N110" t="n">
         <v/>
@@ -17014,25 +17014,25 @@
         <v/>
       </c>
       <c r="B111" s="4" t="n">
-        <v>6.108641483105751</v>
+        <v>2.540958812563751</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>1</v>
+        <v>2.049071177431411</v>
       </c>
       <c r="D111" s="4" t="n">
-        <v>1</v>
+        <v>1.060326017199333</v>
       </c>
       <c r="E111" s="4" t="n">
-        <v>3.694361049471348</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F111" s="4" t="n">
-        <v>1.161584665665577</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>1</v>
+        <v>1.017373963901401</v>
       </c>
       <c r="I111" s="4" t="n">
         <v>1</v>
@@ -17041,7 +17041,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>1.004760347672677</v>
+        <v>1</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>1</v>
@@ -17089,25 +17089,25 @@
         <v/>
       </c>
       <c r="B112" s="4" t="n">
-        <v>1</v>
+        <v>13.01059126463587</v>
       </c>
       <c r="C112" s="4" t="n">
-        <v>1</v>
+        <v>1.046087148100987</v>
       </c>
       <c r="D112" s="4" t="n">
-        <v>1</v>
+        <v>1.253606245470998</v>
       </c>
       <c r="E112" s="4" t="n">
-        <v>11.95341997912912</v>
+        <v>1.068411431044695</v>
       </c>
       <c r="F112" s="4" t="n">
-        <v>1.170189125483131</v>
+        <v>1.052882526805061</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>1</v>
+        <v>1.009960739246325</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>1.018189833497236</v>
+        <v>1.006834826284631</v>
       </c>
       <c r="I112" s="4" t="n">
         <v>1</v>
@@ -17164,25 +17164,25 @@
         <v/>
       </c>
       <c r="B113" s="4" t="n">
-        <v/>
+        <v>31.24567134923228</v>
       </c>
       <c r="C113" s="4" t="n">
-        <v/>
+        <v>1.08177284275901</v>
       </c>
       <c r="D113" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E113" s="4" t="n">
-        <v>1.615996177735308</v>
+        <v>2.305855176679811</v>
       </c>
       <c r="F113" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.036458442489301</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>1.024681575741807</v>
+        <v>1.067666649142035</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>1.031473616176539</v>
+        <v>1.03378370700333</v>
       </c>
       <c r="I113" s="4" t="n">
         <v>1</v>
@@ -17239,16 +17239,16 @@
         <v/>
       </c>
       <c r="B114" s="4" t="n">
-        <v/>
+        <v>26.8495446265938</v>
       </c>
       <c r="C114" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D114" s="4" t="n">
-        <v>1.095617750463693</v>
+        <v>1.058315920870533</v>
       </c>
       <c r="E114" s="4" t="n">
-        <v>1</v>
+        <v>1.032461538461539</v>
       </c>
       <c r="F114" s="4" t="n">
         <v>1</v>
@@ -17257,10 +17257,10 @@
         <v>1</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>1.068903656163934</v>
+        <v>1.033862315601252</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v/>
@@ -17314,25 +17314,25 @@
         <v/>
       </c>
       <c r="B115" s="4" t="n">
-        <v/>
+        <v>3.288299610405932</v>
       </c>
       <c r="C115" s="4" t="n">
-        <v>1</v>
+        <v>1.090999426715078</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>1.680106902161283</v>
+        <v>5.085370980172354</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F115" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.004870252881164</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.010982080425573</v>
       </c>
       <c r="I115" t="n">
         <v/>
@@ -17389,22 +17389,22 @@
         <v/>
       </c>
       <c r="B116" s="4" t="n">
-        <v>2.540958812563751</v>
+        <v/>
       </c>
       <c r="C116" s="4" t="n">
-        <v>2.049071177431411</v>
+        <v>3.164161392405063</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>1.060326017199333</v>
+        <v>3.157227986831688</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F116" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.04131249670028</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v/>
@@ -17464,19 +17464,19 @@
         <v/>
       </c>
       <c r="B117" s="4" t="n">
-        <v>13.01059126463587</v>
+        <v/>
       </c>
       <c r="C117" s="4" t="n">
-        <v>1.046087148100987</v>
+        <v>1.133725944360939</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>1.253606245470998</v>
+        <v>1.379656596392089</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>1.068411431044695</v>
+        <v>1</v>
       </c>
       <c r="F117" s="4" t="n">
-        <v>1.052882526805061</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -17539,16 +17539,16 @@
         <v/>
       </c>
       <c r="B118" s="4" t="n">
-        <v>31.24567134923228</v>
+        <v>4.448797250859106</v>
       </c>
       <c r="C118" s="4" t="n">
-        <v>1.08177284275901</v>
+        <v>4.104742777691951</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>1</v>
+        <v>1.02307455435043</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>2.305855176679811</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
         <v/>
@@ -17614,13 +17614,13 @@
         <v/>
       </c>
       <c r="B119" s="4" t="n">
-        <v>26.84954462659381</v>
+        <v>13.31097079715864</v>
       </c>
       <c r="C119" s="4" t="n">
-        <v>1</v>
+        <v>2.188259709457456</v>
       </c>
       <c r="D119" s="4" t="n">
-        <v>1.058315920870533</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v/>
@@ -17689,10 +17689,10 @@
         <v/>
       </c>
       <c r="B120" s="4" t="n">
-        <v>3.288299610405932</v>
+        <v>163.0549211528004</v>
       </c>
       <c r="C120" s="4" t="n">
-        <v>1.090999426715078</v>
+        <v>1.577423313701819</v>
       </c>
       <c r="D120" t="n">
         <v/>
@@ -17764,7 +17764,7 @@
         <v/>
       </c>
       <c r="B121" s="4" t="n">
-        <v/>
+        <v>12.90140712059685</v>
       </c>
       <c r="C121" t="n">
         <v/>
@@ -18158,70 +18158,70 @@
         <v/>
       </c>
       <c r="D127" s="47" t="n">
-        <v>381</v>
+        <v>72</v>
       </c>
       <c r="E127" s="47" t="n">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="F127" s="47" t="n">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="G127" s="47" t="n">
-        <v>14265.31</v>
+        <v>967.0000000000001</v>
       </c>
       <c r="H127" s="47" t="n">
-        <v>14265.31</v>
+        <v>967.0000000000001</v>
       </c>
       <c r="I127" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="J127" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="K127" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="L127" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="M127" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="N127" s="47" t="n">
-        <v>14765.31</v>
+        <v>967</v>
       </c>
       <c r="O127" s="47" t="n">
-        <v>14865.31</v>
+        <v>967</v>
       </c>
       <c r="P127" s="47" t="n">
-        <v>14865.31</v>
+        <v>967</v>
       </c>
       <c r="Q127" s="47" t="n">
-        <v>14865.31</v>
+        <v>967</v>
       </c>
       <c r="R127" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="S127" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="T127" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="U127" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="V127" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="W127" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="X127" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="Y127" s="47" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="Z127" s="12" t="n"/>
       <c r="AA127" s="12" t="n"/>
@@ -18340,70 +18340,70 @@
         <v/>
       </c>
       <c r="C128" s="47" t="n">
-        <v>3</v>
+        <v>349.9999999999999</v>
       </c>
       <c r="D128" s="47" t="n">
-        <v>288</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="E128" s="47" t="n">
-        <v>293.1099999999997</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="F128" s="47" t="n">
-        <v>293.1099999999997</v>
+        <v>1794</v>
       </c>
       <c r="G128" s="47" t="n">
-        <v>303.1099999999997</v>
+        <v>1794</v>
       </c>
       <c r="H128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="I128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="J128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="K128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="L128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="M128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="N128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="O128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="P128" s="47" t="n">
-        <v>1214.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="Q128" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="R128" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="S128" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="T128" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="U128" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="V128" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="W128" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="X128" s="47" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="Y128" s="47" t="n">
         <v/>
@@ -18528,64 +18528,64 @@
         <v/>
       </c>
       <c r="D129" s="47" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E129" s="47" t="n">
-        <v>1231.43</v>
+        <v>100</v>
       </c>
       <c r="F129" s="47" t="n">
-        <v>1231.429999999999</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="G129" s="47" t="n">
-        <v>2940.829999999999</v>
+        <v>970</v>
       </c>
       <c r="H129" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="I129" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="J129" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="K129" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="L129" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="M129" s="47" t="n">
-        <v>2945.829999999998</v>
+        <v>970</v>
       </c>
       <c r="N129" s="47" t="n">
-        <v>58380.41999999999</v>
+        <v>970</v>
       </c>
       <c r="O129" s="47" t="n">
-        <v>54312.35999999999</v>
+        <v>970</v>
       </c>
       <c r="P129" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="Q129" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="R129" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="S129" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="T129" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="U129" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="V129" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="W129" s="47" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="X129" s="47" t="n">
         <v/>
@@ -18713,61 +18713,61 @@
         <v/>
       </c>
       <c r="D130" s="47" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="E130" s="47" t="n">
-        <v>31</v>
+        <v/>
       </c>
       <c r="F130" s="47" t="n">
-        <v>1484.000000000001</v>
+        <v/>
       </c>
       <c r="G130" s="47" t="n">
-        <v>1484.000000000001</v>
+        <v/>
       </c>
       <c r="H130" s="47" t="n">
-        <v>38189.8</v>
+        <v/>
       </c>
       <c r="I130" s="47" t="n">
-        <v>38189.8</v>
+        <v/>
       </c>
       <c r="J130" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="K130" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="L130" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="M130" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="N130" s="47" t="n">
-        <v>38189.8</v>
+        <v>19</v>
       </c>
       <c r="O130" s="47" t="n">
-        <v>38218.8</v>
+        <v>19</v>
       </c>
       <c r="P130" s="47" t="n">
-        <v>38218.8</v>
+        <v>19</v>
       </c>
       <c r="Q130" s="47" t="n">
-        <v>38218.8</v>
+        <v>19</v>
       </c>
       <c r="R130" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="S130" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="T130" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="U130" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="V130" s="47" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="W130" s="47" t="n">
         <v/>
@@ -18895,61 +18895,61 @@
         <v/>
       </c>
       <c r="C131" s="47" t="n">
-        <v>150</v>
+        <v/>
       </c>
       <c r="D131" s="47" t="n">
-        <v>150</v>
+        <v/>
       </c>
       <c r="E131" s="47" t="n">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="F131" s="47" t="n">
-        <v>203</v>
+        <v>3066</v>
       </c>
       <c r="G131" s="47" t="n">
-        <v>203</v>
+        <v>3066</v>
       </c>
       <c r="H131" s="47" t="n">
-        <v>203</v>
+        <v>3066</v>
       </c>
       <c r="I131" s="47" t="n">
-        <v>203</v>
+        <v>3072</v>
       </c>
       <c r="J131" s="47" t="n">
-        <v>203</v>
+        <v>3275.16</v>
       </c>
       <c r="K131" s="47" t="n">
-        <v>203</v>
+        <v>3275.16</v>
       </c>
       <c r="L131" s="47" t="n">
-        <v>203</v>
+        <v>3275.16</v>
       </c>
       <c r="M131" s="47" t="n">
-        <v>203</v>
+        <v>3275.16</v>
       </c>
       <c r="N131" s="47" t="n">
-        <v>219</v>
+        <v>3275.16</v>
       </c>
       <c r="O131" s="47" t="n">
-        <v>219</v>
+        <v>3275.16</v>
       </c>
       <c r="P131" s="47" t="n">
-        <v>219</v>
+        <v>3275.16</v>
       </c>
       <c r="Q131" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="R131" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="S131" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="T131" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="U131" s="47" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="V131" s="47" t="n">
         <v/>
@@ -19083,55 +19083,55 @@
         <v/>
       </c>
       <c r="D132" s="47" t="n">
-        <v>72</v>
+        <v>1655</v>
       </c>
       <c r="E132" s="47" t="n">
-        <v>82</v>
+        <v>1655</v>
       </c>
       <c r="F132" s="47" t="n">
-        <v>82</v>
+        <v>1655</v>
       </c>
       <c r="G132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="H132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="I132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="J132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="K132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="L132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="M132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="N132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="O132" s="47" t="n">
-        <v>967</v>
+        <v>1655</v>
       </c>
       <c r="P132" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="Q132" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="R132" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="S132" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="T132" s="47" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="U132" s="47" t="n">
         <v/>
@@ -19265,55 +19265,55 @@
         <v/>
       </c>
       <c r="C133" s="47" t="n">
-        <v>349.9999999999999</v>
+        <v>55</v>
       </c>
       <c r="D133" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>27073.1</v>
       </c>
       <c r="E133" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>27073.1</v>
       </c>
       <c r="F133" s="47" t="n">
-        <v>1794</v>
+        <v>27073.1</v>
       </c>
       <c r="G133" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="H133" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="I133" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="J133" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="K133" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="L133" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="M133" s="47" t="n">
-        <v>1794</v>
+        <v>27076.1</v>
       </c>
       <c r="N133" s="47" t="n">
-        <v>1794</v>
+        <v>27134</v>
       </c>
       <c r="O133" s="47" t="n">
-        <v>1794</v>
+        <v>34924.46</v>
       </c>
       <c r="P133" s="47" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="Q133" s="47" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="R133" s="47" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="S133" s="47" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="T133" s="47" t="n">
         <v/>
@@ -19450,52 +19450,52 @@
         <v/>
       </c>
       <c r="C134" s="47" t="n">
-        <v/>
+        <v>10</v>
       </c>
       <c r="D134" s="47" t="n">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E134" s="47" t="n">
-        <v>100</v>
+        <v>216.0599999999999</v>
       </c>
       <c r="F134" s="47" t="n">
-        <v>299.9999999999999</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="G134" s="47" t="n">
-        <v>970</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="H134" s="47" t="n">
-        <v>970</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="I134" s="47" t="n">
-        <v>970</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="J134" s="47" t="n">
-        <v>970</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="K134" s="47" t="n">
-        <v>970</v>
+        <v>1743.96</v>
       </c>
       <c r="L134" s="47" t="n">
-        <v>970</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="M134" s="47" t="n">
-        <v>970</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="N134" s="47" t="n">
-        <v>970</v>
+        <v>13814.39</v>
       </c>
       <c r="O134" s="47" t="n">
-        <v>970</v>
+        <v>13814.39</v>
       </c>
       <c r="P134" s="47" t="n">
-        <v>970</v>
+        <v>13951.43</v>
       </c>
       <c r="Q134" s="47" t="n">
-        <v>970</v>
+        <v>13951.43</v>
       </c>
       <c r="R134" s="47" t="n">
-        <v>970</v>
+        <v>13951.43</v>
       </c>
       <c r="S134" s="47" t="n">
         <v/>
@@ -19638,46 +19638,46 @@
         <v/>
       </c>
       <c r="D135" s="47" t="n">
-        <v/>
+        <v>6.010000000000005</v>
       </c>
       <c r="E135" s="47" t="n">
-        <v/>
+        <v>6.010000000000005</v>
       </c>
       <c r="F135" s="47" t="n">
-        <v/>
+        <v>6.009999999999991</v>
       </c>
       <c r="G135" s="47" t="n">
-        <v/>
+        <v>6.009999999999991</v>
       </c>
       <c r="H135" s="47" t="n">
-        <v/>
+        <v>57.04999999999995</v>
       </c>
       <c r="I135" s="47" t="n">
-        <v/>
+        <v>57.04999999999995</v>
       </c>
       <c r="J135" s="47" t="n">
-        <v>19</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="K135" s="47" t="n">
-        <v>19</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="L135" s="47" t="n">
-        <v>19</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="M135" s="47" t="n">
-        <v>19</v>
+        <v>7889.15</v>
       </c>
       <c r="N135" s="47" t="n">
-        <v>19</v>
+        <v>7889.15</v>
       </c>
       <c r="O135" s="47" t="n">
-        <v>19</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="P135" s="47" t="n">
-        <v>19</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="Q135" s="47" t="n">
-        <v>19</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="R135" s="47" t="n">
         <v/>
@@ -19826,40 +19826,40 @@
         <v/>
       </c>
       <c r="E136" s="47" t="n">
-        <v>66</v>
+        <v>18.67999999999995</v>
       </c>
       <c r="F136" s="47" t="n">
-        <v>3066</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="G136" s="47" t="n">
-        <v>3066</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="H136" s="47" t="n">
-        <v>3066</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="I136" s="47" t="n">
-        <v>3072</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="J136" s="47" t="n">
-        <v>3275.16</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="K136" s="47" t="n">
-        <v>3275.16</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="L136" s="47" t="n">
-        <v>3275.16</v>
+        <v>7811.150000000001</v>
       </c>
       <c r="M136" s="47" t="n">
-        <v>3275.16</v>
+        <v>7811.150000000001</v>
       </c>
       <c r="N136" s="47" t="n">
-        <v>3275.16</v>
+        <v>7886.36</v>
       </c>
       <c r="O136" s="47" t="n">
-        <v>3275.16</v>
+        <v>7886.36</v>
       </c>
       <c r="P136" s="47" t="n">
-        <v>3275.16</v>
+        <v>7886.36</v>
       </c>
       <c r="Q136" s="47" t="n">
         <v/>
@@ -20008,40 +20008,40 @@
         <v/>
       </c>
       <c r="D137" s="47" t="n">
-        <v>1655</v>
+        <v/>
       </c>
       <c r="E137" s="47" t="n">
-        <v>1655</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F137" s="47" t="n">
-        <v>1655</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G137" s="47" t="n">
-        <v>1655</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H137" s="47" t="n">
-        <v>1655</v>
+        <v>3037.04</v>
       </c>
       <c r="I137" s="47" t="n">
-        <v>1655</v>
+        <v>3037.04</v>
       </c>
       <c r="J137" s="47" t="n">
-        <v>1655</v>
+        <v>3037.04</v>
       </c>
       <c r="K137" s="47" t="n">
-        <v>1655</v>
+        <v>8434.539999999999</v>
       </c>
       <c r="L137" s="47" t="n">
-        <v>1655</v>
+        <v>8434.539999999999</v>
       </c>
       <c r="M137" s="47" t="n">
-        <v>1655</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="N137" s="47" t="n">
-        <v>1655</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="O137" s="47" t="n">
-        <v>1655</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="P137" s="47" t="n">
         <v/>
@@ -20190,40 +20190,40 @@
         <v/>
       </c>
       <c r="C138" s="47" t="n">
-        <v>55</v>
+        <v/>
       </c>
       <c r="D138" s="47" t="n">
-        <v>27073.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="E138" s="47" t="n">
-        <v>27073.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F138" s="47" t="n">
-        <v>27073.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G138" s="47" t="n">
-        <v>27076.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H138" s="47" t="n">
-        <v>27076.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="I138" s="47" t="n">
-        <v>27076.1</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="J138" s="47" t="n">
-        <v>27076.1</v>
+        <v>10001.9</v>
       </c>
       <c r="K138" s="47" t="n">
-        <v>27076.1</v>
+        <v>10001.9</v>
       </c>
       <c r="L138" s="47" t="n">
-        <v>27076.1</v>
+        <v>10403.28</v>
       </c>
       <c r="M138" s="47" t="n">
-        <v>27076.1</v>
+        <v>10403.28</v>
       </c>
       <c r="N138" s="47" t="n">
-        <v>27134</v>
+        <v>10403.28</v>
       </c>
       <c r="O138" s="47" t="n">
         <v/>
@@ -20375,37 +20375,37 @@
         <v/>
       </c>
       <c r="C139" s="47" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="D139" s="47" t="n">
-        <v>210</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="E139" s="47" t="n">
-        <v>216.0599999999999</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="F139" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="G139" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="H139" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="I139" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>3918.240000000001</v>
       </c>
       <c r="J139" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>3918.240000000001</v>
       </c>
       <c r="K139" s="47" t="n">
-        <v>1743.96</v>
+        <v>3948.240000000001</v>
       </c>
       <c r="L139" s="47" t="n">
-        <v>1743.960000000001</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="M139" s="47" t="n">
-        <v>1743.960000000001</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="N139" s="47" t="n">
         <v/>
@@ -20563,31 +20563,31 @@
         <v/>
       </c>
       <c r="D140" s="47" t="n">
-        <v>6.010000000000005</v>
+        <v/>
       </c>
       <c r="E140" s="47" t="n">
-        <v>6.010000000000005</v>
+        <v>1416.55</v>
       </c>
       <c r="F140" s="47" t="n">
-        <v>6.009999999999991</v>
+        <v>1416.55</v>
       </c>
       <c r="G140" s="47" t="n">
-        <v>6.009999999999991</v>
+        <v>1436.91</v>
       </c>
       <c r="H140" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.91</v>
       </c>
       <c r="I140" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="J140" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="K140" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="L140" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="M140" s="47" t="n">
         <v/>
@@ -20751,25 +20751,25 @@
         <v/>
       </c>
       <c r="E141" s="47" t="n">
-        <v>18.67999999999995</v>
+        <v/>
       </c>
       <c r="F141" s="47" t="n">
-        <v>18.68000000000006</v>
+        <v/>
       </c>
       <c r="G141" s="47" t="n">
-        <v>18.68000000000006</v>
+        <v>7851.23</v>
       </c>
       <c r="H141" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8005.379999999998</v>
       </c>
       <c r="I141" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8074.429999999998</v>
       </c>
       <c r="J141" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8074.429999999998</v>
       </c>
       <c r="K141" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8074.429999999998</v>
       </c>
       <c r="L141" s="47" t="n">
         <v/>
@@ -20936,22 +20936,22 @@
         <v/>
       </c>
       <c r="E142" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>3.049999999999955</v>
       </c>
       <c r="F142" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>8103.52</v>
       </c>
       <c r="G142" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>8334.75</v>
       </c>
       <c r="H142" s="47" t="n">
-        <v>3037.04</v>
+        <v>8871.27</v>
       </c>
       <c r="I142" s="47" t="n">
-        <v>3037.04</v>
+        <v>8871.27</v>
       </c>
       <c r="J142" s="47" t="n">
-        <v>3037.04</v>
+        <v>8871.27</v>
       </c>
       <c r="K142" s="47" t="n">
         <v/>
@@ -21118,22 +21118,22 @@
         <v/>
       </c>
       <c r="D143" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v/>
       </c>
       <c r="E143" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v/>
       </c>
       <c r="F143" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v/>
       </c>
       <c r="G143" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>657.6399999999999</v>
       </c>
       <c r="H143" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="I143" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="J143" s="47" t="n">
         <v/>
@@ -21303,19 +21303,19 @@
         <v/>
       </c>
       <c r="D144" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v/>
       </c>
       <c r="E144" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v/>
       </c>
       <c r="F144" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>34</v>
       </c>
       <c r="G144" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="H144" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="I144" s="47" t="n">
         <v/>
@@ -21491,13 +21491,13 @@
         <v/>
       </c>
       <c r="E145" s="47" t="n">
-        <v>1416.55</v>
+        <v>165</v>
       </c>
       <c r="F145" s="47" t="n">
-        <v>1416.55</v>
+        <v>175.01</v>
       </c>
       <c r="G145" s="47" t="n">
-        <v>1436.91</v>
+        <v>175.01</v>
       </c>
       <c r="H145" s="47" t="n">
         <v/>
@@ -21673,13 +21673,13 @@
         <v/>
       </c>
       <c r="D146" s="47" t="n">
-        <v/>
+        <v>58</v>
       </c>
       <c r="E146" s="47" t="n">
-        <v/>
+        <v>63</v>
       </c>
       <c r="F146" s="47" t="n">
-        <v/>
+        <v>163</v>
       </c>
       <c r="G146" s="47" t="n">
         <v/>
@@ -21861,7 +21861,7 @@
         <v/>
       </c>
       <c r="E147" s="47" t="n">
-        <v>3.049999999999955</v>
+        <v/>
       </c>
       <c r="F147" s="47" t="n">
         <v/>
@@ -22037,13 +22037,13 @@
         <v/>
       </c>
       <c r="B148" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="C148" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="D148" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="E148" s="47" t="n">
         <v/>
@@ -22225,7 +22225,7 @@
         <v/>
       </c>
       <c r="C149" s="47" t="n">
-        <v/>
+        <v>5</v>
       </c>
       <c r="D149" s="47" t="n">
         <v/>
@@ -22874,61 +22874,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="n">
-        <v>0.03540529116112115</v>
+        <v>0.03923869839568593</v>
       </c>
       <c r="C2" s="60" t="n">
-        <v>0.04487973758724159</v>
+        <v>0.03031527286914906</v>
       </c>
       <c r="D2" s="60" t="n">
-        <v>0.04855630953183081</v>
+        <v>0.01689765150399821</v>
       </c>
       <c r="E2" s="60" t="n">
-        <v>0.05874490084912979</v>
+        <v>0.01393157279530048</v>
       </c>
       <c r="F2" s="60" t="n">
-        <v>0.01514035807708188</v>
+        <v>0.008062844705954217</v>
       </c>
       <c r="G2" s="60" t="n">
-        <v>0.01154763549757551</v>
+        <v>0.003786475885017526</v>
       </c>
       <c r="H2" s="60" t="n">
-        <v>0.01880596380908949</v>
+        <v>0.003389289286925376</v>
       </c>
       <c r="I2" s="60" t="n">
-        <v>0.03099124728993994</v>
+        <v>0.005111896799630984</v>
       </c>
       <c r="J2" s="60" t="n">
-        <v>0.04487973758724159</v>
+        <v>0.03031527286914906</v>
       </c>
       <c r="M2" s="35" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="47" t="n">
-        <v>8.652651786050365</v>
+        <v>9.093473187777198</v>
       </c>
       <c r="O2" s="47" t="n">
-        <v>7.286991157874532</v>
+        <v>11.48823391363714</v>
       </c>
       <c r="P2" s="47" t="n">
-        <v>8.53097472004078</v>
+        <v>17.48325636968386</v>
       </c>
       <c r="Q2" s="47" t="n">
-        <v>9.331620257895722</v>
+        <v>31.42634674508756</v>
       </c>
       <c r="R2" s="47" t="n">
-        <v>11.61589066702975</v>
+        <v>19.86007054753742</v>
       </c>
       <c r="S2" s="47" t="n">
-        <v>12.00624387807677</v>
+        <v>30.07235133164962</v>
       </c>
       <c r="T2" s="47" t="n">
-        <v>15.38701313268633</v>
+        <v>48.42902408035376</v>
       </c>
       <c r="U2" s="47" t="n">
-        <v>15.06892211849987</v>
+        <v>63.0890996901853</v>
       </c>
       <c r="V2" s="47" t="n">
-        <v>7.286991157874532</v>
+        <v>11.48823391363714</v>
       </c>
     </row>
     <row r="3">
@@ -22937,62 +22937,62 @@
         <v/>
       </c>
       <c r="B3" s="60" t="n">
-        <v>0.3063496558009081</v>
+        <v>0.3568160517844462</v>
       </c>
       <c r="C3" s="60" t="n">
-        <v>0.3270382509659588</v>
+        <v>0.348268945876522</v>
       </c>
       <c r="D3" s="60" t="n">
-        <v>0.4142326491145238</v>
+        <v>0.2954259732899748</v>
       </c>
       <c r="E3" s="60" t="n">
-        <v>0.5481851068118151</v>
+        <v>0.4378184373695417</v>
       </c>
       <c r="F3" s="60" t="n">
-        <v>0.1758687440830638</v>
+        <v>0.1601286646740894</v>
       </c>
       <c r="G3" s="60" t="n">
-        <v>0.1386437279990279</v>
+        <v>0.113868233123066</v>
       </c>
       <c r="H3" s="60" t="n">
-        <v>0.2893676121032837</v>
+        <v>0.164139972491794</v>
       </c>
       <c r="I3" s="60" t="n">
-        <v>0.4670046917672751</v>
+        <v>0.3225049667978583</v>
       </c>
       <c r="J3" s="60" t="n">
-        <v>0.3270382509659588</v>
+        <v>0.348268945876522</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="47" t="n">
-        <v>1.269597196211132</v>
+        <v>1.419562316101707</v>
       </c>
       <c r="O3" s="47" t="n">
-        <v>1.174424563794176</v>
+        <v>1.546632489586671</v>
       </c>
       <c r="P3" s="47" t="n">
-        <v>1.175163484850374</v>
+        <v>1.956983906011609</v>
       </c>
       <c r="Q3" s="47" t="n">
-        <v>1.052181474093397</v>
+        <v>2.072879584773377</v>
       </c>
       <c r="R3" s="47" t="n">
-        <v>1.362836979711852</v>
+        <v>1.634357528412611</v>
       </c>
       <c r="S3" s="47" t="n">
-        <v>1.387668462293345</v>
+        <v>1.766931248420338</v>
       </c>
       <c r="T3" s="47" t="n">
-        <v>1.211321765834414</v>
+        <v>2.209885427388718</v>
       </c>
       <c r="U3" s="47" t="n">
-        <v>1.057590756491362</v>
+        <v>2.623475266950409</v>
       </c>
       <c r="V3" s="47" t="n">
-        <v>1.174424563794176</v>
+        <v>1.546632489586671</v>
       </c>
     </row>
     <row r="4">
@@ -23001,62 +23001,62 @@
         <v/>
       </c>
       <c r="B4" s="60" t="n">
-        <v>0.3889406640650783</v>
+        <v>0.5065226208933949</v>
       </c>
       <c r="C4" s="60" t="n">
-        <v>0.3840817552347064</v>
+        <v>0.5386440668067308</v>
       </c>
       <c r="D4" s="60" t="n">
-        <v>0.486791083472226</v>
+        <v>0.5781438751462961</v>
       </c>
       <c r="E4" s="60" t="n">
-        <v>0.5767902137613018</v>
+        <v>0.9075449006607044</v>
       </c>
       <c r="F4" s="60" t="n">
-        <v>0.2396804280118793</v>
+        <v>0.2617074886247564</v>
       </c>
       <c r="G4" s="60" t="n">
-        <v>0.1923915288390278</v>
+        <v>0.2011973393075571</v>
       </c>
       <c r="H4" s="60" t="n">
-        <v>0.3505172868682375</v>
+        <v>0.3627305332616007</v>
       </c>
       <c r="I4" s="60" t="n">
-        <v>0.493899845251168</v>
+        <v>0.8460838038628443</v>
       </c>
       <c r="J4" s="60" t="n">
-        <v>0.3840817552347064</v>
+        <v>0.5386440668067308</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="47" t="n">
-        <v>1.478210839369554</v>
+        <v>1.185944258195833</v>
       </c>
       <c r="O4" s="47" t="n">
-        <v>1.127893302194549</v>
+        <v>1.263171565180209</v>
       </c>
       <c r="P4" s="47" t="n">
-        <v>1.157785021168184</v>
+        <v>1.365753666397318</v>
       </c>
       <c r="Q4" s="47" t="n">
-        <v>1.164754376182198</v>
+        <v>1.058754155645612</v>
       </c>
       <c r="R4" s="47" t="n">
-        <v>1.244332347501972</v>
+        <v>1.396404869377889</v>
       </c>
       <c r="S4" s="47" t="n">
-        <v>1.109718644450551</v>
+        <v>1.708482086719309</v>
       </c>
       <c r="T4" s="47" t="n">
-        <v>1.19132880602764</v>
+        <v>2.117274339769516</v>
       </c>
       <c r="U4" s="47" t="n">
-        <v>1.103974055447177</v>
+        <v>1.134243716914173</v>
       </c>
       <c r="V4" s="47" t="n">
-        <v>1.127893302194549</v>
+        <v>1.263171565180209</v>
       </c>
     </row>
     <row r="5">
@@ -23065,62 +23065,62 @@
         <v/>
       </c>
       <c r="B5" s="60" t="n">
-        <v>0.5749363054925912</v>
+        <v>0.6007075938948264</v>
       </c>
       <c r="C5" s="60" t="n">
-        <v>0.4332032392243514</v>
+        <v>0.6803998689432913</v>
       </c>
       <c r="D5" s="60" t="n">
-        <v>0.5635994248823745</v>
+        <v>0.7896021171862068</v>
       </c>
       <c r="E5" s="60" t="n">
-        <v>0.6718189256175415</v>
+        <v>0.9608669350095046</v>
       </c>
       <c r="F5" s="60" t="n">
-        <v>0.2982421096382992</v>
+        <v>0.3654496114682684</v>
       </c>
       <c r="G5" s="60" t="n">
-        <v>0.2135004665870149</v>
+        <v>0.343742050102548</v>
       </c>
       <c r="H5" s="60" t="n">
-        <v>0.4175813408567852</v>
+        <v>0.7680000503257</v>
       </c>
       <c r="I5" s="60" t="n">
-        <v>0.545252615146665</v>
+        <v>0.9596652385142744</v>
       </c>
       <c r="J5" s="60" t="n">
-        <v>0.4332032392243514</v>
+        <v>0.6803998689432913</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="47" t="n">
-        <v>1.214456603871615</v>
+        <v>1.24655838565236</v>
       </c>
       <c r="O5" s="47" t="n">
-        <v>1.454412903114409</v>
+        <v>1.218034323571907</v>
       </c>
       <c r="P5" s="47" t="n">
-        <v>1.25621848581979</v>
+        <v>1.179949456586398</v>
       </c>
       <c r="Q5" s="47" t="n">
-        <v>1.260189958584516</v>
+        <v>1</v>
       </c>
       <c r="R5" s="47" t="n">
-        <v>1.818406230006612</v>
+        <v>1.784271656750985</v>
       </c>
       <c r="S5" s="47" t="n">
-        <v>2.30441429971318</v>
+        <v>2.081345358587539</v>
       </c>
       <c r="T5" s="47" t="n">
-        <v>1.331710464243302</v>
+        <v>1.223052785856892</v>
       </c>
       <c r="U5" s="47" t="n">
-        <v>1.458088869241502</v>
+        <v>1</v>
       </c>
       <c r="V5" s="47" t="n">
-        <v>1.454412903114409</v>
+        <v>1.218034323571907</v>
       </c>
     </row>
     <row r="6">
@@ -23129,62 +23129,62 @@
         <v/>
       </c>
       <c r="B6" s="60" t="n">
-        <v>0.6982351930110258</v>
+        <v>0.7488170884946481</v>
       </c>
       <c r="C6" s="60" t="n">
-        <v>0.6300563807988548</v>
+        <v>0.8287503941267559</v>
       </c>
       <c r="D6" s="60" t="n">
-        <v>0.7080040161346411</v>
+        <v>0.9316905890933338</v>
       </c>
       <c r="E6" s="60" t="n">
-        <v>0.8466194640502636</v>
+        <v>0.9608669350095046</v>
       </c>
       <c r="F6" s="60" t="n">
-        <v>0.5423253102165984</v>
+        <v>0.6520613837134909</v>
       </c>
       <c r="G6" s="60" t="n">
-        <v>0.4919935281985531</v>
+        <v>0.7154459205323036</v>
       </c>
       <c r="H6" s="60" t="n">
-        <v>0.5560974412917301</v>
+        <v>0.9393046010890802</v>
       </c>
       <c r="I6" s="60" t="n">
-        <v>0.7950267690701727</v>
+        <v>0.9596652385142744</v>
       </c>
       <c r="J6" s="60" t="n">
-        <v>0.6300563807988548</v>
+        <v>0.8287503941267559</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="47" t="n">
-        <v>1.061819603061803</v>
+        <v>1.130665512146175</v>
       </c>
       <c r="O6" s="47" t="n">
-        <v>1.193336187570287</v>
+        <v>1.054179295415477</v>
       </c>
       <c r="P6" s="47" t="n">
-        <v>1.050002422245907</v>
+        <v>1.032358491626334</v>
       </c>
       <c r="Q6" s="47" t="n">
-        <v>1.034475149640775</v>
+        <v>1.011005277610765</v>
       </c>
       <c r="R6" s="47" t="n">
-        <v>1.110858866179403</v>
+        <v>1.110572549666736</v>
       </c>
       <c r="S6" s="47" t="n">
-        <v>1.168592292039867</v>
+        <v>1.038535604761946</v>
       </c>
       <c r="T6" s="47" t="n">
-        <v>1.037178608714699</v>
+        <v>1.021775577665774</v>
       </c>
       <c r="U6" s="47" t="n">
-        <v>1.01762750893502</v>
+        <v>1.013770832233426</v>
       </c>
       <c r="V6" s="47" t="n">
-        <v>1.193336187570287</v>
+        <v>1.054179295415477</v>
       </c>
     </row>
     <row r="7">
@@ -23193,62 +23193,62 @@
         <v/>
       </c>
       <c r="B7" s="60" t="n">
-        <v>0.741399815486749</v>
+        <v>0.8466616568666092</v>
       </c>
       <c r="C7" s="60" t="n">
-        <v>0.7518690794168382</v>
+        <v>0.8736515065558426</v>
       </c>
       <c r="D7" s="60" t="n">
-        <v>0.7434059319012032</v>
+        <v>0.9618386912188441</v>
       </c>
       <c r="E7" s="60" t="n">
-        <v>0.8758067967621894</v>
+        <v>0.9714415423762889</v>
       </c>
       <c r="F7" s="60" t="n">
-        <v>0.6024468792076036</v>
+        <v>0.7241614734499117</v>
       </c>
       <c r="G7" s="60" t="n">
-        <v>0.5749398447863282</v>
+        <v>0.7430160617544829</v>
       </c>
       <c r="H7" s="60" t="n">
-        <v>0.5767723704687604</v>
+        <v>0.9597585013819139</v>
       </c>
       <c r="I7" s="60" t="n">
-        <v>0.8090411105455373</v>
+        <v>0.9728806275141058</v>
       </c>
       <c r="J7" s="60" t="n">
-        <v>0.7518690794168382</v>
+        <v>0.8736515065558426</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="47" t="n">
-        <v>1.164065475128261</v>
+        <v>1.018296053700251</v>
       </c>
       <c r="O7" s="47" t="n">
-        <v>1.016449218332583</v>
+        <v>1.024740551361857</v>
       </c>
       <c r="P7" s="47" t="n">
-        <v>1.002839761008326</v>
+        <v>1.019362717121701</v>
       </c>
       <c r="Q7" s="47" t="n">
-        <v>1</v>
+        <v>1.002321130163858</v>
       </c>
       <c r="R7" s="47" t="n">
-        <v>1.090752190718385</v>
+        <v>1.036556982886942</v>
       </c>
       <c r="S7" s="47" t="n">
-        <v>1.047960670891285</v>
+        <v>1.054835474330413</v>
       </c>
       <c r="T7" s="47" t="n">
-        <v>1.004113595956968</v>
+        <v>1.013749606878254</v>
       </c>
       <c r="U7" s="47" t="n">
-        <v>1</v>
+        <v>1.001623417627055</v>
       </c>
       <c r="V7" s="47" t="n">
-        <v>1.016449218332583</v>
+        <v>1.024740551361857</v>
       </c>
     </row>
     <row r="8">
@@ -23257,62 +23257,62 @@
         <v/>
       </c>
       <c r="B8" s="60" t="n">
-        <v>0.8630379284745878</v>
+        <v>0.8621522240065845</v>
       </c>
       <c r="C8" s="60" t="n">
-        <v>0.7642367380616842</v>
+        <v>0.8952661265261516</v>
       </c>
       <c r="D8" s="60" t="n">
-        <v>0.7455170270799746</v>
+        <v>0.9804625017136213</v>
       </c>
       <c r="E8" s="60" t="n">
-        <v>0.8758067967621894</v>
+        <v>0.9736963846427231</v>
       </c>
       <c r="F8" s="60" t="n">
-        <v>0.657120253287148</v>
+        <v>0.7506346320422025</v>
       </c>
       <c r="G8" s="60" t="n">
-        <v>0.6025143454644121</v>
+        <v>0.7837596999359052</v>
       </c>
       <c r="H8" s="60" t="n">
-        <v>0.5791449789600114</v>
+        <v>0.9729548034739771</v>
       </c>
       <c r="I8" s="60" t="n">
-        <v>0.8090411105455373</v>
+        <v>0.9744600190738324</v>
       </c>
       <c r="J8" s="60" t="n">
-        <v>0.7642367380616842</v>
+        <v>0.8952661265261516</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="47" t="n">
-        <v>1.05830129749715</v>
+        <v>1.083765384433554</v>
       </c>
       <c r="O8" s="47" t="n">
-        <v>1.139452611990327</v>
+        <v>1.015822786664237</v>
       </c>
       <c r="P8" s="47" t="n">
-        <v>1.013107157006505</v>
+        <v>1.017162033566082</v>
       </c>
       <c r="Q8" s="47" t="n">
-        <v>1.032158398094317</v>
+        <v>1.027014186118118</v>
       </c>
       <c r="R8" s="47" t="n">
-        <v>1.11992950297543</v>
+        <v>1.11991983846335</v>
       </c>
       <c r="S8" s="47" t="n">
-        <v>1.161316696721731</v>
+        <v>1.018712025280361</v>
       </c>
       <c r="T8" s="47" t="n">
-        <v>1.020284568358025</v>
+        <v>1.017139482202698</v>
       </c>
       <c r="U8" s="47" t="n">
-        <v>1.033459090780157</v>
+        <v>1.026209367676718</v>
       </c>
       <c r="V8" s="47" t="n">
-        <v>1.139452611990327</v>
+        <v>1.015822786664237</v>
       </c>
     </row>
     <row r="9">
@@ -23321,62 +23321,62 @@
         <v/>
       </c>
       <c r="B9" s="60" t="n">
-        <v>0.9133541594939085</v>
+        <v>0.9343707364907393</v>
       </c>
       <c r="C9" s="60" t="n">
-        <v>0.8708115473633534</v>
+        <v>0.909431731453893</v>
       </c>
       <c r="D9" s="60" t="n">
-        <v>0.7552886358049344</v>
+        <v>0.9972892320783152</v>
       </c>
       <c r="E9" s="60" t="n">
-        <v>0.9039713403861767</v>
+        <v>1</v>
       </c>
       <c r="F9" s="60" t="n">
-        <v>0.7359283586589646</v>
+        <v>0.8406506158616998</v>
       </c>
       <c r="G9" s="60" t="n">
-        <v>0.6997099694021865</v>
+        <v>0.7984254312548345</v>
       </c>
       <c r="H9" s="60" t="n">
-        <v>0.5908926848749327</v>
+        <v>0.9896307450121488</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>0.8361108905081597</v>
+        <v>1</v>
       </c>
       <c r="J9" s="60" t="n">
-        <v>0.8708115473633534</v>
+        <v>0.909431731453893</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="47" t="n">
-        <v>1.026233037067138</v>
+        <v>1.067018305792897</v>
       </c>
       <c r="O9" s="47" t="n">
-        <v>1.075431898079739</v>
+        <v>1.095672156355898</v>
       </c>
       <c r="P9" s="47" t="n">
-        <v>1.24077959293326</v>
+        <v>1.002718136157989</v>
       </c>
       <c r="Q9" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="47" t="n">
-        <v>1.182898087569667</v>
+        <v>1.186304573977216</v>
       </c>
       <c r="S9" s="47" t="n">
-        <v>1.243492898127531</v>
+        <v>1.248406098636287</v>
       </c>
       <c r="T9" s="47" t="n">
-        <v>1.476107835231749</v>
+        <v>1.010477903036171</v>
       </c>
       <c r="U9" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V9" s="47" t="n">
-        <v>1.075431898079739</v>
+        <v>1.095672156355898</v>
       </c>
     </row>
     <row r="10">
@@ -23385,41 +23385,41 @@
         <v/>
       </c>
       <c r="B10" s="60" t="n">
-        <v>0.9373142130153365</v>
+        <v>0.9969906802328103</v>
       </c>
       <c r="C10" s="60" t="n">
-        <v>0.9364985152507255</v>
+        <v>0.9964390262605646</v>
       </c>
       <c r="D10" s="60" t="n">
-        <v>0.9371467260811638</v>
+        <v>1</v>
       </c>
       <c r="E10" s="60" t="n">
-        <v>0.9039713403861767</v>
+        <v>1</v>
       </c>
       <c r="F10" s="60" t="n">
-        <v>0.8705282480459734</v>
+        <v>0.9972676707134976</v>
       </c>
       <c r="G10" s="60" t="n">
-        <v>0.8700843777006511</v>
+        <v>0.9967591776848431</v>
       </c>
       <c r="H10" s="60" t="n">
-        <v>0.8722213219250128</v>
+        <v>1</v>
       </c>
       <c r="I10" s="60" t="n">
-        <v>0.8361108905081597</v>
+        <v>1</v>
       </c>
       <c r="J10" s="60" t="n">
-        <v>0.9364985152507255</v>
+        <v>0.9964390262605646</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="47" t="n">
-        <v>1.000446576604337</v>
+        <v>1.001141968984422</v>
       </c>
       <c r="O10" s="47" t="n">
-        <v>1.00104296347688</v>
+        <v>1.001382588859823</v>
       </c>
       <c r="P10" s="47" t="n">
         <v>1</v>
@@ -23440,7 +23440,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="47" t="n">
-        <v>1.00104296347688</v>
+        <v>1.001382588859823</v>
       </c>
     </row>
     <row r="11">
@@ -23449,47 +23449,47 @@
         <v/>
       </c>
       <c r="B11" s="60" t="n">
-        <v>0.9377327956137819</v>
+        <v>0.9981292126673941</v>
       </c>
       <c r="C11" s="60" t="n">
-        <v>0.9374752489982839</v>
+        <v>0.9978166917577652</v>
       </c>
       <c r="D11" s="60" t="n">
-        <v>0.9371467260811638</v>
+        <v>1</v>
       </c>
       <c r="E11" s="60" t="n">
-        <v>0.9039713403861767</v>
+        <v>1</v>
       </c>
       <c r="F11" s="60" t="n">
-        <v>0.8710976829277003</v>
+        <v>0.9979200091061893</v>
       </c>
       <c r="G11" s="60" t="n">
-        <v>0.870795808369071</v>
+        <v>0.9975741849027727</v>
       </c>
       <c r="H11" s="60" t="n">
-        <v>0.8722213219250128</v>
+        <v>1</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>0.8361108905081597</v>
+        <v>1</v>
       </c>
       <c r="J11" s="60" t="n">
-        <v>0.9374752489982839</v>
+        <v>0.9978166917577652</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="47" t="n">
-        <v>1.000659792860724</v>
+        <v>1.001874293737588</v>
       </c>
       <c r="O11" s="47" t="n">
-        <v>1.000934697764284</v>
+        <v>1.002188085507358</v>
       </c>
       <c r="P11" s="47" t="n">
-        <v>1.00128558197228</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="47" t="n">
-        <v>1.002037001182827</v>
+        <v>1</v>
       </c>
       <c r="R11" s="47" t="n">
         <v>1.002084326273479</v>
@@ -23498,13 +23498,13 @@
         <v>1.002431713985726</v>
       </c>
       <c r="T11" s="47" t="n">
-        <v>1.000793391278779</v>
+        <v>1</v>
       </c>
       <c r="U11" s="47" t="n">
-        <v>1.001586782557559</v>
+        <v>1</v>
       </c>
       <c r="V11" s="47" t="n">
-        <v>1.000934697764284</v>
+        <v>1.002188085507358</v>
       </c>
     </row>
     <row r="12">
@@ -23513,31 +23513,31 @@
         <v/>
       </c>
       <c r="B12" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C12" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D12" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E12" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F12" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G12" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H12" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I12" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J12" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
@@ -23577,31 +23577,31 @@
         <v/>
       </c>
       <c r="B13" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C13" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D13" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E13" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F13" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G13" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H13" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I13" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J13" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -23641,31 +23641,31 @@
         <v/>
       </c>
       <c r="B14" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C14" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D14" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E14" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F14" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G14" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H14" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I14" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J14" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -23705,31 +23705,31 @@
         <v/>
       </c>
       <c r="B15" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C15" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D15" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E15" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F15" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G15" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H15" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I15" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J15" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -23769,31 +23769,31 @@
         <v/>
       </c>
       <c r="B16" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C16" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D16" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E16" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F16" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G16" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H16" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I16" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J16" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -23833,31 +23833,31 @@
         <v/>
       </c>
       <c r="B17" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C17" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D17" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E17" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F17" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G17" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H17" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I17" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J17" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
@@ -23897,31 +23897,31 @@
         <v/>
       </c>
       <c r="B18" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C18" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D18" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E18" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F18" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G18" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H18" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I18" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J18" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -23961,31 +23961,31 @@
         <v/>
       </c>
       <c r="B19" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C19" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D19" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E19" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F19" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G19" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H19" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I19" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J19" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -24025,31 +24025,31 @@
         <v/>
       </c>
       <c r="B20" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C20" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D20" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E20" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F20" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G20" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H20" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I20" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J20" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -24089,62 +24089,62 @@
         <v/>
       </c>
       <c r="B21" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="C21" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="D21" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="E21" s="60" t="n">
-        <v>0.9058127310757852</v>
+        <v>1</v>
       </c>
       <c r="F21" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="G21" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="H21" s="60" t="n">
-        <v>0.8729133347149935</v>
+        <v>1</v>
       </c>
       <c r="I21" s="60" t="n">
-        <v>0.8374376166854032</v>
+        <v>1</v>
       </c>
       <c r="J21" s="60" t="n">
-        <v>0.9383515050175947</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="47" t="n">
-        <v>1.065698722336732</v>
+        <v>1</v>
       </c>
       <c r="O21" s="47" t="n">
-        <v>1.065698722336732</v>
+        <v>1</v>
       </c>
       <c r="P21" s="47" t="n">
-        <v>1.065698722336732</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="47" t="n">
-        <v>1.103980950689834</v>
+        <v>1</v>
       </c>
       <c r="R21" s="47" t="n">
-        <v>1.14558909828832</v>
+        <v>1</v>
       </c>
       <c r="S21" s="47" t="n">
-        <v>1.14558909828832</v>
+        <v>1</v>
       </c>
       <c r="T21" s="47" t="n">
-        <v>1.14558909828832</v>
+        <v>1</v>
       </c>
       <c r="U21" s="47" t="n">
-        <v>1.19411879771776</v>
+        <v>1</v>
       </c>
       <c r="V21" s="47" t="n">
-        <v>1.065698722336732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -24446,61 +24446,61 @@
         <v>1</v>
       </c>
       <c r="B56" s="60" t="n">
-        <v>0.004131566460985436</v>
+        <v>0.003211861482408758</v>
       </c>
       <c r="C56" s="60" t="n">
-        <v>0.00122766166367628</v>
+        <v>0.04740046599618341</v>
       </c>
       <c r="D56" s="60" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.003918878779868573</v>
       </c>
       <c r="E56" s="60" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.504722660010146</v>
       </c>
       <c r="F56" s="60" t="n">
-        <v>6.917954223176163e-07</v>
+        <v>2.296627639169194e-15</v>
       </c>
       <c r="G56" s="60" t="n">
-        <v>1.582635994549832e-06</v>
+        <v>1.341483757578782e-13</v>
       </c>
       <c r="H56" s="60" t="n">
-        <v>0.002872628500287887</v>
+        <v>1.263191503721968e-13</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>0.000960072298088482</v>
+        <v>0.3935497972345096</v>
       </c>
       <c r="J56" s="60" t="n">
-        <v>0.0500841663091221</v>
+        <v>0.0182987193490968</v>
       </c>
       <c r="M56" s="35" t="n">
         <v>1</v>
       </c>
       <c r="N56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V56" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -24509,62 +24509,62 @@
         <v/>
       </c>
       <c r="B57" s="60" t="n">
-        <v>0.004131566460985436</v>
+        <v>0.003211861482408758</v>
       </c>
       <c r="C57" s="60" t="n">
-        <v>0.00122766166367628</v>
+        <v>0.04740046599618341</v>
       </c>
       <c r="D57" s="60" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.003918878779868573</v>
       </c>
       <c r="E57" s="60" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.504722660010146</v>
       </c>
       <c r="F57" s="60" t="n">
-        <v>6.917954223176163e-07</v>
+        <v>2.296627639169194e-15</v>
       </c>
       <c r="G57" s="60" t="n">
-        <v>1.582635994549832e-06</v>
+        <v>1.341483757578782e-13</v>
       </c>
       <c r="H57" s="60" t="n">
-        <v>0.002872628500287887</v>
+        <v>1.263191503721968e-13</v>
       </c>
       <c r="I57" s="60" t="n">
-        <v>0.000960072298088482</v>
+        <v>0.3935497972345096</v>
       </c>
       <c r="J57" s="60" t="n">
-        <v>0.4111813958013659</v>
+        <v>0.3512741245233649</v>
       </c>
       <c r="M57">
         <f>+M56+1</f>
         <v/>
       </c>
       <c r="N57" s="47" t="n">
-        <v>49.46320422535212</v>
+        <v>66.17248803827752</v>
       </c>
       <c r="O57" s="47" t="n">
-        <v>419.74</v>
+        <v>1</v>
       </c>
       <c r="P57" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q57" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R57" s="47" t="n">
-        <v>122.2613506493506</v>
+        <v>128.8266883116883</v>
       </c>
       <c r="S57" s="47" t="n">
-        <v>256.6190909090909</v>
+        <v>1</v>
       </c>
       <c r="T57" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U57" s="47" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V57" s="47" t="n">
-        <v>139.9133333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -24573,62 +24573,62 @@
         <v/>
       </c>
       <c r="B58" s="60" t="n">
-        <v>0.2043605156303379</v>
+        <v>0.2125368655252979</v>
       </c>
       <c r="C58" s="60" t="n">
-        <v>0.5152987067114817</v>
+        <v>0.04740046599618341</v>
       </c>
       <c r="D58" s="60" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.003918878779868573</v>
       </c>
       <c r="E58" s="60" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.504722660010146</v>
       </c>
       <c r="F58" s="60" t="n">
-        <v>8.457984270558969e-05</v>
+        <v>2.958669330392584e-13</v>
       </c>
       <c r="G58" s="60" t="n">
-        <v>0.0004061346101613829</v>
+        <v>1.341483757578782e-13</v>
       </c>
       <c r="H58" s="60" t="n">
-        <v>0.002872628500287887</v>
+        <v>1.263191503721968e-13</v>
       </c>
       <c r="I58" s="60" t="n">
-        <v>0.000960072298088482</v>
+        <v>0.3935497972345096</v>
       </c>
       <c r="J58" s="60" t="n">
-        <v>0.4693649930812432</v>
+        <v>0.6399234619279708</v>
       </c>
       <c r="M58">
         <f>+M57+1</f>
         <v/>
       </c>
       <c r="N58" s="47" t="n">
-        <v>1.040564560212176</v>
+        <v>1.003426444516248</v>
       </c>
       <c r="O58" s="47" t="n">
-        <v>1.000209180973644</v>
+        <v>1.059509640561771</v>
       </c>
       <c r="P58" s="47" t="n">
-        <v>1</v>
+        <v>1.086206896551724</v>
       </c>
       <c r="Q58" s="47" t="n">
-        <v/>
+        <v>1.086206896551724</v>
       </c>
       <c r="R58" s="47" t="n">
-        <v>2.090399112296434</v>
+        <v>1.425395292829776</v>
       </c>
       <c r="S58" s="47" t="n">
-        <v>1.004809523809524</v>
+        <v>1.028735632183908</v>
       </c>
       <c r="T58" s="47" t="n">
-        <v>1</v>
+        <v>1.086206896551724</v>
       </c>
       <c r="U58" s="47" t="n">
-        <v/>
+        <v>1.086206896551724</v>
       </c>
       <c r="V58" s="47" t="n">
-        <v>0.6667363936578813</v>
+        <v>1.07730781122174</v>
       </c>
     </row>
     <row r="59">
@@ -24637,62 +24637,62 @@
         <v/>
       </c>
       <c r="B59" s="60" t="n">
-        <v>0.2126503100716161</v>
+        <v>0.2132651113026776</v>
       </c>
       <c r="C59" s="60" t="n">
-        <v>0.5154064973966691</v>
+        <v>0.05022125069007673</v>
       </c>
       <c r="D59" s="60" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.00425671315744345</v>
       </c>
       <c r="E59" s="60" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.5482332341489518</v>
       </c>
       <c r="F59" s="60" t="n">
-        <v>0.0001768056281099367</v>
+        <v>4.217273336581414e-13</v>
       </c>
       <c r="G59" s="60" t="n">
-        <v>0.0004080879242388258</v>
+        <v>1.380032141417252e-13</v>
       </c>
       <c r="H59" s="60" t="n">
-        <v>0.002872628500287887</v>
+        <v>1.372087323008344e-13</v>
       </c>
       <c r="I59" s="60" t="n">
-        <v>0.000960072298088482</v>
+        <v>0.427476503892657</v>
       </c>
       <c r="J59" s="60" t="n">
-        <v>0.5384844538589735</v>
+        <v>0.7942997991319294</v>
       </c>
       <c r="M59">
         <f>+M58+1</f>
         <v/>
       </c>
       <c r="N59" s="47" t="n">
-        <v>1.185714928341269</v>
+        <v>1.411159134026791</v>
       </c>
       <c r="O59" s="47" t="n">
-        <v>1.099258114140778</v>
+        <v>5.825946911809654</v>
       </c>
       <c r="P59" s="47" t="n">
-        <v>1</v>
+        <v>36.53551179398399</v>
       </c>
       <c r="Q59" s="47" t="n">
-        <v>1</v>
+        <v>1.4825</v>
       </c>
       <c r="R59" s="47" t="n">
-        <v>6.477407597835469</v>
+        <v>170.3068004511541</v>
       </c>
       <c r="S59" s="47" t="n">
-        <v>5.557224424191935</v>
+        <v>296.2821968369663</v>
       </c>
       <c r="T59" s="47" t="n">
-        <v>1.000000000000001</v>
+        <v>886.8465905108989</v>
       </c>
       <c r="U59" s="47" t="n">
-        <v>1</v>
+        <v>1.823984126984127</v>
       </c>
       <c r="V59" s="47" t="n">
-        <v>1.033086038046926</v>
+        <v>14.61465290193122</v>
       </c>
     </row>
     <row r="60">
@@ -24701,62 +24701,62 @@
         <v/>
       </c>
       <c r="B60" s="60" t="n">
-        <v>0.252142647168315</v>
+        <v>0.3009510097840137</v>
       </c>
       <c r="C60" s="60" t="n">
-        <v>0.5665647743441664</v>
+        <v>0.2925863403650709</v>
       </c>
       <c r="D60" s="60" t="n">
-        <v>0.08212862870091234</v>
+        <v>0.155521193767382</v>
       </c>
       <c r="E60" s="60" t="n">
-        <v>0.001634732826461287</v>
+        <v>0.8127557696258209</v>
       </c>
       <c r="F60" s="60" t="n">
-        <v>0.001145242118859376</v>
+        <v>7.182303285811438e-11</v>
       </c>
       <c r="G60" s="60" t="n">
-        <v>0.00226783617979779</v>
+        <v>4.088789545647265e-11</v>
       </c>
       <c r="H60" s="60" t="n">
-        <v>0.00287262850028789</v>
+        <v>1.216830964293177e-10</v>
       </c>
       <c r="I60" s="60" t="n">
-        <v>0.000960072298088482</v>
+        <v>0.7797103577588749</v>
       </c>
       <c r="J60" s="60" t="n">
-        <v>0.7175747476432084</v>
+        <v>0.9034292936277302</v>
       </c>
       <c r="M60">
         <f>+M59+1</f>
         <v/>
       </c>
       <c r="N60" s="47" t="n">
-        <v>1.437487778298332</v>
+        <v>1.041359818831446</v>
       </c>
       <c r="O60" s="47" t="n">
-        <v>1.020510053582427</v>
+        <v>1.026096611331077</v>
       </c>
       <c r="P60" s="47" t="n">
-        <v>1.013847796663198</v>
+        <v>1.026888462218422</v>
       </c>
       <c r="Q60" s="47" t="n">
-        <v>1.014113699855119</v>
+        <v>1.047892445337544</v>
       </c>
       <c r="R60" s="47" t="n">
-        <v>3.828028759743751</v>
+        <v>1.835215393607869</v>
       </c>
       <c r="S60" s="47" t="n">
-        <v>1.204347008435828</v>
+        <v>1.033731922646298</v>
       </c>
       <c r="T60" s="47" t="n">
-        <v>1.002395491393409</v>
+        <v>1.084329806615746</v>
       </c>
       <c r="U60" s="47" t="n">
-        <v>1.004790982786818</v>
+        <v>1.147205882352941</v>
       </c>
       <c r="V60" s="47" t="n">
-        <v>1.016157183366915</v>
+        <v>1.033625839629014</v>
       </c>
     </row>
     <row r="61">
@@ -24765,62 +24765,62 @@
         <v/>
       </c>
       <c r="B61" s="60" t="n">
-        <v>0.3624519736922412</v>
+        <v>0.3133982890258213</v>
       </c>
       <c r="C61" s="60" t="n">
-        <v>0.5781850482238807</v>
+        <v>0.3002218523703604</v>
       </c>
       <c r="D61" s="60" t="n">
-        <v>0.08326592925138984</v>
+        <v>0.1597029195101601</v>
       </c>
       <c r="E61" s="60" t="n">
-        <v>0.001657804954917273</v>
+        <v>0.8516806308953987</v>
       </c>
       <c r="F61" s="60" t="n">
-        <v>0.004384019767863565</v>
+        <v>1.318107355168153e-10</v>
       </c>
       <c r="G61" s="60" t="n">
-        <v>0.002731261718762004</v>
+        <v>4.226712278318032e-11</v>
       </c>
       <c r="H61" s="60" t="n">
-        <v>0.002879509857136791</v>
+        <v>1.319446084196071e-10</v>
       </c>
       <c r="I61" s="60" t="n">
-        <v>0.0009646719879427245</v>
+        <v>0.8944883089524972</v>
       </c>
       <c r="J61" s="60" t="n">
-        <v>0.7859610120274475</v>
+        <v>0.9335050210180217</v>
       </c>
       <c r="M61">
         <f>+M60+1</f>
         <v/>
       </c>
       <c r="N61" s="47" t="n">
-        <v>1.739911042545596</v>
+        <v>1.069767313014275</v>
       </c>
       <c r="O61" s="47" t="n">
-        <v>1.088565886635734</v>
+        <v>1.082671621164723</v>
       </c>
       <c r="P61" s="47" t="n">
-        <v>11.45723383354222</v>
+        <v>1.037643718098602</v>
       </c>
       <c r="Q61" s="47" t="n">
-        <v>105.5136066138479</v>
+        <v>1.059373201717498</v>
       </c>
       <c r="R61" s="47" t="n">
-        <v>62.43102285984155</v>
+        <v>60.80397107174845</v>
       </c>
       <c r="S61" s="47" t="n">
-        <v>93.41668208150777</v>
+        <v>85.72229235164365</v>
       </c>
       <c r="T61" s="47" t="n">
-        <v>170.4305838160976</v>
+        <v>1.014000887189709</v>
       </c>
       <c r="U61" s="47" t="n">
-        <v>336.9944629014407</v>
+        <v>1.021457152284112</v>
       </c>
       <c r="V61" s="47" t="n">
-        <v>39.35313544467527</v>
+        <v>1.059896180326941</v>
       </c>
     </row>
     <row r="62">
@@ -24829,62 +24829,62 @@
         <v/>
       </c>
       <c r="B62" s="60" t="n">
-        <v>0.6306341914195764</v>
+        <v>0.335263245554424</v>
       </c>
       <c r="C62" s="60" t="n">
-        <v>0.6293925196593533</v>
+        <v>0.3250416796148942</v>
       </c>
       <c r="D62" s="60" t="n">
-        <v>0.9539972218003563</v>
+        <v>0.1657147311917243</v>
       </c>
       <c r="E62" s="60" t="n">
-        <v>0.1749209798556289</v>
+        <v>0.9022476367924374</v>
       </c>
       <c r="F62" s="60" t="n">
-        <v>0.2736988383454874</v>
+        <v>8.014616149310323e-09</v>
       </c>
       <c r="G62" s="60" t="n">
-        <v>0.2551454076629827</v>
+        <v>3.623234656082601e-09</v>
       </c>
       <c r="H62" s="60" t="n">
-        <v>0.490756546056031</v>
+        <v>1.337919499973804e-10</v>
       </c>
       <c r="I62" s="60" t="n">
-        <v>0.3250891184528236</v>
+        <v>0.9136814808140483</v>
       </c>
       <c r="J62" s="60" t="n">
-        <v>0.7912121877281318</v>
+        <v>0.9481886621503157</v>
       </c>
       <c r="M62">
         <f>+M61+1</f>
         <v/>
       </c>
       <c r="N62" s="47" t="n">
-        <v>1.005287017665431</v>
+        <v>1.068593139891285</v>
       </c>
       <c r="O62" s="47" t="n">
-        <v>1.000154291700804</v>
+        <v>1.077602267141617</v>
       </c>
       <c r="P62" s="47" t="n">
-        <v>1</v>
+        <v>1.208676848507308</v>
       </c>
       <c r="Q62" s="47" t="n">
-        <v>1</v>
+        <v>1.003937998059802</v>
       </c>
       <c r="R62" s="47" t="n">
-        <v>1.002312938072874</v>
+        <v>11.58092541542961</v>
       </c>
       <c r="S62" s="47" t="n">
-        <v>1.000177904287493</v>
+        <v>15.10773747497594</v>
       </c>
       <c r="T62" s="47" t="n">
-        <v>1</v>
+        <v>29.21547494995189</v>
       </c>
       <c r="U62" s="47" t="n">
-        <v>1</v>
+        <v>1.002875149795096</v>
       </c>
       <c r="V62" s="47" t="n">
-        <v>1.000051430566935</v>
+        <v>1.096739037902909</v>
       </c>
     </row>
     <row r="63">
@@ -24893,62 +24893,62 @@
         <v/>
       </c>
       <c r="B63" s="60" t="n">
-        <v>0.6339683655300363</v>
+        <v>0.3582600042571449</v>
       </c>
       <c r="C63" s="60" t="n">
-        <v>0.6294896297016846</v>
+        <v>0.3502656508685292</v>
       </c>
       <c r="D63" s="60" t="n">
-        <v>0.9539972218003563</v>
+        <v>0.200295559048049</v>
       </c>
       <c r="E63" s="60" t="n">
-        <v>0.1749209798556289</v>
+        <v>0.9058006862355865</v>
       </c>
       <c r="F63" s="60" t="n">
-        <v>0.2743318868091981</v>
+        <v>9.281667185846052e-08</v>
       </c>
       <c r="G63" s="60" t="n">
-        <v>0.2551907991249402</v>
+        <v>5.473887799433068e-08</v>
       </c>
       <c r="H63" s="60" t="n">
-        <v>0.490756546056031</v>
+        <v>3.908795363653683e-09</v>
       </c>
       <c r="I63" s="60" t="n">
-        <v>0.3250891184528236</v>
+        <v>0.916308451936394</v>
       </c>
       <c r="J63" s="60" t="n">
-        <v>0.8383211117276036</v>
+        <v>0.9670226279771106</v>
       </c>
       <c r="M63">
         <f>+M62+1</f>
         <v/>
       </c>
       <c r="N63" s="47" t="n">
-        <v>1.002111650122151</v>
+        <v>1.166715881546348</v>
       </c>
       <c r="O63" s="47" t="n">
-        <v>1.005196789123066</v>
+        <v>1.177540489805394</v>
       </c>
       <c r="P63" s="47" t="n">
-        <v>1</v>
+        <v>1.394575172941767</v>
       </c>
       <c r="Q63" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R63" s="47" t="n">
-        <v>1.004408854166667</v>
+        <v>222.4637665507344</v>
       </c>
       <c r="S63" s="47" t="n">
-        <v>1.006012073863636</v>
+        <v>277.829708188418</v>
       </c>
       <c r="T63" s="47" t="n">
-        <v>1</v>
+        <v>554.6483942414193</v>
       </c>
       <c r="U63" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V63" s="47" t="n">
-        <v>1.001732263041022</v>
+        <v>1.19070522091572</v>
       </c>
     </row>
     <row r="64">
@@ -24957,62 +24957,62 @@
         <v/>
       </c>
       <c r="B64" s="60" t="n">
-        <v>0.6353070849065474</v>
+        <v>0.4179876366896732</v>
       </c>
       <c r="C64" s="60" t="n">
-        <v>0.6327609545624012</v>
+        <v>0.412451986085733</v>
       </c>
       <c r="D64" s="60" t="n">
-        <v>0.9539972218003563</v>
+        <v>0.2793272138989007</v>
       </c>
       <c r="E64" s="60" t="n">
-        <v>0.1749209798556289</v>
+        <v>0.9058006862355865</v>
       </c>
       <c r="F64" s="60" t="n">
-        <v>0.2755413760914064</v>
+        <v>2.064834642033668e-05</v>
       </c>
       <c r="G64" s="60" t="n">
-        <v>0.2567250250585997</v>
+        <v>1.520808649972631e-05</v>
       </c>
       <c r="H64" s="60" t="n">
-        <v>0.490756546056031</v>
+        <v>2.16800707186882e-06</v>
       </c>
       <c r="I64" s="60" t="n">
-        <v>0.3250891184528236</v>
+        <v>0.916308451936394</v>
       </c>
       <c r="J64" s="60" t="n">
-        <v>0.9256099961245983</v>
+        <v>0.9988101841515274</v>
       </c>
       <c r="M64">
         <f>+M63+1</f>
         <v/>
       </c>
       <c r="N64" s="47" t="n">
-        <v>1.016087394683013</v>
+        <v>1.110801498017156</v>
       </c>
       <c r="O64" s="47" t="n">
-        <v>1.020175970201545</v>
+        <v>1.117830561639338</v>
       </c>
       <c r="P64" s="47" t="n">
-        <v>1.046479419182819</v>
+        <v>1.204894747710483</v>
       </c>
       <c r="Q64" s="47" t="n">
-        <v>5.706543871190048</v>
+        <v>1.002233874774937</v>
       </c>
       <c r="R64" s="47" t="n">
-        <v>1.414777699559678</v>
+        <v>1.533769724540702</v>
       </c>
       <c r="S64" s="47" t="n">
-        <v>1.518472124449597</v>
+        <v>1.667212155675877</v>
       </c>
       <c r="T64" s="47" t="n">
-        <v>2.036944248899195</v>
+        <v>1.29748006245256</v>
       </c>
       <c r="U64" s="47" t="n">
-        <v>3.073888497798389</v>
+        <v>1.002552166278737</v>
       </c>
       <c r="V64" s="47" t="n">
-        <v>2.591066420191471</v>
+        <v>1.108319728041586</v>
       </c>
     </row>
     <row r="65">
@@ -25021,62 +25021,62 @@
         <v/>
       </c>
       <c r="B65" s="60" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.4643012929875398</v>
       </c>
       <c r="C65" s="60" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.4610514352554753</v>
       </c>
       <c r="D65" s="60" t="n">
-        <v>0.9983384585716595</v>
+        <v>0.336559892919388</v>
       </c>
       <c r="E65" s="60" t="n">
-        <v>0.998194245537697</v>
+        <v>0.9078241315396889</v>
       </c>
       <c r="F65" s="60" t="n">
-        <v>0.3898297942001079</v>
+        <v>3.166980860134077e-05</v>
       </c>
       <c r="G65" s="60" t="n">
-        <v>0.3898297942001079</v>
+        <v>2.535510667691391e-05</v>
       </c>
       <c r="H65" s="60" t="n">
-        <v>0.9996437240984651</v>
+        <v>2.812945951005947e-06</v>
       </c>
       <c r="I65" s="60" t="n">
-        <v>0.9992877019715524</v>
+        <v>0.9186470234683481</v>
       </c>
       <c r="J65" s="60" t="n">
-        <v>0.9259278248941101</v>
+        <v>0.9992711697451866</v>
       </c>
       <c r="M65">
         <f>+M64+1</f>
         <v/>
       </c>
       <c r="N65" s="47" t="n">
-        <v>1</v>
+        <v>1.133500001221507</v>
       </c>
       <c r="O65" s="47" t="n">
-        <v>1</v>
+        <v>1.139785857597093</v>
       </c>
       <c r="P65" s="47" t="n">
-        <v>1</v>
+        <v>1.342973631478372</v>
       </c>
       <c r="Q65" s="47" t="n">
-        <v>1</v>
+        <v>1.026410520535125</v>
       </c>
       <c r="R65" s="47" t="n">
-        <v>1</v>
+        <v>27.89814437275252</v>
       </c>
       <c r="S65" s="47" t="n">
-        <v>1</v>
+        <v>32.38116843487794</v>
       </c>
       <c r="T65" s="47" t="n">
-        <v>1</v>
+        <v>63.76233686975587</v>
       </c>
       <c r="U65" s="47" t="n">
-        <v>1</v>
+        <v>1.013798920759038</v>
       </c>
       <c r="V65" s="47" t="n">
-        <v>1</v>
+        <v>1.169723336536863</v>
       </c>
     </row>
     <row r="66">
@@ -25085,62 +25085,62 @@
         <v/>
       </c>
       <c r="B66" s="60" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.5262855161685238</v>
       </c>
       <c r="C66" s="60" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.5254999055290324</v>
       </c>
       <c r="D66" s="60" t="n">
-        <v>0.9983384585716595</v>
+        <v>0.4519910616039225</v>
       </c>
       <c r="E66" s="60" t="n">
-        <v>0.998194245537697</v>
+        <v>0.9318002394079999</v>
       </c>
       <c r="F66" s="60" t="n">
-        <v>0.3898297942001079</v>
+        <v>0.0008835288926176441</v>
       </c>
       <c r="G66" s="60" t="n">
-        <v>0.3898297942001079</v>
+        <v>0.0008210279799894473</v>
       </c>
       <c r="H66" s="60" t="n">
-        <v>0.9996437240984651</v>
+        <v>0.000179360007324457</v>
       </c>
       <c r="I66" s="60" t="n">
-        <v>0.9992877019715524</v>
+        <v>0.9313233609507137</v>
       </c>
       <c r="J66" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <f>+M65+1</f>
         <v/>
       </c>
       <c r="N66" s="47" t="n">
-        <v>1</v>
+        <v>1.115921072167804</v>
       </c>
       <c r="O66" s="47" t="n">
-        <v>1</v>
+        <v>1.117589349284325</v>
       </c>
       <c r="P66" s="47" t="n">
-        <v>1</v>
+        <v>1.243837495162518</v>
       </c>
       <c r="Q66" s="47" t="n">
-        <v>1</v>
+        <v>1.00302838042636</v>
       </c>
       <c r="R66" s="47" t="n">
-        <v>1</v>
+        <v>11.56100160618442</v>
       </c>
       <c r="S66" s="47" t="n">
-        <v>1</v>
+        <v>12.44108507336646</v>
       </c>
       <c r="T66" s="47" t="n">
-        <v>1</v>
+        <v>23.88217014673291</v>
       </c>
       <c r="U66" s="47" t="n">
-        <v>1</v>
+        <v>1.002727672957466</v>
       </c>
       <c r="V66" s="47" t="n">
-        <v>1</v>
+        <v>1.121485074957734</v>
       </c>
     </row>
     <row r="67">
@@ -25149,62 +25149,62 @@
         <v/>
       </c>
       <c r="B67" s="60" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.5872930974691652</v>
       </c>
       <c r="C67" s="60" t="n">
-        <v>0.6455275207263533</v>
+        <v>0.5872930974691652</v>
       </c>
       <c r="D67" s="60" t="n">
-        <v>0.9983384585716595</v>
+        <v>0.5622034299012701</v>
       </c>
       <c r="E67" s="60" t="n">
-        <v>0.998194245537697</v>
+        <v>0.9346220850143007</v>
       </c>
       <c r="F67" s="60" t="n">
-        <v>0.3898297942001079</v>
+        <v>0.01021447894666293</v>
       </c>
       <c r="G67" s="60" t="n">
-        <v>0.3898297942001079</v>
+        <v>0.01021447894666293</v>
       </c>
       <c r="H67" s="60" t="n">
-        <v>0.9996437240984651</v>
+        <v>0.004283506212441944</v>
       </c>
       <c r="I67" s="60" t="n">
-        <v>0.9992877019715524</v>
+        <v>0.9338637064970352</v>
       </c>
       <c r="J67" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <f>+M66+1</f>
         <v/>
       </c>
       <c r="N67" s="47" t="n">
-        <v>1.596384464530275</v>
+        <v>1.169241253597414</v>
       </c>
       <c r="O67" s="47" t="n">
-        <v>1.596384464530275</v>
+        <v>1.169241253597414</v>
       </c>
       <c r="P67" s="47" t="n">
-        <v>1.001664306742943</v>
+        <v>1.192402313203168</v>
       </c>
       <c r="Q67" s="47" t="n">
-        <v>1.001809021110245</v>
+        <v>1.002814957262878</v>
       </c>
       <c r="R67" s="47" t="n">
-        <v>2.574911911048376</v>
+        <v>1.577753652103032</v>
       </c>
       <c r="S67" s="47" t="n">
-        <v>2.574911911048376</v>
+        <v>1.577753652103032</v>
       </c>
       <c r="T67" s="47" t="n">
-        <v>1.000356402879292</v>
+        <v>2.155507304206064</v>
       </c>
       <c r="U67" s="47" t="n">
-        <v>1.000712805758584</v>
+        <v>1.003209514604124</v>
       </c>
       <c r="V67" s="47" t="n">
-        <v>1.199952597461154</v>
+        <v>1.12148617468782</v>
       </c>
     </row>
     <row r="68">
@@ -25213,62 +25213,62 @@
         <v/>
       </c>
       <c r="B68" s="60" t="n">
-        <v>1.030510105514296</v>
+        <v>0.686687317513955</v>
       </c>
       <c r="C68" s="60" t="n">
-        <v>1.030510105514296</v>
+        <v>0.686687317513955</v>
       </c>
       <c r="D68" s="60" t="n">
-        <v>1</v>
+        <v>0.6703726703050298</v>
       </c>
       <c r="E68" s="60" t="n">
-        <v>1</v>
+        <v>0.9372530062405577</v>
       </c>
       <c r="F68" s="60" t="n">
-        <v>1.003777380367395</v>
+        <v>0.01611593146242696</v>
       </c>
       <c r="G68" s="60" t="n">
-        <v>1.003777380367395</v>
+        <v>0.01611593146242696</v>
       </c>
       <c r="H68" s="60" t="n">
-        <v>1</v>
+        <v>0.009233128928530661</v>
       </c>
       <c r="I68" s="60" t="n">
-        <v>1</v>
+        <v>0.9368609557012985</v>
       </c>
       <c r="J68" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <f>+M67+1</f>
         <v/>
       </c>
       <c r="N68" s="47" t="n">
-        <v>0.9675662724012861</v>
+        <v>1.125863205986067</v>
       </c>
       <c r="O68" s="47" t="n">
-        <v>0.9675662724012861</v>
+        <v>1.125863205986067</v>
       </c>
       <c r="P68" s="47" t="n">
-        <v>1</v>
+        <v>1.13908355045553</v>
       </c>
       <c r="Q68" s="47" t="n">
-        <v>1</v>
+        <v>1.062267212047249</v>
       </c>
       <c r="R68" s="47" t="n">
-        <v>0.9943500065583616</v>
+        <v>1.043521785960424</v>
       </c>
       <c r="S68" s="47" t="n">
-        <v>0.9943500065583616</v>
+        <v>1.043521785960424</v>
       </c>
       <c r="T68" s="47" t="n">
-        <v>1</v>
+        <v>1.079789940927445</v>
       </c>
       <c r="U68" s="47" t="n">
-        <v>1</v>
+        <v>1.063876336487454</v>
       </c>
       <c r="V68" s="47" t="n">
-        <v>0.9891887574670953</v>
+        <v>1.109071322829615</v>
       </c>
     </row>
     <row r="69">
@@ -25277,62 +25277,62 @@
         <v/>
       </c>
       <c r="B69" s="60" t="n">
-        <v>0.997086821464323</v>
+        <v>0.7731159848062338</v>
       </c>
       <c r="C69" s="60" t="n">
-        <v>0.997086821464323</v>
+        <v>0.7731159848062338</v>
       </c>
       <c r="D69" s="60" t="n">
-        <v>1</v>
+        <v>0.763610481419408</v>
       </c>
       <c r="E69" s="60" t="n">
-        <v>1</v>
+        <v>0.9956131379220601</v>
       </c>
       <c r="F69" s="60" t="n">
-        <v>0.9981060447514544</v>
+        <v>0.01681732558208758</v>
       </c>
       <c r="G69" s="60" t="n">
-        <v>0.9981060447514544</v>
+        <v>0.01681732558208758</v>
       </c>
       <c r="H69" s="60" t="n">
-        <v>1</v>
+        <v>0.009969839740313605</v>
       </c>
       <c r="I69" s="60" t="n">
-        <v>1</v>
+        <v>0.9967042013496324</v>
       </c>
       <c r="J69" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <f>+M68+1</f>
         <v/>
       </c>
       <c r="N69" s="47" t="n">
-        <v>1.002770694237577</v>
+        <v>1.055833971722067</v>
       </c>
       <c r="O69" s="47" t="n">
-        <v>1.002770694237577</v>
+        <v>1.055833971722067</v>
       </c>
       <c r="P69" s="47" t="n">
-        <v>1</v>
+        <v>1.058784764878557</v>
       </c>
       <c r="Q69" s="47" t="n">
-        <v>1</v>
+        <v>1.004406191432041</v>
       </c>
       <c r="R69" s="47" t="n">
-        <v>1.00059102568918</v>
+        <v>1.243823924939866</v>
       </c>
       <c r="S69" s="47" t="n">
-        <v>1.00059102568918</v>
+        <v>1.243823924939866</v>
       </c>
       <c r="T69" s="47" t="n">
-        <v>1</v>
+        <v>1.40637320823311</v>
       </c>
       <c r="U69" s="47" t="n">
-        <v>1</v>
+        <v>1.003306696857407</v>
       </c>
       <c r="V69" s="47" t="n">
-        <v>1.000923564745859</v>
+        <v>1.039674976010889</v>
       </c>
     </row>
     <row r="70">
@@ -25341,62 +25341,62 @@
         <v/>
       </c>
       <c r="B70" s="60" t="n">
-        <v>0.9998494441749185</v>
+        <v>0.8162821208397832</v>
       </c>
       <c r="C70" s="60" t="n">
-        <v>0.9998494441749185</v>
+        <v>0.8162821208397832</v>
       </c>
       <c r="D70" s="60" t="n">
-        <v>1</v>
+        <v>0.8084991440284495</v>
       </c>
       <c r="E70" s="60" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="60" t="n">
-        <v>0.9986959510644283</v>
+        <v>0.0209177919125038</v>
       </c>
       <c r="G70" s="60" t="n">
-        <v>0.9986959510644283</v>
+        <v>0.0209177919125038</v>
       </c>
       <c r="H70" s="60" t="n">
-        <v>1</v>
+        <v>0.01402131550115481</v>
       </c>
       <c r="I70" s="60" t="n">
         <v>1</v>
       </c>
       <c r="J70" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <f>+M69+1</f>
         <v/>
       </c>
       <c r="N70" s="47" t="n">
-        <v>1.000124002137088</v>
+        <v>1.141054723761148</v>
       </c>
       <c r="O70" s="47" t="n">
-        <v>1.000124002137088</v>
+        <v>1.141054723761148</v>
       </c>
       <c r="P70" s="47" t="n">
-        <v>1</v>
+        <v>1.148879201785308</v>
       </c>
       <c r="Q70" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R70" s="47" t="n">
-        <v>1.001280492880002</v>
+        <v>1.339716397231145</v>
       </c>
       <c r="S70" s="47" t="n">
-        <v>1.001280492880002</v>
+        <v>1.339716397231145</v>
       </c>
       <c r="T70" s="47" t="n">
-        <v>1</v>
+        <v>1.509574595846717</v>
       </c>
       <c r="U70" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V70" s="47" t="n">
-        <v>1.000041334045696</v>
+        <v>1.096644641848819</v>
       </c>
     </row>
     <row r="71">
@@ -25405,62 +25405,62 @@
         <v/>
       </c>
       <c r="B71" s="60" t="n">
-        <v>0.9999734276427628</v>
+        <v>0.9314225699060028</v>
       </c>
       <c r="C71" s="60" t="n">
-        <v>0.9999734276427628</v>
+        <v>0.9314225699060028</v>
       </c>
       <c r="D71" s="60" t="n">
-        <v>1</v>
+        <v>0.9288678512355102</v>
       </c>
       <c r="E71" s="60" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="60" t="n">
-        <v>0.9999747741190533</v>
+        <v>0.02802390881905036</v>
       </c>
       <c r="G71" s="60" t="n">
-        <v>0.9999747741190533</v>
+        <v>0.02802390881905036</v>
       </c>
       <c r="H71" s="60" t="n">
-        <v>1</v>
+        <v>0.02116622168089508</v>
       </c>
       <c r="I71" s="60" t="n">
         <v>1</v>
       </c>
       <c r="J71" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <f>+M70+1</f>
         <v/>
       </c>
       <c r="N71" s="47" t="n">
-        <v>1.000026573063346</v>
+        <v>1.073626549656101</v>
       </c>
       <c r="O71" s="47" t="n">
-        <v>1.000026573063346</v>
+        <v>1.073626549656101</v>
       </c>
       <c r="P71" s="47" t="n">
-        <v>1</v>
+        <v>1.07657940649994</v>
       </c>
       <c r="Q71" s="47" t="n">
         <v>1</v>
       </c>
       <c r="R71" s="47" t="n">
-        <v>1.000025226517308</v>
+        <v>35.68381578947368</v>
       </c>
       <c r="S71" s="47" t="n">
-        <v>1.000025226517308</v>
+        <v>35.68381578947368</v>
       </c>
       <c r="T71" s="47" t="n">
-        <v>1</v>
+        <v>47.24508771929823</v>
       </c>
       <c r="U71" s="47" t="n">
         <v>1</v>
       </c>
       <c r="V71" s="47" t="n">
-        <v>1.000008857687782</v>
+        <v>1.050068652052013</v>
       </c>
     </row>
     <row r="72">
@@ -25493,7 +25493,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <f>+M71+1</f>
@@ -25557,7 +25557,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <f>+M72+1</f>
@@ -25621,7 +25621,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <f>+M73+1</f>
@@ -25685,7 +25685,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="60" t="n">
-        <v>0.9272485729333471</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <f>+M74+1</f>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="L4" s="14" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="N4" s="61" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v/>
       </c>
       <c r="B8" s="12" t="n">
-        <v>14868.31</v>
+        <v>967</v>
       </c>
       <c r="C8" s="12">
         <f>'Completion Factors'!J30</f>
@@ -26267,7 +26267,7 @@
         <v/>
       </c>
       <c r="E8" s="12" t="n">
-        <v>14570.01</v>
+        <v>2535.11</v>
       </c>
       <c r="F8" s="12">
         <f>'Completion Factors'!U30</f>
@@ -26295,7 +26295,7 @@
         <v/>
       </c>
       <c r="M8" s="12" t="n">
-        <v>27160.43333333333</v>
+        <v>24313.24166666667</v>
       </c>
       <c r="N8" s="12">
         <f>100*$K8/$M8</f>
@@ -26320,7 +26320,7 @@
         <v/>
       </c>
       <c r="B9" s="12" t="n">
-        <v>1228.809999999999</v>
+        <v>1794</v>
       </c>
       <c r="C9" s="12">
         <f>'Completion Factors'!J29</f>
@@ -26331,7 +26331,7 @@
         <v/>
       </c>
       <c r="E9" s="12" t="n">
-        <v>3233.75</v>
+        <v>520.85</v>
       </c>
       <c r="F9" s="12">
         <f>'Completion Factors'!U29</f>
@@ -26359,7 +26359,7 @@
         <v/>
       </c>
       <c r="M9" s="12" t="n">
-        <v>26614.09</v>
+        <v>24142.31666666667</v>
       </c>
       <c r="N9" s="12">
         <f>100*$K9/$M9</f>
@@ -26384,7 +26384,7 @@
         <v/>
       </c>
       <c r="B10" s="12" t="n">
-        <v>54633.35999999999</v>
+        <v>970</v>
       </c>
       <c r="C10" s="12">
         <f>'Completion Factors'!J28</f>
@@ -26395,7 +26395,7 @@
         <v/>
       </c>
       <c r="E10" s="12" t="n">
-        <v>17306.21</v>
+        <v>1150.26</v>
       </c>
       <c r="F10" s="12">
         <f>'Completion Factors'!U28</f>
@@ -26423,7 +26423,7 @@
         <v/>
       </c>
       <c r="M10" s="12" t="n">
-        <v>25974.00583333333</v>
+        <v>23964.32166666667</v>
       </c>
       <c r="N10" s="12">
         <f>100*$K10/$M10</f>
@@ -26448,7 +26448,7 @@
         <v/>
       </c>
       <c r="B11" s="12" t="n">
-        <v>38218.8</v>
+        <v>5290.94</v>
       </c>
       <c r="C11" s="12">
         <f>'Completion Factors'!J27</f>
@@ -26459,7 +26459,7 @@
         <v/>
       </c>
       <c r="E11" s="12" t="n">
-        <v>7064.620000000001</v>
+        <v>2821.99</v>
       </c>
       <c r="F11" s="12">
         <f>'Completion Factors'!U27</f>
@@ -26487,7 +26487,7 @@
         <v/>
       </c>
       <c r="M11" s="12" t="n">
-        <v>25374.62833333333</v>
+        <v>23798.84</v>
       </c>
       <c r="N11" s="12">
         <f>100*$K11/$M11</f>
@@ -26512,7 +26512,7 @@
         <v/>
       </c>
       <c r="B12" s="12" t="n">
-        <v>219</v>
+        <v>13288.79</v>
       </c>
       <c r="C12" s="12">
         <f>'Completion Factors'!J26</f>
@@ -26523,7 +26523,7 @@
         <v/>
       </c>
       <c r="E12" s="12" t="n">
-        <v>7041.98</v>
+        <v>474.3</v>
       </c>
       <c r="F12" s="12">
         <f>'Completion Factors'!U26</f>
@@ -26551,7 +26551,7 @@
         <v/>
       </c>
       <c r="M12" s="12" t="n">
-        <v>24674.52916666666</v>
+        <v>23172.67083333333</v>
       </c>
       <c r="N12" s="12">
         <f>100*$K12/$M12</f>
@@ -26576,7 +26576,7 @@
         <v/>
       </c>
       <c r="B13" s="12" t="n">
-        <v>967</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="C13" s="12">
         <f>'Completion Factors'!J25</f>
@@ -26587,7 +26587,7 @@
         <v/>
       </c>
       <c r="E13" s="12" t="n">
-        <v>2535.11</v>
+        <v>296.2</v>
       </c>
       <c r="F13" s="12">
         <f>'Completion Factors'!U25</f>
@@ -26615,7 +26615,7 @@
         <v/>
       </c>
       <c r="M13" s="12" t="n">
-        <v>24313.24166666667</v>
+        <v>22582.26416666666</v>
       </c>
       <c r="N13" s="12">
         <f>100*$K13/$M13</f>
@@ -26640,7 +26640,7 @@
         <v/>
       </c>
       <c r="B14" s="12" t="n">
-        <v>1794</v>
+        <v>34940.46</v>
       </c>
       <c r="C14" s="12">
         <f>'Completion Factors'!J24</f>
@@ -26651,7 +26651,7 @@
         <v/>
       </c>
       <c r="E14" s="12" t="n">
-        <v>520.85</v>
+        <v>2014.96</v>
       </c>
       <c r="F14" s="12">
         <f>'Completion Factors'!U24</f>
@@ -26679,7 +26679,7 @@
         <v/>
       </c>
       <c r="M14" s="12" t="n">
-        <v>24142.31666666667</v>
+        <v>22313.55583333333</v>
       </c>
       <c r="N14" s="12">
         <f>100*$K14/$M14</f>
@@ -26704,7 +26704,7 @@
         <v/>
       </c>
       <c r="B15" s="12" t="n">
-        <v>970</v>
+        <v>13951.43</v>
       </c>
       <c r="C15" s="12">
         <f>'Completion Factors'!J23</f>
@@ -26715,7 +26715,7 @@
         <v/>
       </c>
       <c r="E15" s="12" t="n">
-        <v>1150.26</v>
+        <v>2642.58</v>
       </c>
       <c r="F15" s="12">
         <f>'Completion Factors'!U23</f>
@@ -26743,7 +26743,7 @@
         <v/>
       </c>
       <c r="M15" s="12" t="n">
-        <v>23964.32166666667</v>
+        <v>21819.67916666666</v>
       </c>
       <c r="N15" s="12">
         <f>100*$K15/$M15</f>
@@ -26768,7 +26768,7 @@
         <v/>
       </c>
       <c r="B16" s="12" t="n">
-        <v>19</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="C16" s="12">
         <f>'Completion Factors'!J22</f>
@@ -26779,7 +26779,7 @@
         <v/>
       </c>
       <c r="E16" s="12" t="n">
-        <v>2821.99</v>
+        <v>1501.27</v>
       </c>
       <c r="F16" s="12">
         <f>'Completion Factors'!U22</f>
@@ -26807,7 +26807,7 @@
         <v/>
       </c>
       <c r="M16" s="12" t="n">
-        <v>23798.84</v>
+        <v>21537.36666666666</v>
       </c>
       <c r="N16" s="12">
         <f>100*$K16/$M16</f>
@@ -26832,7 +26832,7 @@
         <v/>
       </c>
       <c r="B17" s="12" t="n">
-        <v>3275.16</v>
+        <v>7886.36</v>
       </c>
       <c r="C17" s="12">
         <f>'Completion Factors'!J21</f>
@@ -26843,7 +26843,7 @@
         <v/>
       </c>
       <c r="E17" s="12" t="n">
-        <v>474.3</v>
+        <v>893.7099999999999</v>
       </c>
       <c r="F17" s="12">
         <f>'Completion Factors'!U21</f>
@@ -26871,7 +26871,7 @@
         <v/>
       </c>
       <c r="M17" s="12" t="n">
-        <v>23172.67083333333</v>
+        <v>21386.11833333334</v>
       </c>
       <c r="N17" s="12">
         <f>100*$K17/$M17</f>
@@ -26896,7 +26896,7 @@
         <v/>
       </c>
       <c r="B18" s="12" t="n">
-        <v>1655</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="C18" s="12">
         <f>'Completion Factors'!J20</f>
@@ -26907,7 +26907,7 @@
         <v/>
       </c>
       <c r="E18" s="12" t="n">
-        <v>296.2</v>
+        <v>423.04</v>
       </c>
       <c r="F18" s="12">
         <f>'Completion Factors'!U20</f>
@@ -26935,7 +26935,7 @@
         <v/>
       </c>
       <c r="M18" s="12" t="n">
-        <v>22582.26416666666</v>
+        <v>21237.95833333333</v>
       </c>
       <c r="N18" s="12">
         <f>100*$K18/$M18</f>
@@ -26960,7 +26960,7 @@
         <v/>
       </c>
       <c r="B19" s="12" t="n">
-        <v>27134</v>
+        <v>10403.28</v>
       </c>
       <c r="C19" s="12">
         <f>'Completion Factors'!J19</f>
@@ -26971,7 +26971,7 @@
         <v/>
       </c>
       <c r="E19" s="12" t="n">
-        <v>2014.96</v>
+        <v>461.04</v>
       </c>
       <c r="F19" s="12">
         <f>'Completion Factors'!U19</f>
@@ -26999,7 +26999,7 @@
         <v/>
       </c>
       <c r="M19" s="12" t="n">
-        <v>22313.55583333333</v>
+        <v>21061.72166666667</v>
       </c>
       <c r="N19" s="12">
         <f>100*$K19/$M19</f>
@@ -27027,7 +27027,7 @@
         <v/>
       </c>
       <c r="B20" s="12" t="n">
-        <v>1743.960000000001</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="C20" s="12">
         <f>'Completion Factors'!J18</f>
@@ -27038,7 +27038,7 @@
         <v/>
       </c>
       <c r="E20" s="12" t="n">
-        <v>2642.58</v>
+        <v>1596.86</v>
       </c>
       <c r="F20" s="12">
         <f>'Completion Factors'!U18</f>
@@ -27066,7 +27066,7 @@
         <v/>
       </c>
       <c r="M20" s="12" t="n">
-        <v>21819.67916666666</v>
+        <v>20916.385</v>
       </c>
       <c r="N20" s="12">
         <f>100*$K20/$M20</f>
@@ -27094,7 +27094,7 @@
         <v/>
       </c>
       <c r="B21" s="12" t="n">
-        <v>57.04999999999995</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="C21" s="12">
         <f>'Completion Factors'!J17</f>
@@ -27105,7 +27105,7 @@
         <v/>
       </c>
       <c r="E21" s="12" t="n">
-        <v>1501.27</v>
+        <v>4017.13</v>
       </c>
       <c r="F21" s="12">
         <f>'Completion Factors'!U17</f>
@@ -27133,7 +27133,7 @@
         <v/>
       </c>
       <c r="M21" s="12" t="n">
-        <v>21537.36666666666</v>
+        <v>20785.00416666667</v>
       </c>
       <c r="N21" s="12">
         <f>100*$K21/$M21</f>
@@ -27161,7 +27161,7 @@
         <v/>
       </c>
       <c r="B22" s="12" t="n">
-        <v>20.69000000000005</v>
+        <v>8074.429999999998</v>
       </c>
       <c r="C22" s="12">
         <f>'Completion Factors'!J16</f>
@@ -27172,7 +27172,7 @@
         <v/>
       </c>
       <c r="E22" s="12" t="n">
-        <v>893.7099999999999</v>
+        <v>2729.22</v>
       </c>
       <c r="F22" s="12">
         <f>'Completion Factors'!U16</f>
@@ -27200,7 +27200,7 @@
         <v/>
       </c>
       <c r="M22" s="12" t="n">
-        <v>21386.11833333334</v>
+        <v>20653.01</v>
       </c>
       <c r="N22" s="12">
         <f>100*$K22/$M22</f>
@@ -27228,7 +27228,7 @@
         <v/>
       </c>
       <c r="B23" s="12" t="n">
-        <v>3037.04</v>
+        <v>8871.27</v>
       </c>
       <c r="C23" s="12">
         <f>'Completion Factors'!J15</f>
@@ -27239,7 +27239,7 @@
         <v/>
       </c>
       <c r="E23" s="12" t="n">
-        <v>423.04</v>
+        <v>832.59</v>
       </c>
       <c r="F23" s="12">
         <f>'Completion Factors'!U15</f>
@@ -27267,7 +27267,7 @@
         <v/>
       </c>
       <c r="M23" s="12" t="n">
-        <v>21237.95833333333</v>
+        <v>20523.28416666667</v>
       </c>
       <c r="N23" s="12">
         <f>100*$K23/$M23</f>
@@ -27295,7 +27295,7 @@
         <v/>
       </c>
       <c r="B24" s="12" t="n">
-        <v>3.009999999999991</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="C24" s="12">
         <f>'Completion Factors'!J14</f>
@@ -27306,7 +27306,7 @@
         <v/>
       </c>
       <c r="E24" s="12" t="n">
-        <v>433.77</v>
+        <v>1474.76</v>
       </c>
       <c r="F24" s="12">
         <f>'Completion Factors'!U14</f>
@@ -27334,7 +27334,7 @@
         <v/>
       </c>
       <c r="M24" s="12" t="n">
-        <v>21061.72166666667</v>
+        <v>20272.995</v>
       </c>
       <c r="N24" s="12">
         <f>100*$K24/$M24</f>
@@ -27362,7 +27362,7 @@
         <v/>
       </c>
       <c r="B25" s="12" t="n">
-        <v>23.00999999999999</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="C25" s="12">
         <f>'Completion Factors'!J13</f>
@@ -27373,7 +27373,7 @@
         <v/>
       </c>
       <c r="E25" s="12" t="n">
-        <v>1569.59</v>
+        <v>788.9400000000001</v>
       </c>
       <c r="F25" s="12">
         <f>'Completion Factors'!U13</f>
@@ -27401,7 +27401,7 @@
         <v/>
       </c>
       <c r="M25" s="12" t="n">
-        <v>20916.385</v>
+        <v>20221.4275</v>
       </c>
       <c r="N25" s="12">
         <f>100*$K25/$M25</f>
@@ -27429,7 +27429,7 @@
         <v/>
       </c>
       <c r="B26" s="12" t="n">
-        <v>1436.91</v>
+        <v>175.01</v>
       </c>
       <c r="C26" s="12">
         <f>'Completion Factors'!J12</f>
@@ -27440,7 +27440,7 @@
         <v/>
       </c>
       <c r="E26" s="12" t="n">
-        <v>3950.51</v>
+        <v>634.78</v>
       </c>
       <c r="F26" s="12">
         <f>'Completion Factors'!U12</f>
@@ -27468,7 +27468,7 @@
         <v/>
       </c>
       <c r="M26" s="12" t="n">
-        <v>20785.00416666667</v>
+        <v>20164</v>
       </c>
       <c r="N26" s="12">
         <f>100*$K26/$M26</f>
@@ -27496,7 +27496,7 @@
         <v/>
       </c>
       <c r="B27" s="12" t="n">
-        <v/>
+        <v>163</v>
       </c>
       <c r="C27" s="12">
         <f>'Completion Factors'!J11</f>
@@ -27507,7 +27507,7 @@
         <v/>
       </c>
       <c r="E27" s="12" t="n">
-        <v>2385.73</v>
+        <v>2990.14</v>
       </c>
       <c r="F27" s="12">
         <f>'Completion Factors'!U11</f>
@@ -27535,7 +27535,7 @@
         <v/>
       </c>
       <c r="M27" s="12" t="n">
-        <v>20653.01</v>
+        <v>19697.08666666667</v>
       </c>
       <c r="N27" s="12">
         <f>100*$K27/$M27</f>
@@ -27563,7 +27563,7 @@
         <v/>
       </c>
       <c r="B28" s="12" t="n">
-        <v>3.049999999999955</v>
+        <v/>
       </c>
       <c r="C28" s="12">
         <f>'Completion Factors'!J10</f>
@@ -27574,7 +27574,7 @@
         <v/>
       </c>
       <c r="E28" s="12" t="n">
-        <v>780.0000000000001</v>
+        <v>738.0999999999999</v>
       </c>
       <c r="F28" s="12">
         <f>'Completion Factors'!U10</f>
@@ -27602,7 +27602,7 @@
         <v/>
       </c>
       <c r="M28" s="12" t="n">
-        <v>20523.28416666667</v>
+        <v>19600.65</v>
       </c>
       <c r="N28" s="12">
         <f>100*$K28/$M28</f>
@@ -27630,7 +27630,7 @@
         <v/>
       </c>
       <c r="B29" s="12" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="C29" s="12">
         <f>'Completion Factors'!J9</f>
@@ -27641,7 +27641,7 @@
         <v/>
       </c>
       <c r="E29" s="12" t="n">
-        <v>285.46</v>
+        <v>4730.03</v>
       </c>
       <c r="F29" s="12">
         <f>'Completion Factors'!U9</f>
@@ -27672,7 +27672,7 @@
         <v/>
       </c>
       <c r="M29" s="12" t="n">
-        <v>20272.995</v>
+        <v>19349.41833333333</v>
       </c>
       <c r="N29" s="18" t="n">
         <v>80</v>
@@ -27699,7 +27699,7 @@
         <v/>
       </c>
       <c r="B30" s="12" t="n">
-        <v/>
+        <v>5</v>
       </c>
       <c r="C30" s="12">
         <f>'Completion Factors'!J8</f>
@@ -27710,7 +27710,7 @@
         <v/>
       </c>
       <c r="E30" s="12" t="n">
-        <v>75.84</v>
+        <v>1366.13</v>
       </c>
       <c r="F30" s="12">
         <f>'Completion Factors'!U8</f>
@@ -27741,7 +27741,7 @@
         <v/>
       </c>
       <c r="M30" s="12" t="n">
-        <v>20221.4275</v>
+        <v>19166.44833333333</v>
       </c>
       <c r="N30" s="18" t="n">
         <v>60</v>
@@ -27779,7 +27779,7 @@
         <v/>
       </c>
       <c r="E31" s="12" t="n">
-        <v/>
+        <v>59.95</v>
       </c>
       <c r="F31" s="12">
         <f>'Completion Factors'!U7</f>
@@ -27810,7 +27810,7 @@
         <v/>
       </c>
       <c r="M31" s="12" t="n">
-        <v>20164</v>
+        <v>19066.7175</v>
       </c>
       <c r="N31" s="18" t="n">
         <v>60</v>

--- a/Process Results/Unified_IBNP_Split_USH.xlsx
+++ b/Process Results/Unified_IBNP_Split_USH.xlsx
@@ -7067,20 +7067,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.504722660010146</v>
+        <v>0.001918718773424777</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.003918878779868573</v>
+        <v>1.362380426228378e-05</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.04740046599618341</v>
+        <v>0.000215202404802298</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.0182987193490968</v>
+        <v>0.02483222881628207</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -7103,20 +7103,20 @@
         <v/>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.01393157279530048</v>
+        <v>0.02021307248834047</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.01689765150399821</v>
+        <v>0.02336091987889535</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.03031527286914906</v>
+        <v>0.0350492573728274</v>
       </c>
       <c r="S7" s="4">
         <f>+T7/T8</f>
         <v/>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.03031527286914906</v>
+        <v>0.0350492573728274</v>
       </c>
       <c r="U7" s="5">
         <f>T7</f>
@@ -7145,20 +7145,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.504722660010146</v>
+        <v>0.001918718773424777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003918878779868573</v>
+        <v>1.362380426228378e-05</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04740046599618341</v>
+        <v>0.000215202404802298</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3512741245233649</v>
+        <v>0.4629407274999575</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -7182,20 +7182,20 @@
         <v/>
       </c>
       <c r="P8" s="5" t="n">
-        <v>0.4378184373695417</v>
+        <v>0.6013123002746501</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>0.2954259732899748</v>
+        <v>0.4127081098014044</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0.348268945876522</v>
+        <v>0.4176652508689181</v>
       </c>
       <c r="S8" s="4">
         <f>+T8/T9</f>
         <v/>
       </c>
       <c r="T8" s="5" t="n">
-        <v>0.348268945876522</v>
+        <v>0.4176652508689181</v>
       </c>
       <c r="U8" s="5">
         <f>T8</f>
@@ -7224,20 +7224,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.504722660010146</v>
+        <v>0.01079279310051437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.003918878779868573</v>
+        <v>7.663389897534627e-05</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04740046599618341</v>
+        <v>0.001210513527012926</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6399234619279708</v>
+        <v>0.774328699987835</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -7261,20 +7261,20 @@
         <v/>
       </c>
       <c r="P9" s="5" t="n">
-        <v>0.9075449006607044</v>
+        <v>0.9620349710866443</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>0.5781438751462961</v>
+        <v>0.7801994982163905</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>0.5386440668067308</v>
+        <v>0.64385822754412</v>
       </c>
       <c r="S9" s="4">
         <f>+T9/T10</f>
         <v/>
       </c>
       <c r="T9" s="5" t="n">
-        <v>0.5386440668067308</v>
+        <v>0.64385822754412</v>
       </c>
       <c r="U9" s="5">
         <f>T9</f>
@@ -7303,20 +7303,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5482332341489518</v>
+        <v>0.5955498619070715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.00425671315744345</v>
+        <v>0.004228683671328123</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.05022125069007673</v>
+        <v>0.04718554463224979</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7942997991319294</v>
+        <v>0.8845153344327147</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -7340,20 +7340,20 @@
         <v/>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.9608669350095046</v>
+        <v>0.9749357419217903</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.7896021171862068</v>
+        <v>0.9442115057485631</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.6803998689432913</v>
+        <v>0.7651726585997838</v>
       </c>
       <c r="S10" s="4">
         <f>+T10/T11</f>
         <v/>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.6803998689432913</v>
+        <v>0.7651726585997838</v>
       </c>
       <c r="U10" s="5">
         <f>T10</f>
@@ -7382,20 +7382,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8127557696258209</v>
+        <v>0.8829026702772333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.155521193767382</v>
+        <v>0.1544971221468362</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2925863403650709</v>
+        <v>0.275707744402318</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9034292936277302</v>
+        <v>0.9274977419598238</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -7419,20 +7419,20 @@
         <v/>
       </c>
       <c r="P11" s="5" t="n">
-        <v>0.9608669350095046</v>
+        <v>0.976111111735018</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>0.9316905890933338</v>
+        <v>0.9481386945235215</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>0.8287503941267559</v>
+        <v>0.8655478167183991</v>
       </c>
       <c r="S11" s="4">
         <f>+T11/T12</f>
         <v/>
       </c>
       <c r="T11" s="5" t="n">
-        <v>0.8287503941267559</v>
+        <v>0.8655478167183991</v>
       </c>
       <c r="U11" s="5">
         <f>T11</f>
@@ -7461,20 +7461,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8516806308953987</v>
+        <v>0.9066597083393155</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1597029195101601</v>
+        <v>0.1588945917737153</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3002218523703604</v>
+        <v>0.2829595638573288</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9335050210180217</v>
+        <v>0.9436478615061408</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -7498,20 +7498,20 @@
         <v/>
       </c>
       <c r="P12" s="5" t="n">
-        <v>0.9714415423762889</v>
+        <v>0.9830824430567354</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>0.9618386912188441</v>
+        <v>0.9605644414020938</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>0.8736515065558426</v>
+        <v>0.8921491903592926</v>
       </c>
       <c r="S12" s="4">
         <f>+T12/T13</f>
         <v/>
       </c>
       <c r="T12" s="5" t="n">
-        <v>0.8736515065558426</v>
+        <v>0.8921491903592926</v>
       </c>
       <c r="U12" s="5">
         <f>T12</f>
@@ -7540,20 +7540,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9022476367924374</v>
+        <v>0.9066597083393158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1657147311917243</v>
+        <v>0.164826829460597</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3250416796148942</v>
+        <v>0.3398344849716193</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9481886621503157</v>
+        <v>0.9553461068873154</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -7577,20 +7577,20 @@
         <v/>
       </c>
       <c r="P13" s="5" t="n">
-        <v>0.9736963846427231</v>
+        <v>0.9854996431139142</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>0.9804625017136213</v>
+        <v>0.9808843608498021</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>0.8952661265261516</v>
+        <v>0.9041417098457686</v>
       </c>
       <c r="S13" s="4">
         <f>+T13/T14</f>
         <v/>
       </c>
       <c r="T13" s="5" t="n">
-        <v>0.8952661265261516</v>
+        <v>0.9041417098457686</v>
       </c>
       <c r="U13" s="5">
         <f>T13</f>
@@ -7619,20 +7619,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9058006862355865</v>
+        <v>0.9473853881304251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.200295559048049</v>
+        <v>0.2028711025156469</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3502656508685292</v>
+        <v>0.3700188232979406</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9670226279771106</v>
+        <v>0.9700440507040433</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -7656,20 +7656,20 @@
         <v/>
       </c>
       <c r="P14" s="5" t="n">
-        <v>1</v>
+        <v>0.9994735309456865</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>0.9972892320783152</v>
+        <v>0.9971869886408431</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>0.909431731453893</v>
+        <v>0.9180246530063385</v>
       </c>
       <c r="S14" s="4">
         <f>+T14/T15</f>
         <v/>
       </c>
       <c r="T14" s="5" t="n">
-        <v>0.909431731453893</v>
+        <v>0.9180246530063385</v>
       </c>
       <c r="U14" s="5">
         <f>T14</f>
@@ -7698,20 +7698,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9058006862355865</v>
+        <v>0.9473853881304251</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2793272138989007</v>
+        <v>0.2912140173179323</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.412451986085733</v>
+        <v>0.437227787116554</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9988101841515274</v>
+        <v>0.9994363062215549</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -7735,20 +7735,20 @@
         <v/>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1</v>
+        <v>0.9994735309456865</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>1</v>
+        <v>0.9996402978783194</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>0.9964390262605646</v>
+        <v>0.9991951910379967</v>
       </c>
       <c r="S15" s="4">
         <f>+T15/T16</f>
         <v/>
       </c>
       <c r="T15" s="5" t="n">
-        <v>0.9964390262605646</v>
+        <v>0.9991951910379967</v>
       </c>
       <c r="U15" s="5">
         <f>T15</f>
@@ -7777,20 +7777,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9078241315396889</v>
+        <v>0.9473853881304251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.336559892919388</v>
+        <v>0.3359387901304781</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.4610514352554753</v>
+        <v>0.4820066670367156</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9992711697451866</v>
+        <v>0.9994363062215549</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -7814,20 +7814,20 @@
         <v/>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1</v>
+        <v>0.9994735309456865</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>1</v>
+        <v>0.9996402978783194</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>0.9978166917577652</v>
+        <v>0.9991951910379967</v>
       </c>
       <c r="S16" s="4">
         <f>+T16/T17</f>
         <v/>
       </c>
       <c r="T16" s="5" t="n">
-        <v>0.9978166917577652</v>
+        <v>0.9991951910379967</v>
       </c>
       <c r="U16" s="5">
         <f>T16</f>
@@ -7856,20 +7856,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9318002394079999</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4519910616039225</v>
+        <v>0.4300296617825057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5254999055290324</v>
+        <v>0.5475470711818881</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1</v>
+        <v>0.9996462901636554</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -7893,20 +7893,20 @@
         <v/>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
+        <v>0.9994735309456865</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>1</v>
+        <v>0.9996402978783194</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>1</v>
+        <v>0.9998251035441672</v>
       </c>
       <c r="S17" s="4">
         <f>+T17/T18</f>
         <v/>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1</v>
+        <v>0.9998251035441672</v>
       </c>
       <c r="U17" s="5">
         <f>T17</f>
@@ -7935,13 +7935,13 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9346220850143007</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5622034299012701</v>
+        <v>0.5358901417495234</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5872930974691652</v>
+        <v>0.612276776732445</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
@@ -8014,13 +8014,13 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9372530062405577</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6703726703050298</v>
+        <v>0.6973796672259035</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.686687317513955</v>
+        <v>0.7117785203687266</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
@@ -8093,13 +8093,13 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9956131379220601</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.763610481419408</v>
+        <v>0.7831543140091052</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7731159848062338</v>
+        <v>0.7912221478099667</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
@@ -8175,10 +8175,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8084991440284495</v>
+        <v>0.8260323943598618</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8162821208397832</v>
+        <v>0.8313509305462397</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
@@ -8254,10 +8254,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9288678512355102</v>
+        <v>0.9361330521637296</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9314225699060028</v>
+        <v>0.9382023163376437</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
@@ -9232,22 +9232,22 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v/>
+        <v>1.068571428571429</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.138888888888889</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1</v>
+        <v>4.796791443850268</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>11.79268292682927</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
@@ -9307,16 +9307,16 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.068571428571429</v>
+        <v/>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>4.796791443850268</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>3.233333333333334</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
@@ -9385,22 +9385,22 @@
         <v/>
       </c>
       <c r="D40" s="4" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="n">
-        <v>2.999999999999999</v>
+        <v/>
       </c>
       <c r="F40" s="4" t="n">
-        <v>3.233333333333334</v>
+        <v/>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J40" s="4" t="n">
         <v>1</v>
@@ -9424,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>278.4705263157894</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>1</v>
@@ -9463,43 +9463,43 @@
         <v/>
       </c>
       <c r="E41" s="4" t="n">
-        <v/>
+        <v>46.45454545454545</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v/>
+        <v>1.001956947162427</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v/>
+        <v>1.0661328125</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>4.057447575080301</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>278.4705263157894</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>1</v>
@@ -9535,10 +9535,10 @@
         <v/>
       </c>
       <c r="D42" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>46.45454545454545</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>1</v>
@@ -9547,43 +9547,43 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.001956947162427</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.0661328125</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4" t="n">
+        <v>3.427861027190333</v>
+      </c>
+      <c r="P42" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="Q42" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="L42" s="4" t="n">
+      <c r="R42" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="M42" s="4" t="n">
+      <c r="S42" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="N42" s="4" t="n">
+      <c r="T42" s="4" t="n">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="O42" s="4" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="P42" s="4" t="n">
-        <v>4.057447575080301</v>
-      </c>
-      <c r="Q42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" s="4" t="n">
-        <v>1</v>
       </c>
       <c r="U42" s="4" t="n">
         <v/>
@@ -9607,7 +9607,7 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v/>
+        <v>492.2381818181818</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -9616,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.000110811100317</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1</v>
@@ -9637,25 +9637,25 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.002138417275753</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>1.287110636102307</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>3.427861027190333</v>
+        <v>1.000458131636108</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -9682,16 +9682,16 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>492.2381818181818</v>
+        <v>21</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1</v>
+        <v>1.028857142857143</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>1.117698787373879</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.000110811100317</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -9703,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>7.221665493395167</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>1</v>
@@ -9712,13 +9712,13 @@
         <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.002138417275753</v>
+        <v>7.921276864148257</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.287110636102307</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1.000458131636108</v>
+        <v>1.009920090572222</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>1</v>
@@ -9757,19 +9757,19 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.028857142857143</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.117698787373879</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>9.492512479201338</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
@@ -9778,22 +9778,22 @@
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>7.221665493395167</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>138.2848378615251</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>7.921276864148257</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>1.191629009462363</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.009920090572222</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1</v>
@@ -9835,16 +9835,16 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.9999999999999976</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>9.492512479201338</v>
+        <v>1.107601713062098</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
@@ -9856,16 +9856,16 @@
         <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>377.5326244562581</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>138.2848378615251</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>1.009628543812371</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.191629009462363</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
@@ -9913,13 +9913,13 @@
         <v/>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.107601713062098</v>
+        <v>1008.983388704322</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
@@ -9928,16 +9928,16 @@
         <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>2.777223875879145</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>377.5326244562581</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>1.008183018872399</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.009628543812371</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -9994,22 +9994,22 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1008.983388704322</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>3322.890365448516</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>2.777223875879145</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1</v>
+        <v>1.040130375228706</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.008183018872399</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
@@ -10072,16 +10072,16 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>170.2842242503244</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>3322.890365448516</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>1.007656498836212</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.040130375228706</v>
+        <v>1.001266387048406</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>1</v>
@@ -10135,28 +10135,28 @@
         <v/>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>1.014372948360453</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>170.284224250326</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.007656498836212</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.001266387048406</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>1</v>
@@ -10213,16 +10213,16 @@
         <v/>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.014372948360453</v>
+        <v/>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v>1.019633866285919</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.008625449385288</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
@@ -10231,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>1.091956955475495</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -10288,16 +10288,16 @@
         <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v/>
+        <v>2656.891803278729</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v/>
+        <v>1.028534513396647</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.019633866285919</v>
+        <v>1.064371456852335</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.008625449385288</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -10363,19 +10363,19 @@
         <v/>
       </c>
       <c r="E53" s="4" t="n">
-        <v>2656.891803278729</v>
+        <v/>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.028534513396647</v>
+        <v/>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.064371456852335</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -10441,13 +10441,13 @@
         <v/>
       </c>
       <c r="F54" s="4" t="n">
-        <v/>
+        <v>1.294411764705885</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>10.77050670302202</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -10513,13 +10513,13 @@
         <v/>
       </c>
       <c r="E55" s="4" t="n">
-        <v/>
+        <v>1.060666666666667</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.294411764705882</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -10585,10 +10585,10 @@
         <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v/>
+        <v>1.086206896551724</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.060666666666667</v>
+        <v>2.587301587301587</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
@@ -10660,10 +10660,10 @@
         <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.086206896551724</v>
+        <v/>
       </c>
       <c r="E57" s="4" t="n">
-        <v>2.587301587301587</v>
+        <v/>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -10729,13 +10729,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v/>
+        <v>1101</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -10804,10 +10804,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -11540,73 +11540,73 @@
         <v/>
       </c>
       <c r="C68" s="47" t="n">
-        <v/>
+        <v>349.9999999999999</v>
       </c>
       <c r="D68" s="47" t="n">
-        <v>72</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="E68" s="47" t="n">
-        <v>82</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="F68" s="47" t="n">
-        <v>82</v>
+        <v>1794</v>
       </c>
       <c r="G68" s="47" t="n">
-        <v>967.0000000000001</v>
+        <v>1794</v>
       </c>
       <c r="H68" s="47" t="n">
-        <v>967.0000000000001</v>
+        <v>1794</v>
       </c>
       <c r="I68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="J68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="K68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="L68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="M68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="N68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="O68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="P68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="Q68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="R68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="S68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="T68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="U68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="V68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="W68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="X68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="Y68" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="Z68" s="12" t="n"/>
       <c r="AA68" s="12" t="n"/>
@@ -11725,70 +11725,70 @@
         <v/>
       </c>
       <c r="C69" s="47" t="n">
-        <v>349.9999999999999</v>
+        <v/>
       </c>
       <c r="D69" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>20</v>
       </c>
       <c r="E69" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>100</v>
       </c>
       <c r="F69" s="47" t="n">
-        <v>1794</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="G69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="H69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="I69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="J69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="K69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="L69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="M69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="N69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="O69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="P69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="Q69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="R69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="S69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="T69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="U69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="V69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="W69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="X69" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="Y69" s="47" t="n">
         <v/>
@@ -11913,64 +11913,64 @@
         <v/>
       </c>
       <c r="D70" s="47" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E70" s="47" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="F70" s="47" t="n">
-        <v>299.9999999999999</v>
+        <v/>
       </c>
       <c r="G70" s="47" t="n">
-        <v>970</v>
+        <v/>
       </c>
       <c r="H70" s="47" t="n">
-        <v>970</v>
+        <v/>
       </c>
       <c r="I70" s="47" t="n">
-        <v>970</v>
+        <v/>
       </c>
       <c r="J70" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="K70" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="L70" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="M70" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="N70" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="O70" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="P70" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Q70" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="R70" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="S70" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="T70" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="U70" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="V70" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="W70" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="X70" s="47" t="n">
         <v/>
@@ -12101,58 +12101,58 @@
         <v/>
       </c>
       <c r="E71" s="47" t="n">
-        <v/>
+        <v>66</v>
       </c>
       <c r="F71" s="47" t="n">
-        <v/>
+        <v>3066</v>
       </c>
       <c r="G71" s="47" t="n">
-        <v/>
+        <v>3066</v>
       </c>
       <c r="H71" s="47" t="n">
-        <v/>
+        <v>3066</v>
       </c>
       <c r="I71" s="47" t="n">
-        <v/>
+        <v>3072</v>
       </c>
       <c r="J71" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="K71" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="L71" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="M71" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="N71" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="O71" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="P71" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="Q71" s="47" t="n">
-        <v>19</v>
+        <v>13288.79</v>
       </c>
       <c r="R71" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="S71" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="T71" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="U71" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="V71" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="W71" s="47" t="n">
         <v/>
@@ -12283,58 +12283,58 @@
         <v/>
       </c>
       <c r="D72" s="47" t="n">
-        <v/>
+        <v>1655</v>
       </c>
       <c r="E72" s="47" t="n">
-        <v>66</v>
+        <v>1655</v>
       </c>
       <c r="F72" s="47" t="n">
-        <v>3066</v>
+        <v>1655</v>
       </c>
       <c r="G72" s="47" t="n">
-        <v>3066</v>
+        <v>1655</v>
       </c>
       <c r="H72" s="47" t="n">
-        <v>3066</v>
+        <v>1655</v>
       </c>
       <c r="I72" s="47" t="n">
-        <v>3072</v>
+        <v>1655</v>
       </c>
       <c r="J72" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="K72" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="L72" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="M72" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="N72" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="O72" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="P72" s="47" t="n">
-        <v>3275.16</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="Q72" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="R72" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="S72" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="T72" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="U72" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="V72" s="47" t="n">
         <v/>
@@ -12465,58 +12465,58 @@
         <v/>
       </c>
       <c r="C73" s="47" t="n">
-        <v/>
+        <v>55</v>
       </c>
       <c r="D73" s="47" t="n">
-        <v>1655</v>
+        <v>27073.1</v>
       </c>
       <c r="E73" s="47" t="n">
-        <v>1655</v>
+        <v>27073.1</v>
       </c>
       <c r="F73" s="47" t="n">
-        <v>1655</v>
+        <v>27073.1</v>
       </c>
       <c r="G73" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="H73" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="I73" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="J73" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="K73" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="L73" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="M73" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="N73" s="47" t="n">
-        <v>1655</v>
+        <v>27134</v>
       </c>
       <c r="O73" s="47" t="n">
-        <v>1655</v>
+        <v>34924.46</v>
       </c>
       <c r="P73" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="Q73" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="R73" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="S73" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="T73" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="U73" s="47" t="n">
         <v/>
@@ -12650,55 +12650,55 @@
         <v/>
       </c>
       <c r="C74" s="47" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D74" s="47" t="n">
-        <v>27073.1</v>
+        <v>210</v>
       </c>
       <c r="E74" s="47" t="n">
-        <v>27073.1</v>
+        <v>216.0599999999999</v>
       </c>
       <c r="F74" s="47" t="n">
-        <v>27073.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="G74" s="47" t="n">
-        <v>27076.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="H74" s="47" t="n">
-        <v>27076.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="I74" s="47" t="n">
-        <v>27076.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="J74" s="47" t="n">
-        <v>27076.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="K74" s="47" t="n">
-        <v>27076.1</v>
+        <v>1743.96</v>
       </c>
       <c r="L74" s="47" t="n">
-        <v>27076.1</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="M74" s="47" t="n">
-        <v>27076.1</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="N74" s="47" t="n">
-        <v>27134</v>
+        <v>13814.39</v>
       </c>
       <c r="O74" s="47" t="n">
-        <v>34924.46</v>
+        <v>13814.39</v>
       </c>
       <c r="P74" s="47" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="Q74" s="47" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="R74" s="47" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="S74" s="47" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="T74" s="47" t="n">
         <v/>
@@ -12835,52 +12835,52 @@
         <v/>
       </c>
       <c r="C75" s="47" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="D75" s="47" t="n">
-        <v>210</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="E75" s="47" t="n">
-        <v>216.0599999999999</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="F75" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>6.009999999999991</v>
       </c>
       <c r="G75" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>6.009999999999991</v>
       </c>
       <c r="H75" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="I75" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="J75" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="K75" s="47" t="n">
-        <v>1743.96</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="L75" s="47" t="n">
-        <v>1743.960000000001</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="M75" s="47" t="n">
-        <v>1743.960000000001</v>
+        <v>7889.15</v>
       </c>
       <c r="N75" s="47" t="n">
-        <v>13814.39</v>
+        <v>7889.15</v>
       </c>
       <c r="O75" s="47" t="n">
-        <v>13814.39</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="P75" s="47" t="n">
-        <v>13951.43</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="Q75" s="47" t="n">
-        <v>13951.43</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="R75" s="47" t="n">
-        <v>13951.43</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="S75" s="47" t="n">
         <v/>
@@ -13023,46 +13023,46 @@
         <v/>
       </c>
       <c r="D76" s="47" t="n">
-        <v>6.010000000000005</v>
+        <v/>
       </c>
       <c r="E76" s="47" t="n">
-        <v>6.010000000000005</v>
+        <v>18.67999999999995</v>
       </c>
       <c r="F76" s="47" t="n">
-        <v>6.009999999999991</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="G76" s="47" t="n">
-        <v>6.009999999999991</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="H76" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="I76" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="J76" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="K76" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="L76" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>7811.150000000001</v>
       </c>
       <c r="M76" s="47" t="n">
-        <v>7889.15</v>
+        <v>7811.150000000001</v>
       </c>
       <c r="N76" s="47" t="n">
-        <v>7889.15</v>
+        <v>7886.36</v>
       </c>
       <c r="O76" s="47" t="n">
-        <v>9400.940000000001</v>
+        <v>7886.36</v>
       </c>
       <c r="P76" s="47" t="n">
-        <v>9400.940000000001</v>
+        <v>7886.36</v>
       </c>
       <c r="Q76" s="47" t="n">
-        <v>9400.940000000001</v>
+        <v>7886.36</v>
       </c>
       <c r="R76" s="47" t="n">
         <v/>
@@ -13211,40 +13211,40 @@
         <v/>
       </c>
       <c r="E77" s="47" t="n">
-        <v>18.67999999999995</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F77" s="47" t="n">
-        <v>18.68000000000006</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G77" s="47" t="n">
-        <v>18.68000000000006</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H77" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>3037.04</v>
       </c>
       <c r="I77" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>3037.04</v>
       </c>
       <c r="J77" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>3037.04</v>
       </c>
       <c r="K77" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8434.539999999999</v>
       </c>
       <c r="L77" s="47" t="n">
-        <v>7811.150000000001</v>
+        <v>8434.539999999999</v>
       </c>
       <c r="M77" s="47" t="n">
-        <v>7811.150000000001</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="N77" s="47" t="n">
-        <v>7886.36</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="O77" s="47" t="n">
-        <v>7886.36</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="P77" s="47" t="n">
-        <v>7886.36</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="Q77" s="47" t="n">
         <v/>
@@ -13393,7 +13393,7 @@
         <v/>
       </c>
       <c r="D78" s="47" t="n">
-        <v/>
+        <v>3.009999999999991</v>
       </c>
       <c r="E78" s="47" t="n">
         <v>3.009999999999991</v>
@@ -13405,28 +13405,28 @@
         <v>3.009999999999991</v>
       </c>
       <c r="H78" s="47" t="n">
-        <v>3037.04</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="I78" s="47" t="n">
-        <v>3037.04</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="J78" s="47" t="n">
-        <v>3037.04</v>
+        <v>10001.9</v>
       </c>
       <c r="K78" s="47" t="n">
-        <v>8434.539999999999</v>
+        <v>10001.9</v>
       </c>
       <c r="L78" s="47" t="n">
-        <v>8434.539999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="M78" s="47" t="n">
-        <v>8503.559999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="N78" s="47" t="n">
-        <v>8503.559999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="O78" s="47" t="n">
-        <v>8503.559999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="P78" s="47" t="n">
         <v/>
@@ -13578,37 +13578,37 @@
         <v/>
       </c>
       <c r="D79" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="E79" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="F79" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="G79" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="H79" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="I79" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>3918.240000000001</v>
       </c>
       <c r="J79" s="47" t="n">
-        <v>10001.9</v>
+        <v>3918.240000000001</v>
       </c>
       <c r="K79" s="47" t="n">
-        <v>10001.9</v>
+        <v>3948.240000000001</v>
       </c>
       <c r="L79" s="47" t="n">
-        <v>10403.28</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="M79" s="47" t="n">
-        <v>10403.28</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="N79" s="47" t="n">
-        <v>10403.28</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="O79" s="47" t="n">
         <v/>
@@ -13763,34 +13763,34 @@
         <v/>
       </c>
       <c r="D80" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v/>
       </c>
       <c r="E80" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>1416.55</v>
       </c>
       <c r="F80" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>1416.55</v>
       </c>
       <c r="G80" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>1436.909999999999</v>
       </c>
       <c r="H80" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>1436.91</v>
       </c>
       <c r="I80" s="47" t="n">
-        <v>3918.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="J80" s="47" t="n">
-        <v>3918.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="K80" s="47" t="n">
-        <v>3948.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="L80" s="47" t="n">
-        <v>3953.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="M80" s="47" t="n">
-        <v>3953.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="N80" s="47" t="n">
         <v/>
@@ -13951,28 +13951,28 @@
         <v/>
       </c>
       <c r="E81" s="47" t="n">
-        <v>1416.55</v>
+        <v/>
       </c>
       <c r="F81" s="47" t="n">
-        <v>1416.55</v>
+        <v/>
       </c>
       <c r="G81" s="47" t="n">
-        <v>1436.91</v>
+        <v>7851.23</v>
       </c>
       <c r="H81" s="47" t="n">
-        <v>1436.91</v>
+        <v>8005.379999999999</v>
       </c>
       <c r="I81" s="47" t="n">
-        <v>1436.910000000001</v>
+        <v>8074.429999999999</v>
       </c>
       <c r="J81" s="47" t="n">
-        <v>1436.910000000001</v>
+        <v>8074.429999999999</v>
       </c>
       <c r="K81" s="47" t="n">
-        <v>1436.910000000001</v>
+        <v>8074.429999999999</v>
       </c>
       <c r="L81" s="47" t="n">
-        <v>1436.910000000001</v>
+        <v>8816.93</v>
       </c>
       <c r="M81" s="47" t="n">
         <v/>
@@ -14136,25 +14136,25 @@
         <v/>
       </c>
       <c r="E82" s="47" t="n">
-        <v/>
+        <v>3.049999999999955</v>
       </c>
       <c r="F82" s="47" t="n">
-        <v/>
+        <v>8103.52</v>
       </c>
       <c r="G82" s="47" t="n">
-        <v>7851.23</v>
+        <v>8334.75</v>
       </c>
       <c r="H82" s="47" t="n">
-        <v>8005.379999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="I82" s="47" t="n">
-        <v>8074.429999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="J82" s="47" t="n">
-        <v>8074.429999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="K82" s="47" t="n">
-        <v>8074.429999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="L82" s="47" t="n">
         <v/>
@@ -14321,22 +14321,22 @@
         <v/>
       </c>
       <c r="E83" s="47" t="n">
-        <v>3.049999999999955</v>
+        <v/>
       </c>
       <c r="F83" s="47" t="n">
-        <v>8103.52</v>
+        <v/>
       </c>
       <c r="G83" s="47" t="n">
-        <v>8334.75</v>
+        <v>657.6399999999999</v>
       </c>
       <c r="H83" s="47" t="n">
-        <v>8871.27</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="I83" s="47" t="n">
-        <v>8871.27</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="J83" s="47" t="n">
-        <v>8871.27</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="K83" s="47" t="n">
         <v/>
@@ -14509,16 +14509,16 @@
         <v/>
       </c>
       <c r="F84" s="47" t="n">
-        <v/>
+        <v>34</v>
       </c>
       <c r="G84" s="47" t="n">
-        <v>657.6399999999999</v>
+        <v>44.0100000000001</v>
       </c>
       <c r="H84" s="47" t="n">
-        <v>657.6400000000001</v>
+        <v>44.0100000000001</v>
       </c>
       <c r="I84" s="47" t="n">
-        <v>657.6400000000001</v>
+        <v>474.0100000000001</v>
       </c>
       <c r="J84" s="47" t="n">
         <v/>
@@ -14691,16 +14691,16 @@
         <v/>
       </c>
       <c r="E85" s="47" t="n">
-        <v/>
+        <v>165</v>
       </c>
       <c r="F85" s="47" t="n">
-        <v>34</v>
+        <v>175.01</v>
       </c>
       <c r="G85" s="47" t="n">
-        <v>44.00999999999999</v>
+        <v>175.01</v>
       </c>
       <c r="H85" s="47" t="n">
-        <v>44.00999999999999</v>
+        <v>175.01</v>
       </c>
       <c r="I85" s="47" t="n">
         <v/>
@@ -14873,16 +14873,16 @@
         <v/>
       </c>
       <c r="D86" s="47" t="n">
-        <v/>
+        <v>58</v>
       </c>
       <c r="E86" s="47" t="n">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="F86" s="47" t="n">
-        <v>175.01</v>
+        <v>163</v>
       </c>
       <c r="G86" s="47" t="n">
-        <v>175.01</v>
+        <v>163</v>
       </c>
       <c r="H86" s="47" t="n">
         <v/>
@@ -15058,13 +15058,13 @@
         <v/>
       </c>
       <c r="D87" s="47" t="n">
-        <v>58</v>
+        <v/>
       </c>
       <c r="E87" s="47" t="n">
-        <v>63</v>
+        <v/>
       </c>
       <c r="F87" s="47" t="n">
-        <v>163</v>
+        <v/>
       </c>
       <c r="G87" s="47" t="n">
         <v/>
@@ -15237,16 +15237,16 @@
         <v/>
       </c>
       <c r="B88" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="C88" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="D88" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="E88" s="47" t="n">
-        <v/>
+        <v>3303</v>
       </c>
       <c r="F88" s="47" t="n">
         <v/>
@@ -15422,13 +15422,13 @@
         <v/>
       </c>
       <c r="B89" s="47" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="C89" s="47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" s="47" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E89" s="47" t="n">
         <v/>
@@ -15611,7 +15611,7 @@
         <v/>
       </c>
       <c r="C90" s="12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="12" t="n">
         <v/>
@@ -16114,13 +16114,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>12.55037573058726</v>
+        <v>5.243295953193564</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>1.019004956368434</v>
+        <v>2.201831876511066</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>1</v>
+        <v>1.041936778089829</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>1</v>
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>2.758522758185439</v>
+        <v>1.055570192327179</v>
       </c>
       <c r="I99" s="4" t="n">
         <v>1</v>
@@ -16189,25 +16189,25 @@
         <v/>
       </c>
       <c r="B100" s="4" t="n">
-        <v>5.243295953193564</v>
+        <v>3.732769744160178</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>2.201831876511066</v>
+        <v>1.03028822085012</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>1.041936778089829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F100" s="4" t="n">
-        <v>1</v>
+        <v>1.299057094926824</v>
       </c>
       <c r="G100" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>1.055570192327179</v>
+        <v>1</v>
       </c>
       <c r="I100" s="4" t="n">
         <v>1</v>
@@ -16216,7 +16216,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="4" t="n">
-        <v>1</v>
+        <v>1.024420220156033</v>
       </c>
       <c r="L100" s="4" t="n">
         <v>1</v>
@@ -16264,19 +16264,19 @@
         <v/>
       </c>
       <c r="B101" s="4" t="n">
-        <v>3.732769744160178</v>
+        <v>14.59087413483722</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>1.03028822085012</v>
+        <v>1</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.033925402765333</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.014927782497876</v>
       </c>
       <c r="F101" s="4" t="n">
-        <v>1.299057094926824</v>
+        <v>2.339394091597814</v>
       </c>
       <c r="G101" s="4" t="n">
         <v>1</v>
@@ -16288,10 +16288,10 @@
         <v>1</v>
       </c>
       <c r="J101" s="4" t="n">
-        <v>1</v>
+        <v>1.00981188519164</v>
       </c>
       <c r="K101" s="4" t="n">
-        <v>1.024420220156033</v>
+        <v>1</v>
       </c>
       <c r="L101" s="4" t="n">
         <v>1</v>
@@ -16339,31 +16339,31 @@
         <v/>
       </c>
       <c r="B102" s="4" t="n">
-        <v>14.59087413483722</v>
+        <v>3.884009729868135</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>1</v>
+        <v>1.391027753971916</v>
       </c>
       <c r="D102" s="4" t="n">
-        <v>1.033925402765333</v>
+        <v>1.058932252790218</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>1.014927782497876</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F102" s="4" t="n">
-        <v>2.339394091597814</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>1</v>
+        <v>1.061358754027927</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>1.00981188519164</v>
+        <v>1</v>
       </c>
       <c r="K102" s="4" t="n">
         <v>1</v>
@@ -16414,28 +16414,28 @@
         <v/>
       </c>
       <c r="B103" s="4" t="n">
-        <v>3.884009729868135</v>
+        <v/>
       </c>
       <c r="C103" s="4" t="n">
-        <v>1.391027753971916</v>
+        <v>3.608754027926961</v>
       </c>
       <c r="D103" s="4" t="n">
-        <v>1.058932252790218</v>
+        <v>1</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>1.061358754027927</v>
+        <v>1.102016519086242</v>
       </c>
       <c r="J103" s="4" t="n">
         <v>1</v>
@@ -16492,7 +16492,7 @@
         <v/>
       </c>
       <c r="C104" s="4" t="n">
-        <v>3.608754027926961</v>
+        <v>1</v>
       </c>
       <c r="D104" s="4" t="n">
         <v>1</v>
@@ -16504,13 +16504,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>1</v>
+        <v>1.550846474953618</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>1</v>
+        <v>1.003140304310441</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>1.102016519086242</v>
+        <v>3.754630492304253</v>
       </c>
       <c r="J104" s="4" t="n">
         <v>1</v>
@@ -16564,7 +16564,7 @@
         <v/>
       </c>
       <c r="B105" s="4" t="n">
-        <v/>
+        <v>6.108641483105752</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>1</v>
@@ -16573,25 +16573,25 @@
         <v>1</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>1</v>
+        <v>3.694361049471347</v>
       </c>
       <c r="F105" s="4" t="n">
-        <v>1</v>
+        <v>1.161584665665577</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>1.550846474953618</v>
+        <v>1</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>1.003140304310441</v>
+        <v>1</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>3.754630492304253</v>
+        <v>1</v>
       </c>
       <c r="J105" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>1</v>
+        <v>1.004760347672677</v>
       </c>
       <c r="L105" s="4" t="n">
         <v>1</v>
@@ -16639,7 +16639,7 @@
         <v/>
       </c>
       <c r="B106" s="4" t="n">
-        <v>6.108641483105751</v>
+        <v>1</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>1</v>
@@ -16648,16 +16648,16 @@
         <v>1</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>3.694361049471348</v>
+        <v>11.95341997912912</v>
       </c>
       <c r="F106" s="4" t="n">
-        <v>1.161584665665577</v>
+        <v>1.170189125483131</v>
       </c>
       <c r="G106" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>1</v>
+        <v>1.018189833497236</v>
       </c>
       <c r="I106" s="4" t="n">
         <v>1</v>
@@ -16666,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>1.004760347672677</v>
+        <v>1</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>1</v>
@@ -16714,25 +16714,25 @@
         <v/>
       </c>
       <c r="B107" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="C107" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D107" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E107" s="4" t="n">
-        <v>11.95341997912912</v>
+        <v>1.615996177735308</v>
       </c>
       <c r="F107" s="4" t="n">
-        <v>1.170189125483131</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G107" s="4" t="n">
-        <v>1</v>
+        <v>1.024681575741807</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>1.018189833497236</v>
+        <v>1.031473616176539</v>
       </c>
       <c r="I107" s="4" t="n">
         <v>1</v>
@@ -16795,40 +16795,40 @@
         <v/>
       </c>
       <c r="D108" s="4" t="n">
-        <v/>
+        <v>1.095617750463693</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>1.615996177735308</v>
+        <v>1</v>
       </c>
       <c r="F108" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="n">
+        <v>1.068903656163934</v>
+      </c>
+      <c r="I108" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="G108" s="4" t="n">
-        <v>1.024681575741807</v>
-      </c>
-      <c r="H108" s="4" t="n">
-        <v>1.031473616176539</v>
-      </c>
-      <c r="I108" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="J108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P108" t="n">
         <v/>
@@ -16867,25 +16867,25 @@
         <v/>
       </c>
       <c r="C109" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D109" s="4" t="n">
-        <v>1.095617750463693</v>
+        <v>1.680106902161283</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F109" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>1.068903656163934</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.062867418217027</v>
       </c>
       <c r="J109" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -16939,13 +16939,13 @@
         <v/>
       </c>
       <c r="B110" s="4" t="n">
-        <v/>
+        <v>2.540958812563751</v>
       </c>
       <c r="C110" s="4" t="n">
-        <v>1</v>
+        <v>2.049071177431411</v>
       </c>
       <c r="D110" s="4" t="n">
-        <v>1.680106902161283</v>
+        <v>1.060326017199333</v>
       </c>
       <c r="E110" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -16957,22 +16957,22 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.017373963901401</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>1.062867418217027</v>
+        <v>1</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L110" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M110" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N110" t="n">
         <v/>
@@ -17014,37 +17014,37 @@
         <v/>
       </c>
       <c r="B111" s="4" t="n">
-        <v>2.540958812563751</v>
+        <v>13.01059126463586</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>2.049071177431411</v>
+        <v>1.046087148100987</v>
       </c>
       <c r="D111" s="4" t="n">
-        <v>1.060326017199333</v>
+        <v>1.253606245470998</v>
       </c>
       <c r="E111" s="4" t="n">
+        <v>1.068411431044694</v>
+      </c>
+      <c r="F111" s="4" t="n">
+        <v>1.052882526805061</v>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>1.009960739246325</v>
+      </c>
+      <c r="H111" s="4" t="n">
+        <v>1.006834826284632</v>
+      </c>
+      <c r="I111" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="F111" s="4" t="n">
+      <c r="J111" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="G111" s="4" t="n">
+      <c r="K111" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="H111" s="4" t="n">
-        <v>1.017373963901401</v>
-      </c>
-      <c r="I111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="L111" s="4" t="n">
-        <v>1</v>
+        <v>1.000796588609281</v>
       </c>
       <c r="M111" t="n">
         <v/>
@@ -17089,25 +17089,25 @@
         <v/>
       </c>
       <c r="B112" s="4" t="n">
-        <v>13.01059126463587</v>
+        <v>31.24567134923228</v>
       </c>
       <c r="C112" s="4" t="n">
-        <v>1.046087148100987</v>
+        <v>1.08177284275901</v>
       </c>
       <c r="D112" s="4" t="n">
-        <v>1.253606245470998</v>
+        <v>1</v>
       </c>
       <c r="E112" s="4" t="n">
-        <v>1.068411431044695</v>
+        <v>2.305855176679811</v>
       </c>
       <c r="F112" s="4" t="n">
-        <v>1.052882526805061</v>
+        <v>1.036458442489301</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>1.009960739246325</v>
+        <v>1.067666649142035</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>1.006834826284631</v>
+        <v>1.03378370700333</v>
       </c>
       <c r="I112" s="4" t="n">
         <v>1</v>
@@ -17164,25 +17164,25 @@
         <v/>
       </c>
       <c r="B113" s="4" t="n">
-        <v>31.24567134923228</v>
+        <v>26.84954462659381</v>
       </c>
       <c r="C113" s="4" t="n">
-        <v>1.08177284275901</v>
+        <v>1</v>
       </c>
       <c r="D113" s="4" t="n">
-        <v>1</v>
+        <v>1.058315920870533</v>
       </c>
       <c r="E113" s="4" t="n">
-        <v>2.305855176679811</v>
+        <v>1.032461538461539</v>
       </c>
       <c r="F113" s="4" t="n">
-        <v>1.036458442489301</v>
+        <v>1</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>1.067666649142035</v>
+        <v>1</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>1.03378370700333</v>
+        <v>1.033862315601252</v>
       </c>
       <c r="I113" s="4" t="n">
         <v>1</v>
@@ -17239,25 +17239,25 @@
         <v/>
       </c>
       <c r="B114" s="4" t="n">
-        <v>26.8495446265938</v>
+        <v>3.288299610405932</v>
       </c>
       <c r="C114" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.090999426715078</v>
       </c>
       <c r="D114" s="4" t="n">
-        <v>1.058315920870533</v>
+        <v>5.085370980172354</v>
       </c>
       <c r="E114" s="4" t="n">
-        <v>1.032461538461539</v>
+        <v>1</v>
       </c>
       <c r="F114" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G114" s="4" t="n">
-        <v>1</v>
+        <v>1.004870252881164</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>1.033862315601252</v>
+        <v>1.010982080425573</v>
       </c>
       <c r="I114" s="4" t="n">
         <v>1</v>
@@ -17314,25 +17314,25 @@
         <v/>
       </c>
       <c r="B115" s="4" t="n">
-        <v>3.288299610405932</v>
+        <v/>
       </c>
       <c r="C115" s="4" t="n">
-        <v>1.090999426715078</v>
+        <v>3.164161392405063</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>5.085370980172354</v>
+        <v>3.157227986831688</v>
       </c>
       <c r="E115" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F115" s="4" t="n">
-        <v>1</v>
+        <v>1.04131249670028</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>1.004870252881164</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>1.010982080425573</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I115" t="n">
         <v/>
@@ -17392,16 +17392,16 @@
         <v/>
       </c>
       <c r="C116" s="4" t="n">
-        <v>3.164161392405063</v>
+        <v>1.133725944360939</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>3.157227986831688</v>
+        <v>1.379656596392089</v>
       </c>
       <c r="E116" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F116" s="4" t="n">
-        <v>1.04131249670028</v>
+        <v>1</v>
       </c>
       <c r="G116" s="4" t="n">
         <v>1</v>
@@ -17464,13 +17464,13 @@
         <v/>
       </c>
       <c r="B117" s="4" t="n">
-        <v/>
+        <v>4.448797250859106</v>
       </c>
       <c r="C117" s="4" t="n">
-        <v>1.133725944360939</v>
+        <v>4.104742777691951</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>1.379656596392089</v>
+        <v>1.02307455435043</v>
       </c>
       <c r="E117" s="4" t="n">
         <v>1</v>
@@ -17539,16 +17539,16 @@
         <v/>
       </c>
       <c r="B118" s="4" t="n">
-        <v>4.448797250859106</v>
+        <v>13.31097079715864</v>
       </c>
       <c r="C118" s="4" t="n">
-        <v>4.104742777691951</v>
+        <v>2.188259709457456</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>1.02307455435043</v>
+        <v>1</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>1</v>
+        <v>1.007126405636093</v>
       </c>
       <c r="F118" t="n">
         <v/>
@@ -17614,13 +17614,13 @@
         <v/>
       </c>
       <c r="B119" s="4" t="n">
-        <v>13.31097079715864</v>
+        <v>163.0549211528004</v>
       </c>
       <c r="C119" s="4" t="n">
-        <v>2.188259709457456</v>
+        <v>1.577423313701819</v>
       </c>
       <c r="D119" s="4" t="n">
-        <v>1</v>
+        <v>1.009530594943372</v>
       </c>
       <c r="E119" t="n">
         <v/>
@@ -17689,10 +17689,10 @@
         <v/>
       </c>
       <c r="B120" s="4" t="n">
-        <v>163.0549211528004</v>
+        <v>12.90140712059685</v>
       </c>
       <c r="C120" s="4" t="n">
-        <v>1.577423313701819</v>
+        <v>1.503941791776771</v>
       </c>
       <c r="D120" t="n">
         <v/>
@@ -17764,7 +17764,7 @@
         <v/>
       </c>
       <c r="B121" s="4" t="n">
-        <v>12.90140712059685</v>
+        <v>18.61367806505421</v>
       </c>
       <c r="C121" t="n">
         <v/>
@@ -18155,73 +18155,73 @@
         <v/>
       </c>
       <c r="C127" s="47" t="n">
-        <v/>
+        <v>349.9999999999999</v>
       </c>
       <c r="D127" s="47" t="n">
-        <v>72</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="E127" s="47" t="n">
-        <v>82</v>
+        <v>373.9999999999999</v>
       </c>
       <c r="F127" s="47" t="n">
-        <v>82</v>
+        <v>1794</v>
       </c>
       <c r="G127" s="47" t="n">
-        <v>967.0000000000001</v>
+        <v>1794</v>
       </c>
       <c r="H127" s="47" t="n">
-        <v>967.0000000000001</v>
+        <v>1794</v>
       </c>
       <c r="I127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="J127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="K127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="L127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="M127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="N127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="O127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="P127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="Q127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="R127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="S127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="T127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="U127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="V127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="W127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="X127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="Y127" s="47" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="Z127" s="12" t="n"/>
       <c r="AA127" s="12" t="n"/>
@@ -18340,70 +18340,70 @@
         <v/>
       </c>
       <c r="C128" s="47" t="n">
-        <v>349.9999999999999</v>
+        <v/>
       </c>
       <c r="D128" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>20</v>
       </c>
       <c r="E128" s="47" t="n">
-        <v>373.9999999999999</v>
+        <v>100</v>
       </c>
       <c r="F128" s="47" t="n">
-        <v>1794</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="G128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="H128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="I128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="J128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="K128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="L128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="M128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="N128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="O128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="P128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="Q128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="R128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="S128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="T128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="U128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="V128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="W128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="X128" s="47" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="Y128" s="47" t="n">
         <v/>
@@ -18528,64 +18528,64 @@
         <v/>
       </c>
       <c r="D129" s="47" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="E129" s="47" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="F129" s="47" t="n">
-        <v>299.9999999999999</v>
+        <v/>
       </c>
       <c r="G129" s="47" t="n">
-        <v>970</v>
+        <v/>
       </c>
       <c r="H129" s="47" t="n">
-        <v>970</v>
+        <v/>
       </c>
       <c r="I129" s="47" t="n">
-        <v>970</v>
+        <v/>
       </c>
       <c r="J129" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="K129" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="L129" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="M129" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="N129" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="O129" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="P129" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Q129" s="47" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="R129" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="S129" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="T129" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="U129" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="V129" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="W129" s="47" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="X129" s="47" t="n">
         <v/>
@@ -18716,58 +18716,58 @@
         <v/>
       </c>
       <c r="E130" s="47" t="n">
-        <v/>
+        <v>66</v>
       </c>
       <c r="F130" s="47" t="n">
-        <v/>
+        <v>3066</v>
       </c>
       <c r="G130" s="47" t="n">
-        <v/>
+        <v>3066</v>
       </c>
       <c r="H130" s="47" t="n">
-        <v/>
+        <v>3066</v>
       </c>
       <c r="I130" s="47" t="n">
-        <v/>
+        <v>3072</v>
       </c>
       <c r="J130" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="K130" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="L130" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="M130" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="N130" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="O130" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="P130" s="47" t="n">
-        <v>19</v>
+        <v>3275.16</v>
       </c>
       <c r="Q130" s="47" t="n">
-        <v>19</v>
+        <v>13288.79</v>
       </c>
       <c r="R130" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="S130" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="T130" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="U130" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="V130" s="47" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="W130" s="47" t="n">
         <v/>
@@ -18898,58 +18898,58 @@
         <v/>
       </c>
       <c r="D131" s="47" t="n">
-        <v/>
+        <v>1655</v>
       </c>
       <c r="E131" s="47" t="n">
-        <v>66</v>
+        <v>1655</v>
       </c>
       <c r="F131" s="47" t="n">
-        <v>3066</v>
+        <v>1655</v>
       </c>
       <c r="G131" s="47" t="n">
-        <v>3066</v>
+        <v>1655</v>
       </c>
       <c r="H131" s="47" t="n">
-        <v>3066</v>
+        <v>1655</v>
       </c>
       <c r="I131" s="47" t="n">
-        <v>3072</v>
+        <v>1655</v>
       </c>
       <c r="J131" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="K131" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="L131" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="M131" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="N131" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="O131" s="47" t="n">
-        <v>3275.16</v>
+        <v>1655</v>
       </c>
       <c r="P131" s="47" t="n">
-        <v>3275.16</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="Q131" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="R131" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="S131" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="T131" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="U131" s="47" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="V131" s="47" t="n">
         <v/>
@@ -19080,58 +19080,58 @@
         <v/>
       </c>
       <c r="C132" s="47" t="n">
-        <v/>
+        <v>55</v>
       </c>
       <c r="D132" s="47" t="n">
-        <v>1655</v>
+        <v>27073.1</v>
       </c>
       <c r="E132" s="47" t="n">
-        <v>1655</v>
+        <v>27073.1</v>
       </c>
       <c r="F132" s="47" t="n">
-        <v>1655</v>
+        <v>27073.1</v>
       </c>
       <c r="G132" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="H132" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="I132" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="J132" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="K132" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="L132" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="M132" s="47" t="n">
-        <v>1655</v>
+        <v>27076.1</v>
       </c>
       <c r="N132" s="47" t="n">
-        <v>1655</v>
+        <v>27134</v>
       </c>
       <c r="O132" s="47" t="n">
-        <v>1655</v>
+        <v>34924.46</v>
       </c>
       <c r="P132" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="Q132" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="R132" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="S132" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="T132" s="47" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="U132" s="47" t="n">
         <v/>
@@ -19265,55 +19265,55 @@
         <v/>
       </c>
       <c r="C133" s="47" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D133" s="47" t="n">
-        <v>27073.1</v>
+        <v>210</v>
       </c>
       <c r="E133" s="47" t="n">
-        <v>27073.1</v>
+        <v>216.0599999999999</v>
       </c>
       <c r="F133" s="47" t="n">
-        <v>27073.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="G133" s="47" t="n">
-        <v>27076.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="H133" s="47" t="n">
-        <v>27076.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="I133" s="47" t="n">
-        <v>27076.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="J133" s="47" t="n">
-        <v>27076.1</v>
+        <v>241.4900000000002</v>
       </c>
       <c r="K133" s="47" t="n">
-        <v>27076.1</v>
+        <v>1743.96</v>
       </c>
       <c r="L133" s="47" t="n">
-        <v>27076.1</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="M133" s="47" t="n">
-        <v>27076.1</v>
+        <v>1743.960000000001</v>
       </c>
       <c r="N133" s="47" t="n">
-        <v>27134</v>
+        <v>13814.39</v>
       </c>
       <c r="O133" s="47" t="n">
-        <v>34924.46</v>
+        <v>13814.39</v>
       </c>
       <c r="P133" s="47" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="Q133" s="47" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="R133" s="47" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="S133" s="47" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="T133" s="47" t="n">
         <v/>
@@ -19450,52 +19450,52 @@
         <v/>
       </c>
       <c r="C134" s="47" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="D134" s="47" t="n">
-        <v>210</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="E134" s="47" t="n">
-        <v>216.0599999999999</v>
+        <v>6.010000000000005</v>
       </c>
       <c r="F134" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>6.009999999999991</v>
       </c>
       <c r="G134" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>6.009999999999991</v>
       </c>
       <c r="H134" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="I134" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="J134" s="47" t="n">
-        <v>241.4900000000002</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="K134" s="47" t="n">
-        <v>1743.96</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="L134" s="47" t="n">
-        <v>1743.960000000001</v>
+        <v>57.04999999999995</v>
       </c>
       <c r="M134" s="47" t="n">
-        <v>1743.960000000001</v>
+        <v>7889.15</v>
       </c>
       <c r="N134" s="47" t="n">
-        <v>13814.39</v>
+        <v>7889.15</v>
       </c>
       <c r="O134" s="47" t="n">
-        <v>13814.39</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="P134" s="47" t="n">
-        <v>13951.43</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="Q134" s="47" t="n">
-        <v>13951.43</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="R134" s="47" t="n">
-        <v>13951.43</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="S134" s="47" t="n">
         <v/>
@@ -19638,46 +19638,46 @@
         <v/>
       </c>
       <c r="D135" s="47" t="n">
-        <v>6.010000000000005</v>
+        <v/>
       </c>
       <c r="E135" s="47" t="n">
-        <v>6.010000000000005</v>
+        <v>18.67999999999995</v>
       </c>
       <c r="F135" s="47" t="n">
-        <v>6.009999999999991</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="G135" s="47" t="n">
-        <v>6.009999999999991</v>
+        <v>18.68000000000006</v>
       </c>
       <c r="H135" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="I135" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="J135" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="K135" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>20.69000000000005</v>
       </c>
       <c r="L135" s="47" t="n">
-        <v>57.04999999999995</v>
+        <v>7811.150000000001</v>
       </c>
       <c r="M135" s="47" t="n">
-        <v>7889.15</v>
+        <v>7811.150000000001</v>
       </c>
       <c r="N135" s="47" t="n">
-        <v>7889.15</v>
+        <v>7886.36</v>
       </c>
       <c r="O135" s="47" t="n">
-        <v>9400.940000000001</v>
+        <v>7886.36</v>
       </c>
       <c r="P135" s="47" t="n">
-        <v>9400.940000000001</v>
+        <v>7886.36</v>
       </c>
       <c r="Q135" s="47" t="n">
-        <v>9400.940000000001</v>
+        <v>7886.36</v>
       </c>
       <c r="R135" s="47" t="n">
         <v/>
@@ -19826,40 +19826,40 @@
         <v/>
       </c>
       <c r="E136" s="47" t="n">
-        <v>18.67999999999995</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="F136" s="47" t="n">
-        <v>18.68000000000006</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="G136" s="47" t="n">
-        <v>18.68000000000006</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="H136" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>3037.04</v>
       </c>
       <c r="I136" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>3037.04</v>
       </c>
       <c r="J136" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>3037.04</v>
       </c>
       <c r="K136" s="47" t="n">
-        <v>20.69000000000005</v>
+        <v>8434.539999999999</v>
       </c>
       <c r="L136" s="47" t="n">
-        <v>7811.150000000001</v>
+        <v>8434.539999999999</v>
       </c>
       <c r="M136" s="47" t="n">
-        <v>7811.150000000001</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="N136" s="47" t="n">
-        <v>7886.36</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="O136" s="47" t="n">
-        <v>7886.36</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="P136" s="47" t="n">
-        <v>7886.36</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="Q136" s="47" t="n">
         <v/>
@@ -20008,7 +20008,7 @@
         <v/>
       </c>
       <c r="D137" s="47" t="n">
-        <v/>
+        <v>3.009999999999991</v>
       </c>
       <c r="E137" s="47" t="n">
         <v>3.009999999999991</v>
@@ -20020,28 +20020,28 @@
         <v>3.009999999999991</v>
       </c>
       <c r="H137" s="47" t="n">
-        <v>3037.04</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="I137" s="47" t="n">
-        <v>3037.04</v>
+        <v>3.009999999999991</v>
       </c>
       <c r="J137" s="47" t="n">
-        <v>3037.04</v>
+        <v>10001.9</v>
       </c>
       <c r="K137" s="47" t="n">
-        <v>8434.539999999999</v>
+        <v>10001.9</v>
       </c>
       <c r="L137" s="47" t="n">
-        <v>8434.539999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="M137" s="47" t="n">
-        <v>8503.559999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="N137" s="47" t="n">
-        <v>8503.559999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="O137" s="47" t="n">
-        <v>8503.559999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="P137" s="47" t="n">
         <v/>
@@ -20193,37 +20193,37 @@
         <v/>
       </c>
       <c r="D138" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="E138" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="F138" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="G138" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="H138" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>23.01000000000022</v>
       </c>
       <c r="I138" s="47" t="n">
-        <v>3.009999999999991</v>
+        <v>3918.240000000001</v>
       </c>
       <c r="J138" s="47" t="n">
-        <v>10001.9</v>
+        <v>3918.240000000001</v>
       </c>
       <c r="K138" s="47" t="n">
-        <v>10001.9</v>
+        <v>3948.240000000001</v>
       </c>
       <c r="L138" s="47" t="n">
-        <v>10403.28</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="M138" s="47" t="n">
-        <v>10403.28</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="N138" s="47" t="n">
-        <v>10403.28</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="O138" s="47" t="n">
         <v/>
@@ -20378,34 +20378,34 @@
         <v/>
       </c>
       <c r="D139" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v/>
       </c>
       <c r="E139" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>1416.55</v>
       </c>
       <c r="F139" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>1416.55</v>
       </c>
       <c r="G139" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>1436.909999999999</v>
       </c>
       <c r="H139" s="47" t="n">
-        <v>23.00999999999999</v>
+        <v>1436.91</v>
       </c>
       <c r="I139" s="47" t="n">
-        <v>3918.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="J139" s="47" t="n">
-        <v>3918.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="K139" s="47" t="n">
-        <v>3948.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="L139" s="47" t="n">
-        <v>3953.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="M139" s="47" t="n">
-        <v>3953.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="N139" s="47" t="n">
         <v/>
@@ -20566,28 +20566,28 @@
         <v/>
       </c>
       <c r="E140" s="47" t="n">
-        <v>1416.55</v>
+        <v/>
       </c>
       <c r="F140" s="47" t="n">
-        <v>1416.55</v>
+        <v/>
       </c>
       <c r="G140" s="47" t="n">
-        <v>1436.91</v>
+        <v>7851.23</v>
       </c>
       <c r="H140" s="47" t="n">
-        <v>1436.91</v>
+        <v>8005.379999999999</v>
       </c>
       <c r="I140" s="47" t="n">
-        <v>1436.910000000001</v>
+        <v>8074.429999999999</v>
       </c>
       <c r="J140" s="47" t="n">
-        <v>1436.910000000001</v>
+        <v>8074.429999999999</v>
       </c>
       <c r="K140" s="47" t="n">
-        <v>1436.910000000001</v>
+        <v>8074.429999999999</v>
       </c>
       <c r="L140" s="47" t="n">
-        <v>1436.910000000001</v>
+        <v>8816.93</v>
       </c>
       <c r="M140" s="47" t="n">
         <v/>
@@ -20751,25 +20751,25 @@
         <v/>
       </c>
       <c r="E141" s="47" t="n">
-        <v/>
+        <v>3.049999999999955</v>
       </c>
       <c r="F141" s="47" t="n">
-        <v/>
+        <v>8103.52</v>
       </c>
       <c r="G141" s="47" t="n">
-        <v>7851.23</v>
+        <v>8334.75</v>
       </c>
       <c r="H141" s="47" t="n">
-        <v>8005.379999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="I141" s="47" t="n">
-        <v>8074.429999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="J141" s="47" t="n">
-        <v>8074.429999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="K141" s="47" t="n">
-        <v>8074.429999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="L141" s="47" t="n">
         <v/>
@@ -20936,22 +20936,22 @@
         <v/>
       </c>
       <c r="E142" s="47" t="n">
-        <v>3.049999999999955</v>
+        <v/>
       </c>
       <c r="F142" s="47" t="n">
-        <v>8103.52</v>
+        <v/>
       </c>
       <c r="G142" s="47" t="n">
-        <v>8334.75</v>
+        <v>657.6399999999999</v>
       </c>
       <c r="H142" s="47" t="n">
-        <v>8871.27</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="I142" s="47" t="n">
-        <v>8871.27</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="J142" s="47" t="n">
-        <v>8871.27</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="K142" s="47" t="n">
         <v/>
@@ -21124,16 +21124,16 @@
         <v/>
       </c>
       <c r="F143" s="47" t="n">
-        <v/>
+        <v>34</v>
       </c>
       <c r="G143" s="47" t="n">
-        <v>657.6399999999999</v>
+        <v>44.0100000000001</v>
       </c>
       <c r="H143" s="47" t="n">
-        <v>657.6400000000001</v>
+        <v>44.0100000000001</v>
       </c>
       <c r="I143" s="47" t="n">
-        <v>657.6400000000001</v>
+        <v>474.0100000000001</v>
       </c>
       <c r="J143" s="47" t="n">
         <v/>
@@ -21306,16 +21306,16 @@
         <v/>
       </c>
       <c r="E144" s="47" t="n">
-        <v/>
+        <v>165</v>
       </c>
       <c r="F144" s="47" t="n">
-        <v>34</v>
+        <v>175.01</v>
       </c>
       <c r="G144" s="47" t="n">
-        <v>44.00999999999999</v>
+        <v>175.01</v>
       </c>
       <c r="H144" s="47" t="n">
-        <v>44.00999999999999</v>
+        <v>175.01</v>
       </c>
       <c r="I144" s="47" t="n">
         <v/>
@@ -21488,16 +21488,16 @@
         <v/>
       </c>
       <c r="D145" s="47" t="n">
-        <v/>
+        <v>58</v>
       </c>
       <c r="E145" s="47" t="n">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="F145" s="47" t="n">
-        <v>175.01</v>
+        <v>163</v>
       </c>
       <c r="G145" s="47" t="n">
-        <v>175.01</v>
+        <v>163</v>
       </c>
       <c r="H145" s="47" t="n">
         <v/>
@@ -21673,13 +21673,13 @@
         <v/>
       </c>
       <c r="D146" s="47" t="n">
-        <v>58</v>
+        <v/>
       </c>
       <c r="E146" s="47" t="n">
-        <v>63</v>
+        <v/>
       </c>
       <c r="F146" s="47" t="n">
-        <v>163</v>
+        <v/>
       </c>
       <c r="G146" s="47" t="n">
         <v/>
@@ -21852,16 +21852,16 @@
         <v/>
       </c>
       <c r="B147" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="C147" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="D147" s="47" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="E147" s="47" t="n">
-        <v/>
+        <v>3303</v>
       </c>
       <c r="F147" s="47" t="n">
         <v/>
@@ -22037,13 +22037,13 @@
         <v/>
       </c>
       <c r="B148" s="47" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="C148" s="47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D148" s="47" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E148" s="47" t="n">
         <v/>
@@ -22225,7 +22225,7 @@
         <v/>
       </c>
       <c r="C149" s="47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" s="47" t="n">
         <v/>
@@ -22874,61 +22874,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="n">
-        <v>0.03923869839568593</v>
+        <v>0.04152988318266548</v>
       </c>
       <c r="C2" s="60" t="n">
-        <v>0.03031527286914906</v>
+        <v>0.0350492573728274</v>
       </c>
       <c r="D2" s="60" t="n">
-        <v>0.01689765150399821</v>
+        <v>0.02336091987889535</v>
       </c>
       <c r="E2" s="60" t="n">
-        <v>0.01393157279530048</v>
+        <v>0.02021307248834047</v>
       </c>
       <c r="F2" s="60" t="n">
-        <v>0.008062844705954217</v>
+        <v>0.008584429701546733</v>
       </c>
       <c r="G2" s="60" t="n">
-        <v>0.003786475885017526</v>
+        <v>0.007835124183009622</v>
       </c>
       <c r="H2" s="60" t="n">
-        <v>0.003389289286925376</v>
+        <v>0.004611256340762525</v>
       </c>
       <c r="I2" s="60" t="n">
-        <v>0.005111896799630984</v>
+        <v>0.008403466349192479</v>
       </c>
       <c r="J2" s="60" t="n">
-        <v>0.03031527286914906</v>
+        <v>0.0350492573728274</v>
       </c>
       <c r="M2" s="35" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="47" t="n">
-        <v>9.093473187777198</v>
+        <v>9.291822304818988</v>
       </c>
       <c r="O2" s="47" t="n">
-        <v>11.48823391363714</v>
+        <v>11.91652212274035</v>
       </c>
       <c r="P2" s="47" t="n">
-        <v>17.48325636968386</v>
+        <v>17.66660353876955</v>
       </c>
       <c r="Q2" s="47" t="n">
-        <v>31.42634674508756</v>
+        <v>29.74868371057917</v>
       </c>
       <c r="R2" s="47" t="n">
-        <v>19.86007054753742</v>
+        <v>20.23902694344161</v>
       </c>
       <c r="S2" s="47" t="n">
-        <v>30.07235133164962</v>
+        <v>28.92648400499008</v>
       </c>
       <c r="T2" s="47" t="n">
-        <v>48.42902408035376</v>
+        <v>42.46595487729385</v>
       </c>
       <c r="U2" s="47" t="n">
-        <v>63.0890996901853</v>
+        <v>64.85666877948383</v>
       </c>
       <c r="V2" s="47" t="n">
-        <v>11.48823391363714</v>
+        <v>11.91652212274035</v>
       </c>
     </row>
     <row r="3">
@@ -22937,62 +22937,62 @@
         <v/>
       </c>
       <c r="B3" s="60" t="n">
-        <v>0.3568160517844462</v>
+        <v>0.3858882948732181</v>
       </c>
       <c r="C3" s="60" t="n">
-        <v>0.348268945876522</v>
+        <v>0.4176652508689181</v>
       </c>
       <c r="D3" s="60" t="n">
-        <v>0.2954259732899748</v>
+        <v>0.4127081098014044</v>
       </c>
       <c r="E3" s="60" t="n">
-        <v>0.4378184373695417</v>
+        <v>0.6013123002746501</v>
       </c>
       <c r="F3" s="60" t="n">
-        <v>0.1601286646740894</v>
+        <v>0.1737405040236847</v>
       </c>
       <c r="G3" s="60" t="n">
-        <v>0.113868233123066</v>
+        <v>0.2266425943569388</v>
       </c>
       <c r="H3" s="60" t="n">
-        <v>0.164139972491794</v>
+        <v>0.1958214036944566</v>
       </c>
       <c r="I3" s="60" t="n">
-        <v>0.3225049667978583</v>
+        <v>0.5450208336091148</v>
       </c>
       <c r="J3" s="60" t="n">
-        <v>0.348268945876522</v>
+        <v>0.4176652508689181</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="47" t="n">
-        <v>1.419562316101707</v>
+        <v>1.451030813801065</v>
       </c>
       <c r="O3" s="47" t="n">
-        <v>1.546632489586671</v>
+        <v>1.541565227666477</v>
       </c>
       <c r="P3" s="47" t="n">
-        <v>1.956983906011609</v>
+        <v>1.890438980207642</v>
       </c>
       <c r="Q3" s="47" t="n">
-        <v>2.072879584773377</v>
+        <v>1.599892386447498</v>
       </c>
       <c r="R3" s="47" t="n">
-        <v>1.634357528412611</v>
+        <v>1.658604370183027</v>
       </c>
       <c r="S3" s="47" t="n">
-        <v>1.766931248420338</v>
+        <v>1.745015460366707</v>
       </c>
       <c r="T3" s="47" t="n">
-        <v>2.209885427388718</v>
+        <v>2.278709154899</v>
       </c>
       <c r="U3" s="47" t="n">
-        <v>2.623475266950409</v>
+        <v>1.756541604978682</v>
       </c>
       <c r="V3" s="47" t="n">
-        <v>1.546632489586671</v>
+        <v>1.541565227666477</v>
       </c>
     </row>
     <row r="4">
@@ -23001,62 +23001,62 @@
         <v/>
       </c>
       <c r="B4" s="60" t="n">
-        <v>0.5065226208933949</v>
+        <v>0.5599358065461909</v>
       </c>
       <c r="C4" s="60" t="n">
-        <v>0.5386440668067308</v>
+        <v>0.64385822754412</v>
       </c>
       <c r="D4" s="60" t="n">
-        <v>0.5781438751462961</v>
+        <v>0.7801994982163905</v>
       </c>
       <c r="E4" s="60" t="n">
-        <v>0.9075449006607044</v>
+        <v>0.9620349710866443</v>
       </c>
       <c r="F4" s="60" t="n">
-        <v>0.2617074886247564</v>
+        <v>0.2881667592514854</v>
       </c>
       <c r="G4" s="60" t="n">
-        <v>0.2011973393075571</v>
+        <v>0.3954948311304785</v>
       </c>
       <c r="H4" s="60" t="n">
-        <v>0.3627305332616007</v>
+        <v>0.446220025323731</v>
       </c>
       <c r="I4" s="60" t="n">
-        <v>0.8460838038628443</v>
+        <v>0.9573517698145735</v>
       </c>
       <c r="J4" s="60" t="n">
-        <v>0.5386440668067308</v>
+        <v>0.64385822754412</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="47" t="n">
-        <v>1.185944258195833</v>
+        <v>1.153223583479828</v>
       </c>
       <c r="O4" s="47" t="n">
-        <v>1.263171565180209</v>
+        <v>1.188417924732275</v>
       </c>
       <c r="P4" s="47" t="n">
-        <v>1.365753666397318</v>
+        <v>1.21021803770333</v>
       </c>
       <c r="Q4" s="47" t="n">
-        <v>1.058754155645612</v>
+        <v>1.013409877211194</v>
       </c>
       <c r="R4" s="47" t="n">
-        <v>1.396404869377889</v>
+        <v>1.396881399125057</v>
       </c>
       <c r="S4" s="47" t="n">
-        <v>1.708482086719309</v>
+        <v>1.650236129071314</v>
       </c>
       <c r="T4" s="47" t="n">
-        <v>2.117274339769516</v>
+        <v>2.109143452114989</v>
       </c>
       <c r="U4" s="47" t="n">
-        <v>1.134243716914173</v>
+        <v>1.010868383097934</v>
       </c>
       <c r="V4" s="47" t="n">
-        <v>1.263171565180209</v>
+        <v>1.188417924732275</v>
       </c>
     </row>
     <row r="5">
@@ -23065,62 +23065,62 @@
         <v/>
       </c>
       <c r="B5" s="60" t="n">
-        <v>0.6007075938948264</v>
+        <v>0.6457311773438661</v>
       </c>
       <c r="C5" s="60" t="n">
-        <v>0.6803998689432913</v>
+        <v>0.7651726585997838</v>
       </c>
       <c r="D5" s="60" t="n">
-        <v>0.7896021171862068</v>
+        <v>0.9442115057485631</v>
       </c>
       <c r="E5" s="60" t="n">
-        <v>0.9608669350095046</v>
+        <v>0.9749357419217903</v>
       </c>
       <c r="F5" s="60" t="n">
-        <v>0.3654496114682684</v>
+        <v>0.4025347858445484</v>
       </c>
       <c r="G5" s="60" t="n">
-        <v>0.343742050102548</v>
+        <v>0.6526598591924739</v>
       </c>
       <c r="H5" s="60" t="n">
-        <v>0.7680000503257</v>
+        <v>0.9411420446141318</v>
       </c>
       <c r="I5" s="60" t="n">
-        <v>0.9596652385142744</v>
+        <v>0.9677566356084033</v>
       </c>
       <c r="J5" s="60" t="n">
-        <v>0.6803998689432913</v>
+        <v>0.7651726585997838</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="47" t="n">
-        <v>1.24655838565236</v>
+        <v>1.249164353264823</v>
       </c>
       <c r="O5" s="47" t="n">
-        <v>1.218034323571907</v>
+        <v>1.131179750074049</v>
       </c>
       <c r="P5" s="47" t="n">
-        <v>1.179949456586398</v>
+        <v>1.004159225714841</v>
       </c>
       <c r="Q5" s="47" t="n">
-        <v>1</v>
+        <v>1.001205586955824</v>
       </c>
       <c r="R5" s="47" t="n">
-        <v>1.784271656750985</v>
+        <v>1.784627977032789</v>
       </c>
       <c r="S5" s="47" t="n">
-        <v>2.081345358587539</v>
+        <v>1.16915422746312</v>
       </c>
       <c r="T5" s="47" t="n">
-        <v>1.223052785856892</v>
+        <v>1.006597990682939</v>
       </c>
       <c r="U5" s="47" t="n">
-        <v>1</v>
+        <v>1.002375468545364</v>
       </c>
       <c r="V5" s="47" t="n">
-        <v>1.218034323571907</v>
+        <v>1.131179750074049</v>
       </c>
     </row>
     <row r="6">
@@ -23129,62 +23129,62 @@
         <v/>
       </c>
       <c r="B6" s="60" t="n">
-        <v>0.7488170884946481</v>
+        <v>0.8066243685296834</v>
       </c>
       <c r="C6" s="60" t="n">
-        <v>0.8287503941267559</v>
+        <v>0.8655478167183991</v>
       </c>
       <c r="D6" s="60" t="n">
-        <v>0.9316905890933338</v>
+        <v>0.9481386945235215</v>
       </c>
       <c r="E6" s="60" t="n">
-        <v>0.9608669350095046</v>
+        <v>0.976111111735018</v>
       </c>
       <c r="F6" s="60" t="n">
-        <v>0.6520613837134909</v>
+        <v>0.7183748405470837</v>
       </c>
       <c r="G6" s="60" t="n">
-        <v>0.7154459205323036</v>
+        <v>0.7630600334703658</v>
       </c>
       <c r="H6" s="60" t="n">
-        <v>0.9393046010890802</v>
+        <v>0.9473516910558174</v>
       </c>
       <c r="I6" s="60" t="n">
-        <v>0.9596652385142744</v>
+        <v>0.9700555110558586</v>
       </c>
       <c r="J6" s="60" t="n">
-        <v>0.8287503941267559</v>
+        <v>0.8655478167183991</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="47" t="n">
-        <v>1.130665512146175</v>
+        <v>1.118980105141574</v>
       </c>
       <c r="O6" s="47" t="n">
-        <v>1.054179295415477</v>
+        <v>1.030733569107422</v>
       </c>
       <c r="P6" s="47" t="n">
-        <v>1.032358491626334</v>
+        <v>1.013105410580059</v>
       </c>
       <c r="Q6" s="47" t="n">
-        <v>1.011005277610765</v>
+        <v>1.007141944434303</v>
       </c>
       <c r="R6" s="47" t="n">
         <v>1.110572549666736</v>
       </c>
       <c r="S6" s="47" t="n">
-        <v>1.038535604761946</v>
+        <v>1.025070215956481</v>
       </c>
       <c r="T6" s="47" t="n">
-        <v>1.021775577665774</v>
+        <v>1.012961823198263</v>
       </c>
       <c r="U6" s="47" t="n">
         <v>1.013770832233426</v>
       </c>
       <c r="V6" s="47" t="n">
-        <v>1.054179295415477</v>
+        <v>1.030733569107422</v>
       </c>
     </row>
     <row r="7">
@@ -23193,53 +23193,53 @@
         <v/>
       </c>
       <c r="B7" s="60" t="n">
-        <v>0.8466616568666092</v>
+        <v>0.9025966207071008</v>
       </c>
       <c r="C7" s="60" t="n">
-        <v>0.8736515065558426</v>
+        <v>0.8921491903592926</v>
       </c>
       <c r="D7" s="60" t="n">
-        <v>0.9618386912188441</v>
+        <v>0.9605644414020938</v>
       </c>
       <c r="E7" s="60" t="n">
-        <v>0.9714415423762889</v>
+        <v>0.9830824430567354</v>
       </c>
       <c r="F7" s="60" t="n">
-        <v>0.7241614734499117</v>
+        <v>0.7978073782828097</v>
       </c>
       <c r="G7" s="60" t="n">
-        <v>0.7430160617544829</v>
+        <v>0.7821901132972274</v>
       </c>
       <c r="H7" s="60" t="n">
-        <v>0.9597585013819139</v>
+        <v>0.9596310961818588</v>
       </c>
       <c r="I7" s="60" t="n">
-        <v>0.9728806275141058</v>
+        <v>0.9834139827557196</v>
       </c>
       <c r="J7" s="60" t="n">
-        <v>0.8736515065558426</v>
+        <v>0.8921491903592926</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="47" t="n">
-        <v>1.018296053700251</v>
+        <v>1.018522896800817</v>
       </c>
       <c r="O7" s="47" t="n">
-        <v>1.024740551361857</v>
+        <v>1.013442280300278</v>
       </c>
       <c r="P7" s="47" t="n">
-        <v>1.019362717121701</v>
+        <v>1.021154144971313</v>
       </c>
       <c r="Q7" s="47" t="n">
-        <v>1.002321130163858</v>
+        <v>1.002458796893639</v>
       </c>
       <c r="R7" s="47" t="n">
         <v>1.036556982886942</v>
       </c>
       <c r="S7" s="47" t="n">
-        <v>1.054835474330413</v>
+        <v>1.008931601417611</v>
       </c>
       <c r="T7" s="47" t="n">
         <v>1.013749606878254</v>
@@ -23248,7 +23248,7 @@
         <v>1.001623417627055</v>
       </c>
       <c r="V7" s="47" t="n">
-        <v>1.024740551361857</v>
+        <v>1.013442280300278</v>
       </c>
     </row>
     <row r="8">
@@ -23257,50 +23257,50 @@
         <v/>
       </c>
       <c r="B8" s="60" t="n">
-        <v>0.8621522240065845</v>
+        <v>0.9193153247652245</v>
       </c>
       <c r="C8" s="60" t="n">
-        <v>0.8952661265261516</v>
+        <v>0.9041417098457686</v>
       </c>
       <c r="D8" s="60" t="n">
-        <v>0.9804625017136213</v>
+        <v>0.9808843608498021</v>
       </c>
       <c r="E8" s="60" t="n">
-        <v>0.9736963846427231</v>
+        <v>0.9854996431139142</v>
       </c>
       <c r="F8" s="60" t="n">
-        <v>0.7506346320422025</v>
+        <v>0.8269728089577703</v>
       </c>
       <c r="G8" s="60" t="n">
-        <v>0.7837596999359052</v>
+        <v>0.7891763236219944</v>
       </c>
       <c r="H8" s="60" t="n">
-        <v>0.9729548034739771</v>
+        <v>0.9728256465025075</v>
       </c>
       <c r="I8" s="60" t="n">
-        <v>0.9744600190738324</v>
+        <v>0.9850104743500173</v>
       </c>
       <c r="J8" s="60" t="n">
-        <v>0.8952661265261516</v>
+        <v>0.9041417098457686</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="47" t="n">
-        <v>1.083765384433554</v>
+        <v>1.013096509050406</v>
       </c>
       <c r="O8" s="47" t="n">
-        <v>1.015822786664237</v>
+        <v>1.015354831006456</v>
       </c>
       <c r="P8" s="47" t="n">
-        <v>1.017162033566082</v>
+        <v>1.016620336139233</v>
       </c>
       <c r="Q8" s="47" t="n">
-        <v>1.027014186118118</v>
+        <v>1.01417949557812</v>
       </c>
       <c r="R8" s="47" t="n">
-        <v>1.11991983846335</v>
+        <v>1.016477323275972</v>
       </c>
       <c r="S8" s="47" t="n">
         <v>1.018712025280361</v>
@@ -23309,10 +23309,10 @@
         <v>1.017139482202698</v>
       </c>
       <c r="U8" s="47" t="n">
-        <v>1.026209367676718</v>
+        <v>1.014948132008941</v>
       </c>
       <c r="V8" s="47" t="n">
-        <v>1.015822786664237</v>
+        <v>1.015354831006456</v>
       </c>
     </row>
     <row r="9">
@@ -23321,44 +23321,44 @@
         <v/>
       </c>
       <c r="B9" s="60" t="n">
-        <v>0.9343707364907393</v>
+        <v>0.9313551462361894</v>
       </c>
       <c r="C9" s="60" t="n">
-        <v>0.909431731453893</v>
+        <v>0.9180246530063385</v>
       </c>
       <c r="D9" s="60" t="n">
-        <v>0.9972892320783152</v>
+        <v>0.9971869886408431</v>
       </c>
       <c r="E9" s="60" t="n">
-        <v>1</v>
+        <v>0.9994735309456865</v>
       </c>
       <c r="F9" s="60" t="n">
-        <v>0.8406506158616998</v>
+        <v>0.8405991072714057</v>
       </c>
       <c r="G9" s="60" t="n">
-        <v>0.7984254312548345</v>
+        <v>0.8039434109402718</v>
       </c>
       <c r="H9" s="60" t="n">
-        <v>0.9896307450121488</v>
+        <v>0.989499374357065</v>
       </c>
       <c r="I9" s="60" t="n">
-        <v>1</v>
+        <v>0.9997345409507914</v>
       </c>
       <c r="J9" s="60" t="n">
-        <v>0.909431731453893</v>
+        <v>0.9180246530063385</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="47" t="n">
-        <v>1.067018305792897</v>
+        <v>1.07021602403637</v>
       </c>
       <c r="O9" s="47" t="n">
-        <v>1.095672156355898</v>
+        <v>1.088418690898814</v>
       </c>
       <c r="P9" s="47" t="n">
-        <v>1.002718136157989</v>
+        <v>1.002460229892109</v>
       </c>
       <c r="Q9" s="47" t="n">
         <v>1</v>
@@ -23367,7 +23367,7 @@
         <v>1.186304573977216</v>
       </c>
       <c r="S9" s="47" t="n">
-        <v>1.248406098636287</v>
+        <v>1.24329286913396</v>
       </c>
       <c r="T9" s="47" t="n">
         <v>1.010477903036171</v>
@@ -23376,7 +23376,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="47" t="n">
-        <v>1.095672156355898</v>
+        <v>1.088418690898814</v>
       </c>
     </row>
     <row r="10">
@@ -23385,41 +23385,41 @@
         <v/>
       </c>
       <c r="B10" s="60" t="n">
-        <v>0.9969906802328103</v>
+        <v>0.9967512015707061</v>
       </c>
       <c r="C10" s="60" t="n">
-        <v>0.9964390262605646</v>
+        <v>0.9991951910379967</v>
       </c>
       <c r="D10" s="60" t="n">
-        <v>1</v>
+        <v>0.9996402978783194</v>
       </c>
       <c r="E10" s="60" t="n">
-        <v>1</v>
+        <v>0.9994735309456865</v>
       </c>
       <c r="F10" s="60" t="n">
-        <v>0.9972676707134976</v>
+        <v>0.9972065658372326</v>
       </c>
       <c r="G10" s="60" t="n">
-        <v>0.9967591776848431</v>
+        <v>0.9995371100092727</v>
       </c>
       <c r="H10" s="60" t="n">
-        <v>1</v>
+        <v>0.9998672528559304</v>
       </c>
       <c r="I10" s="60" t="n">
-        <v>1</v>
+        <v>0.9997345409507914</v>
       </c>
       <c r="J10" s="60" t="n">
-        <v>0.9964390262605646</v>
+        <v>0.9991951910379967</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="47" t="n">
-        <v>1.001141968984422</v>
+        <v>1.001229120197376</v>
       </c>
       <c r="O10" s="47" t="n">
-        <v>1.001382588859823</v>
+        <v>1</v>
       </c>
       <c r="P10" s="47" t="n">
         <v>1</v>
@@ -23431,7 +23431,7 @@
         <v>1.000654125679443</v>
       </c>
       <c r="S10" s="47" t="n">
-        <v>1.000817657099303</v>
+        <v>1</v>
       </c>
       <c r="T10" s="47" t="n">
         <v>1</v>
@@ -23440,7 +23440,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="47" t="n">
-        <v>1.001382588859823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -23449,41 +23449,41 @@
         <v/>
       </c>
       <c r="B11" s="60" t="n">
-        <v>0.9981292126673941</v>
+        <v>0.997976328604316</v>
       </c>
       <c r="C11" s="60" t="n">
-        <v>0.9978166917577652</v>
+        <v>0.9991951910379967</v>
       </c>
       <c r="D11" s="60" t="n">
-        <v>1</v>
+        <v>0.9996402978783194</v>
       </c>
       <c r="E11" s="60" t="n">
-        <v>1</v>
+        <v>0.9994735309456865</v>
       </c>
       <c r="F11" s="60" t="n">
-        <v>0.9979200091061893</v>
+        <v>0.9978588642596555</v>
       </c>
       <c r="G11" s="60" t="n">
-        <v>0.9975741849027727</v>
+        <v>0.9995371100092727</v>
       </c>
       <c r="H11" s="60" t="n">
-        <v>1</v>
+        <v>0.9998672528559304</v>
       </c>
       <c r="I11" s="60" t="n">
-        <v>1</v>
+        <v>0.9997345409507914</v>
       </c>
       <c r="J11" s="60" t="n">
-        <v>0.9978166917577652</v>
+        <v>0.9991951910379967</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="47" t="n">
-        <v>1.001874293737588</v>
+        <v>1.001857374646975</v>
       </c>
       <c r="O11" s="47" t="n">
-        <v>1.002188085507358</v>
+        <v>1.000630419873735</v>
       </c>
       <c r="P11" s="47" t="n">
         <v>1</v>
@@ -23495,7 +23495,7 @@
         <v>1.002084326273479</v>
       </c>
       <c r="S11" s="47" t="n">
-        <v>1.002431713985726</v>
+        <v>1.00039669563939</v>
       </c>
       <c r="T11" s="47" t="n">
         <v>1</v>
@@ -23504,7 +23504,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="47" t="n">
-        <v>1.002188085507358</v>
+        <v>1.000630419873735</v>
       </c>
     </row>
     <row r="12">
@@ -23513,62 +23513,62 @@
         <v/>
       </c>
       <c r="B12" s="60" t="n">
-        <v>1</v>
+        <v>0.9998299445353472</v>
       </c>
       <c r="C12" s="60" t="n">
-        <v>1</v>
+        <v>0.9998251035441672</v>
       </c>
       <c r="D12" s="60" t="n">
-        <v>1</v>
+        <v>0.9996402978783194</v>
       </c>
       <c r="E12" s="60" t="n">
-        <v>1</v>
+        <v>0.9994735309456865</v>
       </c>
       <c r="F12" s="60" t="n">
-        <v>1</v>
+        <v>0.9999387277076559</v>
       </c>
       <c r="G12" s="60" t="n">
-        <v>1</v>
+        <v>0.9999336220222217</v>
       </c>
       <c r="H12" s="60" t="n">
-        <v>1</v>
+        <v>0.9998672528559304</v>
       </c>
       <c r="I12" s="60" t="n">
-        <v>1</v>
+        <v>0.9997345409507914</v>
       </c>
       <c r="J12" s="60" t="n">
-        <v>1</v>
+        <v>0.9998251035441672</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="47" t="n">
-        <v>1</v>
+        <v>1.000170084388432</v>
       </c>
       <c r="O12" s="47" t="n">
-        <v>1</v>
+        <v>1.000174927049954</v>
       </c>
       <c r="P12" s="47" t="n">
-        <v>1</v>
+        <v>1.000359831553854</v>
       </c>
       <c r="Q12" s="47" t="n">
-        <v>1</v>
+        <v>1.000526746369977</v>
       </c>
       <c r="R12" s="47" t="n">
-        <v>1</v>
+        <v>1.000061276046868</v>
       </c>
       <c r="S12" s="47" t="n">
-        <v>1</v>
+        <v>1.000066382384107</v>
       </c>
       <c r="T12" s="47" t="n">
-        <v>1</v>
+        <v>1.000132764768213</v>
       </c>
       <c r="U12" s="47" t="n">
-        <v>1</v>
+        <v>1.000265529536427</v>
       </c>
       <c r="V12" s="47" t="n">
-        <v>1</v>
+        <v>1.000174927049954</v>
       </c>
     </row>
     <row r="13">
@@ -24446,31 +24446,31 @@
         <v>1</v>
       </c>
       <c r="B56" s="60" t="n">
-        <v>0.003211861482408758</v>
+        <v>0.003117004594208244</v>
       </c>
       <c r="C56" s="60" t="n">
-        <v>0.04740046599618341</v>
+        <v>0.000215202404802298</v>
       </c>
       <c r="D56" s="60" t="n">
-        <v>0.003918878779868573</v>
+        <v>1.362380426228378e-05</v>
       </c>
       <c r="E56" s="60" t="n">
-        <v>0.504722660010146</v>
+        <v>0.001918718773424777</v>
       </c>
       <c r="F56" s="60" t="n">
-        <v>2.296627639169194e-15</v>
+        <v>5.089468700317569e-17</v>
       </c>
       <c r="G56" s="60" t="n">
-        <v>1.341483757578782e-13</v>
+        <v>8.973623614443646e-17</v>
       </c>
       <c r="H56" s="60" t="n">
-        <v>1.263191503721968e-13</v>
+        <v>5.034438924029864e-17</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>0.3935497972345096</v>
+        <v>4.391996565548647e-05</v>
       </c>
       <c r="J56" s="60" t="n">
-        <v>0.0182987193490968</v>
+        <v>0.02483222881628207</v>
       </c>
       <c r="M56" s="35" t="n">
         <v>1</v>
@@ -24509,62 +24509,62 @@
         <v/>
       </c>
       <c r="B57" s="60" t="n">
-        <v>0.003211861482408758</v>
+        <v>0.003117004594208244</v>
       </c>
       <c r="C57" s="60" t="n">
-        <v>0.04740046599618341</v>
+        <v>0.000215202404802298</v>
       </c>
       <c r="D57" s="60" t="n">
-        <v>0.003918878779868573</v>
+        <v>1.362380426228378e-05</v>
       </c>
       <c r="E57" s="60" t="n">
-        <v>0.504722660010146</v>
+        <v>0.001918718773424777</v>
       </c>
       <c r="F57" s="60" t="n">
-        <v>2.296627639169194e-15</v>
+        <v>5.089468700317569e-17</v>
       </c>
       <c r="G57" s="60" t="n">
-        <v>1.341483757578782e-13</v>
+        <v>8.973623614443646e-17</v>
       </c>
       <c r="H57" s="60" t="n">
-        <v>1.263191503721968e-13</v>
+        <v>5.034438924029864e-17</v>
       </c>
       <c r="I57" s="60" t="n">
-        <v>0.3935497972345096</v>
+        <v>4.391996565548647e-05</v>
       </c>
       <c r="J57" s="60" t="n">
-        <v>0.3512741245233649</v>
+        <v>0.4629407274999575</v>
       </c>
       <c r="M57">
         <f>+M56+1</f>
         <v/>
       </c>
       <c r="N57" s="47" t="n">
-        <v>66.17248803827752</v>
+        <v>65.48959810874706</v>
       </c>
       <c r="O57" s="47" t="n">
-        <v>1</v>
+        <v>5.625</v>
       </c>
       <c r="P57" s="47" t="n">
-        <v>1</v>
+        <v>5.625</v>
       </c>
       <c r="Q57" s="47" t="n">
-        <v>1</v>
+        <v>5.625</v>
       </c>
       <c r="R57" s="47" t="n">
-        <v>128.8266883116883</v>
+        <v>104.7413506493507</v>
       </c>
       <c r="S57" s="47" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="T57" s="47" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="U57" s="47" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="V57" s="47" t="n">
-        <v>1</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="58">
@@ -24573,62 +24573,62 @@
         <v/>
       </c>
       <c r="B58" s="60" t="n">
-        <v>0.2125368655252979</v>
+        <v>0.2041313781778161</v>
       </c>
       <c r="C58" s="60" t="n">
-        <v>0.04740046599618341</v>
+        <v>0.001210513527012926</v>
       </c>
       <c r="D58" s="60" t="n">
-        <v>0.003918878779868573</v>
+        <v>7.663389897534627e-05</v>
       </c>
       <c r="E58" s="60" t="n">
-        <v>0.504722660010146</v>
+        <v>0.01079279310051437</v>
       </c>
       <c r="F58" s="60" t="n">
-        <v>2.958669330392584e-13</v>
+        <v>5.330778257588574e-15</v>
       </c>
       <c r="G58" s="60" t="n">
-        <v>1.341483757578782e-13</v>
+        <v>4.217603098788514e-16</v>
       </c>
       <c r="H58" s="60" t="n">
-        <v>1.263191503721968e-13</v>
+        <v>2.366186294294036e-16</v>
       </c>
       <c r="I58" s="60" t="n">
-        <v>0.3935497972345096</v>
+        <v>0.0002064238385807864</v>
       </c>
       <c r="J58" s="60" t="n">
-        <v>0.6399234619279708</v>
+        <v>0.774328699987835</v>
       </c>
       <c r="M58">
         <f>+M57+1</f>
         <v/>
       </c>
       <c r="N58" s="47" t="n">
-        <v>1.003426444516248</v>
+        <v>1.115243670971037</v>
       </c>
       <c r="O58" s="47" t="n">
-        <v>1.059509640561771</v>
+        <v>38.97977476442188</v>
       </c>
       <c r="P58" s="47" t="n">
-        <v>1.086206896551724</v>
+        <v>55.18032786885246</v>
       </c>
       <c r="Q58" s="47" t="n">
-        <v>1.086206896551724</v>
+        <v>55.18032786885246</v>
       </c>
       <c r="R58" s="47" t="n">
-        <v>1.425395292829776</v>
+        <v>111.4115064039409</v>
       </c>
       <c r="S58" s="47" t="n">
-        <v>1.028735632183908</v>
+        <v>276.0215517241379</v>
       </c>
       <c r="T58" s="47" t="n">
-        <v>1.086206896551724</v>
+        <v>551.0431034482758</v>
       </c>
       <c r="U58" s="47" t="n">
-        <v>1.086206896551724</v>
+        <v>551.0431034482758</v>
       </c>
       <c r="V58" s="47" t="n">
-        <v>1.07730781122174</v>
+        <v>49.78014350070893</v>
       </c>
     </row>
     <row r="59">
@@ -24637,41 +24637,41 @@
         <v/>
       </c>
       <c r="B59" s="60" t="n">
-        <v>0.2132651113026776</v>
+        <v>0.2276562275594048</v>
       </c>
       <c r="C59" s="60" t="n">
-        <v>0.05022125069007673</v>
+        <v>0.04718554463224979</v>
       </c>
       <c r="D59" s="60" t="n">
-        <v>0.00425671315744345</v>
+        <v>0.004228683671328123</v>
       </c>
       <c r="E59" s="60" t="n">
-        <v>0.5482332341489518</v>
+        <v>0.5955498619070715</v>
       </c>
       <c r="F59" s="60" t="n">
-        <v>4.217273336581414e-13</v>
+        <v>5.939100359833183e-13</v>
       </c>
       <c r="G59" s="60" t="n">
-        <v>1.380032141417252e-13</v>
+        <v>1.164149351884138e-13</v>
       </c>
       <c r="H59" s="60" t="n">
-        <v>1.372087323008344e-13</v>
+        <v>1.303870638944561e-13</v>
       </c>
       <c r="I59" s="60" t="n">
-        <v>0.427476503892657</v>
+        <v>0.1137484326372625</v>
       </c>
       <c r="J59" s="60" t="n">
-        <v>0.7942997991319294</v>
+        <v>0.8845153344327147</v>
       </c>
       <c r="M59">
         <f>+M58+1</f>
         <v/>
       </c>
       <c r="N59" s="47" t="n">
-        <v>1.411159134026791</v>
+        <v>1.412240247705022</v>
       </c>
       <c r="O59" s="47" t="n">
-        <v>5.825946911809654</v>
+        <v>5.84305525243171</v>
       </c>
       <c r="P59" s="47" t="n">
         <v>36.53551179398399</v>
@@ -24680,10 +24680,10 @@
         <v>1.4825</v>
       </c>
       <c r="R59" s="47" t="n">
-        <v>170.3068004511541</v>
+        <v>181.5939204812311</v>
       </c>
       <c r="S59" s="47" t="n">
-        <v>296.2821968369663</v>
+        <v>333.1924714415871</v>
       </c>
       <c r="T59" s="47" t="n">
         <v>886.8465905108989</v>
@@ -24692,7 +24692,7 @@
         <v>1.823984126984127</v>
       </c>
       <c r="V59" s="47" t="n">
-        <v>14.61465290193122</v>
+        <v>14.62035568213857</v>
       </c>
     </row>
     <row r="60">
@@ -24701,62 +24701,62 @@
         <v/>
       </c>
       <c r="B60" s="60" t="n">
-        <v>0.3009510097840137</v>
+        <v>0.3215052872000846</v>
       </c>
       <c r="C60" s="60" t="n">
-        <v>0.2925863403650709</v>
+        <v>0.275707744402318</v>
       </c>
       <c r="D60" s="60" t="n">
-        <v>0.155521193767382</v>
+        <v>0.1544971221468362</v>
       </c>
       <c r="E60" s="60" t="n">
-        <v>0.8127557696258209</v>
+        <v>0.8829026702772333</v>
       </c>
       <c r="F60" s="60" t="n">
-        <v>7.182303285811438e-11</v>
+        <v>1.078504518473598e-10</v>
       </c>
       <c r="G60" s="60" t="n">
-        <v>4.088789545647265e-11</v>
+        <v>3.878857996813979e-11</v>
       </c>
       <c r="H60" s="60" t="n">
-        <v>1.216830964293177e-10</v>
+        <v>1.156333230615251e-10</v>
       </c>
       <c r="I60" s="60" t="n">
-        <v>0.7797103577588749</v>
+        <v>0.20747533559969</v>
       </c>
       <c r="J60" s="60" t="n">
-        <v>0.9034292936277302</v>
+        <v>0.9274977419598238</v>
       </c>
       <c r="M60">
         <f>+M59+1</f>
         <v/>
       </c>
       <c r="N60" s="47" t="n">
-        <v>1.041359818831446</v>
+        <v>1.02120457697595</v>
       </c>
       <c r="O60" s="47" t="n">
-        <v>1.026096611331077</v>
+        <v>1.02630255987452</v>
       </c>
       <c r="P60" s="47" t="n">
-        <v>1.026888462218422</v>
+        <v>1.02846311676084</v>
       </c>
       <c r="Q60" s="47" t="n">
-        <v>1.047892445337544</v>
+        <v>1.026907878820462</v>
       </c>
       <c r="R60" s="47" t="n">
-        <v>1.835215393607869</v>
+        <v>1.16067271068104</v>
       </c>
       <c r="S60" s="47" t="n">
-        <v>1.033731922646298</v>
+        <v>1.033731922646299</v>
       </c>
       <c r="T60" s="47" t="n">
-        <v>1.084329806615746</v>
+        <v>1.080736569525633</v>
       </c>
       <c r="U60" s="47" t="n">
-        <v>1.147205882352941</v>
+        <v>1.098137254901962</v>
       </c>
       <c r="V60" s="47" t="n">
-        <v>1.033625839629014</v>
+        <v>1.027224518485274</v>
       </c>
     </row>
     <row r="61">
@@ -24765,47 +24765,47 @@
         <v/>
       </c>
       <c r="B61" s="60" t="n">
-        <v>0.3133982890258213</v>
+        <v>0.3283226708106937</v>
       </c>
       <c r="C61" s="60" t="n">
-        <v>0.3002218523703604</v>
+        <v>0.2829595638573288</v>
       </c>
       <c r="D61" s="60" t="n">
-        <v>0.1597029195101601</v>
+        <v>0.1588945917737153</v>
       </c>
       <c r="E61" s="60" t="n">
-        <v>0.8516806308953987</v>
+        <v>0.9066597083393155</v>
       </c>
       <c r="F61" s="60" t="n">
-        <v>1.318107355168153e-10</v>
+        <v>1.2517907629385e-10</v>
       </c>
       <c r="G61" s="60" t="n">
-        <v>4.226712278318032e-11</v>
+        <v>4.009699334718485e-11</v>
       </c>
       <c r="H61" s="60" t="n">
-        <v>1.319446084196071e-10</v>
+        <v>1.24969160888362e-10</v>
       </c>
       <c r="I61" s="60" t="n">
-        <v>0.8944883089524972</v>
+        <v>0.2278363954953069</v>
       </c>
       <c r="J61" s="60" t="n">
-        <v>0.9335050210180217</v>
+        <v>0.9436478615061408</v>
       </c>
       <c r="M61">
         <f>+M60+1</f>
         <v/>
       </c>
       <c r="N61" s="47" t="n">
-        <v>1.069767313014275</v>
+        <v>1.070802907122104</v>
       </c>
       <c r="O61" s="47" t="n">
-        <v>1.082671621164723</v>
+        <v>1.201000172388474</v>
       </c>
       <c r="P61" s="47" t="n">
-        <v>1.037643718098602</v>
+        <v>1.037334421648094</v>
       </c>
       <c r="Q61" s="47" t="n">
-        <v>1.059373201717498</v>
+        <v>1</v>
       </c>
       <c r="R61" s="47" t="n">
         <v>60.80397107174845</v>
@@ -24817,10 +24817,10 @@
         <v>1.014000887189709</v>
       </c>
       <c r="U61" s="47" t="n">
-        <v>1.021457152284112</v>
+        <v>1</v>
       </c>
       <c r="V61" s="47" t="n">
-        <v>1.059896180326941</v>
+        <v>1.079444864678856</v>
       </c>
     </row>
     <row r="62">
@@ -24829,62 +24829,62 @@
         <v/>
       </c>
       <c r="B62" s="60" t="n">
-        <v>0.335263245554424</v>
+        <v>0.3515688703781844</v>
       </c>
       <c r="C62" s="60" t="n">
-        <v>0.3250416796148942</v>
+        <v>0.3398344849716193</v>
       </c>
       <c r="D62" s="60" t="n">
-        <v>0.1657147311917243</v>
+        <v>0.164826829460597</v>
       </c>
       <c r="E62" s="60" t="n">
-        <v>0.9022476367924374</v>
+        <v>0.9066597083393158</v>
       </c>
       <c r="F62" s="60" t="n">
-        <v>8.014616149310323e-09</v>
+        <v>7.611384933759449e-09</v>
       </c>
       <c r="G62" s="60" t="n">
-        <v>3.623234656082601e-09</v>
+        <v>3.43720618612929e-09</v>
       </c>
       <c r="H62" s="60" t="n">
-        <v>1.337919499973804e-10</v>
+        <v>1.267188400121526e-10</v>
       </c>
       <c r="I62" s="60" t="n">
-        <v>0.9136814808140483</v>
+        <v>0.2278363954953069</v>
       </c>
       <c r="J62" s="60" t="n">
-        <v>0.9481886621503157</v>
+        <v>0.9553461068873154</v>
       </c>
       <c r="M62">
         <f>+M61+1</f>
         <v/>
       </c>
       <c r="N62" s="47" t="n">
-        <v>1.068593139891285</v>
+        <v>1.077254005540867</v>
       </c>
       <c r="O62" s="47" t="n">
-        <v>1.077602267141617</v>
+        <v>1.088820704375667</v>
       </c>
       <c r="P62" s="47" t="n">
-        <v>1.208676848507308</v>
+        <v>1.230813594968437</v>
       </c>
       <c r="Q62" s="47" t="n">
-        <v>1.003937998059802</v>
+        <v>1.04491837391308</v>
       </c>
       <c r="R62" s="47" t="n">
-        <v>11.58092541542961</v>
+        <v>12.19158208436838</v>
       </c>
       <c r="S62" s="47" t="n">
-        <v>15.10773747497594</v>
+        <v>15.92194636689431</v>
       </c>
       <c r="T62" s="47" t="n">
-        <v>29.21547494995189</v>
+        <v>30.84389273378861</v>
       </c>
       <c r="U62" s="47" t="n">
-        <v>1.002875149795096</v>
+        <v>4.256835567674006</v>
       </c>
       <c r="V62" s="47" t="n">
-        <v>1.096739037902909</v>
+        <v>1.121517557752395</v>
       </c>
     </row>
     <row r="63">
@@ -24893,44 +24893,44 @@
         <v/>
       </c>
       <c r="B63" s="60" t="n">
-        <v>0.3582600042571449</v>
+        <v>0.3787289738383769</v>
       </c>
       <c r="C63" s="60" t="n">
-        <v>0.3502656508685292</v>
+        <v>0.3700188232979406</v>
       </c>
       <c r="D63" s="60" t="n">
-        <v>0.200295559048049</v>
+        <v>0.2028711025156469</v>
       </c>
       <c r="E63" s="60" t="n">
-        <v>0.9058006862355865</v>
+        <v>0.9473853881304251</v>
       </c>
       <c r="F63" s="60" t="n">
-        <v>9.281667185846052e-08</v>
+        <v>9.279482419565312e-08</v>
       </c>
       <c r="G63" s="60" t="n">
-        <v>5.473887799433068e-08</v>
+        <v>5.472701254750788e-08</v>
       </c>
       <c r="H63" s="60" t="n">
-        <v>3.908795363653683e-09</v>
+        <v>3.908502308684954e-09</v>
       </c>
       <c r="I63" s="60" t="n">
-        <v>0.916308451936394</v>
+        <v>0.9698620719550641</v>
       </c>
       <c r="J63" s="60" t="n">
-        <v>0.9670226279771106</v>
+        <v>0.9700440507040433</v>
       </c>
       <c r="M63">
         <f>+M62+1</f>
         <v/>
       </c>
       <c r="N63" s="47" t="n">
-        <v>1.166715881546348</v>
+        <v>1.167562975826342</v>
       </c>
       <c r="O63" s="47" t="n">
-        <v>1.177540489805394</v>
+        <v>1.181636607617922</v>
       </c>
       <c r="P63" s="47" t="n">
-        <v>1.394575172941767</v>
+        <v>1.435463275482874</v>
       </c>
       <c r="Q63" s="47" t="n">
         <v>1</v>
@@ -24939,7 +24939,7 @@
         <v>222.4637665507344</v>
       </c>
       <c r="S63" s="47" t="n">
-        <v>277.829708188418</v>
+        <v>277.8241971207096</v>
       </c>
       <c r="T63" s="47" t="n">
         <v>554.6483942414193</v>
@@ -24948,7 +24948,7 @@
         <v>1</v>
       </c>
       <c r="V63" s="47" t="n">
-        <v>1.19070522091572</v>
+        <v>1.205699961033599</v>
       </c>
     </row>
     <row r="64">
@@ -24957,47 +24957,47 @@
         <v/>
       </c>
       <c r="B64" s="60" t="n">
-        <v>0.4179876366896732</v>
+        <v>0.4421899277263923</v>
       </c>
       <c r="C64" s="60" t="n">
-        <v>0.412451986085733</v>
+        <v>0.437227787116554</v>
       </c>
       <c r="D64" s="60" t="n">
-        <v>0.2793272138989007</v>
+        <v>0.2912140173179323</v>
       </c>
       <c r="E64" s="60" t="n">
-        <v>0.9058006862355865</v>
+        <v>0.9473853881304251</v>
       </c>
       <c r="F64" s="60" t="n">
-        <v>2.064834642033668e-05</v>
+        <v>2.064348610697821e-05</v>
       </c>
       <c r="G64" s="60" t="n">
-        <v>1.520808649972631e-05</v>
+        <v>1.520448832182638e-05</v>
       </c>
       <c r="H64" s="60" t="n">
-        <v>2.16800707186882e-06</v>
+        <v>2.16784452940099e-06</v>
       </c>
       <c r="I64" s="60" t="n">
-        <v>0.916308451936394</v>
+        <v>0.9698620719550641</v>
       </c>
       <c r="J64" s="60" t="n">
-        <v>0.9988101841515274</v>
+        <v>0.9994363062215549</v>
       </c>
       <c r="M64">
         <f>+M63+1</f>
         <v/>
       </c>
       <c r="N64" s="47" t="n">
-        <v>1.110801498017156</v>
+        <v>1.098369612430566</v>
       </c>
       <c r="O64" s="47" t="n">
-        <v>1.117830561639338</v>
+        <v>1.102415448513625</v>
       </c>
       <c r="P64" s="47" t="n">
-        <v>1.204894747710483</v>
+        <v>1.153580425916509</v>
       </c>
       <c r="Q64" s="47" t="n">
-        <v>1.002233874774937</v>
+        <v>1</v>
       </c>
       <c r="R64" s="47" t="n">
         <v>1.533769724540702</v>
@@ -25009,10 +25009,10 @@
         <v>1.29748006245256</v>
       </c>
       <c r="U64" s="47" t="n">
-        <v>1.002552166278737</v>
+        <v>1</v>
       </c>
       <c r="V64" s="47" t="n">
-        <v>1.108319728041586</v>
+        <v>1.085331958143378</v>
       </c>
     </row>
     <row r="65">
@@ -25021,62 +25021,62 @@
         <v/>
       </c>
       <c r="B65" s="60" t="n">
-        <v>0.4643012929875398</v>
+        <v>0.4856879795375376</v>
       </c>
       <c r="C65" s="60" t="n">
-        <v>0.4610514352554753</v>
+        <v>0.4820066670367156</v>
       </c>
       <c r="D65" s="60" t="n">
-        <v>0.336559892919388</v>
+        <v>0.3359387901304781</v>
       </c>
       <c r="E65" s="60" t="n">
-        <v>0.9078241315396889</v>
+        <v>0.9473853881304251</v>
       </c>
       <c r="F65" s="60" t="n">
-        <v>3.166980860134077e-05</v>
+        <v>3.166235399985978e-05</v>
       </c>
       <c r="G65" s="60" t="n">
-        <v>2.535510667691391e-05</v>
+        <v>2.534910775098085e-05</v>
       </c>
       <c r="H65" s="60" t="n">
-        <v>2.812945951005947e-06</v>
+        <v>2.812735055394636e-06</v>
       </c>
       <c r="I65" s="60" t="n">
-        <v>0.9186470234683481</v>
+        <v>0.9698620719550641</v>
       </c>
       <c r="J65" s="60" t="n">
-        <v>0.9992711697451866</v>
+        <v>0.9994363062215549</v>
       </c>
       <c r="M65">
         <f>+M64+1</f>
         <v/>
       </c>
       <c r="N65" s="47" t="n">
-        <v>1.133500001221507</v>
+        <v>1.130488017425378</v>
       </c>
       <c r="O65" s="47" t="n">
-        <v>1.139785857597093</v>
+        <v>1.135974061413097</v>
       </c>
       <c r="P65" s="47" t="n">
-        <v>1.342973631478372</v>
+        <v>1.28008337952126</v>
       </c>
       <c r="Q65" s="47" t="n">
-        <v>1.026410520535125</v>
+        <v>1.055536651217943</v>
       </c>
       <c r="R65" s="47" t="n">
-        <v>27.89814437275252</v>
+        <v>27.90471272671505</v>
       </c>
       <c r="S65" s="47" t="n">
-        <v>32.38116843487794</v>
+        <v>32.38883151450089</v>
       </c>
       <c r="T65" s="47" t="n">
-        <v>63.76233686975587</v>
+        <v>63.77766302900179</v>
       </c>
       <c r="U65" s="47" t="n">
-        <v>1.013798920759038</v>
+        <v>1.031074447507967</v>
       </c>
       <c r="V65" s="47" t="n">
-        <v>1.169723336536863</v>
+        <v>1.157198030717433</v>
       </c>
     </row>
     <row r="66">
@@ -25085,47 +25085,47 @@
         <v/>
       </c>
       <c r="B66" s="60" t="n">
-        <v>0.5262855161685238</v>
+        <v>0.5490644410747282</v>
       </c>
       <c r="C66" s="60" t="n">
-        <v>0.5254999055290324</v>
+        <v>0.5475470711818881</v>
       </c>
       <c r="D66" s="60" t="n">
-        <v>0.4519910616039225</v>
+        <v>0.4300296617825057</v>
       </c>
       <c r="E66" s="60" t="n">
-        <v>0.9318002394079999</v>
+        <v>1</v>
       </c>
       <c r="F66" s="60" t="n">
-        <v>0.0008835288926176441</v>
+        <v>0.0008835288926176444</v>
       </c>
       <c r="G66" s="60" t="n">
-        <v>0.0008210279799894473</v>
+        <v>0.0008210279799894474</v>
       </c>
       <c r="H66" s="60" t="n">
-        <v>0.000179360007324457</v>
+        <v>0.0001793896685528197</v>
       </c>
       <c r="I66" s="60" t="n">
-        <v>0.9313233609507137</v>
+        <v>1</v>
       </c>
       <c r="J66" s="60" t="n">
-        <v>1</v>
+        <v>0.9996462901636554</v>
       </c>
       <c r="M66">
         <f>+M65+1</f>
         <v/>
       </c>
       <c r="N66" s="47" t="n">
-        <v>1.115921072167804</v>
+        <v>1.115127352873164</v>
       </c>
       <c r="O66" s="47" t="n">
-        <v>1.117589349284325</v>
+        <v>1.118217608964353</v>
       </c>
       <c r="P66" s="47" t="n">
-        <v>1.243837495162518</v>
+        <v>1.246170181675882</v>
       </c>
       <c r="Q66" s="47" t="n">
-        <v>1.00302838042636</v>
+        <v>1</v>
       </c>
       <c r="R66" s="47" t="n">
         <v>11.56100160618442</v>
@@ -25137,10 +25137,10 @@
         <v>23.88217014673291</v>
       </c>
       <c r="U66" s="47" t="n">
-        <v>1.002727672957466</v>
+        <v>1</v>
       </c>
       <c r="V66" s="47" t="n">
-        <v>1.121485074957734</v>
+        <v>1.121462596880078</v>
       </c>
     </row>
     <row r="67">
@@ -25149,16 +25149,16 @@
         <v/>
       </c>
       <c r="B67" s="60" t="n">
-        <v>0.5872930974691652</v>
+        <v>0.612276776732445</v>
       </c>
       <c r="C67" s="60" t="n">
-        <v>0.5872930974691652</v>
+        <v>0.612276776732445</v>
       </c>
       <c r="D67" s="60" t="n">
-        <v>0.5622034299012701</v>
+        <v>0.5358901417495234</v>
       </c>
       <c r="E67" s="60" t="n">
-        <v>0.9346220850143007</v>
+        <v>1</v>
       </c>
       <c r="F67" s="60" t="n">
         <v>0.01021447894666293</v>
@@ -25167,10 +25167,10 @@
         <v>0.01021447894666293</v>
       </c>
       <c r="H67" s="60" t="n">
-        <v>0.004283506212441944</v>
+        <v>0.004284214586944464</v>
       </c>
       <c r="I67" s="60" t="n">
-        <v>0.9338637064970352</v>
+        <v>1</v>
       </c>
       <c r="J67" s="60" t="n">
         <v>1</v>
@@ -25180,16 +25180,16 @@
         <v/>
       </c>
       <c r="N67" s="47" t="n">
-        <v>1.169241253597414</v>
+        <v>1.162511052872682</v>
       </c>
       <c r="O67" s="47" t="n">
-        <v>1.169241253597414</v>
+        <v>1.162511052872682</v>
       </c>
       <c r="P67" s="47" t="n">
-        <v>1.192402313203168</v>
+        <v>1.301348192279045</v>
       </c>
       <c r="Q67" s="47" t="n">
-        <v>1.002814957262878</v>
+        <v>1</v>
       </c>
       <c r="R67" s="47" t="n">
         <v>1.577753652103032</v>
@@ -25198,13 +25198,13 @@
         <v>1.577753652103032</v>
       </c>
       <c r="T67" s="47" t="n">
-        <v>2.155507304206064</v>
+        <v>2.155150901326771</v>
       </c>
       <c r="U67" s="47" t="n">
-        <v>1.003209514604124</v>
+        <v>1</v>
       </c>
       <c r="V67" s="47" t="n">
-        <v>1.12148617468782</v>
+        <v>1.154619748383909</v>
       </c>
     </row>
     <row r="68">
@@ -25213,16 +25213,16 @@
         <v/>
       </c>
       <c r="B68" s="60" t="n">
-        <v>0.686687317513955</v>
+        <v>0.7117785203687266</v>
       </c>
       <c r="C68" s="60" t="n">
-        <v>0.686687317513955</v>
+        <v>0.7117785203687266</v>
       </c>
       <c r="D68" s="60" t="n">
-        <v>0.6703726703050298</v>
+        <v>0.6973796672259035</v>
       </c>
       <c r="E68" s="60" t="n">
-        <v>0.9372530062405577</v>
+        <v>1</v>
       </c>
       <c r="F68" s="60" t="n">
         <v>0.01611593146242696</v>
@@ -25234,7 +25234,7 @@
         <v>0.009233128928530661</v>
       </c>
       <c r="I68" s="60" t="n">
-        <v>0.9368609557012985</v>
+        <v>1</v>
       </c>
       <c r="J68" s="60" t="n">
         <v>1</v>
@@ -25244,16 +25244,16 @@
         <v/>
       </c>
       <c r="N68" s="47" t="n">
-        <v>1.125863205986067</v>
+        <v>1.111612847490938</v>
       </c>
       <c r="O68" s="47" t="n">
-        <v>1.125863205986067</v>
+        <v>1.111612847490938</v>
       </c>
       <c r="P68" s="47" t="n">
-        <v>1.13908355045553</v>
+        <v>1.122995623208235</v>
       </c>
       <c r="Q68" s="47" t="n">
-        <v>1.062267212047249</v>
+        <v>1</v>
       </c>
       <c r="R68" s="47" t="n">
         <v>1.043521785960424</v>
@@ -25265,10 +25265,10 @@
         <v>1.079789940927445</v>
       </c>
       <c r="U68" s="47" t="n">
-        <v>1.063876336487454</v>
+        <v>1</v>
       </c>
       <c r="V68" s="47" t="n">
-        <v>1.109071322829615</v>
+        <v>1.078202823566391</v>
       </c>
     </row>
     <row r="69">
@@ -25277,16 +25277,16 @@
         <v/>
       </c>
       <c r="B69" s="60" t="n">
-        <v>0.7731159848062338</v>
+        <v>0.7912221478099667</v>
       </c>
       <c r="C69" s="60" t="n">
-        <v>0.7731159848062338</v>
+        <v>0.7912221478099667</v>
       </c>
       <c r="D69" s="60" t="n">
-        <v>0.763610481419408</v>
+        <v>0.7831543140091052</v>
       </c>
       <c r="E69" s="60" t="n">
-        <v>0.9956131379220601</v>
+        <v>1</v>
       </c>
       <c r="F69" s="60" t="n">
         <v>0.01681732558208758</v>
@@ -25298,7 +25298,7 @@
         <v>0.009969839740313605</v>
       </c>
       <c r="I69" s="60" t="n">
-        <v>0.9967042013496324</v>
+        <v>1</v>
       </c>
       <c r="J69" s="60" t="n">
         <v>1</v>
@@ -25308,16 +25308,16 @@
         <v/>
       </c>
       <c r="N69" s="47" t="n">
-        <v>1.055833971722067</v>
+        <v>1.050717466450283</v>
       </c>
       <c r="O69" s="47" t="n">
-        <v>1.055833971722067</v>
+        <v>1.050717466450283</v>
       </c>
       <c r="P69" s="47" t="n">
-        <v>1.058784764878557</v>
+        <v>1.05475048733532</v>
       </c>
       <c r="Q69" s="47" t="n">
-        <v>1.004406191432041</v>
+        <v>1</v>
       </c>
       <c r="R69" s="47" t="n">
         <v>1.243823924939866</v>
@@ -25329,10 +25329,10 @@
         <v>1.40637320823311</v>
       </c>
       <c r="U69" s="47" t="n">
-        <v>1.003306696857407</v>
+        <v>1</v>
       </c>
       <c r="V69" s="47" t="n">
-        <v>1.039674976010889</v>
+        <v>1.035155984595201</v>
       </c>
     </row>
     <row r="70">
@@ -25341,13 +25341,13 @@
         <v/>
       </c>
       <c r="B70" s="60" t="n">
-        <v>0.8162821208397832</v>
+        <v>0.8313509305462397</v>
       </c>
       <c r="C70" s="60" t="n">
-        <v>0.8162821208397832</v>
+        <v>0.8313509305462397</v>
       </c>
       <c r="D70" s="60" t="n">
-        <v>0.8084991440284495</v>
+        <v>0.8260323943598618</v>
       </c>
       <c r="E70" s="60" t="n">
         <v>1</v>
@@ -25372,13 +25372,13 @@
         <v/>
       </c>
       <c r="N70" s="47" t="n">
-        <v>1.141054723761148</v>
+        <v>1.12852741467577</v>
       </c>
       <c r="O70" s="47" t="n">
-        <v>1.141054723761148</v>
+        <v>1.12852741467577</v>
       </c>
       <c r="P70" s="47" t="n">
-        <v>1.148879201785308</v>
+        <v>1.133288547223612</v>
       </c>
       <c r="Q70" s="47" t="n">
         <v>1</v>
@@ -25396,7 +25396,7 @@
         <v>1</v>
       </c>
       <c r="V70" s="47" t="n">
-        <v>1.096644641848819</v>
+        <v>1.087271987299794</v>
       </c>
     </row>
     <row r="71">
@@ -25405,13 +25405,13 @@
         <v/>
       </c>
       <c r="B71" s="60" t="n">
-        <v>0.9314225699060028</v>
+        <v>0.9382023163376437</v>
       </c>
       <c r="C71" s="60" t="n">
-        <v>0.9314225699060028</v>
+        <v>0.9382023163376437</v>
       </c>
       <c r="D71" s="60" t="n">
-        <v>0.9288678512355102</v>
+        <v>0.9361330521637296</v>
       </c>
       <c r="E71" s="60" t="n">
         <v>1</v>
@@ -25436,13 +25436,13 @@
         <v/>
       </c>
       <c r="N71" s="47" t="n">
-        <v>1.073626549656101</v>
+        <v>1.065868184917288</v>
       </c>
       <c r="O71" s="47" t="n">
-        <v>1.073626549656101</v>
+        <v>1.065868184917288</v>
       </c>
       <c r="P71" s="47" t="n">
-        <v>1.07657940649994</v>
+        <v>1.068224220572761</v>
       </c>
       <c r="Q71" s="47" t="n">
         <v>1</v>
@@ -25460,7 +25460,7 @@
         <v>1</v>
       </c>
       <c r="V71" s="47" t="n">
-        <v>1.050068652052013</v>
+        <v>1.044697468496683</v>
       </c>
     </row>
     <row r="72">
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="L4" s="14" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="N4" s="61" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v/>
       </c>
       <c r="B8" s="12" t="n">
-        <v>967</v>
+        <v>1794</v>
       </c>
       <c r="C8" s="12">
         <f>'Completion Factors'!J30</f>
@@ -26267,7 +26267,7 @@
         <v/>
       </c>
       <c r="E8" s="12" t="n">
-        <v>2535.11</v>
+        <v>520.85</v>
       </c>
       <c r="F8" s="12">
         <f>'Completion Factors'!U30</f>
@@ -26295,7 +26295,7 @@
         <v/>
       </c>
       <c r="M8" s="12" t="n">
-        <v>24313.24166666667</v>
+        <v>24142.31666666667</v>
       </c>
       <c r="N8" s="12">
         <f>100*$K8/$M8</f>
@@ -26320,7 +26320,7 @@
         <v/>
       </c>
       <c r="B9" s="12" t="n">
-        <v>1794</v>
+        <v>970</v>
       </c>
       <c r="C9" s="12">
         <f>'Completion Factors'!J29</f>
@@ -26331,7 +26331,7 @@
         <v/>
       </c>
       <c r="E9" s="12" t="n">
-        <v>520.85</v>
+        <v>1150.26</v>
       </c>
       <c r="F9" s="12">
         <f>'Completion Factors'!U29</f>
@@ -26359,7 +26359,7 @@
         <v/>
       </c>
       <c r="M9" s="12" t="n">
-        <v>24142.31666666667</v>
+        <v>23964.32166666667</v>
       </c>
       <c r="N9" s="12">
         <f>100*$K9/$M9</f>
@@ -26384,7 +26384,7 @@
         <v/>
       </c>
       <c r="B10" s="12" t="n">
-        <v>970</v>
+        <v>5290.94</v>
       </c>
       <c r="C10" s="12">
         <f>'Completion Factors'!J28</f>
@@ -26395,7 +26395,7 @@
         <v/>
       </c>
       <c r="E10" s="12" t="n">
-        <v>1150.26</v>
+        <v>2821.99</v>
       </c>
       <c r="F10" s="12">
         <f>'Completion Factors'!U28</f>
@@ -26423,7 +26423,7 @@
         <v/>
       </c>
       <c r="M10" s="12" t="n">
-        <v>23964.32166666667</v>
+        <v>23798.84</v>
       </c>
       <c r="N10" s="12">
         <f>100*$K10/$M10</f>
@@ -26448,7 +26448,7 @@
         <v/>
       </c>
       <c r="B11" s="12" t="n">
-        <v>5290.94</v>
+        <v>13288.79</v>
       </c>
       <c r="C11" s="12">
         <f>'Completion Factors'!J27</f>
@@ -26459,7 +26459,7 @@
         <v/>
       </c>
       <c r="E11" s="12" t="n">
-        <v>2821.99</v>
+        <v>474.3</v>
       </c>
       <c r="F11" s="12">
         <f>'Completion Factors'!U27</f>
@@ -26487,7 +26487,7 @@
         <v/>
       </c>
       <c r="M11" s="12" t="n">
-        <v>23798.84</v>
+        <v>23172.67083333333</v>
       </c>
       <c r="N11" s="12">
         <f>100*$K11/$M11</f>
@@ -26512,7 +26512,7 @@
         <v/>
       </c>
       <c r="B12" s="12" t="n">
-        <v>13288.79</v>
+        <v>5673.110000000001</v>
       </c>
       <c r="C12" s="12">
         <f>'Completion Factors'!J26</f>
@@ -26523,7 +26523,7 @@
         <v/>
       </c>
       <c r="E12" s="12" t="n">
-        <v>474.3</v>
+        <v>296.2</v>
       </c>
       <c r="F12" s="12">
         <f>'Completion Factors'!U26</f>
@@ -26551,7 +26551,7 @@
         <v/>
       </c>
       <c r="M12" s="12" t="n">
-        <v>23172.67083333333</v>
+        <v>22582.26416666667</v>
       </c>
       <c r="N12" s="12">
         <f>100*$K12/$M12</f>
@@ -26576,7 +26576,7 @@
         <v/>
       </c>
       <c r="B13" s="12" t="n">
-        <v>5673.110000000001</v>
+        <v>34940.46</v>
       </c>
       <c r="C13" s="12">
         <f>'Completion Factors'!J25</f>
@@ -26587,7 +26587,7 @@
         <v/>
       </c>
       <c r="E13" s="12" t="n">
-        <v>296.2</v>
+        <v>2014.96</v>
       </c>
       <c r="F13" s="12">
         <f>'Completion Factors'!U25</f>
@@ -26615,7 +26615,7 @@
         <v/>
       </c>
       <c r="M13" s="12" t="n">
-        <v>22582.26416666666</v>
+        <v>22313.55583333333</v>
       </c>
       <c r="N13" s="12">
         <f>100*$K13/$M13</f>
@@ -26640,7 +26640,7 @@
         <v/>
       </c>
       <c r="B14" s="12" t="n">
-        <v>34940.46</v>
+        <v>13951.43</v>
       </c>
       <c r="C14" s="12">
         <f>'Completion Factors'!J24</f>
@@ -26651,7 +26651,7 @@
         <v/>
       </c>
       <c r="E14" s="12" t="n">
-        <v>2014.96</v>
+        <v>2642.58</v>
       </c>
       <c r="F14" s="12">
         <f>'Completion Factors'!U24</f>
@@ -26679,7 +26679,7 @@
         <v/>
       </c>
       <c r="M14" s="12" t="n">
-        <v>22313.55583333333</v>
+        <v>21819.67916666666</v>
       </c>
       <c r="N14" s="12">
         <f>100*$K14/$M14</f>
@@ -26704,7 +26704,7 @@
         <v/>
       </c>
       <c r="B15" s="12" t="n">
-        <v>13951.43</v>
+        <v>9400.940000000001</v>
       </c>
       <c r="C15" s="12">
         <f>'Completion Factors'!J23</f>
@@ -26715,7 +26715,7 @@
         <v/>
       </c>
       <c r="E15" s="12" t="n">
-        <v>2642.58</v>
+        <v>1501.27</v>
       </c>
       <c r="F15" s="12">
         <f>'Completion Factors'!U23</f>
@@ -26743,7 +26743,7 @@
         <v/>
       </c>
       <c r="M15" s="12" t="n">
-        <v>21819.67916666666</v>
+        <v>21537.36666666666</v>
       </c>
       <c r="N15" s="12">
         <f>100*$K15/$M15</f>
@@ -26768,7 +26768,7 @@
         <v/>
       </c>
       <c r="B16" s="12" t="n">
-        <v>9400.940000000001</v>
+        <v>7886.36</v>
       </c>
       <c r="C16" s="12">
         <f>'Completion Factors'!J22</f>
@@ -26779,7 +26779,7 @@
         <v/>
       </c>
       <c r="E16" s="12" t="n">
-        <v>1501.27</v>
+        <v>893.7099999999999</v>
       </c>
       <c r="F16" s="12">
         <f>'Completion Factors'!U22</f>
@@ -26807,7 +26807,7 @@
         <v/>
       </c>
       <c r="M16" s="12" t="n">
-        <v>21537.36666666666</v>
+        <v>21386.11833333333</v>
       </c>
       <c r="N16" s="12">
         <f>100*$K16/$M16</f>
@@ -26832,7 +26832,7 @@
         <v/>
       </c>
       <c r="B17" s="12" t="n">
-        <v>7886.36</v>
+        <v>8503.559999999999</v>
       </c>
       <c r="C17" s="12">
         <f>'Completion Factors'!J21</f>
@@ -26843,7 +26843,7 @@
         <v/>
       </c>
       <c r="E17" s="12" t="n">
-        <v>893.7099999999999</v>
+        <v>423.04</v>
       </c>
       <c r="F17" s="12">
         <f>'Completion Factors'!U21</f>
@@ -26871,7 +26871,7 @@
         <v/>
       </c>
       <c r="M17" s="12" t="n">
-        <v>21386.11833333334</v>
+        <v>21237.95833333333</v>
       </c>
       <c r="N17" s="12">
         <f>100*$K17/$M17</f>
@@ -26896,7 +26896,7 @@
         <v/>
       </c>
       <c r="B18" s="12" t="n">
-        <v>8503.559999999999</v>
+        <v>10403.28</v>
       </c>
       <c r="C18" s="12">
         <f>'Completion Factors'!J20</f>
@@ -26907,7 +26907,7 @@
         <v/>
       </c>
       <c r="E18" s="12" t="n">
-        <v>423.04</v>
+        <v>461.04</v>
       </c>
       <c r="F18" s="12">
         <f>'Completion Factors'!U20</f>
@@ -26935,7 +26935,7 @@
         <v/>
       </c>
       <c r="M18" s="12" t="n">
-        <v>21237.95833333333</v>
+        <v>21061.72166666667</v>
       </c>
       <c r="N18" s="12">
         <f>100*$K18/$M18</f>
@@ -26960,7 +26960,7 @@
         <v/>
       </c>
       <c r="B19" s="12" t="n">
-        <v>10403.28</v>
+        <v>3953.240000000001</v>
       </c>
       <c r="C19" s="12">
         <f>'Completion Factors'!J19</f>
@@ -26971,7 +26971,7 @@
         <v/>
       </c>
       <c r="E19" s="12" t="n">
-        <v>461.04</v>
+        <v>1596.86</v>
       </c>
       <c r="F19" s="12">
         <f>'Completion Factors'!U19</f>
@@ -26999,7 +26999,7 @@
         <v/>
       </c>
       <c r="M19" s="12" t="n">
-        <v>21061.72166666667</v>
+        <v>20916.385</v>
       </c>
       <c r="N19" s="12">
         <f>100*$K19/$M19</f>
@@ -27027,7 +27027,7 @@
         <v/>
       </c>
       <c r="B20" s="12" t="n">
-        <v>3953.240000000001</v>
+        <v>1436.91</v>
       </c>
       <c r="C20" s="12">
         <f>'Completion Factors'!J18</f>
@@ -27038,7 +27038,7 @@
         <v/>
       </c>
       <c r="E20" s="12" t="n">
-        <v>1596.86</v>
+        <v>4020.329999999999</v>
       </c>
       <c r="F20" s="12">
         <f>'Completion Factors'!U18</f>
@@ -27066,7 +27066,7 @@
         <v/>
       </c>
       <c r="M20" s="12" t="n">
-        <v>20916.385</v>
+        <v>20785.00416666667</v>
       </c>
       <c r="N20" s="12">
         <f>100*$K20/$M20</f>
@@ -27094,7 +27094,7 @@
         <v/>
       </c>
       <c r="B21" s="12" t="n">
-        <v>1436.910000000001</v>
+        <v>8816.93</v>
       </c>
       <c r="C21" s="12">
         <f>'Completion Factors'!J17</f>
@@ -27105,7 +27105,7 @@
         <v/>
       </c>
       <c r="E21" s="12" t="n">
-        <v>4017.13</v>
+        <v>2729.22</v>
       </c>
       <c r="F21" s="12">
         <f>'Completion Factors'!U17</f>
@@ -27133,7 +27133,7 @@
         <v/>
       </c>
       <c r="M21" s="12" t="n">
-        <v>20785.00416666667</v>
+        <v>20653.01</v>
       </c>
       <c r="N21" s="12">
         <f>100*$K21/$M21</f>
@@ -27161,7 +27161,7 @@
         <v/>
       </c>
       <c r="B22" s="12" t="n">
-        <v>8074.429999999998</v>
+        <v>8871.27</v>
       </c>
       <c r="C22" s="12">
         <f>'Completion Factors'!J16</f>
@@ -27172,7 +27172,7 @@
         <v/>
       </c>
       <c r="E22" s="12" t="n">
-        <v>2729.22</v>
+        <v>832.5900000000001</v>
       </c>
       <c r="F22" s="12">
         <f>'Completion Factors'!U16</f>
@@ -27200,7 +27200,7 @@
         <v/>
       </c>
       <c r="M22" s="12" t="n">
-        <v>20653.01</v>
+        <v>20523.28416666667</v>
       </c>
       <c r="N22" s="12">
         <f>100*$K22/$M22</f>
@@ -27228,7 +27228,7 @@
         <v/>
       </c>
       <c r="B23" s="12" t="n">
-        <v>8871.27</v>
+        <v>657.6400000000001</v>
       </c>
       <c r="C23" s="12">
         <f>'Completion Factors'!J15</f>
@@ -27239,7 +27239,7 @@
         <v/>
       </c>
       <c r="E23" s="12" t="n">
-        <v>832.59</v>
+        <v>1474.76</v>
       </c>
       <c r="F23" s="12">
         <f>'Completion Factors'!U15</f>
@@ -27267,7 +27267,7 @@
         <v/>
       </c>
       <c r="M23" s="12" t="n">
-        <v>20523.28416666667</v>
+        <v>20272.995</v>
       </c>
       <c r="N23" s="12">
         <f>100*$K23/$M23</f>
@@ -27295,7 +27295,7 @@
         <v/>
       </c>
       <c r="B24" s="12" t="n">
-        <v>657.6400000000001</v>
+        <v>474.0100000000001</v>
       </c>
       <c r="C24" s="12">
         <f>'Completion Factors'!J14</f>
@@ -27306,7 +27306,7 @@
         <v/>
       </c>
       <c r="E24" s="12" t="n">
-        <v>1474.76</v>
+        <v>788.9399999999999</v>
       </c>
       <c r="F24" s="12">
         <f>'Completion Factors'!U14</f>
@@ -27334,7 +27334,7 @@
         <v/>
       </c>
       <c r="M24" s="12" t="n">
-        <v>20272.995</v>
+        <v>20221.4275</v>
       </c>
       <c r="N24" s="12">
         <f>100*$K24/$M24</f>
@@ -27362,7 +27362,7 @@
         <v/>
       </c>
       <c r="B25" s="12" t="n">
-        <v>44.00999999999999</v>
+        <v>175.01</v>
       </c>
       <c r="C25" s="12">
         <f>'Completion Factors'!J13</f>
@@ -27373,7 +27373,7 @@
         <v/>
       </c>
       <c r="E25" s="12" t="n">
-        <v>788.9400000000001</v>
+        <v>634.78</v>
       </c>
       <c r="F25" s="12">
         <f>'Completion Factors'!U13</f>
@@ -27401,7 +27401,7 @@
         <v/>
       </c>
       <c r="M25" s="12" t="n">
-        <v>20221.4275</v>
+        <v>20164</v>
       </c>
       <c r="N25" s="12">
         <f>100*$K25/$M25</f>
@@ -27429,7 +27429,7 @@
         <v/>
       </c>
       <c r="B26" s="12" t="n">
-        <v>175.01</v>
+        <v>163</v>
       </c>
       <c r="C26" s="12">
         <f>'Completion Factors'!J12</f>
@@ -27440,7 +27440,7 @@
         <v/>
       </c>
       <c r="E26" s="12" t="n">
-        <v>634.78</v>
+        <v>2990.14</v>
       </c>
       <c r="F26" s="12">
         <f>'Completion Factors'!U12</f>
@@ -27468,7 +27468,7 @@
         <v/>
       </c>
       <c r="M26" s="12" t="n">
-        <v>20164</v>
+        <v>19697.08666666667</v>
       </c>
       <c r="N26" s="12">
         <f>100*$K26/$M26</f>
@@ -27496,7 +27496,7 @@
         <v/>
       </c>
       <c r="B27" s="12" t="n">
-        <v>163</v>
+        <v/>
       </c>
       <c r="C27" s="12">
         <f>'Completion Factors'!J11</f>
@@ -27507,7 +27507,7 @@
         <v/>
       </c>
       <c r="E27" s="12" t="n">
-        <v>2990.14</v>
+        <v>743.3599999999999</v>
       </c>
       <c r="F27" s="12">
         <f>'Completion Factors'!U11</f>
@@ -27535,7 +27535,7 @@
         <v/>
       </c>
       <c r="M27" s="12" t="n">
-        <v>19697.08666666667</v>
+        <v>19600.65</v>
       </c>
       <c r="N27" s="12">
         <f>100*$K27/$M27</f>
@@ -27563,7 +27563,7 @@
         <v/>
       </c>
       <c r="B28" s="12" t="n">
-        <v/>
+        <v>3303</v>
       </c>
       <c r="C28" s="12">
         <f>'Completion Factors'!J10</f>
@@ -27574,7 +27574,7 @@
         <v/>
       </c>
       <c r="E28" s="12" t="n">
-        <v>738.0999999999999</v>
+        <v>4775.11</v>
       </c>
       <c r="F28" s="12">
         <f>'Completion Factors'!U10</f>
@@ -27602,7 +27602,7 @@
         <v/>
       </c>
       <c r="M28" s="12" t="n">
-        <v>19600.65</v>
+        <v>19349.41833333333</v>
       </c>
       <c r="N28" s="12">
         <f>100*$K28/$M28</f>
@@ -27630,7 +27630,7 @@
         <v/>
       </c>
       <c r="B29" s="12" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C29" s="12">
         <f>'Completion Factors'!J9</f>
@@ -27641,7 +27641,7 @@
         <v/>
       </c>
       <c r="E29" s="12" t="n">
-        <v>4730.03</v>
+        <v>2054.58</v>
       </c>
       <c r="F29" s="12">
         <f>'Completion Factors'!U9</f>
@@ -27672,7 +27672,7 @@
         <v/>
       </c>
       <c r="M29" s="12" t="n">
-        <v>19349.41833333333</v>
+        <v>19166.44833333333</v>
       </c>
       <c r="N29" s="18" t="n">
         <v>80</v>
@@ -27699,7 +27699,7 @@
         <v/>
       </c>
       <c r="B30" s="12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="12">
         <f>'Completion Factors'!J8</f>
@@ -27710,7 +27710,7 @@
         <v/>
       </c>
       <c r="E30" s="12" t="n">
-        <v>1366.13</v>
+        <v>1115.89</v>
       </c>
       <c r="F30" s="12">
         <f>'Completion Factors'!U8</f>
@@ -27741,7 +27741,7 @@
         <v/>
       </c>
       <c r="M30" s="12" t="n">
-        <v>19166.44833333333</v>
+        <v>19066.7175</v>
       </c>
       <c r="N30" s="18" t="n">
         <v>60</v>
@@ -27779,7 +27779,7 @@
         <v/>
       </c>
       <c r="E31" s="12" t="n">
-        <v>59.95</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="F31" s="12">
         <f>'Completion Factors'!U7</f>
@@ -27810,7 +27810,7 @@
         <v/>
       </c>
       <c r="M31" s="12" t="n">
-        <v>19066.7175</v>
+        <v>18818.15</v>
       </c>
       <c r="N31" s="18" t="n">
         <v>60</v>
